--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36880" yWindow="1420" windowWidth="23800" windowHeight="13960"/>
+    <workbookView xWindow="-34680" yWindow="1120" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>Project</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Debbie</t>
   </si>
   <si>
-    <t>ACD, slides, timings</t>
-  </si>
-  <si>
     <t>ETA Expert Review DTC</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>slides by 10/15</t>
   </si>
   <si>
-    <t>routed for review 10/20</t>
-  </si>
-  <si>
     <t>Ben</t>
   </si>
   <si>
@@ -109,187 +103,187 @@
     <t>Tim</t>
   </si>
   <si>
-    <t>EP Lung Live page and Email</t>
+    <t>ESMO GEP NETS Webcast</t>
   </si>
   <si>
     <t>Saskia</t>
   </si>
   <si>
-    <t>page is live. awaiting eblast edits</t>
-  </si>
-  <si>
     <t>Tim</t>
   </si>
   <si>
-    <t>ESMO GEP NETS Webcast</t>
+    <t>ESMO Biosimilars Webcast</t>
+  </si>
+  <si>
+    <t>ESMO Breast Webcast</t>
+  </si>
+  <si>
+    <t>ESMO CINV</t>
+  </si>
+  <si>
+    <t>saskia</t>
+  </si>
+  <si>
+    <t>ESMO Ovarian Webcast</t>
+  </si>
+  <si>
+    <t>awaiting ACD</t>
+  </si>
+  <si>
+    <t>ESMO VJC</t>
+  </si>
+  <si>
+    <t>PLATO Fellows Forum</t>
+  </si>
+  <si>
+    <t>PI4LOT033</t>
+  </si>
+  <si>
+    <t>Webcast</t>
+  </si>
+  <si>
+    <t>web pages approved. final edits with web</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>ASCO Prostate Flashcard e-blast</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ASCO CLL iNHL Flash Card E-Blast</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>West Clinic PDS</t>
+  </si>
+  <si>
+    <t>PI4LMS047</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>ECOP HER2 Breast Cancer</t>
+  </si>
+  <si>
+    <t>PB4LSS050</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>VJC PV</t>
+  </si>
+  <si>
+    <t>PI4VVJ065</t>
+  </si>
+  <si>
+    <t>VJC</t>
+  </si>
+  <si>
+    <t>Melanoma Congress Webcast</t>
+  </si>
+  <si>
+    <t>PB4LCN025</t>
+  </si>
+  <si>
+    <t>webcast</t>
+  </si>
+  <si>
+    <t>Elise VS</t>
+  </si>
+  <si>
+    <t>Web page live. Eblast edits in production</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>ESH PV Live Page</t>
+  </si>
+  <si>
+    <t>Live Meeting</t>
   </si>
   <si>
     <t>Saskia</t>
   </si>
   <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Chemo Foundation live page and email</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>ESMO Biosimilars Webcast</t>
-  </si>
-  <si>
-    <t>ESMO Breast Webcast</t>
-  </si>
-  <si>
-    <t>ESMO CINV</t>
-  </si>
-  <si>
-    <t>saskia</t>
-  </si>
-  <si>
-    <t>ESMO Ovarian Webcast</t>
-  </si>
-  <si>
-    <t>awaiting ACD</t>
-  </si>
-  <si>
-    <t>ESMO ER</t>
-  </si>
-  <si>
-    <t>awaiting everything</t>
-  </si>
-  <si>
-    <t>ESMO VJC</t>
-  </si>
-  <si>
-    <t>awaiting everything</t>
-  </si>
-  <si>
-    <t>ESH MM live</t>
-  </si>
-  <si>
-    <t>routed for review 10/20</t>
-  </si>
-  <si>
-    <t>PLATO Fellows Forum</t>
-  </si>
-  <si>
-    <t>PI4LOT033</t>
-  </si>
-  <si>
-    <t>Webcast</t>
-  </si>
-  <si>
-    <t>web pages approved. final edits with web</t>
+    <t>changes routed for review 9/17</t>
   </si>
   <si>
     <t>Lisa</t>
   </si>
   <si>
-    <t>ASCO Prostate Flashcard e-blast</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ASCO CLL iNHL Flash Card E-Blast</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>West Clinic PDS</t>
-  </si>
-  <si>
-    <t>PI4LMS047</t>
-  </si>
-  <si>
-    <t>PDS</t>
-  </si>
-  <si>
-    <t>ECOP HER2 Breast Cancer</t>
-  </si>
-  <si>
-    <t>PB4LSS050</t>
-  </si>
-  <si>
-    <t>PDS</t>
-  </si>
-  <si>
-    <t>VJC PV</t>
-  </si>
-  <si>
-    <t>PI4VVJ065</t>
-  </si>
-  <si>
-    <t>VJC</t>
-  </si>
-  <si>
-    <t>Melanoma Congress Webcast</t>
-  </si>
-  <si>
-    <t>PB4LCN025</t>
-  </si>
-  <si>
-    <t>webcast</t>
-  </si>
-  <si>
-    <t>Elise VS</t>
-  </si>
-  <si>
-    <t>Web page live. Eblast edits in production</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>ESH PV Live Page</t>
-  </si>
-  <si>
-    <t>Live Meeting</t>
-  </si>
-  <si>
-    <t>Saskia</t>
-  </si>
-  <si>
-    <t>changes routed for review 9/17</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>Edits with web</t>
   </si>
   <si>
-    <t>Final edits made 10/24</t>
-  </si>
-  <si>
-    <t>Video edits provided by Tim 10/03</t>
-  </si>
-  <si>
-    <t>Live on site 10/23. Elisa to send eblast comments week of 10/27</t>
-  </si>
-  <si>
     <t>Edits made and routed 10/24</t>
   </si>
   <si>
-    <t>blasted</t>
-  </si>
-  <si>
-    <t>Video edits provided by Tim 10/21. Awaiting ACD</t>
-  </si>
-  <si>
     <t>ACD received 10/24</t>
   </si>
   <si>
-    <t>received slides, video edit with Web</t>
+    <t>routed for review 10/20. edits received 10/27</t>
+  </si>
+  <si>
+    <t>Live on site 10/23. Elisa sent edits 10/25</t>
+  </si>
+  <si>
+    <t>Video edits provided by Tim 10/03. Slides, Timings, CME links, segmentation received 10/27.</t>
+  </si>
+  <si>
+    <t>slides, timings</t>
+  </si>
+  <si>
+    <t>ACD received 10/27</t>
+  </si>
+  <si>
+    <t>ACD received 10/27. video edit with Web</t>
+  </si>
+  <si>
+    <t>Approved with release date change. Eblast requested.</t>
+  </si>
+  <si>
+    <t>EANO webcast</t>
+  </si>
+  <si>
+    <t>elise</t>
+  </si>
+  <si>
+    <t>Rush U Grand Rouds live page</t>
+  </si>
+  <si>
+    <t>final approval</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>debbie</t>
+  </si>
+  <si>
+    <t>meg</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>ACD and slides with web</t>
+  </si>
+  <si>
+    <t>CML Rounds eblast</t>
+  </si>
+  <si>
+    <t>ACD with web</t>
   </si>
 </sst>
 </file>
@@ -361,7 +355,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,12 +366,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -397,14 +385,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -436,16 +438,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -745,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X993"/>
+  <dimension ref="A1:X989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -812,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>12</v>
@@ -835,13 +849,13 @@
         <v>16</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -849,29 +863,29 @@
       <c r="C4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>20</v>
+      <c r="D4" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="27">
         <v>41929</v>
@@ -896,18 +910,20 @@
     </row>
     <row r="6" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>79</v>
+      </c>
       <c r="E6" s="23" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="28">
         <v>41932</v>
@@ -931,175 +947,218 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>32</v>
-      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
     </row>
     <row r="8" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="18"/>
-      <c r="C8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="E8" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-    </row>
-    <row r="9" spans="1:24" s="31" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>38</v>
+        <v>73</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="D10" s="20" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="E10" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26" t="s">
-        <v>44</v>
-      </c>
       <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-    </row>
-    <row r="14" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="30">
+        <v>41943</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1119,12 +1178,56 @@
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
@@ -1154,9 +1257,7 @@
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1206,7 +1307,7 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1">
+    <row r="21" spans="1:24" ht="13">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -1232,9 +1333,9 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    <row r="22" spans="1:24" ht="12">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1258,9 +1359,9 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+    <row r="23" spans="1:24" ht="12">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1284,9 +1385,9 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+    <row r="24" spans="1:24" ht="12">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1310,9 +1411,9 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" ht="13">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+    <row r="25" spans="1:24" ht="12">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1597,108 +1698,16 @@
       <c r="X35" s="7"/>
     </row>
     <row r="36" spans="1:24" ht="12">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:24" ht="12">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:24" ht="12">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:24" ht="12">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:24" ht="12">
       <c r="B40" s="6"/>
@@ -4549,18 +4558,6 @@
     </row>
     <row r="989" spans="2:2" ht="12">
       <c r="B989" s="6"/>
-    </row>
-    <row r="990" spans="2:2" ht="12">
-      <c r="B990" s="6"/>
-    </row>
-    <row r="991" spans="2:2" ht="12">
-      <c r="B991" s="6"/>
-    </row>
-    <row r="992" spans="2:2" ht="12">
-      <c r="B992" s="6"/>
-    </row>
-    <row r="993" spans="2:2" ht="12">
-      <c r="B993" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4583,13 +4580,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -4597,10 +4594,10 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -4621,11 +4618,11 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -4653,11 +4650,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4685,13 +4682,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -4719,13 +4716,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -4753,13 +4750,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -4787,34 +4784,34 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16">
@@ -4823,10 +4820,10 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-34680" yWindow="1120" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="-35720" yWindow="1840" windowWidth="28160" windowHeight="16300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>Project</t>
   </si>
@@ -127,9 +127,6 @@
     <t>ESMO Ovarian Webcast</t>
   </si>
   <si>
-    <t>awaiting ACD</t>
-  </si>
-  <si>
     <t>ESMO VJC</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>ACD received 10/24</t>
   </si>
   <si>
-    <t>routed for review 10/20. edits received 10/27</t>
-  </si>
-  <si>
     <t>Live on site 10/23. Elisa sent edits 10/25</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>final approval</t>
   </si>
   <si>
-    <t>everything</t>
-  </si>
-  <si>
     <t>nothing</t>
   </si>
   <si>
@@ -284,6 +275,30 @@
   </si>
   <si>
     <t>ACD with web</t>
+  </si>
+  <si>
+    <t>ESMO VPS - Ramalingam</t>
+  </si>
+  <si>
+    <t>All materials with web</t>
+  </si>
+  <si>
+    <t>ESMO ER CRC</t>
+  </si>
+  <si>
+    <t>ESH PV PDS</t>
+  </si>
+  <si>
+    <t>slides</t>
+  </si>
+  <si>
+    <t>Slides, CME links with web</t>
+  </si>
+  <si>
+    <t>timings and ACD received</t>
+  </si>
+  <si>
+    <t>awaiting final approval 10/28 and itunes podcast refresh</t>
   </si>
 </sst>
 </file>
@@ -761,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -826,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>12</v>
@@ -849,7 +864,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>17</v>
@@ -867,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
@@ -882,7 +897,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>23</v>
@@ -917,10 +932,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>26</v>
@@ -955,10 +970,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>29</v>
@@ -988,10 +1003,10 @@
       </c>
       <c r="B8" s="18"/>
       <c r="D8" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>17</v>
@@ -1002,10 +1017,10 @@
         <v>31</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>23</v>
@@ -1019,13 +1034,13 @@
         <v>33</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>74</v>
-      </c>
       <c r="F10" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
@@ -1033,12 +1048,14 @@
         <v>34</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -1062,17 +1079,17 @@
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1096,32 +1113,32 @@
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1145,13 +1162,13 @@
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>17</v>
@@ -1178,13 +1195,21 @@
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="30">
+        <v>41943</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1204,11 +1229,19 @@
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1230,11 +1263,19 @@
       <c r="X17" s="7"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -4580,13 +4621,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -4594,10 +4635,10 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -4618,11 +4659,11 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -4650,11 +4691,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4682,13 +4723,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -4716,13 +4757,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -4750,13 +4791,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -4784,34 +4825,34 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16">
@@ -4820,10 +4861,10 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-35720" yWindow="1840" windowWidth="28160" windowHeight="16300"/>
+    <workbookView xWindow="2080" yWindow="2740" windowWidth="28160" windowHeight="16300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t>Project</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Edits with web</t>
   </si>
   <si>
-    <t>Edits made and routed 10/24</t>
-  </si>
-  <si>
     <t>ACD received 10/24</t>
   </si>
   <si>
@@ -235,12 +232,6 @@
     <t>slides, timings</t>
   </si>
   <si>
-    <t>ACD received 10/27</t>
-  </si>
-  <si>
-    <t>ACD received 10/27. video edit with Web</t>
-  </si>
-  <si>
     <t>Approved with release date change. Eblast requested.</t>
   </si>
   <si>
@@ -299,6 +290,18 @@
   </si>
   <si>
     <t>awaiting final approval 10/28 and itunes podcast refresh</t>
+  </si>
+  <si>
+    <t>Edits made and routed 10/29</t>
+  </si>
+  <si>
+    <t>Routed 10/29</t>
+  </si>
+  <si>
+    <t>cme links</t>
+  </si>
+  <si>
+    <t>edits</t>
   </si>
 </sst>
 </file>
@@ -777,7 +780,7 @@
   <dimension ref="A1:X989"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -864,7 +867,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>17</v>
@@ -882,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
@@ -897,7 +900,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>23</v>
@@ -932,10 +935,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>26</v>
@@ -970,10 +973,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>29</v>
@@ -1003,10 +1006,10 @@
       </c>
       <c r="B8" s="18"/>
       <c r="D8" s="20" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>17</v>
@@ -1017,10 +1020,10 @@
         <v>31</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>23</v>
@@ -1034,13 +1037,13 @@
         <v>33</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
@@ -1052,10 +1055,10 @@
         <v>33</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -1083,13 +1086,13 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1113,32 +1116,32 @@
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1162,13 +1165,13 @@
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>17</v>
@@ -1196,15 +1199,15 @@
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="30">
@@ -1230,17 +1233,17 @@
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
@@ -1274,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="2740" windowWidth="28160" windowHeight="16300"/>
+    <workbookView xWindow="2085" yWindow="2745" windowWidth="28155" windowHeight="16305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>Project</t>
   </si>
@@ -217,24 +217,12 @@
     <t>Lisa</t>
   </si>
   <si>
-    <t>Edits with web</t>
-  </si>
-  <si>
-    <t>ACD received 10/24</t>
-  </si>
-  <si>
-    <t>Live on site 10/23. Elisa sent edits 10/25</t>
-  </si>
-  <si>
     <t>Video edits provided by Tim 10/03. Slides, Timings, CME links, segmentation received 10/27.</t>
   </si>
   <si>
     <t>slides, timings</t>
   </si>
   <si>
-    <t>Approved with release date change. Eblast requested.</t>
-  </si>
-  <si>
     <t>EANO webcast</t>
   </si>
   <si>
@@ -271,9 +259,6 @@
     <t>ESMO VPS - Ramalingam</t>
   </si>
   <si>
-    <t>All materials with web</t>
-  </si>
-  <si>
     <t>ESMO ER CRC</t>
   </si>
   <si>
@@ -302,6 +287,33 @@
   </si>
   <si>
     <t>edits</t>
+  </si>
+  <si>
+    <t>launched/ eblast being created</t>
+  </si>
+  <si>
+    <t>Approved with release date change. Eblast requested. Waiting for further instruction on eblast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Live on site 10/23. Elisa sent edits 10/25 awaiting final approval for eblast.</t>
+  </si>
+  <si>
+    <t>Routed 10/30</t>
+  </si>
+  <si>
+    <t>ACD received 10/24 setting up videos for what we have.</t>
+  </si>
+  <si>
+    <t>routed on 10/28</t>
+  </si>
+  <si>
+    <t>routed 10/29</t>
+  </si>
+  <si>
+    <t>awaiting slides</t>
   </si>
 </sst>
 </file>
@@ -780,17 +792,18 @@
   <dimension ref="A1:X989"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="52.1640625" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +843,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
@@ -844,7 +857,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>12</v>
@@ -853,7 +866,7 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
@@ -867,13 +880,13 @@
         <v>16</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -885,10 +898,13 @@
         <v>11</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
@@ -900,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>23</v>
@@ -926,7 +942,7 @@
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
     </row>
-    <row r="6" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>24</v>
       </c>
@@ -935,10 +951,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>26</v>
@@ -964,7 +980,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>27</v>
       </c>
@@ -973,10 +989,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>29</v>
@@ -1000,36 +1016,36 @@
       <c r="W7" s="19"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="18"/>
       <c r="D8" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>91</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>32</v>
       </c>
@@ -1037,16 +1053,16 @@
         <v>33</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>34</v>
       </c>
@@ -1055,12 +1071,14 @@
         <v>33</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="25"/>
+        <v>83</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>17</v>
+      </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
@@ -1080,21 +1098,23 @@
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1114,36 +1134,38 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1163,15 +1185,15 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>17</v>
@@ -1197,17 +1219,19 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="30">
@@ -1231,19 +1255,19 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1265,9 +1289,9 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
@@ -1277,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1299,7 +1323,7 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -1325,7 +1349,7 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -1351,7 +1375,7 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" ht="13">
+    <row r="21" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -1377,7 +1401,7 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" ht="12">
+    <row r="22" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1403,7 +1427,7 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" ht="12">
+    <row r="23" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1429,7 +1453,7 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" ht="12">
+    <row r="24" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1455,7 +1479,7 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" ht="12">
+    <row r="25" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1481,7 +1505,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" ht="12">
+    <row r="26" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1507,7 +1531,7 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
     </row>
-    <row r="27" spans="1:24" ht="12">
+    <row r="27" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1533,7 +1557,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
     </row>
-    <row r="28" spans="1:24" ht="12">
+    <row r="28" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1559,7 +1583,7 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
     </row>
-    <row r="29" spans="1:24" ht="12">
+    <row r="29" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1585,7 +1609,7 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
     </row>
-    <row r="30" spans="1:24" ht="12">
+    <row r="30" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1611,7 +1635,7 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
     </row>
-    <row r="31" spans="1:24" ht="12">
+    <row r="31" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1637,7 +1661,7 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
     </row>
-    <row r="32" spans="1:24" ht="12">
+    <row r="32" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1663,7 +1687,7 @@
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
     </row>
-    <row r="33" spans="1:24" ht="12">
+    <row r="33" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1689,7 +1713,7 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" ht="12">
+    <row r="34" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1715,7 +1739,7 @@
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
     </row>
-    <row r="35" spans="1:24" ht="12">
+    <row r="35" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1741,2866 +1765,2866 @@
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
     </row>
-    <row r="36" spans="1:24" ht="12">
+    <row r="36" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:24" ht="12">
+    <row r="37" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="1:24" ht="12">
+    <row r="38" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="1:24" ht="12">
+    <row r="39" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:24" ht="12">
+    <row r="40" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="1:24" ht="12">
+    <row r="41" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="1:24" ht="12">
+    <row r="42" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="1:24" ht="12">
+    <row r="43" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="1:24" ht="12">
+    <row r="44" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:24" ht="12">
+    <row r="45" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:24" ht="12">
+    <row r="46" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:24" ht="12">
+    <row r="47" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:24" ht="12">
+    <row r="48" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="2:2" ht="12">
+    <row r="49" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="2:2" ht="12">
+    <row r="50" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="2:2" ht="12">
+    <row r="51" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="2:2" ht="12">
+    <row r="52" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:2" ht="12">
+    <row r="53" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:2" ht="12">
+    <row r="54" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:2" ht="12">
+    <row r="55" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:2" ht="12">
+    <row r="56" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" spans="2:2" ht="12">
+    <row r="57" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="2:2" ht="12">
+    <row r="58" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" spans="2:2" ht="12">
+    <row r="59" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" spans="2:2" ht="12">
+    <row r="60" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="2:2" ht="12">
+    <row r="61" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
     </row>
-    <row r="62" spans="2:2" ht="12">
+    <row r="62" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" spans="2:2" ht="12">
+    <row r="63" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" spans="2:2" ht="12">
+    <row r="64" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="2:2" ht="12">
+    <row r="65" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="2:2" ht="12">
+    <row r="66" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" spans="2:2" ht="12">
+    <row r="67" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="2:2" ht="12">
+    <row r="68" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:2" ht="12">
+    <row r="69" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:2" ht="12">
+    <row r="70" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:2" ht="12">
+    <row r="71" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:2" ht="12">
+    <row r="72" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:2" ht="12">
+    <row r="73" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:2" ht="12">
+    <row r="74" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" spans="2:2" ht="12">
+    <row r="75" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="2:2" ht="12">
+    <row r="76" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="2:2" ht="12">
+    <row r="77" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" spans="2:2" ht="12">
+    <row r="78" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:2" ht="12">
+    <row r="79" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:2" ht="12">
+    <row r="80" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:2" ht="12">
+    <row r="81" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" ht="12">
+    <row r="82" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" ht="12">
+    <row r="83" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" ht="12">
+    <row r="84" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" ht="12">
+    <row r="85" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" ht="12">
+    <row r="86" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" ht="12">
+    <row r="87" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" ht="12">
+    <row r="88" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" ht="12">
+    <row r="89" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" spans="2:2" ht="12">
+    <row r="90" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" spans="2:2" ht="12">
+    <row r="91" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" spans="2:2" ht="12">
+    <row r="92" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="2:2" ht="12">
+    <row r="93" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" spans="2:2" ht="12">
+    <row r="94" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" spans="2:2" ht="12">
+    <row r="95" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" spans="2:2" ht="12">
+    <row r="96" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" spans="2:2" ht="12">
+    <row r="97" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="2:2" ht="12">
+    <row r="98" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" spans="2:2" ht="12">
+    <row r="99" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="2:2" ht="12">
+    <row r="100" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="2:2" ht="12">
+    <row r="101" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="2:2" ht="12">
+    <row r="102" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="2:2" ht="12">
+    <row r="103" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" spans="2:2" ht="12">
+    <row r="104" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" spans="2:2" ht="12">
+    <row r="105" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" spans="2:2" ht="12">
+    <row r="106" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="6"/>
     </row>
-    <row r="107" spans="2:2" ht="12">
+    <row r="107" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
     </row>
-    <row r="108" spans="2:2" ht="12">
+    <row r="108" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="6"/>
     </row>
-    <row r="109" spans="2:2" ht="12">
+    <row r="109" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
     </row>
-    <row r="110" spans="2:2" ht="12">
+    <row r="110" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="6"/>
     </row>
-    <row r="111" spans="2:2" ht="12">
+    <row r="111" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="6"/>
     </row>
-    <row r="112" spans="2:2" ht="12">
+    <row r="112" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="6"/>
     </row>
-    <row r="113" spans="2:2" ht="12">
+    <row r="113" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="6"/>
     </row>
-    <row r="114" spans="2:2" ht="12">
+    <row r="114" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" spans="2:2" ht="12">
+    <row r="115" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="6"/>
     </row>
-    <row r="116" spans="2:2" ht="12">
+    <row r="116" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="6"/>
     </row>
-    <row r="117" spans="2:2" ht="12">
+    <row r="117" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="6"/>
     </row>
-    <row r="118" spans="2:2" ht="12">
+    <row r="118" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="6"/>
     </row>
-    <row r="119" spans="2:2" ht="12">
+    <row r="119" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" spans="2:2" ht="12">
+    <row r="120" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="6"/>
     </row>
-    <row r="121" spans="2:2" ht="12">
+    <row r="121" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="6"/>
     </row>
-    <row r="122" spans="2:2" ht="12">
+    <row r="122" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="6"/>
     </row>
-    <row r="123" spans="2:2" ht="12">
+    <row r="123" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="6"/>
     </row>
-    <row r="124" spans="2:2" ht="12">
+    <row r="124" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="6"/>
     </row>
-    <row r="125" spans="2:2" ht="12">
+    <row r="125" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="6"/>
     </row>
-    <row r="126" spans="2:2" ht="12">
+    <row r="126" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="6"/>
     </row>
-    <row r="127" spans="2:2" ht="12">
+    <row r="127" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="6"/>
     </row>
-    <row r="128" spans="2:2" ht="12">
+    <row r="128" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" spans="2:2" ht="12">
+    <row r="129" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="6"/>
     </row>
-    <row r="130" spans="2:2" ht="12">
+    <row r="130" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="6"/>
     </row>
-    <row r="131" spans="2:2" ht="12">
+    <row r="131" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="6"/>
     </row>
-    <row r="132" spans="2:2" ht="12">
+    <row r="132" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="6"/>
     </row>
-    <row r="133" spans="2:2" ht="12">
+    <row r="133" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="6"/>
     </row>
-    <row r="134" spans="2:2" ht="12">
+    <row r="134" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B134" s="6"/>
     </row>
-    <row r="135" spans="2:2" ht="12">
+    <row r="135" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B135" s="6"/>
     </row>
-    <row r="136" spans="2:2" ht="12">
+    <row r="136" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="6"/>
     </row>
-    <row r="137" spans="2:2" ht="12">
+    <row r="137" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="6"/>
     </row>
-    <row r="138" spans="2:2" ht="12">
+    <row r="138" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="2:2" ht="12">
+    <row r="139" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="6"/>
     </row>
-    <row r="140" spans="2:2" ht="12">
+    <row r="140" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="6"/>
     </row>
-    <row r="141" spans="2:2" ht="12">
+    <row r="141" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="6"/>
     </row>
-    <row r="142" spans="2:2" ht="12">
+    <row r="142" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="6"/>
     </row>
-    <row r="143" spans="2:2" ht="12">
+    <row r="143" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="6"/>
     </row>
-    <row r="144" spans="2:2" ht="12">
+    <row r="144" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="6"/>
     </row>
-    <row r="145" spans="2:2" ht="12">
+    <row r="145" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="2:2" ht="12">
+    <row r="146" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="2:2" ht="12">
+    <row r="147" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="2:2" ht="12">
+    <row r="148" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="2:2" ht="12">
+    <row r="149" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="2:2" ht="12">
+    <row r="150" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="2:2" ht="12">
+    <row r="151" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="2:2" ht="12">
+    <row r="152" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="2:2" ht="12">
+    <row r="153" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="2:2" ht="12">
+    <row r="154" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="2:2" ht="12">
+    <row r="155" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="2:2" ht="12">
+    <row r="156" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" spans="2:2" ht="12">
+    <row r="157" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" spans="2:2" ht="12">
+    <row r="158" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" spans="2:2" ht="12">
+    <row r="159" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" spans="2:2" ht="12">
+    <row r="160" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="6"/>
     </row>
-    <row r="161" spans="2:2" ht="12">
+    <row r="161" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="6"/>
     </row>
-    <row r="162" spans="2:2" ht="12">
+    <row r="162" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="6"/>
     </row>
-    <row r="163" spans="2:2" ht="12">
+    <row r="163" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="6"/>
     </row>
-    <row r="164" spans="2:2" ht="12">
+    <row r="164" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="6"/>
     </row>
-    <row r="165" spans="2:2" ht="12">
+    <row r="165" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="6"/>
     </row>
-    <row r="166" spans="2:2" ht="12">
+    <row r="166" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="6"/>
     </row>
-    <row r="167" spans="2:2" ht="12">
+    <row r="167" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="6"/>
     </row>
-    <row r="168" spans="2:2" ht="12">
+    <row r="168" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" spans="2:2" ht="12">
+    <row r="169" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="6"/>
     </row>
-    <row r="170" spans="2:2" ht="12">
+    <row r="170" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="6"/>
     </row>
-    <row r="171" spans="2:2" ht="12">
+    <row r="171" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" spans="2:2" ht="12">
+    <row r="172" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="6"/>
     </row>
-    <row r="173" spans="2:2" ht="12">
+    <row r="173" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="6"/>
     </row>
-    <row r="174" spans="2:2" ht="12">
+    <row r="174" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="6"/>
     </row>
-    <row r="175" spans="2:2" ht="12">
+    <row r="175" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" spans="2:2" ht="12">
+    <row r="176" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" spans="2:2" ht="12">
+    <row r="177" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="6"/>
     </row>
-    <row r="178" spans="2:2" ht="12">
+    <row r="178" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="6"/>
     </row>
-    <row r="179" spans="2:2" ht="12">
+    <row r="179" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="6"/>
     </row>
-    <row r="180" spans="2:2" ht="12">
+    <row r="180" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="6"/>
     </row>
-    <row r="181" spans="2:2" ht="12">
+    <row r="181" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="6"/>
     </row>
-    <row r="182" spans="2:2" ht="12">
+    <row r="182" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="6"/>
     </row>
-    <row r="183" spans="2:2" ht="12">
+    <row r="183" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="6"/>
     </row>
-    <row r="184" spans="2:2" ht="12">
+    <row r="184" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="6"/>
     </row>
-    <row r="185" spans="2:2" ht="12">
+    <row r="185" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="6"/>
     </row>
-    <row r="186" spans="2:2" ht="12">
+    <row r="186" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="6"/>
     </row>
-    <row r="187" spans="2:2" ht="12">
+    <row r="187" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="6"/>
     </row>
-    <row r="188" spans="2:2" ht="12">
+    <row r="188" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" spans="2:2" ht="12">
+    <row r="189" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="6"/>
     </row>
-    <row r="190" spans="2:2" ht="12">
+    <row r="190" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="6"/>
     </row>
-    <row r="191" spans="2:2" ht="12">
+    <row r="191" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="6"/>
     </row>
-    <row r="192" spans="2:2" ht="12">
+    <row r="192" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="6"/>
     </row>
-    <row r="193" spans="2:2" ht="12">
+    <row r="193" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="6"/>
     </row>
-    <row r="194" spans="2:2" ht="12">
+    <row r="194" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="6"/>
     </row>
-    <row r="195" spans="2:2" ht="12">
+    <row r="195" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="6"/>
     </row>
-    <row r="196" spans="2:2" ht="12">
+    <row r="196" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="6"/>
     </row>
-    <row r="197" spans="2:2" ht="12">
+    <row r="197" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="6"/>
     </row>
-    <row r="198" spans="2:2" ht="12">
+    <row r="198" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="6"/>
     </row>
-    <row r="199" spans="2:2" ht="12">
+    <row r="199" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="6"/>
     </row>
-    <row r="200" spans="2:2" ht="12">
+    <row r="200" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="6"/>
     </row>
-    <row r="201" spans="2:2" ht="12">
+    <row r="201" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="6"/>
     </row>
-    <row r="202" spans="2:2" ht="12">
+    <row r="202" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="6"/>
     </row>
-    <row r="203" spans="2:2" ht="12">
+    <row r="203" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="6"/>
     </row>
-    <row r="204" spans="2:2" ht="12">
+    <row r="204" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" spans="2:2" ht="12">
+    <row r="205" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="6"/>
     </row>
-    <row r="206" spans="2:2" ht="12">
+    <row r="206" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="6"/>
     </row>
-    <row r="207" spans="2:2" ht="12">
+    <row r="207" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="6"/>
     </row>
-    <row r="208" spans="2:2" ht="12">
+    <row r="208" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="6"/>
     </row>
-    <row r="209" spans="2:2" ht="12">
+    <row r="209" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="6"/>
     </row>
-    <row r="210" spans="2:2" ht="12">
+    <row r="210" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="6"/>
     </row>
-    <row r="211" spans="2:2" ht="12">
+    <row r="211" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="6"/>
     </row>
-    <row r="212" spans="2:2" ht="12">
+    <row r="212" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="6"/>
     </row>
-    <row r="213" spans="2:2" ht="12">
+    <row r="213" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="6"/>
     </row>
-    <row r="214" spans="2:2" ht="12">
+    <row r="214" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="6"/>
     </row>
-    <row r="215" spans="2:2" ht="12">
+    <row r="215" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="6"/>
     </row>
-    <row r="216" spans="2:2" ht="12">
+    <row r="216" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="6"/>
     </row>
-    <row r="217" spans="2:2" ht="12">
+    <row r="217" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="6"/>
     </row>
-    <row r="218" spans="2:2" ht="12">
+    <row r="218" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="6"/>
     </row>
-    <row r="219" spans="2:2" ht="12">
+    <row r="219" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="6"/>
     </row>
-    <row r="220" spans="2:2" ht="12">
+    <row r="220" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="6"/>
     </row>
-    <row r="221" spans="2:2" ht="12">
+    <row r="221" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="6"/>
     </row>
-    <row r="222" spans="2:2" ht="12">
+    <row r="222" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="6"/>
     </row>
-    <row r="223" spans="2:2" ht="12">
+    <row r="223" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="6"/>
     </row>
-    <row r="224" spans="2:2" ht="12">
+    <row r="224" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="6"/>
     </row>
-    <row r="225" spans="2:2" ht="12">
+    <row r="225" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="6"/>
     </row>
-    <row r="226" spans="2:2" ht="12">
+    <row r="226" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="6"/>
     </row>
-    <row r="227" spans="2:2" ht="12">
+    <row r="227" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="6"/>
     </row>
-    <row r="228" spans="2:2" ht="12">
+    <row r="228" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="6"/>
     </row>
-    <row r="229" spans="2:2" ht="12">
+    <row r="229" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="6"/>
     </row>
-    <row r="230" spans="2:2" ht="12">
+    <row r="230" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="6"/>
     </row>
-    <row r="231" spans="2:2" ht="12">
+    <row r="231" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="6"/>
     </row>
-    <row r="232" spans="2:2" ht="12">
+    <row r="232" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="6"/>
     </row>
-    <row r="233" spans="2:2" ht="12">
+    <row r="233" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="6"/>
     </row>
-    <row r="234" spans="2:2" ht="12">
+    <row r="234" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="6"/>
     </row>
-    <row r="235" spans="2:2" ht="12">
+    <row r="235" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="6"/>
     </row>
-    <row r="236" spans="2:2" ht="12">
+    <row r="236" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="6"/>
     </row>
-    <row r="237" spans="2:2" ht="12">
+    <row r="237" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="6"/>
     </row>
-    <row r="238" spans="2:2" ht="12">
+    <row r="238" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="6"/>
     </row>
-    <row r="239" spans="2:2" ht="12">
+    <row r="239" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="6"/>
     </row>
-    <row r="240" spans="2:2" ht="12">
+    <row r="240" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="6"/>
     </row>
-    <row r="241" spans="2:2" ht="12">
+    <row r="241" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="6"/>
     </row>
-    <row r="242" spans="2:2" ht="12">
+    <row r="242" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="6"/>
     </row>
-    <row r="243" spans="2:2" ht="12">
+    <row r="243" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="6"/>
     </row>
-    <row r="244" spans="2:2" ht="12">
+    <row r="244" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="6"/>
     </row>
-    <row r="245" spans="2:2" ht="12">
+    <row r="245" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="6"/>
     </row>
-    <row r="246" spans="2:2" ht="12">
+    <row r="246" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="6"/>
     </row>
-    <row r="247" spans="2:2" ht="12">
+    <row r="247" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="6"/>
     </row>
-    <row r="248" spans="2:2" ht="12">
+    <row r="248" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="6"/>
     </row>
-    <row r="249" spans="2:2" ht="12">
+    <row r="249" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="6"/>
     </row>
-    <row r="250" spans="2:2" ht="12">
+    <row r="250" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="6"/>
     </row>
-    <row r="251" spans="2:2" ht="12">
+    <row r="251" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="6"/>
     </row>
-    <row r="252" spans="2:2" ht="12">
+    <row r="252" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="6"/>
     </row>
-    <row r="253" spans="2:2" ht="12">
+    <row r="253" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="6"/>
     </row>
-    <row r="254" spans="2:2" ht="12">
+    <row r="254" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="6"/>
     </row>
-    <row r="255" spans="2:2" ht="12">
+    <row r="255" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="6"/>
     </row>
-    <row r="256" spans="2:2" ht="12">
+    <row r="256" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="6"/>
     </row>
-    <row r="257" spans="2:2" ht="12">
+    <row r="257" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="6"/>
     </row>
-    <row r="258" spans="2:2" ht="12">
+    <row r="258" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="6"/>
     </row>
-    <row r="259" spans="2:2" ht="12">
+    <row r="259" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="6"/>
     </row>
-    <row r="260" spans="2:2" ht="12">
+    <row r="260" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="6"/>
     </row>
-    <row r="261" spans="2:2" ht="12">
+    <row r="261" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="6"/>
     </row>
-    <row r="262" spans="2:2" ht="12">
+    <row r="262" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="6"/>
     </row>
-    <row r="263" spans="2:2" ht="12">
+    <row r="263" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="6"/>
     </row>
-    <row r="264" spans="2:2" ht="12">
+    <row r="264" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="6"/>
     </row>
-    <row r="265" spans="2:2" ht="12">
+    <row r="265" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="6"/>
     </row>
-    <row r="266" spans="2:2" ht="12">
+    <row r="266" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="6"/>
     </row>
-    <row r="267" spans="2:2" ht="12">
+    <row r="267" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="6"/>
     </row>
-    <row r="268" spans="2:2" ht="12">
+    <row r="268" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="6"/>
     </row>
-    <row r="269" spans="2:2" ht="12">
+    <row r="269" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="6"/>
     </row>
-    <row r="270" spans="2:2" ht="12">
+    <row r="270" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="6"/>
     </row>
-    <row r="271" spans="2:2" ht="12">
+    <row r="271" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="6"/>
     </row>
-    <row r="272" spans="2:2" ht="12">
+    <row r="272" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="6"/>
     </row>
-    <row r="273" spans="2:2" ht="12">
+    <row r="273" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="6"/>
     </row>
-    <row r="274" spans="2:2" ht="12">
+    <row r="274" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="6"/>
     </row>
-    <row r="275" spans="2:2" ht="12">
+    <row r="275" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="6"/>
     </row>
-    <row r="276" spans="2:2" ht="12">
+    <row r="276" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="6"/>
     </row>
-    <row r="277" spans="2:2" ht="12">
+    <row r="277" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="6"/>
     </row>
-    <row r="278" spans="2:2" ht="12">
+    <row r="278" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="6"/>
     </row>
-    <row r="279" spans="2:2" ht="12">
+    <row r="279" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="6"/>
     </row>
-    <row r="280" spans="2:2" ht="12">
+    <row r="280" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="6"/>
     </row>
-    <row r="281" spans="2:2" ht="12">
+    <row r="281" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="6"/>
     </row>
-    <row r="282" spans="2:2" ht="12">
+    <row r="282" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="6"/>
     </row>
-    <row r="283" spans="2:2" ht="12">
+    <row r="283" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="6"/>
     </row>
-    <row r="284" spans="2:2" ht="12">
+    <row r="284" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="6"/>
     </row>
-    <row r="285" spans="2:2" ht="12">
+    <row r="285" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="6"/>
     </row>
-    <row r="286" spans="2:2" ht="12">
+    <row r="286" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="6"/>
     </row>
-    <row r="287" spans="2:2" ht="12">
+    <row r="287" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="6"/>
     </row>
-    <row r="288" spans="2:2" ht="12">
+    <row r="288" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="6"/>
     </row>
-    <row r="289" spans="2:2" ht="12">
+    <row r="289" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="6"/>
     </row>
-    <row r="290" spans="2:2" ht="12">
+    <row r="290" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="6"/>
     </row>
-    <row r="291" spans="2:2" ht="12">
+    <row r="291" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="6"/>
     </row>
-    <row r="292" spans="2:2" ht="12">
+    <row r="292" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="6"/>
     </row>
-    <row r="293" spans="2:2" ht="12">
+    <row r="293" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="6"/>
     </row>
-    <row r="294" spans="2:2" ht="12">
+    <row r="294" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="6"/>
     </row>
-    <row r="295" spans="2:2" ht="12">
+    <row r="295" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="6"/>
     </row>
-    <row r="296" spans="2:2" ht="12">
+    <row r="296" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="6"/>
     </row>
-    <row r="297" spans="2:2" ht="12">
+    <row r="297" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="6"/>
     </row>
-    <row r="298" spans="2:2" ht="12">
+    <row r="298" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="6"/>
     </row>
-    <row r="299" spans="2:2" ht="12">
+    <row r="299" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="6"/>
     </row>
-    <row r="300" spans="2:2" ht="12">
+    <row r="300" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="6"/>
     </row>
-    <row r="301" spans="2:2" ht="12">
+    <row r="301" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="6"/>
     </row>
-    <row r="302" spans="2:2" ht="12">
+    <row r="302" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="6"/>
     </row>
-    <row r="303" spans="2:2" ht="12">
+    <row r="303" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="6"/>
     </row>
-    <row r="304" spans="2:2" ht="12">
+    <row r="304" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="6"/>
     </row>
-    <row r="305" spans="2:2" ht="12">
+    <row r="305" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="6"/>
     </row>
-    <row r="306" spans="2:2" ht="12">
+    <row r="306" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="6"/>
     </row>
-    <row r="307" spans="2:2" ht="12">
+    <row r="307" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="6"/>
     </row>
-    <row r="308" spans="2:2" ht="12">
+    <row r="308" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="6"/>
     </row>
-    <row r="309" spans="2:2" ht="12">
+    <row r="309" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="6"/>
     </row>
-    <row r="310" spans="2:2" ht="12">
+    <row r="310" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="6"/>
     </row>
-    <row r="311" spans="2:2" ht="12">
+    <row r="311" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="6"/>
     </row>
-    <row r="312" spans="2:2" ht="12">
+    <row r="312" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="6"/>
     </row>
-    <row r="313" spans="2:2" ht="12">
+    <row r="313" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="6"/>
     </row>
-    <row r="314" spans="2:2" ht="12">
+    <row r="314" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="6"/>
     </row>
-    <row r="315" spans="2:2" ht="12">
+    <row r="315" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="6"/>
     </row>
-    <row r="316" spans="2:2" ht="12">
+    <row r="316" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="6"/>
     </row>
-    <row r="317" spans="2:2" ht="12">
+    <row r="317" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="6"/>
     </row>
-    <row r="318" spans="2:2" ht="12">
+    <row r="318" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="6"/>
     </row>
-    <row r="319" spans="2:2" ht="12">
+    <row r="319" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="6"/>
     </row>
-    <row r="320" spans="2:2" ht="12">
+    <row r="320" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="6"/>
     </row>
-    <row r="321" spans="2:2" ht="12">
+    <row r="321" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="6"/>
     </row>
-    <row r="322" spans="2:2" ht="12">
+    <row r="322" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="6"/>
     </row>
-    <row r="323" spans="2:2" ht="12">
+    <row r="323" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="6"/>
     </row>
-    <row r="324" spans="2:2" ht="12">
+    <row r="324" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="6"/>
     </row>
-    <row r="325" spans="2:2" ht="12">
+    <row r="325" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="6"/>
     </row>
-    <row r="326" spans="2:2" ht="12">
+    <row r="326" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="6"/>
     </row>
-    <row r="327" spans="2:2" ht="12">
+    <row r="327" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="6"/>
     </row>
-    <row r="328" spans="2:2" ht="12">
+    <row r="328" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="6"/>
     </row>
-    <row r="329" spans="2:2" ht="12">
+    <row r="329" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="6"/>
     </row>
-    <row r="330" spans="2:2" ht="12">
+    <row r="330" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="6"/>
     </row>
-    <row r="331" spans="2:2" ht="12">
+    <row r="331" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="6"/>
     </row>
-    <row r="332" spans="2:2" ht="12">
+    <row r="332" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="6"/>
     </row>
-    <row r="333" spans="2:2" ht="12">
+    <row r="333" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="6"/>
     </row>
-    <row r="334" spans="2:2" ht="12">
+    <row r="334" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="6"/>
     </row>
-    <row r="335" spans="2:2" ht="12">
+    <row r="335" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="6"/>
     </row>
-    <row r="336" spans="2:2" ht="12">
+    <row r="336" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="6"/>
     </row>
-    <row r="337" spans="2:2" ht="12">
+    <row r="337" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="6"/>
     </row>
-    <row r="338" spans="2:2" ht="12">
+    <row r="338" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="6"/>
     </row>
-    <row r="339" spans="2:2" ht="12">
+    <row r="339" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="6"/>
     </row>
-    <row r="340" spans="2:2" ht="12">
+    <row r="340" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="6"/>
     </row>
-    <row r="341" spans="2:2" ht="12">
+    <row r="341" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="6"/>
     </row>
-    <row r="342" spans="2:2" ht="12">
+    <row r="342" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="6"/>
     </row>
-    <row r="343" spans="2:2" ht="12">
+    <row r="343" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="6"/>
     </row>
-    <row r="344" spans="2:2" ht="12">
+    <row r="344" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="6"/>
     </row>
-    <row r="345" spans="2:2" ht="12">
+    <row r="345" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="6"/>
     </row>
-    <row r="346" spans="2:2" ht="12">
+    <row r="346" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="6"/>
     </row>
-    <row r="347" spans="2:2" ht="12">
+    <row r="347" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="6"/>
     </row>
-    <row r="348" spans="2:2" ht="12">
+    <row r="348" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="6"/>
     </row>
-    <row r="349" spans="2:2" ht="12">
+    <row r="349" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="6"/>
     </row>
-    <row r="350" spans="2:2" ht="12">
+    <row r="350" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="6"/>
     </row>
-    <row r="351" spans="2:2" ht="12">
+    <row r="351" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="6"/>
     </row>
-    <row r="352" spans="2:2" ht="12">
+    <row r="352" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="6"/>
     </row>
-    <row r="353" spans="2:2" ht="12">
+    <row r="353" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="6"/>
     </row>
-    <row r="354" spans="2:2" ht="12">
+    <row r="354" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="6"/>
     </row>
-    <row r="355" spans="2:2" ht="12">
+    <row r="355" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="6"/>
     </row>
-    <row r="356" spans="2:2" ht="12">
+    <row r="356" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="6"/>
     </row>
-    <row r="357" spans="2:2" ht="12">
+    <row r="357" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="6"/>
     </row>
-    <row r="358" spans="2:2" ht="12">
+    <row r="358" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="6"/>
     </row>
-    <row r="359" spans="2:2" ht="12">
+    <row r="359" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="6"/>
     </row>
-    <row r="360" spans="2:2" ht="12">
+    <row r="360" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="6"/>
     </row>
-    <row r="361" spans="2:2" ht="12">
+    <row r="361" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="6"/>
     </row>
-    <row r="362" spans="2:2" ht="12">
+    <row r="362" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="6"/>
     </row>
-    <row r="363" spans="2:2" ht="12">
+    <row r="363" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="6"/>
     </row>
-    <row r="364" spans="2:2" ht="12">
+    <row r="364" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="6"/>
     </row>
-    <row r="365" spans="2:2" ht="12">
+    <row r="365" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="6"/>
     </row>
-    <row r="366" spans="2:2" ht="12">
+    <row r="366" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="6"/>
     </row>
-    <row r="367" spans="2:2" ht="12">
+    <row r="367" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="6"/>
     </row>
-    <row r="368" spans="2:2" ht="12">
+    <row r="368" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="6"/>
     </row>
-    <row r="369" spans="2:2" ht="12">
+    <row r="369" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="6"/>
     </row>
-    <row r="370" spans="2:2" ht="12">
+    <row r="370" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="6"/>
     </row>
-    <row r="371" spans="2:2" ht="12">
+    <row r="371" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="6"/>
     </row>
-    <row r="372" spans="2:2" ht="12">
+    <row r="372" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="6"/>
     </row>
-    <row r="373" spans="2:2" ht="12">
+    <row r="373" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="6"/>
     </row>
-    <row r="374" spans="2:2" ht="12">
+    <row r="374" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="6"/>
     </row>
-    <row r="375" spans="2:2" ht="12">
+    <row r="375" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="6"/>
     </row>
-    <row r="376" spans="2:2" ht="12">
+    <row r="376" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="6"/>
     </row>
-    <row r="377" spans="2:2" ht="12">
+    <row r="377" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="6"/>
     </row>
-    <row r="378" spans="2:2" ht="12">
+    <row r="378" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="6"/>
     </row>
-    <row r="379" spans="2:2" ht="12">
+    <row r="379" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="6"/>
     </row>
-    <row r="380" spans="2:2" ht="12">
+    <row r="380" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="6"/>
     </row>
-    <row r="381" spans="2:2" ht="12">
+    <row r="381" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="6"/>
     </row>
-    <row r="382" spans="2:2" ht="12">
+    <row r="382" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="6"/>
     </row>
-    <row r="383" spans="2:2" ht="12">
+    <row r="383" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="6"/>
     </row>
-    <row r="384" spans="2:2" ht="12">
+    <row r="384" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="6"/>
     </row>
-    <row r="385" spans="2:2" ht="12">
+    <row r="385" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="6"/>
     </row>
-    <row r="386" spans="2:2" ht="12">
+    <row r="386" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="6"/>
     </row>
-    <row r="387" spans="2:2" ht="12">
+    <row r="387" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="6"/>
     </row>
-    <row r="388" spans="2:2" ht="12">
+    <row r="388" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="6"/>
     </row>
-    <row r="389" spans="2:2" ht="12">
+    <row r="389" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="6"/>
     </row>
-    <row r="390" spans="2:2" ht="12">
+    <row r="390" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="6"/>
     </row>
-    <row r="391" spans="2:2" ht="12">
+    <row r="391" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="6"/>
     </row>
-    <row r="392" spans="2:2" ht="12">
+    <row r="392" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="6"/>
     </row>
-    <row r="393" spans="2:2" ht="12">
+    <row r="393" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="6"/>
     </row>
-    <row r="394" spans="2:2" ht="12">
+    <row r="394" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="6"/>
     </row>
-    <row r="395" spans="2:2" ht="12">
+    <row r="395" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="6"/>
     </row>
-    <row r="396" spans="2:2" ht="12">
+    <row r="396" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="6"/>
     </row>
-    <row r="397" spans="2:2" ht="12">
+    <row r="397" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="6"/>
     </row>
-    <row r="398" spans="2:2" ht="12">
+    <row r="398" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="6"/>
     </row>
-    <row r="399" spans="2:2" ht="12">
+    <row r="399" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="6"/>
     </row>
-    <row r="400" spans="2:2" ht="12">
+    <row r="400" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="6"/>
     </row>
-    <row r="401" spans="2:2" ht="12">
+    <row r="401" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="6"/>
     </row>
-    <row r="402" spans="2:2" ht="12">
+    <row r="402" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="6"/>
     </row>
-    <row r="403" spans="2:2" ht="12">
+    <row r="403" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="6"/>
     </row>
-    <row r="404" spans="2:2" ht="12">
+    <row r="404" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="6"/>
     </row>
-    <row r="405" spans="2:2" ht="12">
+    <row r="405" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="6"/>
     </row>
-    <row r="406" spans="2:2" ht="12">
+    <row r="406" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="6"/>
     </row>
-    <row r="407" spans="2:2" ht="12">
+    <row r="407" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="6"/>
     </row>
-    <row r="408" spans="2:2" ht="12">
+    <row r="408" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="6"/>
     </row>
-    <row r="409" spans="2:2" ht="12">
+    <row r="409" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="6"/>
     </row>
-    <row r="410" spans="2:2" ht="12">
+    <row r="410" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="6"/>
     </row>
-    <row r="411" spans="2:2" ht="12">
+    <row r="411" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="6"/>
     </row>
-    <row r="412" spans="2:2" ht="12">
+    <row r="412" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="6"/>
     </row>
-    <row r="413" spans="2:2" ht="12">
+    <row r="413" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="6"/>
     </row>
-    <row r="414" spans="2:2" ht="12">
+    <row r="414" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="6"/>
     </row>
-    <row r="415" spans="2:2" ht="12">
+    <row r="415" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="6"/>
     </row>
-    <row r="416" spans="2:2" ht="12">
+    <row r="416" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="6"/>
     </row>
-    <row r="417" spans="2:2" ht="12">
+    <row r="417" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="6"/>
     </row>
-    <row r="418" spans="2:2" ht="12">
+    <row r="418" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="6"/>
     </row>
-    <row r="419" spans="2:2" ht="12">
+    <row r="419" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="6"/>
     </row>
-    <row r="420" spans="2:2" ht="12">
+    <row r="420" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="6"/>
     </row>
-    <row r="421" spans="2:2" ht="12">
+    <row r="421" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="6"/>
     </row>
-    <row r="422" spans="2:2" ht="12">
+    <row r="422" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="6"/>
     </row>
-    <row r="423" spans="2:2" ht="12">
+    <row r="423" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="6"/>
     </row>
-    <row r="424" spans="2:2" ht="12">
+    <row r="424" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="6"/>
     </row>
-    <row r="425" spans="2:2" ht="12">
+    <row r="425" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="6"/>
     </row>
-    <row r="426" spans="2:2" ht="12">
+    <row r="426" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="6"/>
     </row>
-    <row r="427" spans="2:2" ht="12">
+    <row r="427" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="6"/>
     </row>
-    <row r="428" spans="2:2" ht="12">
+    <row r="428" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="6"/>
     </row>
-    <row r="429" spans="2:2" ht="12">
+    <row r="429" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="6"/>
     </row>
-    <row r="430" spans="2:2" ht="12">
+    <row r="430" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="6"/>
     </row>
-    <row r="431" spans="2:2" ht="12">
+    <row r="431" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="6"/>
     </row>
-    <row r="432" spans="2:2" ht="12">
+    <row r="432" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="6"/>
     </row>
-    <row r="433" spans="2:2" ht="12">
+    <row r="433" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="6"/>
     </row>
-    <row r="434" spans="2:2" ht="12">
+    <row r="434" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="6"/>
     </row>
-    <row r="435" spans="2:2" ht="12">
+    <row r="435" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="6"/>
     </row>
-    <row r="436" spans="2:2" ht="12">
+    <row r="436" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="6"/>
     </row>
-    <row r="437" spans="2:2" ht="12">
+    <row r="437" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="6"/>
     </row>
-    <row r="438" spans="2:2" ht="12">
+    <row r="438" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="6"/>
     </row>
-    <row r="439" spans="2:2" ht="12">
+    <row r="439" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="6"/>
     </row>
-    <row r="440" spans="2:2" ht="12">
+    <row r="440" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="6"/>
     </row>
-    <row r="441" spans="2:2" ht="12">
+    <row r="441" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="6"/>
     </row>
-    <row r="442" spans="2:2" ht="12">
+    <row r="442" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="6"/>
     </row>
-    <row r="443" spans="2:2" ht="12">
+    <row r="443" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="6"/>
     </row>
-    <row r="444" spans="2:2" ht="12">
+    <row r="444" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="6"/>
     </row>
-    <row r="445" spans="2:2" ht="12">
+    <row r="445" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="6"/>
     </row>
-    <row r="446" spans="2:2" ht="12">
+    <row r="446" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="6"/>
     </row>
-    <row r="447" spans="2:2" ht="12">
+    <row r="447" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="6"/>
     </row>
-    <row r="448" spans="2:2" ht="12">
+    <row r="448" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="6"/>
     </row>
-    <row r="449" spans="2:2" ht="12">
+    <row r="449" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="6"/>
     </row>
-    <row r="450" spans="2:2" ht="12">
+    <row r="450" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="6"/>
     </row>
-    <row r="451" spans="2:2" ht="12">
+    <row r="451" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="6"/>
     </row>
-    <row r="452" spans="2:2" ht="12">
+    <row r="452" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="6"/>
     </row>
-    <row r="453" spans="2:2" ht="12">
+    <row r="453" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="6"/>
     </row>
-    <row r="454" spans="2:2" ht="12">
+    <row r="454" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="6"/>
     </row>
-    <row r="455" spans="2:2" ht="12">
+    <row r="455" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="6"/>
     </row>
-    <row r="456" spans="2:2" ht="12">
+    <row r="456" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="6"/>
     </row>
-    <row r="457" spans="2:2" ht="12">
+    <row r="457" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="6"/>
     </row>
-    <row r="458" spans="2:2" ht="12">
+    <row r="458" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="6"/>
     </row>
-    <row r="459" spans="2:2" ht="12">
+    <row r="459" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="6"/>
     </row>
-    <row r="460" spans="2:2" ht="12">
+    <row r="460" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="6"/>
     </row>
-    <row r="461" spans="2:2" ht="12">
+    <row r="461" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="6"/>
     </row>
-    <row r="462" spans="2:2" ht="12">
+    <row r="462" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="6"/>
     </row>
-    <row r="463" spans="2:2" ht="12">
+    <row r="463" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="6"/>
     </row>
-    <row r="464" spans="2:2" ht="12">
+    <row r="464" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="6"/>
     </row>
-    <row r="465" spans="2:2" ht="12">
+    <row r="465" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="6"/>
     </row>
-    <row r="466" spans="2:2" ht="12">
+    <row r="466" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="6"/>
     </row>
-    <row r="467" spans="2:2" ht="12">
+    <row r="467" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="6"/>
     </row>
-    <row r="468" spans="2:2" ht="12">
+    <row r="468" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="6"/>
     </row>
-    <row r="469" spans="2:2" ht="12">
+    <row r="469" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="6"/>
     </row>
-    <row r="470" spans="2:2" ht="12">
+    <row r="470" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="6"/>
     </row>
-    <row r="471" spans="2:2" ht="12">
+    <row r="471" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="6"/>
     </row>
-    <row r="472" spans="2:2" ht="12">
+    <row r="472" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="6"/>
     </row>
-    <row r="473" spans="2:2" ht="12">
+    <row r="473" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="6"/>
     </row>
-    <row r="474" spans="2:2" ht="12">
+    <row r="474" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="6"/>
     </row>
-    <row r="475" spans="2:2" ht="12">
+    <row r="475" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="6"/>
     </row>
-    <row r="476" spans="2:2" ht="12">
+    <row r="476" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="6"/>
     </row>
-    <row r="477" spans="2:2" ht="12">
+    <row r="477" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="6"/>
     </row>
-    <row r="478" spans="2:2" ht="12">
+    <row r="478" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="6"/>
     </row>
-    <row r="479" spans="2:2" ht="12">
+    <row r="479" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="6"/>
     </row>
-    <row r="480" spans="2:2" ht="12">
+    <row r="480" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="6"/>
     </row>
-    <row r="481" spans="2:2" ht="12">
+    <row r="481" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="6"/>
     </row>
-    <row r="482" spans="2:2" ht="12">
+    <row r="482" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="6"/>
     </row>
-    <row r="483" spans="2:2" ht="12">
+    <row r="483" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="6"/>
     </row>
-    <row r="484" spans="2:2" ht="12">
+    <row r="484" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="6"/>
     </row>
-    <row r="485" spans="2:2" ht="12">
+    <row r="485" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="6"/>
     </row>
-    <row r="486" spans="2:2" ht="12">
+    <row r="486" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="6"/>
     </row>
-    <row r="487" spans="2:2" ht="12">
+    <row r="487" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="6"/>
     </row>
-    <row r="488" spans="2:2" ht="12">
+    <row r="488" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="6"/>
     </row>
-    <row r="489" spans="2:2" ht="12">
+    <row r="489" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="6"/>
     </row>
-    <row r="490" spans="2:2" ht="12">
+    <row r="490" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="6"/>
     </row>
-    <row r="491" spans="2:2" ht="12">
+    <row r="491" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="6"/>
     </row>
-    <row r="492" spans="2:2" ht="12">
+    <row r="492" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="6"/>
     </row>
-    <row r="493" spans="2:2" ht="12">
+    <row r="493" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="6"/>
     </row>
-    <row r="494" spans="2:2" ht="12">
+    <row r="494" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="6"/>
     </row>
-    <row r="495" spans="2:2" ht="12">
+    <row r="495" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="6"/>
     </row>
-    <row r="496" spans="2:2" ht="12">
+    <row r="496" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="6"/>
     </row>
-    <row r="497" spans="2:2" ht="12">
+    <row r="497" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="6"/>
     </row>
-    <row r="498" spans="2:2" ht="12">
+    <row r="498" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="6"/>
     </row>
-    <row r="499" spans="2:2" ht="12">
+    <row r="499" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="6"/>
     </row>
-    <row r="500" spans="2:2" ht="12">
+    <row r="500" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="6"/>
     </row>
-    <row r="501" spans="2:2" ht="12">
+    <row r="501" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="6"/>
     </row>
-    <row r="502" spans="2:2" ht="12">
+    <row r="502" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="6"/>
     </row>
-    <row r="503" spans="2:2" ht="12">
+    <row r="503" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="6"/>
     </row>
-    <row r="504" spans="2:2" ht="12">
+    <row r="504" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="6"/>
     </row>
-    <row r="505" spans="2:2" ht="12">
+    <row r="505" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="6"/>
     </row>
-    <row r="506" spans="2:2" ht="12">
+    <row r="506" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="6"/>
     </row>
-    <row r="507" spans="2:2" ht="12">
+    <row r="507" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="6"/>
     </row>
-    <row r="508" spans="2:2" ht="12">
+    <row r="508" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="6"/>
     </row>
-    <row r="509" spans="2:2" ht="12">
+    <row r="509" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="6"/>
     </row>
-    <row r="510" spans="2:2" ht="12">
+    <row r="510" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="6"/>
     </row>
-    <row r="511" spans="2:2" ht="12">
+    <row r="511" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="6"/>
     </row>
-    <row r="512" spans="2:2" ht="12">
+    <row r="512" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="6"/>
     </row>
-    <row r="513" spans="2:2" ht="12">
+    <row r="513" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="6"/>
     </row>
-    <row r="514" spans="2:2" ht="12">
+    <row r="514" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="6"/>
     </row>
-    <row r="515" spans="2:2" ht="12">
+    <row r="515" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="6"/>
     </row>
-    <row r="516" spans="2:2" ht="12">
+    <row r="516" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="6"/>
     </row>
-    <row r="517" spans="2:2" ht="12">
+    <row r="517" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="6"/>
     </row>
-    <row r="518" spans="2:2" ht="12">
+    <row r="518" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="6"/>
     </row>
-    <row r="519" spans="2:2" ht="12">
+    <row r="519" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="6"/>
     </row>
-    <row r="520" spans="2:2" ht="12">
+    <row r="520" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="6"/>
     </row>
-    <row r="521" spans="2:2" ht="12">
+    <row r="521" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="6"/>
     </row>
-    <row r="522" spans="2:2" ht="12">
+    <row r="522" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="6"/>
     </row>
-    <row r="523" spans="2:2" ht="12">
+    <row r="523" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="6"/>
     </row>
-    <row r="524" spans="2:2" ht="12">
+    <row r="524" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="6"/>
     </row>
-    <row r="525" spans="2:2" ht="12">
+    <row r="525" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="6"/>
     </row>
-    <row r="526" spans="2:2" ht="12">
+    <row r="526" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="6"/>
     </row>
-    <row r="527" spans="2:2" ht="12">
+    <row r="527" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="6"/>
     </row>
-    <row r="528" spans="2:2" ht="12">
+    <row r="528" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="6"/>
     </row>
-    <row r="529" spans="2:2" ht="12">
+    <row r="529" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="6"/>
     </row>
-    <row r="530" spans="2:2" ht="12">
+    <row r="530" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="6"/>
     </row>
-    <row r="531" spans="2:2" ht="12">
+    <row r="531" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="6"/>
     </row>
-    <row r="532" spans="2:2" ht="12">
+    <row r="532" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="6"/>
     </row>
-    <row r="533" spans="2:2" ht="12">
+    <row r="533" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="6"/>
     </row>
-    <row r="534" spans="2:2" ht="12">
+    <row r="534" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="6"/>
     </row>
-    <row r="535" spans="2:2" ht="12">
+    <row r="535" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="6"/>
     </row>
-    <row r="536" spans="2:2" ht="12">
+    <row r="536" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="6"/>
     </row>
-    <row r="537" spans="2:2" ht="12">
+    <row r="537" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="6"/>
     </row>
-    <row r="538" spans="2:2" ht="12">
+    <row r="538" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="6"/>
     </row>
-    <row r="539" spans="2:2" ht="12">
+    <row r="539" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="6"/>
     </row>
-    <row r="540" spans="2:2" ht="12">
+    <row r="540" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="6"/>
     </row>
-    <row r="541" spans="2:2" ht="12">
+    <row r="541" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="6"/>
     </row>
-    <row r="542" spans="2:2" ht="12">
+    <row r="542" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="6"/>
     </row>
-    <row r="543" spans="2:2" ht="12">
+    <row r="543" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="6"/>
     </row>
-    <row r="544" spans="2:2" ht="12">
+    <row r="544" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="6"/>
     </row>
-    <row r="545" spans="2:2" ht="12">
+    <row r="545" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="6"/>
     </row>
-    <row r="546" spans="2:2" ht="12">
+    <row r="546" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="6"/>
     </row>
-    <row r="547" spans="2:2" ht="12">
+    <row r="547" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="6"/>
     </row>
-    <row r="548" spans="2:2" ht="12">
+    <row r="548" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="6"/>
     </row>
-    <row r="549" spans="2:2" ht="12">
+    <row r="549" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="6"/>
     </row>
-    <row r="550" spans="2:2" ht="12">
+    <row r="550" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="6"/>
     </row>
-    <row r="551" spans="2:2" ht="12">
+    <row r="551" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="6"/>
     </row>
-    <row r="552" spans="2:2" ht="12">
+    <row r="552" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="6"/>
     </row>
-    <row r="553" spans="2:2" ht="12">
+    <row r="553" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="6"/>
     </row>
-    <row r="554" spans="2:2" ht="12">
+    <row r="554" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="6"/>
     </row>
-    <row r="555" spans="2:2" ht="12">
+    <row r="555" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="6"/>
     </row>
-    <row r="556" spans="2:2" ht="12">
+    <row r="556" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="6"/>
     </row>
-    <row r="557" spans="2:2" ht="12">
+    <row r="557" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="6"/>
     </row>
-    <row r="558" spans="2:2" ht="12">
+    <row r="558" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="6"/>
     </row>
-    <row r="559" spans="2:2" ht="12">
+    <row r="559" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="6"/>
     </row>
-    <row r="560" spans="2:2" ht="12">
+    <row r="560" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="6"/>
     </row>
-    <row r="561" spans="2:2" ht="12">
+    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="6"/>
     </row>
-    <row r="562" spans="2:2" ht="12">
+    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="6"/>
     </row>
-    <row r="563" spans="2:2" ht="12">
+    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="6"/>
     </row>
-    <row r="564" spans="2:2" ht="12">
+    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="6"/>
     </row>
-    <row r="565" spans="2:2" ht="12">
+    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="6"/>
     </row>
-    <row r="566" spans="2:2" ht="12">
+    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="6"/>
     </row>
-    <row r="567" spans="2:2" ht="12">
+    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="6"/>
     </row>
-    <row r="568" spans="2:2" ht="12">
+    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="6"/>
     </row>
-    <row r="569" spans="2:2" ht="12">
+    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="6"/>
     </row>
-    <row r="570" spans="2:2" ht="12">
+    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="6"/>
     </row>
-    <row r="571" spans="2:2" ht="12">
+    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="6"/>
     </row>
-    <row r="572" spans="2:2" ht="12">
+    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="6"/>
     </row>
-    <row r="573" spans="2:2" ht="12">
+    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="6"/>
     </row>
-    <row r="574" spans="2:2" ht="12">
+    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="6"/>
     </row>
-    <row r="575" spans="2:2" ht="12">
+    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="6"/>
     </row>
-    <row r="576" spans="2:2" ht="12">
+    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="6"/>
     </row>
-    <row r="577" spans="2:2" ht="12">
+    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="6"/>
     </row>
-    <row r="578" spans="2:2" ht="12">
+    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="6"/>
     </row>
-    <row r="579" spans="2:2" ht="12">
+    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="6"/>
     </row>
-    <row r="580" spans="2:2" ht="12">
+    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="6"/>
     </row>
-    <row r="581" spans="2:2" ht="12">
+    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="6"/>
     </row>
-    <row r="582" spans="2:2" ht="12">
+    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="6"/>
     </row>
-    <row r="583" spans="2:2" ht="12">
+    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="6"/>
     </row>
-    <row r="584" spans="2:2" ht="12">
+    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="6"/>
     </row>
-    <row r="585" spans="2:2" ht="12">
+    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="6"/>
     </row>
-    <row r="586" spans="2:2" ht="12">
+    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="6"/>
     </row>
-    <row r="587" spans="2:2" ht="12">
+    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="6"/>
     </row>
-    <row r="588" spans="2:2" ht="12">
+    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="6"/>
     </row>
-    <row r="589" spans="2:2" ht="12">
+    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="6"/>
     </row>
-    <row r="590" spans="2:2" ht="12">
+    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="6"/>
     </row>
-    <row r="591" spans="2:2" ht="12">
+    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="6"/>
     </row>
-    <row r="592" spans="2:2" ht="12">
+    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="6"/>
     </row>
-    <row r="593" spans="2:2" ht="12">
+    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="6"/>
     </row>
-    <row r="594" spans="2:2" ht="12">
+    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="6"/>
     </row>
-    <row r="595" spans="2:2" ht="12">
+    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="6"/>
     </row>
-    <row r="596" spans="2:2" ht="12">
+    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="6"/>
     </row>
-    <row r="597" spans="2:2" ht="12">
+    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="6"/>
     </row>
-    <row r="598" spans="2:2" ht="12">
+    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="6"/>
     </row>
-    <row r="599" spans="2:2" ht="12">
+    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="6"/>
     </row>
-    <row r="600" spans="2:2" ht="12">
+    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="6"/>
     </row>
-    <row r="601" spans="2:2" ht="12">
+    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="6"/>
     </row>
-    <row r="602" spans="2:2" ht="12">
+    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="6"/>
     </row>
-    <row r="603" spans="2:2" ht="12">
+    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="6"/>
     </row>
-    <row r="604" spans="2:2" ht="12">
+    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="6"/>
     </row>
-    <row r="605" spans="2:2" ht="12">
+    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="6"/>
     </row>
-    <row r="606" spans="2:2" ht="12">
+    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="6"/>
     </row>
-    <row r="607" spans="2:2" ht="12">
+    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="6"/>
     </row>
-    <row r="608" spans="2:2" ht="12">
+    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="6"/>
     </row>
-    <row r="609" spans="2:2" ht="12">
+    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="6"/>
     </row>
-    <row r="610" spans="2:2" ht="12">
+    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="6"/>
     </row>
-    <row r="611" spans="2:2" ht="12">
+    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="6"/>
     </row>
-    <row r="612" spans="2:2" ht="12">
+    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="6"/>
     </row>
-    <row r="613" spans="2:2" ht="12">
+    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="6"/>
     </row>
-    <row r="614" spans="2:2" ht="12">
+    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="6"/>
     </row>
-    <row r="615" spans="2:2" ht="12">
+    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="6"/>
     </row>
-    <row r="616" spans="2:2" ht="12">
+    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="6"/>
     </row>
-    <row r="617" spans="2:2" ht="12">
+    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="6"/>
     </row>
-    <row r="618" spans="2:2" ht="12">
+    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="6"/>
     </row>
-    <row r="619" spans="2:2" ht="12">
+    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="6"/>
     </row>
-    <row r="620" spans="2:2" ht="12">
+    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="6"/>
     </row>
-    <row r="621" spans="2:2" ht="12">
+    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="6"/>
     </row>
-    <row r="622" spans="2:2" ht="12">
+    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="6"/>
     </row>
-    <row r="623" spans="2:2" ht="12">
+    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="6"/>
     </row>
-    <row r="624" spans="2:2" ht="12">
+    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="6"/>
     </row>
-    <row r="625" spans="2:2" ht="12">
+    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="6"/>
     </row>
-    <row r="626" spans="2:2" ht="12">
+    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="6"/>
     </row>
-    <row r="627" spans="2:2" ht="12">
+    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="6"/>
     </row>
-    <row r="628" spans="2:2" ht="12">
+    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="6"/>
     </row>
-    <row r="629" spans="2:2" ht="12">
+    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="6"/>
     </row>
-    <row r="630" spans="2:2" ht="12">
+    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="6"/>
     </row>
-    <row r="631" spans="2:2" ht="12">
+    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="6"/>
     </row>
-    <row r="632" spans="2:2" ht="12">
+    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="6"/>
     </row>
-    <row r="633" spans="2:2" ht="12">
+    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="6"/>
     </row>
-    <row r="634" spans="2:2" ht="12">
+    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="6"/>
     </row>
-    <row r="635" spans="2:2" ht="12">
+    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="6"/>
     </row>
-    <row r="636" spans="2:2" ht="12">
+    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="6"/>
     </row>
-    <row r="637" spans="2:2" ht="12">
+    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="6"/>
     </row>
-    <row r="638" spans="2:2" ht="12">
+    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="6"/>
     </row>
-    <row r="639" spans="2:2" ht="12">
+    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="6"/>
     </row>
-    <row r="640" spans="2:2" ht="12">
+    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="6"/>
     </row>
-    <row r="641" spans="2:2" ht="12">
+    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="6"/>
     </row>
-    <row r="642" spans="2:2" ht="12">
+    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="6"/>
     </row>
-    <row r="643" spans="2:2" ht="12">
+    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="6"/>
     </row>
-    <row r="644" spans="2:2" ht="12">
+    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="6"/>
     </row>
-    <row r="645" spans="2:2" ht="12">
+    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="6"/>
     </row>
-    <row r="646" spans="2:2" ht="12">
+    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="6"/>
     </row>
-    <row r="647" spans="2:2" ht="12">
+    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="6"/>
     </row>
-    <row r="648" spans="2:2" ht="12">
+    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="6"/>
     </row>
-    <row r="649" spans="2:2" ht="12">
+    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="6"/>
     </row>
-    <row r="650" spans="2:2" ht="12">
+    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="6"/>
     </row>
-    <row r="651" spans="2:2" ht="12">
+    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="6"/>
     </row>
-    <row r="652" spans="2:2" ht="12">
+    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="6"/>
     </row>
-    <row r="653" spans="2:2" ht="12">
+    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="6"/>
     </row>
-    <row r="654" spans="2:2" ht="12">
+    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="6"/>
     </row>
-    <row r="655" spans="2:2" ht="12">
+    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="6"/>
     </row>
-    <row r="656" spans="2:2" ht="12">
+    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="6"/>
     </row>
-    <row r="657" spans="2:2" ht="12">
+    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="6"/>
     </row>
-    <row r="658" spans="2:2" ht="12">
+    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="6"/>
     </row>
-    <row r="659" spans="2:2" ht="12">
+    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="6"/>
     </row>
-    <row r="660" spans="2:2" ht="12">
+    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="6"/>
     </row>
-    <row r="661" spans="2:2" ht="12">
+    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="6"/>
     </row>
-    <row r="662" spans="2:2" ht="12">
+    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="6"/>
     </row>
-    <row r="663" spans="2:2" ht="12">
+    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="6"/>
     </row>
-    <row r="664" spans="2:2" ht="12">
+    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="6"/>
     </row>
-    <row r="665" spans="2:2" ht="12">
+    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="6"/>
     </row>
-    <row r="666" spans="2:2" ht="12">
+    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="6"/>
     </row>
-    <row r="667" spans="2:2" ht="12">
+    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="6"/>
     </row>
-    <row r="668" spans="2:2" ht="12">
+    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="6"/>
     </row>
-    <row r="669" spans="2:2" ht="12">
+    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="6"/>
     </row>
-    <row r="670" spans="2:2" ht="12">
+    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="6"/>
     </row>
-    <row r="671" spans="2:2" ht="12">
+    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="6"/>
     </row>
-    <row r="672" spans="2:2" ht="12">
+    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="6"/>
     </row>
-    <row r="673" spans="2:2" ht="12">
+    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="6"/>
     </row>
-    <row r="674" spans="2:2" ht="12">
+    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="6"/>
     </row>
-    <row r="675" spans="2:2" ht="12">
+    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="6"/>
     </row>
-    <row r="676" spans="2:2" ht="12">
+    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="6"/>
     </row>
-    <row r="677" spans="2:2" ht="12">
+    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="6"/>
     </row>
-    <row r="678" spans="2:2" ht="12">
+    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="6"/>
     </row>
-    <row r="679" spans="2:2" ht="12">
+    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="6"/>
     </row>
-    <row r="680" spans="2:2" ht="12">
+    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="6"/>
     </row>
-    <row r="681" spans="2:2" ht="12">
+    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="6"/>
     </row>
-    <row r="682" spans="2:2" ht="12">
+    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="6"/>
     </row>
-    <row r="683" spans="2:2" ht="12">
+    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="6"/>
     </row>
-    <row r="684" spans="2:2" ht="12">
+    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="6"/>
     </row>
-    <row r="685" spans="2:2" ht="12">
+    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="6"/>
     </row>
-    <row r="686" spans="2:2" ht="12">
+    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="6"/>
     </row>
-    <row r="687" spans="2:2" ht="12">
+    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="6"/>
     </row>
-    <row r="688" spans="2:2" ht="12">
+    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="6"/>
     </row>
-    <row r="689" spans="2:2" ht="12">
+    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="6"/>
     </row>
-    <row r="690" spans="2:2" ht="12">
+    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="6"/>
     </row>
-    <row r="691" spans="2:2" ht="12">
+    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="6"/>
     </row>
-    <row r="692" spans="2:2" ht="12">
+    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="6"/>
     </row>
-    <row r="693" spans="2:2" ht="12">
+    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="6"/>
     </row>
-    <row r="694" spans="2:2" ht="12">
+    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="6"/>
     </row>
-    <row r="695" spans="2:2" ht="12">
+    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="6"/>
     </row>
-    <row r="696" spans="2:2" ht="12">
+    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="6"/>
     </row>
-    <row r="697" spans="2:2" ht="12">
+    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="6"/>
     </row>
-    <row r="698" spans="2:2" ht="12">
+    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="6"/>
     </row>
-    <row r="699" spans="2:2" ht="12">
+    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="6"/>
     </row>
-    <row r="700" spans="2:2" ht="12">
+    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="6"/>
     </row>
-    <row r="701" spans="2:2" ht="12">
+    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="6"/>
     </row>
-    <row r="702" spans="2:2" ht="12">
+    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="6"/>
     </row>
-    <row r="703" spans="2:2" ht="12">
+    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="6"/>
     </row>
-    <row r="704" spans="2:2" ht="12">
+    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="6"/>
     </row>
-    <row r="705" spans="2:2" ht="12">
+    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="6"/>
     </row>
-    <row r="706" spans="2:2" ht="12">
+    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="6"/>
     </row>
-    <row r="707" spans="2:2" ht="12">
+    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="6"/>
     </row>
-    <row r="708" spans="2:2" ht="12">
+    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="6"/>
     </row>
-    <row r="709" spans="2:2" ht="12">
+    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="6"/>
     </row>
-    <row r="710" spans="2:2" ht="12">
+    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="6"/>
     </row>
-    <row r="711" spans="2:2" ht="12">
+    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="6"/>
     </row>
-    <row r="712" spans="2:2" ht="12">
+    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="6"/>
     </row>
-    <row r="713" spans="2:2" ht="12">
+    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="6"/>
     </row>
-    <row r="714" spans="2:2" ht="12">
+    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="6"/>
     </row>
-    <row r="715" spans="2:2" ht="12">
+    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="6"/>
     </row>
-    <row r="716" spans="2:2" ht="12">
+    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="6"/>
     </row>
-    <row r="717" spans="2:2" ht="12">
+    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="6"/>
     </row>
-    <row r="718" spans="2:2" ht="12">
+    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="6"/>
     </row>
-    <row r="719" spans="2:2" ht="12">
+    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="6"/>
     </row>
-    <row r="720" spans="2:2" ht="12">
+    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="6"/>
     </row>
-    <row r="721" spans="2:2" ht="12">
+    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="6"/>
     </row>
-    <row r="722" spans="2:2" ht="12">
+    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="6"/>
     </row>
-    <row r="723" spans="2:2" ht="12">
+    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="6"/>
     </row>
-    <row r="724" spans="2:2" ht="12">
+    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="6"/>
     </row>
-    <row r="725" spans="2:2" ht="12">
+    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="6"/>
     </row>
-    <row r="726" spans="2:2" ht="12">
+    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="6"/>
     </row>
-    <row r="727" spans="2:2" ht="12">
+    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="6"/>
     </row>
-    <row r="728" spans="2:2" ht="12">
+    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="6"/>
     </row>
-    <row r="729" spans="2:2" ht="12">
+    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="6"/>
     </row>
-    <row r="730" spans="2:2" ht="12">
+    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="6"/>
     </row>
-    <row r="731" spans="2:2" ht="12">
+    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="6"/>
     </row>
-    <row r="732" spans="2:2" ht="12">
+    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="6"/>
     </row>
-    <row r="733" spans="2:2" ht="12">
+    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="6"/>
     </row>
-    <row r="734" spans="2:2" ht="12">
+    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="6"/>
     </row>
-    <row r="735" spans="2:2" ht="12">
+    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="6"/>
     </row>
-    <row r="736" spans="2:2" ht="12">
+    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="6"/>
     </row>
-    <row r="737" spans="2:2" ht="12">
+    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="6"/>
     </row>
-    <row r="738" spans="2:2" ht="12">
+    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="6"/>
     </row>
-    <row r="739" spans="2:2" ht="12">
+    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="6"/>
     </row>
-    <row r="740" spans="2:2" ht="12">
+    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="6"/>
     </row>
-    <row r="741" spans="2:2" ht="12">
+    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="6"/>
     </row>
-    <row r="742" spans="2:2" ht="12">
+    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="6"/>
     </row>
-    <row r="743" spans="2:2" ht="12">
+    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="6"/>
     </row>
-    <row r="744" spans="2:2" ht="12">
+    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="6"/>
     </row>
-    <row r="745" spans="2:2" ht="12">
+    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="6"/>
     </row>
-    <row r="746" spans="2:2" ht="12">
+    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="6"/>
     </row>
-    <row r="747" spans="2:2" ht="12">
+    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="6"/>
     </row>
-    <row r="748" spans="2:2" ht="12">
+    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="6"/>
     </row>
-    <row r="749" spans="2:2" ht="12">
+    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="6"/>
     </row>
-    <row r="750" spans="2:2" ht="12">
+    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="6"/>
     </row>
-    <row r="751" spans="2:2" ht="12">
+    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="6"/>
     </row>
-    <row r="752" spans="2:2" ht="12">
+    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="6"/>
     </row>
-    <row r="753" spans="2:2" ht="12">
+    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="6"/>
     </row>
-    <row r="754" spans="2:2" ht="12">
+    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="6"/>
     </row>
-    <row r="755" spans="2:2" ht="12">
+    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="6"/>
     </row>
-    <row r="756" spans="2:2" ht="12">
+    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="6"/>
     </row>
-    <row r="757" spans="2:2" ht="12">
+    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="6"/>
     </row>
-    <row r="758" spans="2:2" ht="12">
+    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="6"/>
     </row>
-    <row r="759" spans="2:2" ht="12">
+    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="6"/>
     </row>
-    <row r="760" spans="2:2" ht="12">
+    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="6"/>
     </row>
-    <row r="761" spans="2:2" ht="12">
+    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="6"/>
     </row>
-    <row r="762" spans="2:2" ht="12">
+    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="6"/>
     </row>
-    <row r="763" spans="2:2" ht="12">
+    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="6"/>
     </row>
-    <row r="764" spans="2:2" ht="12">
+    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="6"/>
     </row>
-    <row r="765" spans="2:2" ht="12">
+    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="6"/>
     </row>
-    <row r="766" spans="2:2" ht="12">
+    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="6"/>
     </row>
-    <row r="767" spans="2:2" ht="12">
+    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="6"/>
     </row>
-    <row r="768" spans="2:2" ht="12">
+    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="6"/>
     </row>
-    <row r="769" spans="2:2" ht="12">
+    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="6"/>
     </row>
-    <row r="770" spans="2:2" ht="12">
+    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="6"/>
     </row>
-    <row r="771" spans="2:2" ht="12">
+    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="6"/>
     </row>
-    <row r="772" spans="2:2" ht="12">
+    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="6"/>
     </row>
-    <row r="773" spans="2:2" ht="12">
+    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="6"/>
     </row>
-    <row r="774" spans="2:2" ht="12">
+    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="6"/>
     </row>
-    <row r="775" spans="2:2" ht="12">
+    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="6"/>
     </row>
-    <row r="776" spans="2:2" ht="12">
+    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="6"/>
     </row>
-    <row r="777" spans="2:2" ht="12">
+    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="6"/>
     </row>
-    <row r="778" spans="2:2" ht="12">
+    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="6"/>
     </row>
-    <row r="779" spans="2:2" ht="12">
+    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="6"/>
     </row>
-    <row r="780" spans="2:2" ht="12">
+    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="6"/>
     </row>
-    <row r="781" spans="2:2" ht="12">
+    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="6"/>
     </row>
-    <row r="782" spans="2:2" ht="12">
+    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="6"/>
     </row>
-    <row r="783" spans="2:2" ht="12">
+    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="6"/>
     </row>
-    <row r="784" spans="2:2" ht="12">
+    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="6"/>
     </row>
-    <row r="785" spans="2:2" ht="12">
+    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="6"/>
     </row>
-    <row r="786" spans="2:2" ht="12">
+    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="6"/>
     </row>
-    <row r="787" spans="2:2" ht="12">
+    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="6"/>
     </row>
-    <row r="788" spans="2:2" ht="12">
+    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="6"/>
     </row>
-    <row r="789" spans="2:2" ht="12">
+    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="6"/>
     </row>
-    <row r="790" spans="2:2" ht="12">
+    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="6"/>
     </row>
-    <row r="791" spans="2:2" ht="12">
+    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="6"/>
     </row>
-    <row r="792" spans="2:2" ht="12">
+    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="6"/>
     </row>
-    <row r="793" spans="2:2" ht="12">
+    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="6"/>
     </row>
-    <row r="794" spans="2:2" ht="12">
+    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="6"/>
     </row>
-    <row r="795" spans="2:2" ht="12">
+    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="6"/>
     </row>
-    <row r="796" spans="2:2" ht="12">
+    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="6"/>
     </row>
-    <row r="797" spans="2:2" ht="12">
+    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="6"/>
     </row>
-    <row r="798" spans="2:2" ht="12">
+    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="6"/>
     </row>
-    <row r="799" spans="2:2" ht="12">
+    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="6"/>
     </row>
-    <row r="800" spans="2:2" ht="12">
+    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="6"/>
     </row>
-    <row r="801" spans="2:2" ht="12">
+    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="6"/>
     </row>
-    <row r="802" spans="2:2" ht="12">
+    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="6"/>
     </row>
-    <row r="803" spans="2:2" ht="12">
+    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="6"/>
     </row>
-    <row r="804" spans="2:2" ht="12">
+    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="6"/>
     </row>
-    <row r="805" spans="2:2" ht="12">
+    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="6"/>
     </row>
-    <row r="806" spans="2:2" ht="12">
+    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="6"/>
     </row>
-    <row r="807" spans="2:2" ht="12">
+    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="6"/>
     </row>
-    <row r="808" spans="2:2" ht="12">
+    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="6"/>
     </row>
-    <row r="809" spans="2:2" ht="12">
+    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="6"/>
     </row>
-    <row r="810" spans="2:2" ht="12">
+    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="6"/>
     </row>
-    <row r="811" spans="2:2" ht="12">
+    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="6"/>
     </row>
-    <row r="812" spans="2:2" ht="12">
+    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="6"/>
     </row>
-    <row r="813" spans="2:2" ht="12">
+    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="6"/>
     </row>
-    <row r="814" spans="2:2" ht="12">
+    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="6"/>
     </row>
-    <row r="815" spans="2:2" ht="12">
+    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="6"/>
     </row>
-    <row r="816" spans="2:2" ht="12">
+    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="6"/>
     </row>
-    <row r="817" spans="2:2" ht="12">
+    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="6"/>
     </row>
-    <row r="818" spans="2:2" ht="12">
+    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="6"/>
     </row>
-    <row r="819" spans="2:2" ht="12">
+    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="6"/>
     </row>
-    <row r="820" spans="2:2" ht="12">
+    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="6"/>
     </row>
-    <row r="821" spans="2:2" ht="12">
+    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="6"/>
     </row>
-    <row r="822" spans="2:2" ht="12">
+    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="6"/>
     </row>
-    <row r="823" spans="2:2" ht="12">
+    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="6"/>
     </row>
-    <row r="824" spans="2:2" ht="12">
+    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="6"/>
     </row>
-    <row r="825" spans="2:2" ht="12">
+    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="6"/>
     </row>
-    <row r="826" spans="2:2" ht="12">
+    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="6"/>
     </row>
-    <row r="827" spans="2:2" ht="12">
+    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="6"/>
     </row>
-    <row r="828" spans="2:2" ht="12">
+    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="6"/>
     </row>
-    <row r="829" spans="2:2" ht="12">
+    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="6"/>
     </row>
-    <row r="830" spans="2:2" ht="12">
+    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="6"/>
     </row>
-    <row r="831" spans="2:2" ht="12">
+    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="6"/>
     </row>
-    <row r="832" spans="2:2" ht="12">
+    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="6"/>
     </row>
-    <row r="833" spans="2:2" ht="12">
+    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="6"/>
     </row>
-    <row r="834" spans="2:2" ht="12">
+    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="6"/>
     </row>
-    <row r="835" spans="2:2" ht="12">
+    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="6"/>
     </row>
-    <row r="836" spans="2:2" ht="12">
+    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="6"/>
     </row>
-    <row r="837" spans="2:2" ht="12">
+    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="6"/>
     </row>
-    <row r="838" spans="2:2" ht="12">
+    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="6"/>
     </row>
-    <row r="839" spans="2:2" ht="12">
+    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="6"/>
     </row>
-    <row r="840" spans="2:2" ht="12">
+    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="6"/>
     </row>
-    <row r="841" spans="2:2" ht="12">
+    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="6"/>
     </row>
-    <row r="842" spans="2:2" ht="12">
+    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="6"/>
     </row>
-    <row r="843" spans="2:2" ht="12">
+    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="6"/>
     </row>
-    <row r="844" spans="2:2" ht="12">
+    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="6"/>
     </row>
-    <row r="845" spans="2:2" ht="12">
+    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="6"/>
     </row>
-    <row r="846" spans="2:2" ht="12">
+    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="6"/>
     </row>
-    <row r="847" spans="2:2" ht="12">
+    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="6"/>
     </row>
-    <row r="848" spans="2:2" ht="12">
+    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="6"/>
     </row>
-    <row r="849" spans="2:2" ht="12">
+    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="6"/>
     </row>
-    <row r="850" spans="2:2" ht="12">
+    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="6"/>
     </row>
-    <row r="851" spans="2:2" ht="12">
+    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="6"/>
     </row>
-    <row r="852" spans="2:2" ht="12">
+    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="6"/>
     </row>
-    <row r="853" spans="2:2" ht="12">
+    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="6"/>
     </row>
-    <row r="854" spans="2:2" ht="12">
+    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="6"/>
     </row>
-    <row r="855" spans="2:2" ht="12">
+    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="6"/>
     </row>
-    <row r="856" spans="2:2" ht="12">
+    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="6"/>
     </row>
-    <row r="857" spans="2:2" ht="12">
+    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="6"/>
     </row>
-    <row r="858" spans="2:2" ht="12">
+    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="6"/>
     </row>
-    <row r="859" spans="2:2" ht="12">
+    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="6"/>
     </row>
-    <row r="860" spans="2:2" ht="12">
+    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="6"/>
     </row>
-    <row r="861" spans="2:2" ht="12">
+    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="6"/>
     </row>
-    <row r="862" spans="2:2" ht="12">
+    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="6"/>
     </row>
-    <row r="863" spans="2:2" ht="12">
+    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="6"/>
     </row>
-    <row r="864" spans="2:2" ht="12">
+    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="6"/>
     </row>
-    <row r="865" spans="2:2" ht="12">
+    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="6"/>
     </row>
-    <row r="866" spans="2:2" ht="12">
+    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="6"/>
     </row>
-    <row r="867" spans="2:2" ht="12">
+    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="6"/>
     </row>
-    <row r="868" spans="2:2" ht="12">
+    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="6"/>
     </row>
-    <row r="869" spans="2:2" ht="12">
+    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="6"/>
     </row>
-    <row r="870" spans="2:2" ht="12">
+    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="6"/>
     </row>
-    <row r="871" spans="2:2" ht="12">
+    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="6"/>
     </row>
-    <row r="872" spans="2:2" ht="12">
+    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="6"/>
     </row>
-    <row r="873" spans="2:2" ht="12">
+    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="6"/>
     </row>
-    <row r="874" spans="2:2" ht="12">
+    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="6"/>
     </row>
-    <row r="875" spans="2:2" ht="12">
+    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="6"/>
     </row>
-    <row r="876" spans="2:2" ht="12">
+    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="6"/>
     </row>
-    <row r="877" spans="2:2" ht="12">
+    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="6"/>
     </row>
-    <row r="878" spans="2:2" ht="12">
+    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="6"/>
     </row>
-    <row r="879" spans="2:2" ht="12">
+    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="6"/>
     </row>
-    <row r="880" spans="2:2" ht="12">
+    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="6"/>
     </row>
-    <row r="881" spans="2:2" ht="12">
+    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="6"/>
     </row>
-    <row r="882" spans="2:2" ht="12">
+    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="6"/>
     </row>
-    <row r="883" spans="2:2" ht="12">
+    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="6"/>
     </row>
-    <row r="884" spans="2:2" ht="12">
+    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="6"/>
     </row>
-    <row r="885" spans="2:2" ht="12">
+    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="6"/>
     </row>
-    <row r="886" spans="2:2" ht="12">
+    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="6"/>
     </row>
-    <row r="887" spans="2:2" ht="12">
+    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="6"/>
     </row>
-    <row r="888" spans="2:2" ht="12">
+    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="6"/>
     </row>
-    <row r="889" spans="2:2" ht="12">
+    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="6"/>
     </row>
-    <row r="890" spans="2:2" ht="12">
+    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="6"/>
     </row>
-    <row r="891" spans="2:2" ht="12">
+    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="6"/>
     </row>
-    <row r="892" spans="2:2" ht="12">
+    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="6"/>
     </row>
-    <row r="893" spans="2:2" ht="12">
+    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="6"/>
     </row>
-    <row r="894" spans="2:2" ht="12">
+    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="6"/>
     </row>
-    <row r="895" spans="2:2" ht="12">
+    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="6"/>
     </row>
-    <row r="896" spans="2:2" ht="12">
+    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="6"/>
     </row>
-    <row r="897" spans="2:2" ht="12">
+    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="6"/>
     </row>
-    <row r="898" spans="2:2" ht="12">
+    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="6"/>
     </row>
-    <row r="899" spans="2:2" ht="12">
+    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="6"/>
     </row>
-    <row r="900" spans="2:2" ht="12">
+    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="6"/>
     </row>
-    <row r="901" spans="2:2" ht="12">
+    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="6"/>
     </row>
-    <row r="902" spans="2:2" ht="12">
+    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="6"/>
     </row>
-    <row r="903" spans="2:2" ht="12">
+    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="6"/>
     </row>
-    <row r="904" spans="2:2" ht="12">
+    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="6"/>
     </row>
-    <row r="905" spans="2:2" ht="12">
+    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="6"/>
     </row>
-    <row r="906" spans="2:2" ht="12">
+    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="6"/>
     </row>
-    <row r="907" spans="2:2" ht="12">
+    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="6"/>
     </row>
-    <row r="908" spans="2:2" ht="12">
+    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="6"/>
     </row>
-    <row r="909" spans="2:2" ht="12">
+    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="6"/>
     </row>
-    <row r="910" spans="2:2" ht="12">
+    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="6"/>
     </row>
-    <row r="911" spans="2:2" ht="12">
+    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="6"/>
     </row>
-    <row r="912" spans="2:2" ht="12">
+    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="6"/>
     </row>
-    <row r="913" spans="2:2" ht="12">
+    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="6"/>
     </row>
-    <row r="914" spans="2:2" ht="12">
+    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="6"/>
     </row>
-    <row r="915" spans="2:2" ht="12">
+    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="6"/>
     </row>
-    <row r="916" spans="2:2" ht="12">
+    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="6"/>
     </row>
-    <row r="917" spans="2:2" ht="12">
+    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="6"/>
     </row>
-    <row r="918" spans="2:2" ht="12">
+    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="6"/>
     </row>
-    <row r="919" spans="2:2" ht="12">
+    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="6"/>
     </row>
-    <row r="920" spans="2:2" ht="12">
+    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="6"/>
     </row>
-    <row r="921" spans="2:2" ht="12">
+    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="6"/>
     </row>
-    <row r="922" spans="2:2" ht="12">
+    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="6"/>
     </row>
-    <row r="923" spans="2:2" ht="12">
+    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="6"/>
     </row>
-    <row r="924" spans="2:2" ht="12">
+    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="6"/>
     </row>
-    <row r="925" spans="2:2" ht="12">
+    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="6"/>
     </row>
-    <row r="926" spans="2:2" ht="12">
+    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="6"/>
     </row>
-    <row r="927" spans="2:2" ht="12">
+    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="6"/>
     </row>
-    <row r="928" spans="2:2" ht="12">
+    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="6"/>
     </row>
-    <row r="929" spans="2:2" ht="12">
+    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="6"/>
     </row>
-    <row r="930" spans="2:2" ht="12">
+    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="6"/>
     </row>
-    <row r="931" spans="2:2" ht="12">
+    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="6"/>
     </row>
-    <row r="932" spans="2:2" ht="12">
+    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="6"/>
     </row>
-    <row r="933" spans="2:2" ht="12">
+    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="6"/>
     </row>
-    <row r="934" spans="2:2" ht="12">
+    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="6"/>
     </row>
-    <row r="935" spans="2:2" ht="12">
+    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="6"/>
     </row>
-    <row r="936" spans="2:2" ht="12">
+    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="6"/>
     </row>
-    <row r="937" spans="2:2" ht="12">
+    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="6"/>
     </row>
-    <row r="938" spans="2:2" ht="12">
+    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="6"/>
     </row>
-    <row r="939" spans="2:2" ht="12">
+    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="6"/>
     </row>
-    <row r="940" spans="2:2" ht="12">
+    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="6"/>
     </row>
-    <row r="941" spans="2:2" ht="12">
+    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="6"/>
     </row>
-    <row r="942" spans="2:2" ht="12">
+    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="6"/>
     </row>
-    <row r="943" spans="2:2" ht="12">
+    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="6"/>
     </row>
-    <row r="944" spans="2:2" ht="12">
+    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="6"/>
     </row>
-    <row r="945" spans="2:2" ht="12">
+    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="6"/>
     </row>
-    <row r="946" spans="2:2" ht="12">
+    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="6"/>
     </row>
-    <row r="947" spans="2:2" ht="12">
+    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="6"/>
     </row>
-    <row r="948" spans="2:2" ht="12">
+    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="6"/>
     </row>
-    <row r="949" spans="2:2" ht="12">
+    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="6"/>
     </row>
-    <row r="950" spans="2:2" ht="12">
+    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="6"/>
     </row>
-    <row r="951" spans="2:2" ht="12">
+    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="6"/>
     </row>
-    <row r="952" spans="2:2" ht="12">
+    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="6"/>
     </row>
-    <row r="953" spans="2:2" ht="12">
+    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="6"/>
     </row>
-    <row r="954" spans="2:2" ht="12">
+    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="6"/>
     </row>
-    <row r="955" spans="2:2" ht="12">
+    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="6"/>
     </row>
-    <row r="956" spans="2:2" ht="12">
+    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="6"/>
     </row>
-    <row r="957" spans="2:2" ht="12">
+    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="6"/>
     </row>
-    <row r="958" spans="2:2" ht="12">
+    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="6"/>
     </row>
-    <row r="959" spans="2:2" ht="12">
+    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="6"/>
     </row>
-    <row r="960" spans="2:2" ht="12">
+    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="6"/>
     </row>
-    <row r="961" spans="2:2" ht="12">
+    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="6"/>
     </row>
-    <row r="962" spans="2:2" ht="12">
+    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="6"/>
     </row>
-    <row r="963" spans="2:2" ht="12">
+    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="6"/>
     </row>
-    <row r="964" spans="2:2" ht="12">
+    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="6"/>
     </row>
-    <row r="965" spans="2:2" ht="12">
+    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="6"/>
     </row>
-    <row r="966" spans="2:2" ht="12">
+    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="6"/>
     </row>
-    <row r="967" spans="2:2" ht="12">
+    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="6"/>
     </row>
-    <row r="968" spans="2:2" ht="12">
+    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="6"/>
     </row>
-    <row r="969" spans="2:2" ht="12">
+    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="6"/>
     </row>
-    <row r="970" spans="2:2" ht="12">
+    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="6"/>
     </row>
-    <row r="971" spans="2:2" ht="12">
+    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="6"/>
     </row>
-    <row r="972" spans="2:2" ht="12">
+    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="6"/>
     </row>
-    <row r="973" spans="2:2" ht="12">
+    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="6"/>
     </row>
-    <row r="974" spans="2:2" ht="12">
+    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="6"/>
     </row>
-    <row r="975" spans="2:2" ht="12">
+    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="6"/>
     </row>
-    <row r="976" spans="2:2" ht="12">
+    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="6"/>
     </row>
-    <row r="977" spans="2:2" ht="12">
+    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="6"/>
     </row>
-    <row r="978" spans="2:2" ht="12">
+    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="6"/>
     </row>
-    <row r="979" spans="2:2" ht="12">
+    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="6"/>
     </row>
-    <row r="980" spans="2:2" ht="12">
+    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="6"/>
     </row>
-    <row r="981" spans="2:2" ht="12">
+    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="6"/>
     </row>
-    <row r="982" spans="2:2" ht="12">
+    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="6"/>
     </row>
-    <row r="983" spans="2:2" ht="12">
+    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="6"/>
     </row>
-    <row r="984" spans="2:2" ht="12">
+    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="6"/>
     </row>
-    <row r="985" spans="2:2" ht="12">
+    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="6"/>
     </row>
-    <row r="986" spans="2:2" ht="12">
+    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="6"/>
     </row>
-    <row r="987" spans="2:2" ht="12">
+    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="6"/>
     </row>
-    <row r="988" spans="2:2" ht="12">
+    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="6"/>
     </row>
-    <row r="989" spans="2:2" ht="12">
+    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="6"/>
     </row>
   </sheetData>
@@ -4620,9 +4644,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -4660,7 +4684,7 @@
       <c r="Y1" s="11"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
@@ -4692,7 +4716,7 @@
       <c r="Y2" s="11"/>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -4724,7 +4748,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>45</v>
       </c>
@@ -4758,7 +4782,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>48</v>
       </c>
@@ -4792,7 +4816,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
@@ -4826,7 +4850,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -4846,7 +4870,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>60</v>
       </c>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2745" windowWidth="28155" windowHeight="16305"/>
+    <workbookView xWindow="-38260" yWindow="80" windowWidth="28160" windowHeight="16300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>Project</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Steven</t>
   </si>
   <si>
-    <t>National Grand Rounds - Tulane</t>
-  </si>
-  <si>
     <t>PI4LGR034</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Tim</t>
   </si>
   <si>
-    <t>Tampa Webcast</t>
-  </si>
-  <si>
     <t>Debbie</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>ESMO Ovarian Webcast</t>
   </si>
   <si>
-    <t>ESMO VJC</t>
-  </si>
-  <si>
     <t>PLATO Fellows Forum</t>
   </si>
   <si>
@@ -268,18 +259,12 @@
     <t>slides</t>
   </si>
   <si>
-    <t>Slides, CME links with web</t>
-  </si>
-  <si>
     <t>timings and ACD received</t>
   </si>
   <si>
     <t>awaiting final approval 10/28 and itunes podcast refresh</t>
   </si>
   <si>
-    <t>Edits made and routed 10/29</t>
-  </si>
-  <si>
     <t>Routed 10/29</t>
   </si>
   <si>
@@ -298,9 +283,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Live on site 10/23. Elisa sent edits 10/25 awaiting final approval for eblast.</t>
-  </si>
-  <si>
     <t>Routed 10/30</t>
   </si>
   <si>
@@ -314,13 +296,55 @@
   </si>
   <si>
     <t>awaiting slides</t>
+  </si>
+  <si>
+    <t>CTOS PDS</t>
+  </si>
+  <si>
+    <t>Jae</t>
+  </si>
+  <si>
+    <t>everything with Web</t>
+  </si>
+  <si>
+    <t>one support edit 10/30, awaiting Christine's approval</t>
+  </si>
+  <si>
+    <t>ESMO VJC NSCLC</t>
+  </si>
+  <si>
+    <t>Tampa Webcast - Moffit</t>
+  </si>
+  <si>
+    <t>National Grand Rounds - Tulane - New Orleans</t>
+  </si>
+  <si>
+    <t>Live on site 10/23.Awaiting final approval for eblast 10/28.</t>
+  </si>
+  <si>
+    <t>ER ALL</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>ESMO VJC EBC</t>
+  </si>
+  <si>
+    <t>ESMO VPS eblast</t>
+  </si>
+  <si>
+    <t>O'Brien CML Case eblast</t>
+  </si>
+  <si>
+    <t>Tim and Ben</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -384,8 +408,18 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +430,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -436,7 +476,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -470,6 +510,19 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -791,19 +844,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="52.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,7 +896,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
@@ -857,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>12</v>
@@ -866,60 +919,60 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>18</v>
+    </row>
+    <row r="4" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="27">
         <v>41929</v>
@@ -942,22 +995,22 @@
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
     </row>
-    <row r="6" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="28">
         <v>41932</v>
@@ -980,22 +1033,22 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -1016,68 +1069,68 @@
       <c r="W7" s="19"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="18"/>
       <c r="D8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="F9" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="D10" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -1098,22 +1151,22 @@
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1134,37 +1187,37 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="13" spans="1:24" s="33" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A14" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1185,18 +1238,18 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="30">
         <v>41943</v>
@@ -1219,21 +1272,23 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G16" s="30">
         <v>41943</v>
       </c>
@@ -1255,53 +1310,55 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1323,37 +1380,55 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-    </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+    <row r="19" spans="1:24" s="43" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="42">
+        <v>41948</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1375,11 +1450,17 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:24" ht="13">
+      <c r="A21" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1401,59 +1482,67 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-    </row>
-    <row r="23" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-    </row>
-    <row r="24" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" s="36" customFormat="1" ht="12">
+      <c r="A22" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+    </row>
+    <row r="23" spans="1:24" s="36" customFormat="1" ht="12">
+      <c r="A23" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+    </row>
+    <row r="24" spans="1:24" ht="12">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1479,7 +1568,7 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="12">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1505,7 +1594,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="12">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1531,7 +1620,7 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
     </row>
-    <row r="27" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="12">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1557,7 +1646,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
     </row>
-    <row r="28" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="12">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1583,7 +1672,7 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
     </row>
-    <row r="29" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="12">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1609,7 +1698,7 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
     </row>
-    <row r="30" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="12">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1635,7 +1724,7 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
     </row>
-    <row r="31" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="12">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1661,7 +1750,7 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
     </row>
-    <row r="32" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="12">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1687,7 +1776,7 @@
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
     </row>
-    <row r="33" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="12">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1713,7 +1802,7 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="12">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1739,7 +1828,7 @@
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
     </row>
-    <row r="35" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="12">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1765,2866 +1854,2866 @@
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
     </row>
-    <row r="36" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="12">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="12">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="12">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="12">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="12">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="12">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="12">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="12">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="12">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="12">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="12">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="12">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="12">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="12">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="12">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="12">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="12">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="12">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="12">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="12">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="12">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="12">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="12">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="12">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="12">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="12">
       <c r="B61" s="6"/>
     </row>
-    <row r="62" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="12">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="12">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="12">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="12">
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="12">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="12">
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="12">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="12">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="12">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="12">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="12">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="12">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="12">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="12">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" ht="12">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="12">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="12">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="12">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" ht="12">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" ht="12">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" ht="12">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" ht="12">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" ht="12">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" ht="12">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" ht="12">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" ht="12">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" ht="12">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" ht="12">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" ht="12">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" ht="12">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" ht="12">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" ht="12">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2" ht="12">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" ht="12">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" ht="12">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" ht="12">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" ht="12">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" ht="12">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" ht="12">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" ht="12">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" ht="12">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" ht="12">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" ht="12">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2" ht="12">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" ht="12">
       <c r="B106" s="6"/>
     </row>
-    <row r="107" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" ht="12">
       <c r="B107" s="6"/>
     </row>
-    <row r="108" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2" ht="12">
       <c r="B108" s="6"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" ht="12">
       <c r="B109" s="6"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" ht="12">
       <c r="B110" s="6"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2" ht="12">
       <c r="B111" s="6"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" ht="12">
       <c r="B112" s="6"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" ht="12">
       <c r="B113" s="6"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" ht="12">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" ht="12">
       <c r="B115" s="6"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" ht="12">
       <c r="B116" s="6"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" ht="12">
       <c r="B117" s="6"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2" ht="12">
       <c r="B118" s="6"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" ht="12">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2" ht="12">
       <c r="B120" s="6"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" ht="12">
       <c r="B121" s="6"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" ht="12">
       <c r="B122" s="6"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" ht="12">
       <c r="B123" s="6"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" ht="12">
       <c r="B124" s="6"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" ht="12">
       <c r="B125" s="6"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2" ht="12">
       <c r="B126" s="6"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" ht="12">
       <c r="B127" s="6"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2" ht="12">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" ht="12">
       <c r="B129" s="6"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" ht="12">
       <c r="B130" s="6"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" ht="12">
       <c r="B131" s="6"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" ht="12">
       <c r="B132" s="6"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" ht="12">
       <c r="B133" s="6"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" ht="12">
       <c r="B134" s="6"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" ht="12">
       <c r="B135" s="6"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" ht="12">
       <c r="B136" s="6"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" ht="12">
       <c r="B137" s="6"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" ht="12">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" ht="12">
       <c r="B139" s="6"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" ht="12">
       <c r="B140" s="6"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" ht="12">
       <c r="B141" s="6"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2" ht="12">
       <c r="B142" s="6"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2" ht="12">
       <c r="B143" s="6"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" ht="12">
       <c r="B144" s="6"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" ht="12">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" ht="12">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" ht="12">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" ht="12">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" ht="12">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" ht="12">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" ht="12">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" ht="12">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" ht="12">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" ht="12">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" ht="12">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" ht="12">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" ht="12">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" ht="12">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" ht="12">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" ht="12">
       <c r="B160" s="6"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" ht="12">
       <c r="B161" s="6"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" ht="12">
       <c r="B162" s="6"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" ht="12">
       <c r="B163" s="6"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" ht="12">
       <c r="B164" s="6"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" ht="12">
       <c r="B165" s="6"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" ht="12">
       <c r="B166" s="6"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" ht="12">
       <c r="B167" s="6"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" ht="12">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2" ht="12">
       <c r="B169" s="6"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2" ht="12">
       <c r="B170" s="6"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2" ht="12">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2" ht="12">
       <c r="B172" s="6"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2" ht="12">
       <c r="B173" s="6"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2" ht="12">
       <c r="B174" s="6"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2" ht="12">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2" ht="12">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" ht="12">
       <c r="B177" s="6"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2" ht="12">
       <c r="B178" s="6"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2" ht="12">
       <c r="B179" s="6"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2" ht="12">
       <c r="B180" s="6"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2" ht="12">
       <c r="B181" s="6"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2" ht="12">
       <c r="B182" s="6"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2" ht="12">
       <c r="B183" s="6"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2" ht="12">
       <c r="B184" s="6"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2" ht="12">
       <c r="B185" s="6"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2" ht="12">
       <c r="B186" s="6"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2" ht="12">
       <c r="B187" s="6"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2" ht="12">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2" ht="12">
       <c r="B189" s="6"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2" ht="12">
       <c r="B190" s="6"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2" ht="12">
       <c r="B191" s="6"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2" ht="12">
       <c r="B192" s="6"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2" ht="12">
       <c r="B193" s="6"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2" ht="12">
       <c r="B194" s="6"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2" ht="12">
       <c r="B195" s="6"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2" ht="12">
       <c r="B196" s="6"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2" ht="12">
       <c r="B197" s="6"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2" ht="12">
       <c r="B198" s="6"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2" ht="12">
       <c r="B199" s="6"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2" ht="12">
       <c r="B200" s="6"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2" ht="12">
       <c r="B201" s="6"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2" ht="12">
       <c r="B202" s="6"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2" ht="12">
       <c r="B203" s="6"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2" ht="12">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2" ht="12">
       <c r="B205" s="6"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2" ht="12">
       <c r="B206" s="6"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2" ht="12">
       <c r="B207" s="6"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2" ht="12">
       <c r="B208" s="6"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" ht="12">
       <c r="B209" s="6"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2" ht="12">
       <c r="B210" s="6"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2" ht="12">
       <c r="B211" s="6"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2" ht="12">
       <c r="B212" s="6"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2" ht="12">
       <c r="B213" s="6"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2" ht="12">
       <c r="B214" s="6"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2" ht="12">
       <c r="B215" s="6"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2" ht="12">
       <c r="B216" s="6"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2" ht="12">
       <c r="B217" s="6"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2" ht="12">
       <c r="B218" s="6"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2" ht="12">
       <c r="B219" s="6"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2" ht="12">
       <c r="B220" s="6"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2" ht="12">
       <c r="B221" s="6"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2" ht="12">
       <c r="B222" s="6"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2" ht="12">
       <c r="B223" s="6"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2" ht="12">
       <c r="B224" s="6"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2" ht="12">
       <c r="B225" s="6"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2" ht="12">
       <c r="B226" s="6"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2" ht="12">
       <c r="B227" s="6"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2" ht="12">
       <c r="B228" s="6"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2" ht="12">
       <c r="B229" s="6"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2" ht="12">
       <c r="B230" s="6"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2" ht="12">
       <c r="B231" s="6"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2" ht="12">
       <c r="B232" s="6"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2" ht="12">
       <c r="B233" s="6"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2" ht="12">
       <c r="B234" s="6"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2" ht="12">
       <c r="B235" s="6"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2" ht="12">
       <c r="B236" s="6"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2" ht="12">
       <c r="B237" s="6"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2" ht="12">
       <c r="B238" s="6"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2" ht="12">
       <c r="B239" s="6"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2" ht="12">
       <c r="B240" s="6"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2" ht="12">
       <c r="B241" s="6"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2" ht="12">
       <c r="B242" s="6"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2" ht="12">
       <c r="B243" s="6"/>
     </row>
-    <row r="244" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2" ht="12">
       <c r="B244" s="6"/>
     </row>
-    <row r="245" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2" ht="12">
       <c r="B245" s="6"/>
     </row>
-    <row r="246" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2" ht="12">
       <c r="B246" s="6"/>
     </row>
-    <row r="247" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2" ht="12">
       <c r="B247" s="6"/>
     </row>
-    <row r="248" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2" ht="12">
       <c r="B248" s="6"/>
     </row>
-    <row r="249" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2" ht="12">
       <c r="B249" s="6"/>
     </row>
-    <row r="250" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2" ht="12">
       <c r="B250" s="6"/>
     </row>
-    <row r="251" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2" ht="12">
       <c r="B251" s="6"/>
     </row>
-    <row r="252" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2" ht="12">
       <c r="B252" s="6"/>
     </row>
-    <row r="253" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2" ht="12">
       <c r="B253" s="6"/>
     </row>
-    <row r="254" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2" ht="12">
       <c r="B254" s="6"/>
     </row>
-    <row r="255" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2" ht="12">
       <c r="B255" s="6"/>
     </row>
-    <row r="256" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2" ht="12">
       <c r="B256" s="6"/>
     </row>
-    <row r="257" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2" ht="12">
       <c r="B257" s="6"/>
     </row>
-    <row r="258" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2" ht="12">
       <c r="B258" s="6"/>
     </row>
-    <row r="259" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2" ht="12">
       <c r="B259" s="6"/>
     </row>
-    <row r="260" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2" ht="12">
       <c r="B260" s="6"/>
     </row>
-    <row r="261" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2" ht="12">
       <c r="B261" s="6"/>
     </row>
-    <row r="262" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2" ht="12">
       <c r="B262" s="6"/>
     </row>
-    <row r="263" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2" ht="12">
       <c r="B263" s="6"/>
     </row>
-    <row r="264" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2" ht="12">
       <c r="B264" s="6"/>
     </row>
-    <row r="265" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2" ht="12">
       <c r="B265" s="6"/>
     </row>
-    <row r="266" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2" ht="12">
       <c r="B266" s="6"/>
     </row>
-    <row r="267" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2" ht="12">
       <c r="B267" s="6"/>
     </row>
-    <row r="268" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:2" ht="12">
       <c r="B268" s="6"/>
     </row>
-    <row r="269" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:2" ht="12">
       <c r="B269" s="6"/>
     </row>
-    <row r="270" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:2" ht="12">
       <c r="B270" s="6"/>
     </row>
-    <row r="271" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:2" ht="12">
       <c r="B271" s="6"/>
     </row>
-    <row r="272" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:2" ht="12">
       <c r="B272" s="6"/>
     </row>
-    <row r="273" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:2" ht="12">
       <c r="B273" s="6"/>
     </row>
-    <row r="274" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2" ht="12">
       <c r="B274" s="6"/>
     </row>
-    <row r="275" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2" ht="12">
       <c r="B275" s="6"/>
     </row>
-    <row r="276" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2" ht="12">
       <c r="B276" s="6"/>
     </row>
-    <row r="277" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:2" ht="12">
       <c r="B277" s="6"/>
     </row>
-    <row r="278" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:2" ht="12">
       <c r="B278" s="6"/>
     </row>
-    <row r="279" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:2" ht="12">
       <c r="B279" s="6"/>
     </row>
-    <row r="280" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:2" ht="12">
       <c r="B280" s="6"/>
     </row>
-    <row r="281" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:2" ht="12">
       <c r="B281" s="6"/>
     </row>
-    <row r="282" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:2" ht="12">
       <c r="B282" s="6"/>
     </row>
-    <row r="283" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:2" ht="12">
       <c r="B283" s="6"/>
     </row>
-    <row r="284" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:2" ht="12">
       <c r="B284" s="6"/>
     </row>
-    <row r="285" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:2" ht="12">
       <c r="B285" s="6"/>
     </row>
-    <row r="286" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:2" ht="12">
       <c r="B286" s="6"/>
     </row>
-    <row r="287" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:2" ht="12">
       <c r="B287" s="6"/>
     </row>
-    <row r="288" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:2" ht="12">
       <c r="B288" s="6"/>
     </row>
-    <row r="289" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:2" ht="12">
       <c r="B289" s="6"/>
     </row>
-    <row r="290" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:2" ht="12">
       <c r="B290" s="6"/>
     </row>
-    <row r="291" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:2" ht="12">
       <c r="B291" s="6"/>
     </row>
-    <row r="292" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:2" ht="12">
       <c r="B292" s="6"/>
     </row>
-    <row r="293" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:2" ht="12">
       <c r="B293" s="6"/>
     </row>
-    <row r="294" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:2" ht="12">
       <c r="B294" s="6"/>
     </row>
-    <row r="295" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:2" ht="12">
       <c r="B295" s="6"/>
     </row>
-    <row r="296" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:2" ht="12">
       <c r="B296" s="6"/>
     </row>
-    <row r="297" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:2" ht="12">
       <c r="B297" s="6"/>
     </row>
-    <row r="298" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:2" ht="12">
       <c r="B298" s="6"/>
     </row>
-    <row r="299" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:2" ht="12">
       <c r="B299" s="6"/>
     </row>
-    <row r="300" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:2" ht="12">
       <c r="B300" s="6"/>
     </row>
-    <row r="301" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:2" ht="12">
       <c r="B301" s="6"/>
     </row>
-    <row r="302" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:2" ht="12">
       <c r="B302" s="6"/>
     </row>
-    <row r="303" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:2" ht="12">
       <c r="B303" s="6"/>
     </row>
-    <row r="304" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:2" ht="12">
       <c r="B304" s="6"/>
     </row>
-    <row r="305" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:2" ht="12">
       <c r="B305" s="6"/>
     </row>
-    <row r="306" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:2" ht="12">
       <c r="B306" s="6"/>
     </row>
-    <row r="307" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:2" ht="12">
       <c r="B307" s="6"/>
     </row>
-    <row r="308" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:2" ht="12">
       <c r="B308" s="6"/>
     </row>
-    <row r="309" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:2" ht="12">
       <c r="B309" s="6"/>
     </row>
-    <row r="310" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:2" ht="12">
       <c r="B310" s="6"/>
     </row>
-    <row r="311" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:2" ht="12">
       <c r="B311" s="6"/>
     </row>
-    <row r="312" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:2" ht="12">
       <c r="B312" s="6"/>
     </row>
-    <row r="313" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:2" ht="12">
       <c r="B313" s="6"/>
     </row>
-    <row r="314" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:2" ht="12">
       <c r="B314" s="6"/>
     </row>
-    <row r="315" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:2" ht="12">
       <c r="B315" s="6"/>
     </row>
-    <row r="316" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:2" ht="12">
       <c r="B316" s="6"/>
     </row>
-    <row r="317" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:2" ht="12">
       <c r="B317" s="6"/>
     </row>
-    <row r="318" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:2" ht="12">
       <c r="B318" s="6"/>
     </row>
-    <row r="319" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:2" ht="12">
       <c r="B319" s="6"/>
     </row>
-    <row r="320" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:2" ht="12">
       <c r="B320" s="6"/>
     </row>
-    <row r="321" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:2" ht="12">
       <c r="B321" s="6"/>
     </row>
-    <row r="322" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:2" ht="12">
       <c r="B322" s="6"/>
     </row>
-    <row r="323" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:2" ht="12">
       <c r="B323" s="6"/>
     </row>
-    <row r="324" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:2" ht="12">
       <c r="B324" s="6"/>
     </row>
-    <row r="325" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:2" ht="12">
       <c r="B325" s="6"/>
     </row>
-    <row r="326" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:2" ht="12">
       <c r="B326" s="6"/>
     </row>
-    <row r="327" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:2" ht="12">
       <c r="B327" s="6"/>
     </row>
-    <row r="328" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:2" ht="12">
       <c r="B328" s="6"/>
     </row>
-    <row r="329" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:2" ht="12">
       <c r="B329" s="6"/>
     </row>
-    <row r="330" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:2" ht="12">
       <c r="B330" s="6"/>
     </row>
-    <row r="331" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:2" ht="12">
       <c r="B331" s="6"/>
     </row>
-    <row r="332" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:2" ht="12">
       <c r="B332" s="6"/>
     </row>
-    <row r="333" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:2" ht="12">
       <c r="B333" s="6"/>
     </row>
-    <row r="334" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:2" ht="12">
       <c r="B334" s="6"/>
     </row>
-    <row r="335" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:2" ht="12">
       <c r="B335" s="6"/>
     </row>
-    <row r="336" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:2" ht="12">
       <c r="B336" s="6"/>
     </row>
-    <row r="337" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:2" ht="12">
       <c r="B337" s="6"/>
     </row>
-    <row r="338" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:2" ht="12">
       <c r="B338" s="6"/>
     </row>
-    <row r="339" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:2" ht="12">
       <c r="B339" s="6"/>
     </row>
-    <row r="340" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:2" ht="12">
       <c r="B340" s="6"/>
     </row>
-    <row r="341" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:2" ht="12">
       <c r="B341" s="6"/>
     </row>
-    <row r="342" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:2" ht="12">
       <c r="B342" s="6"/>
     </row>
-    <row r="343" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:2" ht="12">
       <c r="B343" s="6"/>
     </row>
-    <row r="344" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:2" ht="12">
       <c r="B344" s="6"/>
     </row>
-    <row r="345" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:2" ht="12">
       <c r="B345" s="6"/>
     </row>
-    <row r="346" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:2" ht="12">
       <c r="B346" s="6"/>
     </row>
-    <row r="347" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:2" ht="12">
       <c r="B347" s="6"/>
     </row>
-    <row r="348" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:2" ht="12">
       <c r="B348" s="6"/>
     </row>
-    <row r="349" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:2" ht="12">
       <c r="B349" s="6"/>
     </row>
-    <row r="350" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:2" ht="12">
       <c r="B350" s="6"/>
     </row>
-    <row r="351" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:2" ht="12">
       <c r="B351" s="6"/>
     </row>
-    <row r="352" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:2" ht="12">
       <c r="B352" s="6"/>
     </row>
-    <row r="353" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:2" ht="12">
       <c r="B353" s="6"/>
     </row>
-    <row r="354" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:2" ht="12">
       <c r="B354" s="6"/>
     </row>
-    <row r="355" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:2" ht="12">
       <c r="B355" s="6"/>
     </row>
-    <row r="356" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:2" ht="12">
       <c r="B356" s="6"/>
     </row>
-    <row r="357" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:2" ht="12">
       <c r="B357" s="6"/>
     </row>
-    <row r="358" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:2" ht="12">
       <c r="B358" s="6"/>
     </row>
-    <row r="359" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:2" ht="12">
       <c r="B359" s="6"/>
     </row>
-    <row r="360" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:2" ht="12">
       <c r="B360" s="6"/>
     </row>
-    <row r="361" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:2" ht="12">
       <c r="B361" s="6"/>
     </row>
-    <row r="362" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:2" ht="12">
       <c r="B362" s="6"/>
     </row>
-    <row r="363" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:2" ht="12">
       <c r="B363" s="6"/>
     </row>
-    <row r="364" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:2" ht="12">
       <c r="B364" s="6"/>
     </row>
-    <row r="365" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:2" ht="12">
       <c r="B365" s="6"/>
     </row>
-    <row r="366" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:2" ht="12">
       <c r="B366" s="6"/>
     </row>
-    <row r="367" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:2" ht="12">
       <c r="B367" s="6"/>
     </row>
-    <row r="368" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:2" ht="12">
       <c r="B368" s="6"/>
     </row>
-    <row r="369" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:2" ht="12">
       <c r="B369" s="6"/>
     </row>
-    <row r="370" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:2" ht="12">
       <c r="B370" s="6"/>
     </row>
-    <row r="371" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:2" ht="12">
       <c r="B371" s="6"/>
     </row>
-    <row r="372" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:2" ht="12">
       <c r="B372" s="6"/>
     </row>
-    <row r="373" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:2" ht="12">
       <c r="B373" s="6"/>
     </row>
-    <row r="374" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:2" ht="12">
       <c r="B374" s="6"/>
     </row>
-    <row r="375" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:2" ht="12">
       <c r="B375" s="6"/>
     </row>
-    <row r="376" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:2" ht="12">
       <c r="B376" s="6"/>
     </row>
-    <row r="377" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:2" ht="12">
       <c r="B377" s="6"/>
     </row>
-    <row r="378" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:2" ht="12">
       <c r="B378" s="6"/>
     </row>
-    <row r="379" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:2" ht="12">
       <c r="B379" s="6"/>
     </row>
-    <row r="380" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:2" ht="12">
       <c r="B380" s="6"/>
     </row>
-    <row r="381" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:2" ht="12">
       <c r="B381" s="6"/>
     </row>
-    <row r="382" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:2" ht="12">
       <c r="B382" s="6"/>
     </row>
-    <row r="383" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:2" ht="12">
       <c r="B383" s="6"/>
     </row>
-    <row r="384" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:2" ht="12">
       <c r="B384" s="6"/>
     </row>
-    <row r="385" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:2" ht="12">
       <c r="B385" s="6"/>
     </row>
-    <row r="386" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:2" ht="12">
       <c r="B386" s="6"/>
     </row>
-    <row r="387" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:2" ht="12">
       <c r="B387" s="6"/>
     </row>
-    <row r="388" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:2" ht="12">
       <c r="B388" s="6"/>
     </row>
-    <row r="389" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:2" ht="12">
       <c r="B389" s="6"/>
     </row>
-    <row r="390" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:2" ht="12">
       <c r="B390" s="6"/>
     </row>
-    <row r="391" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:2" ht="12">
       <c r="B391" s="6"/>
     </row>
-    <row r="392" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:2" ht="12">
       <c r="B392" s="6"/>
     </row>
-    <row r="393" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:2" ht="12">
       <c r="B393" s="6"/>
     </row>
-    <row r="394" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:2" ht="12">
       <c r="B394" s="6"/>
     </row>
-    <row r="395" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:2" ht="12">
       <c r="B395" s="6"/>
     </row>
-    <row r="396" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:2" ht="12">
       <c r="B396" s="6"/>
     </row>
-    <row r="397" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:2" ht="12">
       <c r="B397" s="6"/>
     </row>
-    <row r="398" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:2" ht="12">
       <c r="B398" s="6"/>
     </row>
-    <row r="399" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:2" ht="12">
       <c r="B399" s="6"/>
     </row>
-    <row r="400" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:2" ht="12">
       <c r="B400" s="6"/>
     </row>
-    <row r="401" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:2" ht="12">
       <c r="B401" s="6"/>
     </row>
-    <row r="402" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:2" ht="12">
       <c r="B402" s="6"/>
     </row>
-    <row r="403" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:2" ht="12">
       <c r="B403" s="6"/>
     </row>
-    <row r="404" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:2" ht="12">
       <c r="B404" s="6"/>
     </row>
-    <row r="405" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:2" ht="12">
       <c r="B405" s="6"/>
     </row>
-    <row r="406" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:2" ht="12">
       <c r="B406" s="6"/>
     </row>
-    <row r="407" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:2" ht="12">
       <c r="B407" s="6"/>
     </row>
-    <row r="408" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:2" ht="12">
       <c r="B408" s="6"/>
     </row>
-    <row r="409" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:2" ht="12">
       <c r="B409" s="6"/>
     </row>
-    <row r="410" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:2" ht="12">
       <c r="B410" s="6"/>
     </row>
-    <row r="411" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:2" ht="12">
       <c r="B411" s="6"/>
     </row>
-    <row r="412" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:2" ht="12">
       <c r="B412" s="6"/>
     </row>
-    <row r="413" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:2" ht="12">
       <c r="B413" s="6"/>
     </row>
-    <row r="414" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:2" ht="12">
       <c r="B414" s="6"/>
     </row>
-    <row r="415" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:2" ht="12">
       <c r="B415" s="6"/>
     </row>
-    <row r="416" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:2" ht="12">
       <c r="B416" s="6"/>
     </row>
-    <row r="417" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:2" ht="12">
       <c r="B417" s="6"/>
     </row>
-    <row r="418" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:2" ht="12">
       <c r="B418" s="6"/>
     </row>
-    <row r="419" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:2" ht="12">
       <c r="B419" s="6"/>
     </row>
-    <row r="420" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:2" ht="12">
       <c r="B420" s="6"/>
     </row>
-    <row r="421" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:2" ht="12">
       <c r="B421" s="6"/>
     </row>
-    <row r="422" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:2" ht="12">
       <c r="B422" s="6"/>
     </row>
-    <row r="423" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:2" ht="12">
       <c r="B423" s="6"/>
     </row>
-    <row r="424" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:2" ht="12">
       <c r="B424" s="6"/>
     </row>
-    <row r="425" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:2" ht="12">
       <c r="B425" s="6"/>
     </row>
-    <row r="426" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:2" ht="12">
       <c r="B426" s="6"/>
     </row>
-    <row r="427" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:2" ht="12">
       <c r="B427" s="6"/>
     </row>
-    <row r="428" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:2" ht="12">
       <c r="B428" s="6"/>
     </row>
-    <row r="429" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:2" ht="12">
       <c r="B429" s="6"/>
     </row>
-    <row r="430" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:2" ht="12">
       <c r="B430" s="6"/>
     </row>
-    <row r="431" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:2" ht="12">
       <c r="B431" s="6"/>
     </row>
-    <row r="432" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:2" ht="12">
       <c r="B432" s="6"/>
     </row>
-    <row r="433" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:2" ht="12">
       <c r="B433" s="6"/>
     </row>
-    <row r="434" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:2" ht="12">
       <c r="B434" s="6"/>
     </row>
-    <row r="435" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:2" ht="12">
       <c r="B435" s="6"/>
     </row>
-    <row r="436" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:2" ht="12">
       <c r="B436" s="6"/>
     </row>
-    <row r="437" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:2" ht="12">
       <c r="B437" s="6"/>
     </row>
-    <row r="438" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:2" ht="12">
       <c r="B438" s="6"/>
     </row>
-    <row r="439" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:2" ht="12">
       <c r="B439" s="6"/>
     </row>
-    <row r="440" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:2" ht="12">
       <c r="B440" s="6"/>
     </row>
-    <row r="441" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:2" ht="12">
       <c r="B441" s="6"/>
     </row>
-    <row r="442" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:2" ht="12">
       <c r="B442" s="6"/>
     </row>
-    <row r="443" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:2" ht="12">
       <c r="B443" s="6"/>
     </row>
-    <row r="444" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:2" ht="12">
       <c r="B444" s="6"/>
     </row>
-    <row r="445" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:2" ht="12">
       <c r="B445" s="6"/>
     </row>
-    <row r="446" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:2" ht="12">
       <c r="B446" s="6"/>
     </row>
-    <row r="447" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:2" ht="12">
       <c r="B447" s="6"/>
     </row>
-    <row r="448" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:2" ht="12">
       <c r="B448" s="6"/>
     </row>
-    <row r="449" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:2" ht="12">
       <c r="B449" s="6"/>
     </row>
-    <row r="450" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:2" ht="12">
       <c r="B450" s="6"/>
     </row>
-    <row r="451" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:2" ht="12">
       <c r="B451" s="6"/>
     </row>
-    <row r="452" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:2" ht="12">
       <c r="B452" s="6"/>
     </row>
-    <row r="453" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:2" ht="12">
       <c r="B453" s="6"/>
     </row>
-    <row r="454" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:2" ht="12">
       <c r="B454" s="6"/>
     </row>
-    <row r="455" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:2" ht="12">
       <c r="B455" s="6"/>
     </row>
-    <row r="456" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:2" ht="12">
       <c r="B456" s="6"/>
     </row>
-    <row r="457" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:2" ht="12">
       <c r="B457" s="6"/>
     </row>
-    <row r="458" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:2" ht="12">
       <c r="B458" s="6"/>
     </row>
-    <row r="459" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:2" ht="12">
       <c r="B459" s="6"/>
     </row>
-    <row r="460" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:2" ht="12">
       <c r="B460" s="6"/>
     </row>
-    <row r="461" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:2" ht="12">
       <c r="B461" s="6"/>
     </row>
-    <row r="462" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:2" ht="12">
       <c r="B462" s="6"/>
     </row>
-    <row r="463" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:2" ht="12">
       <c r="B463" s="6"/>
     </row>
-    <row r="464" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:2" ht="12">
       <c r="B464" s="6"/>
     </row>
-    <row r="465" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:2" ht="12">
       <c r="B465" s="6"/>
     </row>
-    <row r="466" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:2" ht="12">
       <c r="B466" s="6"/>
     </row>
-    <row r="467" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:2" ht="12">
       <c r="B467" s="6"/>
     </row>
-    <row r="468" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:2" ht="12">
       <c r="B468" s="6"/>
     </row>
-    <row r="469" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:2" ht="12">
       <c r="B469" s="6"/>
     </row>
-    <row r="470" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:2" ht="12">
       <c r="B470" s="6"/>
     </row>
-    <row r="471" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:2" ht="12">
       <c r="B471" s="6"/>
     </row>
-    <row r="472" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:2" ht="12">
       <c r="B472" s="6"/>
     </row>
-    <row r="473" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:2" ht="12">
       <c r="B473" s="6"/>
     </row>
-    <row r="474" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:2" ht="12">
       <c r="B474" s="6"/>
     </row>
-    <row r="475" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:2" ht="12">
       <c r="B475" s="6"/>
     </row>
-    <row r="476" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:2" ht="12">
       <c r="B476" s="6"/>
     </row>
-    <row r="477" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:2" ht="12">
       <c r="B477" s="6"/>
     </row>
-    <row r="478" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:2" ht="12">
       <c r="B478" s="6"/>
     </row>
-    <row r="479" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:2" ht="12">
       <c r="B479" s="6"/>
     </row>
-    <row r="480" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:2" ht="12">
       <c r="B480" s="6"/>
     </row>
-    <row r="481" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:2" ht="12">
       <c r="B481" s="6"/>
     </row>
-    <row r="482" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:2" ht="12">
       <c r="B482" s="6"/>
     </row>
-    <row r="483" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:2" ht="12">
       <c r="B483" s="6"/>
     </row>
-    <row r="484" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:2" ht="12">
       <c r="B484" s="6"/>
     </row>
-    <row r="485" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:2" ht="12">
       <c r="B485" s="6"/>
     </row>
-    <row r="486" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:2" ht="12">
       <c r="B486" s="6"/>
     </row>
-    <row r="487" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:2" ht="12">
       <c r="B487" s="6"/>
     </row>
-    <row r="488" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:2" ht="12">
       <c r="B488" s="6"/>
     </row>
-    <row r="489" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:2" ht="12">
       <c r="B489" s="6"/>
     </row>
-    <row r="490" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:2" ht="12">
       <c r="B490" s="6"/>
     </row>
-    <row r="491" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:2" ht="12">
       <c r="B491" s="6"/>
     </row>
-    <row r="492" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:2" ht="12">
       <c r="B492" s="6"/>
     </row>
-    <row r="493" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:2" ht="12">
       <c r="B493" s="6"/>
     </row>
-    <row r="494" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:2" ht="12">
       <c r="B494" s="6"/>
     </row>
-    <row r="495" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:2" ht="12">
       <c r="B495" s="6"/>
     </row>
-    <row r="496" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:2" ht="12">
       <c r="B496" s="6"/>
     </row>
-    <row r="497" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:2" ht="12">
       <c r="B497" s="6"/>
     </row>
-    <row r="498" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:2" ht="12">
       <c r="B498" s="6"/>
     </row>
-    <row r="499" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:2" ht="12">
       <c r="B499" s="6"/>
     </row>
-    <row r="500" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:2" ht="12">
       <c r="B500" s="6"/>
     </row>
-    <row r="501" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:2" ht="12">
       <c r="B501" s="6"/>
     </row>
-    <row r="502" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:2" ht="12">
       <c r="B502" s="6"/>
     </row>
-    <row r="503" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:2" ht="12">
       <c r="B503" s="6"/>
     </row>
-    <row r="504" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:2" ht="12">
       <c r="B504" s="6"/>
     </row>
-    <row r="505" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:2" ht="12">
       <c r="B505" s="6"/>
     </row>
-    <row r="506" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:2" ht="12">
       <c r="B506" s="6"/>
     </row>
-    <row r="507" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:2" ht="12">
       <c r="B507" s="6"/>
     </row>
-    <row r="508" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:2" ht="12">
       <c r="B508" s="6"/>
     </row>
-    <row r="509" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:2" ht="12">
       <c r="B509" s="6"/>
     </row>
-    <row r="510" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:2" ht="12">
       <c r="B510" s="6"/>
     </row>
-    <row r="511" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:2" ht="12">
       <c r="B511" s="6"/>
     </row>
-    <row r="512" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:2" ht="12">
       <c r="B512" s="6"/>
     </row>
-    <row r="513" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:2" ht="12">
       <c r="B513" s="6"/>
     </row>
-    <row r="514" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:2" ht="12">
       <c r="B514" s="6"/>
     </row>
-    <row r="515" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:2" ht="12">
       <c r="B515" s="6"/>
     </row>
-    <row r="516" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:2" ht="12">
       <c r="B516" s="6"/>
     </row>
-    <row r="517" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:2" ht="12">
       <c r="B517" s="6"/>
     </row>
-    <row r="518" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:2" ht="12">
       <c r="B518" s="6"/>
     </row>
-    <row r="519" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:2" ht="12">
       <c r="B519" s="6"/>
     </row>
-    <row r="520" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:2" ht="12">
       <c r="B520" s="6"/>
     </row>
-    <row r="521" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:2" ht="12">
       <c r="B521" s="6"/>
     </row>
-    <row r="522" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:2" ht="12">
       <c r="B522" s="6"/>
     </row>
-    <row r="523" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:2" ht="12">
       <c r="B523" s="6"/>
     </row>
-    <row r="524" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:2" ht="12">
       <c r="B524" s="6"/>
     </row>
-    <row r="525" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:2" ht="12">
       <c r="B525" s="6"/>
     </row>
-    <row r="526" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:2" ht="12">
       <c r="B526" s="6"/>
     </row>
-    <row r="527" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:2" ht="12">
       <c r="B527" s="6"/>
     </row>
-    <row r="528" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:2" ht="12">
       <c r="B528" s="6"/>
     </row>
-    <row r="529" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:2" ht="12">
       <c r="B529" s="6"/>
     </row>
-    <row r="530" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:2" ht="12">
       <c r="B530" s="6"/>
     </row>
-    <row r="531" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:2" ht="12">
       <c r="B531" s="6"/>
     </row>
-    <row r="532" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:2" ht="12">
       <c r="B532" s="6"/>
     </row>
-    <row r="533" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:2" ht="12">
       <c r="B533" s="6"/>
     </row>
-    <row r="534" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:2" ht="12">
       <c r="B534" s="6"/>
     </row>
-    <row r="535" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:2" ht="12">
       <c r="B535" s="6"/>
     </row>
-    <row r="536" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:2" ht="12">
       <c r="B536" s="6"/>
     </row>
-    <row r="537" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:2" ht="12">
       <c r="B537" s="6"/>
     </row>
-    <row r="538" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:2" ht="12">
       <c r="B538" s="6"/>
     </row>
-    <row r="539" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:2" ht="12">
       <c r="B539" s="6"/>
     </row>
-    <row r="540" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:2" ht="12">
       <c r="B540" s="6"/>
     </row>
-    <row r="541" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:2" ht="12">
       <c r="B541" s="6"/>
     </row>
-    <row r="542" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:2" ht="12">
       <c r="B542" s="6"/>
     </row>
-    <row r="543" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:2" ht="12">
       <c r="B543" s="6"/>
     </row>
-    <row r="544" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:2" ht="12">
       <c r="B544" s="6"/>
     </row>
-    <row r="545" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:2" ht="12">
       <c r="B545" s="6"/>
     </row>
-    <row r="546" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:2" ht="12">
       <c r="B546" s="6"/>
     </row>
-    <row r="547" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:2" ht="12">
       <c r="B547" s="6"/>
     </row>
-    <row r="548" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:2" ht="12">
       <c r="B548" s="6"/>
     </row>
-    <row r="549" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:2" ht="12">
       <c r="B549" s="6"/>
     </row>
-    <row r="550" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:2" ht="12">
       <c r="B550" s="6"/>
     </row>
-    <row r="551" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:2" ht="12">
       <c r="B551" s="6"/>
     </row>
-    <row r="552" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:2" ht="12">
       <c r="B552" s="6"/>
     </row>
-    <row r="553" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:2" ht="12">
       <c r="B553" s="6"/>
     </row>
-    <row r="554" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:2" ht="12">
       <c r="B554" s="6"/>
     </row>
-    <row r="555" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:2" ht="12">
       <c r="B555" s="6"/>
     </row>
-    <row r="556" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:2" ht="12">
       <c r="B556" s="6"/>
     </row>
-    <row r="557" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:2" ht="12">
       <c r="B557" s="6"/>
     </row>
-    <row r="558" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:2" ht="12">
       <c r="B558" s="6"/>
     </row>
-    <row r="559" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:2" ht="12">
       <c r="B559" s="6"/>
     </row>
-    <row r="560" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:2" ht="12">
       <c r="B560" s="6"/>
     </row>
-    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:2" ht="12">
       <c r="B561" s="6"/>
     </row>
-    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:2" ht="12">
       <c r="B562" s="6"/>
     </row>
-    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:2" ht="12">
       <c r="B563" s="6"/>
     </row>
-    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:2" ht="12">
       <c r="B564" s="6"/>
     </row>
-    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:2" ht="12">
       <c r="B565" s="6"/>
     </row>
-    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:2" ht="12">
       <c r="B566" s="6"/>
     </row>
-    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:2" ht="12">
       <c r="B567" s="6"/>
     </row>
-    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:2" ht="12">
       <c r="B568" s="6"/>
     </row>
-    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:2" ht="12">
       <c r="B569" s="6"/>
     </row>
-    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:2" ht="12">
       <c r="B570" s="6"/>
     </row>
-    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:2" ht="12">
       <c r="B571" s="6"/>
     </row>
-    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:2" ht="12">
       <c r="B572" s="6"/>
     </row>
-    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:2" ht="12">
       <c r="B573" s="6"/>
     </row>
-    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:2" ht="12">
       <c r="B574" s="6"/>
     </row>
-    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:2" ht="12">
       <c r="B575" s="6"/>
     </row>
-    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:2" ht="12">
       <c r="B576" s="6"/>
     </row>
-    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:2" ht="12">
       <c r="B577" s="6"/>
     </row>
-    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:2" ht="12">
       <c r="B578" s="6"/>
     </row>
-    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:2" ht="12">
       <c r="B579" s="6"/>
     </row>
-    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:2" ht="12">
       <c r="B580" s="6"/>
     </row>
-    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:2" ht="12">
       <c r="B581" s="6"/>
     </row>
-    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:2" ht="12">
       <c r="B582" s="6"/>
     </row>
-    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:2" ht="12">
       <c r="B583" s="6"/>
     </row>
-    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:2" ht="12">
       <c r="B584" s="6"/>
     </row>
-    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:2" ht="12">
       <c r="B585" s="6"/>
     </row>
-    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:2" ht="12">
       <c r="B586" s="6"/>
     </row>
-    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:2" ht="12">
       <c r="B587" s="6"/>
     </row>
-    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:2" ht="12">
       <c r="B588" s="6"/>
     </row>
-    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:2" ht="12">
       <c r="B589" s="6"/>
     </row>
-    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:2" ht="12">
       <c r="B590" s="6"/>
     </row>
-    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:2" ht="12">
       <c r="B591" s="6"/>
     </row>
-    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:2" ht="12">
       <c r="B592" s="6"/>
     </row>
-    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:2" ht="12">
       <c r="B593" s="6"/>
     </row>
-    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:2" ht="12">
       <c r="B594" s="6"/>
     </row>
-    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:2" ht="12">
       <c r="B595" s="6"/>
     </row>
-    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:2" ht="12">
       <c r="B596" s="6"/>
     </row>
-    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:2" ht="12">
       <c r="B597" s="6"/>
     </row>
-    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:2" ht="12">
       <c r="B598" s="6"/>
     </row>
-    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:2" ht="12">
       <c r="B599" s="6"/>
     </row>
-    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:2" ht="12">
       <c r="B600" s="6"/>
     </row>
-    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:2" ht="12">
       <c r="B601" s="6"/>
     </row>
-    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:2" ht="12">
       <c r="B602" s="6"/>
     </row>
-    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:2" ht="12">
       <c r="B603" s="6"/>
     </row>
-    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:2" ht="12">
       <c r="B604" s="6"/>
     </row>
-    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:2" ht="12">
       <c r="B605" s="6"/>
     </row>
-    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:2" ht="12">
       <c r="B606" s="6"/>
     </row>
-    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:2" ht="12">
       <c r="B607" s="6"/>
     </row>
-    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:2" ht="12">
       <c r="B608" s="6"/>
     </row>
-    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:2" ht="12">
       <c r="B609" s="6"/>
     </row>
-    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:2" ht="12">
       <c r="B610" s="6"/>
     </row>
-    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:2" ht="12">
       <c r="B611" s="6"/>
     </row>
-    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:2" ht="12">
       <c r="B612" s="6"/>
     </row>
-    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:2" ht="12">
       <c r="B613" s="6"/>
     </row>
-    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:2" ht="12">
       <c r="B614" s="6"/>
     </row>
-    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:2" ht="12">
       <c r="B615" s="6"/>
     </row>
-    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:2" ht="12">
       <c r="B616" s="6"/>
     </row>
-    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:2" ht="12">
       <c r="B617" s="6"/>
     </row>
-    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:2" ht="12">
       <c r="B618" s="6"/>
     </row>
-    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:2" ht="12">
       <c r="B619" s="6"/>
     </row>
-    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:2" ht="12">
       <c r="B620" s="6"/>
     </row>
-    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:2" ht="12">
       <c r="B621" s="6"/>
     </row>
-    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:2" ht="12">
       <c r="B622" s="6"/>
     </row>
-    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:2" ht="12">
       <c r="B623" s="6"/>
     </row>
-    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:2" ht="12">
       <c r="B624" s="6"/>
     </row>
-    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:2" ht="12">
       <c r="B625" s="6"/>
     </row>
-    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:2" ht="12">
       <c r="B626" s="6"/>
     </row>
-    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:2" ht="12">
       <c r="B627" s="6"/>
     </row>
-    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:2" ht="12">
       <c r="B628" s="6"/>
     </row>
-    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:2" ht="12">
       <c r="B629" s="6"/>
     </row>
-    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:2" ht="12">
       <c r="B630" s="6"/>
     </row>
-    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:2" ht="12">
       <c r="B631" s="6"/>
     </row>
-    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:2" ht="12">
       <c r="B632" s="6"/>
     </row>
-    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:2" ht="12">
       <c r="B633" s="6"/>
     </row>
-    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:2" ht="12">
       <c r="B634" s="6"/>
     </row>
-    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:2" ht="12">
       <c r="B635" s="6"/>
     </row>
-    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:2" ht="12">
       <c r="B636" s="6"/>
     </row>
-    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:2" ht="12">
       <c r="B637" s="6"/>
     </row>
-    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:2" ht="12">
       <c r="B638" s="6"/>
     </row>
-    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:2" ht="12">
       <c r="B639" s="6"/>
     </row>
-    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:2" ht="12">
       <c r="B640" s="6"/>
     </row>
-    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:2" ht="12">
       <c r="B641" s="6"/>
     </row>
-    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:2" ht="12">
       <c r="B642" s="6"/>
     </row>
-    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:2" ht="12">
       <c r="B643" s="6"/>
     </row>
-    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:2" ht="12">
       <c r="B644" s="6"/>
     </row>
-    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:2" ht="12">
       <c r="B645" s="6"/>
     </row>
-    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:2" ht="12">
       <c r="B646" s="6"/>
     </row>
-    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:2" ht="12">
       <c r="B647" s="6"/>
     </row>
-    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:2" ht="12">
       <c r="B648" s="6"/>
     </row>
-    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:2" ht="12">
       <c r="B649" s="6"/>
     </row>
-    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:2" ht="12">
       <c r="B650" s="6"/>
     </row>
-    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:2" ht="12">
       <c r="B651" s="6"/>
     </row>
-    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:2" ht="12">
       <c r="B652" s="6"/>
     </row>
-    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:2" ht="12">
       <c r="B653" s="6"/>
     </row>
-    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:2" ht="12">
       <c r="B654" s="6"/>
     </row>
-    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:2" ht="12">
       <c r="B655" s="6"/>
     </row>
-    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:2" ht="12">
       <c r="B656" s="6"/>
     </row>
-    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:2" ht="12">
       <c r="B657" s="6"/>
     </row>
-    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:2" ht="12">
       <c r="B658" s="6"/>
     </row>
-    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:2" ht="12">
       <c r="B659" s="6"/>
     </row>
-    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:2" ht="12">
       <c r="B660" s="6"/>
     </row>
-    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:2" ht="12">
       <c r="B661" s="6"/>
     </row>
-    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:2" ht="12">
       <c r="B662" s="6"/>
     </row>
-    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:2" ht="12">
       <c r="B663" s="6"/>
     </row>
-    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:2" ht="12">
       <c r="B664" s="6"/>
     </row>
-    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:2" ht="12">
       <c r="B665" s="6"/>
     </row>
-    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:2" ht="12">
       <c r="B666" s="6"/>
     </row>
-    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:2" ht="12">
       <c r="B667" s="6"/>
     </row>
-    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:2" ht="12">
       <c r="B668" s="6"/>
     </row>
-    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:2" ht="12">
       <c r="B669" s="6"/>
     </row>
-    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:2" ht="12">
       <c r="B670" s="6"/>
     </row>
-    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:2" ht="12">
       <c r="B671" s="6"/>
     </row>
-    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:2" ht="12">
       <c r="B672" s="6"/>
     </row>
-    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:2" ht="12">
       <c r="B673" s="6"/>
     </row>
-    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:2" ht="12">
       <c r="B674" s="6"/>
     </row>
-    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:2" ht="12">
       <c r="B675" s="6"/>
     </row>
-    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:2" ht="12">
       <c r="B676" s="6"/>
     </row>
-    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:2" ht="12">
       <c r="B677" s="6"/>
     </row>
-    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:2" ht="12">
       <c r="B678" s="6"/>
     </row>
-    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:2" ht="12">
       <c r="B679" s="6"/>
     </row>
-    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:2" ht="12">
       <c r="B680" s="6"/>
     </row>
-    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:2" ht="12">
       <c r="B681" s="6"/>
     </row>
-    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:2" ht="12">
       <c r="B682" s="6"/>
     </row>
-    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:2" ht="12">
       <c r="B683" s="6"/>
     </row>
-    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:2" ht="12">
       <c r="B684" s="6"/>
     </row>
-    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:2" ht="12">
       <c r="B685" s="6"/>
     </row>
-    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:2" ht="12">
       <c r="B686" s="6"/>
     </row>
-    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:2" ht="12">
       <c r="B687" s="6"/>
     </row>
-    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:2" ht="12">
       <c r="B688" s="6"/>
     </row>
-    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:2" ht="12">
       <c r="B689" s="6"/>
     </row>
-    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:2" ht="12">
       <c r="B690" s="6"/>
     </row>
-    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:2" ht="12">
       <c r="B691" s="6"/>
     </row>
-    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:2" ht="12">
       <c r="B692" s="6"/>
     </row>
-    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:2" ht="12">
       <c r="B693" s="6"/>
     </row>
-    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:2" ht="12">
       <c r="B694" s="6"/>
     </row>
-    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:2" ht="12">
       <c r="B695" s="6"/>
     </row>
-    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:2" ht="12">
       <c r="B696" s="6"/>
     </row>
-    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:2" ht="12">
       <c r="B697" s="6"/>
     </row>
-    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:2" ht="12">
       <c r="B698" s="6"/>
     </row>
-    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:2" ht="12">
       <c r="B699" s="6"/>
     </row>
-    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:2" ht="12">
       <c r="B700" s="6"/>
     </row>
-    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:2" ht="12">
       <c r="B701" s="6"/>
     </row>
-    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:2" ht="12">
       <c r="B702" s="6"/>
     </row>
-    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:2" ht="12">
       <c r="B703" s="6"/>
     </row>
-    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:2" ht="12">
       <c r="B704" s="6"/>
     </row>
-    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:2" ht="12">
       <c r="B705" s="6"/>
     </row>
-    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:2" ht="12">
       <c r="B706" s="6"/>
     </row>
-    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:2" ht="12">
       <c r="B707" s="6"/>
     </row>
-    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:2" ht="12">
       <c r="B708" s="6"/>
     </row>
-    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:2" ht="12">
       <c r="B709" s="6"/>
     </row>
-    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:2" ht="12">
       <c r="B710" s="6"/>
     </row>
-    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:2" ht="12">
       <c r="B711" s="6"/>
     </row>
-    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:2" ht="12">
       <c r="B712" s="6"/>
     </row>
-    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:2" ht="12">
       <c r="B713" s="6"/>
     </row>
-    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:2" ht="12">
       <c r="B714" s="6"/>
     </row>
-    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:2" ht="12">
       <c r="B715" s="6"/>
     </row>
-    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:2" ht="12">
       <c r="B716" s="6"/>
     </row>
-    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:2" ht="12">
       <c r="B717" s="6"/>
     </row>
-    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:2" ht="12">
       <c r="B718" s="6"/>
     </row>
-    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:2" ht="12">
       <c r="B719" s="6"/>
     </row>
-    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:2" ht="12">
       <c r="B720" s="6"/>
     </row>
-    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:2" ht="12">
       <c r="B721" s="6"/>
     </row>
-    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:2" ht="12">
       <c r="B722" s="6"/>
     </row>
-    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:2" ht="12">
       <c r="B723" s="6"/>
     </row>
-    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:2" ht="12">
       <c r="B724" s="6"/>
     </row>
-    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:2" ht="12">
       <c r="B725" s="6"/>
     </row>
-    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:2" ht="12">
       <c r="B726" s="6"/>
     </row>
-    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:2" ht="12">
       <c r="B727" s="6"/>
     </row>
-    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:2" ht="12">
       <c r="B728" s="6"/>
     </row>
-    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:2" ht="12">
       <c r="B729" s="6"/>
     </row>
-    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:2" ht="12">
       <c r="B730" s="6"/>
     </row>
-    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:2" ht="12">
       <c r="B731" s="6"/>
     </row>
-    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:2" ht="12">
       <c r="B732" s="6"/>
     </row>
-    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:2" ht="12">
       <c r="B733" s="6"/>
     </row>
-    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:2" ht="12">
       <c r="B734" s="6"/>
     </row>
-    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:2" ht="12">
       <c r="B735" s="6"/>
     </row>
-    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:2" ht="12">
       <c r="B736" s="6"/>
     </row>
-    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:2" ht="12">
       <c r="B737" s="6"/>
     </row>
-    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:2" ht="12">
       <c r="B738" s="6"/>
     </row>
-    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:2" ht="12">
       <c r="B739" s="6"/>
     </row>
-    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:2" ht="12">
       <c r="B740" s="6"/>
     </row>
-    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:2" ht="12">
       <c r="B741" s="6"/>
     </row>
-    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:2" ht="12">
       <c r="B742" s="6"/>
     </row>
-    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:2" ht="12">
       <c r="B743" s="6"/>
     </row>
-    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:2" ht="12">
       <c r="B744" s="6"/>
     </row>
-    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:2" ht="12">
       <c r="B745" s="6"/>
     </row>
-    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:2" ht="12">
       <c r="B746" s="6"/>
     </row>
-    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:2" ht="12">
       <c r="B747" s="6"/>
     </row>
-    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:2" ht="12">
       <c r="B748" s="6"/>
     </row>
-    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:2" ht="12">
       <c r="B749" s="6"/>
     </row>
-    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:2" ht="12">
       <c r="B750" s="6"/>
     </row>
-    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:2" ht="12">
       <c r="B751" s="6"/>
     </row>
-    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:2" ht="12">
       <c r="B752" s="6"/>
     </row>
-    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:2" ht="12">
       <c r="B753" s="6"/>
     </row>
-    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:2" ht="12">
       <c r="B754" s="6"/>
     </row>
-    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:2" ht="12">
       <c r="B755" s="6"/>
     </row>
-    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:2" ht="12">
       <c r="B756" s="6"/>
     </row>
-    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:2" ht="12">
       <c r="B757" s="6"/>
     </row>
-    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:2" ht="12">
       <c r="B758" s="6"/>
     </row>
-    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:2" ht="12">
       <c r="B759" s="6"/>
     </row>
-    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:2" ht="12">
       <c r="B760" s="6"/>
     </row>
-    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:2" ht="12">
       <c r="B761" s="6"/>
     </row>
-    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:2" ht="12">
       <c r="B762" s="6"/>
     </row>
-    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:2" ht="12">
       <c r="B763" s="6"/>
     </row>
-    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:2" ht="12">
       <c r="B764" s="6"/>
     </row>
-    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:2" ht="12">
       <c r="B765" s="6"/>
     </row>
-    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:2" ht="12">
       <c r="B766" s="6"/>
     </row>
-    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:2" ht="12">
       <c r="B767" s="6"/>
     </row>
-    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:2" ht="12">
       <c r="B768" s="6"/>
     </row>
-    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:2" ht="12">
       <c r="B769" s="6"/>
     </row>
-    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:2" ht="12">
       <c r="B770" s="6"/>
     </row>
-    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:2" ht="12">
       <c r="B771" s="6"/>
     </row>
-    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:2" ht="12">
       <c r="B772" s="6"/>
     </row>
-    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:2" ht="12">
       <c r="B773" s="6"/>
     </row>
-    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:2" ht="12">
       <c r="B774" s="6"/>
     </row>
-    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:2" ht="12">
       <c r="B775" s="6"/>
     </row>
-    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:2" ht="12">
       <c r="B776" s="6"/>
     </row>
-    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:2" ht="12">
       <c r="B777" s="6"/>
     </row>
-    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:2" ht="12">
       <c r="B778" s="6"/>
     </row>
-    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:2" ht="12">
       <c r="B779" s="6"/>
     </row>
-    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:2" ht="12">
       <c r="B780" s="6"/>
     </row>
-    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:2" ht="12">
       <c r="B781" s="6"/>
     </row>
-    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:2" ht="12">
       <c r="B782" s="6"/>
     </row>
-    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:2" ht="12">
       <c r="B783" s="6"/>
     </row>
-    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:2" ht="12">
       <c r="B784" s="6"/>
     </row>
-    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:2" ht="12">
       <c r="B785" s="6"/>
     </row>
-    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:2" ht="12">
       <c r="B786" s="6"/>
     </row>
-    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:2" ht="12">
       <c r="B787" s="6"/>
     </row>
-    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:2" ht="12">
       <c r="B788" s="6"/>
     </row>
-    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:2" ht="12">
       <c r="B789" s="6"/>
     </row>
-    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:2" ht="12">
       <c r="B790" s="6"/>
     </row>
-    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:2" ht="12">
       <c r="B791" s="6"/>
     </row>
-    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:2" ht="12">
       <c r="B792" s="6"/>
     </row>
-    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:2" ht="12">
       <c r="B793" s="6"/>
     </row>
-    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:2" ht="12">
       <c r="B794" s="6"/>
     </row>
-    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:2" ht="12">
       <c r="B795" s="6"/>
     </row>
-    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:2" ht="12">
       <c r="B796" s="6"/>
     </row>
-    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:2" ht="12">
       <c r="B797" s="6"/>
     </row>
-    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:2" ht="12">
       <c r="B798" s="6"/>
     </row>
-    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:2" ht="12">
       <c r="B799" s="6"/>
     </row>
-    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:2" ht="12">
       <c r="B800" s="6"/>
     </row>
-    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:2" ht="12">
       <c r="B801" s="6"/>
     </row>
-    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:2" ht="12">
       <c r="B802" s="6"/>
     </row>
-    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:2" ht="12">
       <c r="B803" s="6"/>
     </row>
-    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:2" ht="12">
       <c r="B804" s="6"/>
     </row>
-    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:2" ht="12">
       <c r="B805" s="6"/>
     </row>
-    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:2" ht="12">
       <c r="B806" s="6"/>
     </row>
-    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:2" ht="12">
       <c r="B807" s="6"/>
     </row>
-    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:2" ht="12">
       <c r="B808" s="6"/>
     </row>
-    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:2" ht="12">
       <c r="B809" s="6"/>
     </row>
-    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:2" ht="12">
       <c r="B810" s="6"/>
     </row>
-    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:2" ht="12">
       <c r="B811" s="6"/>
     </row>
-    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:2" ht="12">
       <c r="B812" s="6"/>
     </row>
-    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:2" ht="12">
       <c r="B813" s="6"/>
     </row>
-    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:2" ht="12">
       <c r="B814" s="6"/>
     </row>
-    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:2" ht="12">
       <c r="B815" s="6"/>
     </row>
-    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:2" ht="12">
       <c r="B816" s="6"/>
     </row>
-    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:2" ht="12">
       <c r="B817" s="6"/>
     </row>
-    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:2" ht="12">
       <c r="B818" s="6"/>
     </row>
-    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:2" ht="12">
       <c r="B819" s="6"/>
     </row>
-    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:2" ht="12">
       <c r="B820" s="6"/>
     </row>
-    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:2" ht="12">
       <c r="B821" s="6"/>
     </row>
-    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:2" ht="12">
       <c r="B822" s="6"/>
     </row>
-    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:2" ht="12">
       <c r="B823" s="6"/>
     </row>
-    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:2" ht="12">
       <c r="B824" s="6"/>
     </row>
-    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:2" ht="12">
       <c r="B825" s="6"/>
     </row>
-    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:2" ht="12">
       <c r="B826" s="6"/>
     </row>
-    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:2" ht="12">
       <c r="B827" s="6"/>
     </row>
-    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:2" ht="12">
       <c r="B828" s="6"/>
     </row>
-    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:2" ht="12">
       <c r="B829" s="6"/>
     </row>
-    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:2" ht="12">
       <c r="B830" s="6"/>
     </row>
-    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:2" ht="12">
       <c r="B831" s="6"/>
     </row>
-    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:2" ht="12">
       <c r="B832" s="6"/>
     </row>
-    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:2" ht="12">
       <c r="B833" s="6"/>
     </row>
-    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:2" ht="12">
       <c r="B834" s="6"/>
     </row>
-    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:2" ht="12">
       <c r="B835" s="6"/>
     </row>
-    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:2" ht="12">
       <c r="B836" s="6"/>
     </row>
-    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:2" ht="12">
       <c r="B837" s="6"/>
     </row>
-    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:2" ht="12">
       <c r="B838" s="6"/>
     </row>
-    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:2" ht="12">
       <c r="B839" s="6"/>
     </row>
-    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:2" ht="12">
       <c r="B840" s="6"/>
     </row>
-    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:2" ht="12">
       <c r="B841" s="6"/>
     </row>
-    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:2" ht="12">
       <c r="B842" s="6"/>
     </row>
-    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:2" ht="12">
       <c r="B843" s="6"/>
     </row>
-    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:2" ht="12">
       <c r="B844" s="6"/>
     </row>
-    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:2" ht="12">
       <c r="B845" s="6"/>
     </row>
-    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:2" ht="12">
       <c r="B846" s="6"/>
     </row>
-    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:2" ht="12">
       <c r="B847" s="6"/>
     </row>
-    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:2" ht="12">
       <c r="B848" s="6"/>
     </row>
-    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:2" ht="12">
       <c r="B849" s="6"/>
     </row>
-    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:2" ht="12">
       <c r="B850" s="6"/>
     </row>
-    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:2" ht="12">
       <c r="B851" s="6"/>
     </row>
-    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:2" ht="12">
       <c r="B852" s="6"/>
     </row>
-    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:2" ht="12">
       <c r="B853" s="6"/>
     </row>
-    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:2" ht="12">
       <c r="B854" s="6"/>
     </row>
-    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:2" ht="12">
       <c r="B855" s="6"/>
     </row>
-    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:2" ht="12">
       <c r="B856" s="6"/>
     </row>
-    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:2" ht="12">
       <c r="B857" s="6"/>
     </row>
-    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:2" ht="12">
       <c r="B858" s="6"/>
     </row>
-    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:2" ht="12">
       <c r="B859" s="6"/>
     </row>
-    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:2" ht="12">
       <c r="B860" s="6"/>
     </row>
-    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:2" ht="12">
       <c r="B861" s="6"/>
     </row>
-    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:2" ht="12">
       <c r="B862" s="6"/>
     </row>
-    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:2" ht="12">
       <c r="B863" s="6"/>
     </row>
-    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:2" ht="12">
       <c r="B864" s="6"/>
     </row>
-    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:2" ht="12">
       <c r="B865" s="6"/>
     </row>
-    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:2" ht="12">
       <c r="B866" s="6"/>
     </row>
-    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:2" ht="12">
       <c r="B867" s="6"/>
     </row>
-    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:2" ht="12">
       <c r="B868" s="6"/>
     </row>
-    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:2" ht="12">
       <c r="B869" s="6"/>
     </row>
-    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:2" ht="12">
       <c r="B870" s="6"/>
     </row>
-    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:2" ht="12">
       <c r="B871" s="6"/>
     </row>
-    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:2" ht="12">
       <c r="B872" s="6"/>
     </row>
-    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:2" ht="12">
       <c r="B873" s="6"/>
     </row>
-    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:2" ht="12">
       <c r="B874" s="6"/>
     </row>
-    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:2" ht="12">
       <c r="B875" s="6"/>
     </row>
-    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:2" ht="12">
       <c r="B876" s="6"/>
     </row>
-    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:2" ht="12">
       <c r="B877" s="6"/>
     </row>
-    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:2" ht="12">
       <c r="B878" s="6"/>
     </row>
-    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:2" ht="12">
       <c r="B879" s="6"/>
     </row>
-    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:2" ht="12">
       <c r="B880" s="6"/>
     </row>
-    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:2" ht="12">
       <c r="B881" s="6"/>
     </row>
-    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:2" ht="12">
       <c r="B882" s="6"/>
     </row>
-    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:2" ht="12">
       <c r="B883" s="6"/>
     </row>
-    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:2" ht="12">
       <c r="B884" s="6"/>
     </row>
-    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:2" ht="12">
       <c r="B885" s="6"/>
     </row>
-    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:2" ht="12">
       <c r="B886" s="6"/>
     </row>
-    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:2" ht="12">
       <c r="B887" s="6"/>
     </row>
-    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:2" ht="12">
       <c r="B888" s="6"/>
     </row>
-    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:2" ht="12">
       <c r="B889" s="6"/>
     </row>
-    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:2" ht="12">
       <c r="B890" s="6"/>
     </row>
-    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:2" ht="12">
       <c r="B891" s="6"/>
     </row>
-    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:2" ht="12">
       <c r="B892" s="6"/>
     </row>
-    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:2" ht="12">
       <c r="B893" s="6"/>
     </row>
-    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:2" ht="12">
       <c r="B894" s="6"/>
     </row>
-    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:2" ht="12">
       <c r="B895" s="6"/>
     </row>
-    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:2" ht="12">
       <c r="B896" s="6"/>
     </row>
-    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:2" ht="12">
       <c r="B897" s="6"/>
     </row>
-    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:2" ht="12">
       <c r="B898" s="6"/>
     </row>
-    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:2" ht="12">
       <c r="B899" s="6"/>
     </row>
-    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:2" ht="12">
       <c r="B900" s="6"/>
     </row>
-    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:2" ht="12">
       <c r="B901" s="6"/>
     </row>
-    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:2" ht="12">
       <c r="B902" s="6"/>
     </row>
-    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:2" ht="12">
       <c r="B903" s="6"/>
     </row>
-    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:2" ht="12">
       <c r="B904" s="6"/>
     </row>
-    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:2" ht="12">
       <c r="B905" s="6"/>
     </row>
-    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:2" ht="12">
       <c r="B906" s="6"/>
     </row>
-    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:2" ht="12">
       <c r="B907" s="6"/>
     </row>
-    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:2" ht="12">
       <c r="B908" s="6"/>
     </row>
-    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:2" ht="12">
       <c r="B909" s="6"/>
     </row>
-    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:2" ht="12">
       <c r="B910" s="6"/>
     </row>
-    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:2" ht="12">
       <c r="B911" s="6"/>
     </row>
-    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:2" ht="12">
       <c r="B912" s="6"/>
     </row>
-    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:2" ht="12">
       <c r="B913" s="6"/>
     </row>
-    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:2" ht="12">
       <c r="B914" s="6"/>
     </row>
-    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:2" ht="12">
       <c r="B915" s="6"/>
     </row>
-    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:2" ht="12">
       <c r="B916" s="6"/>
     </row>
-    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:2" ht="12">
       <c r="B917" s="6"/>
     </row>
-    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:2" ht="12">
       <c r="B918" s="6"/>
     </row>
-    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:2" ht="12">
       <c r="B919" s="6"/>
     </row>
-    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:2" ht="12">
       <c r="B920" s="6"/>
     </row>
-    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:2" ht="12">
       <c r="B921" s="6"/>
     </row>
-    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:2" ht="12">
       <c r="B922" s="6"/>
     </row>
-    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:2" ht="12">
       <c r="B923" s="6"/>
     </row>
-    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:2" ht="12">
       <c r="B924" s="6"/>
     </row>
-    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:2" ht="12">
       <c r="B925" s="6"/>
     </row>
-    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:2" ht="12">
       <c r="B926" s="6"/>
     </row>
-    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:2" ht="12">
       <c r="B927" s="6"/>
     </row>
-    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:2" ht="12">
       <c r="B928" s="6"/>
     </row>
-    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:2" ht="12">
       <c r="B929" s="6"/>
     </row>
-    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:2" ht="12">
       <c r="B930" s="6"/>
     </row>
-    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:2" ht="12">
       <c r="B931" s="6"/>
     </row>
-    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:2" ht="12">
       <c r="B932" s="6"/>
     </row>
-    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:2" ht="12">
       <c r="B933" s="6"/>
     </row>
-    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:2" ht="12">
       <c r="B934" s="6"/>
     </row>
-    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:2" ht="12">
       <c r="B935" s="6"/>
     </row>
-    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:2" ht="12">
       <c r="B936" s="6"/>
     </row>
-    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="2:2" ht="12">
       <c r="B937" s="6"/>
     </row>
-    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:2" ht="12">
       <c r="B938" s="6"/>
     </row>
-    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="2:2" ht="12">
       <c r="B939" s="6"/>
     </row>
-    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="2:2" ht="12">
       <c r="B940" s="6"/>
     </row>
-    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="2:2" ht="12">
       <c r="B941" s="6"/>
     </row>
-    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="2:2" ht="12">
       <c r="B942" s="6"/>
     </row>
-    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="2:2" ht="12">
       <c r="B943" s="6"/>
     </row>
-    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="2:2" ht="12">
       <c r="B944" s="6"/>
     </row>
-    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="2:2" ht="12">
       <c r="B945" s="6"/>
     </row>
-    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="2:2" ht="12">
       <c r="B946" s="6"/>
     </row>
-    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="2:2" ht="12">
       <c r="B947" s="6"/>
     </row>
-    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="2:2" ht="12">
       <c r="B948" s="6"/>
     </row>
-    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="2:2" ht="12">
       <c r="B949" s="6"/>
     </row>
-    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="2:2" ht="12">
       <c r="B950" s="6"/>
     </row>
-    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="2:2" ht="12">
       <c r="B951" s="6"/>
     </row>
-    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="2:2" ht="12">
       <c r="B952" s="6"/>
     </row>
-    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="2:2" ht="12">
       <c r="B953" s="6"/>
     </row>
-    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="2:2" ht="12">
       <c r="B954" s="6"/>
     </row>
-    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="2:2" ht="12">
       <c r="B955" s="6"/>
     </row>
-    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="2:2" ht="12">
       <c r="B956" s="6"/>
     </row>
-    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="2:2" ht="12">
       <c r="B957" s="6"/>
     </row>
-    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="2:2" ht="12">
       <c r="B958" s="6"/>
     </row>
-    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="2:2" ht="12">
       <c r="B959" s="6"/>
     </row>
-    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="2:2" ht="12">
       <c r="B960" s="6"/>
     </row>
-    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="2:2" ht="12">
       <c r="B961" s="6"/>
     </row>
-    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="2:2" ht="12">
       <c r="B962" s="6"/>
     </row>
-    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="2:2" ht="12">
       <c r="B963" s="6"/>
     </row>
-    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="2:2" ht="12">
       <c r="B964" s="6"/>
     </row>
-    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="2:2" ht="12">
       <c r="B965" s="6"/>
     </row>
-    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="2:2" ht="12">
       <c r="B966" s="6"/>
     </row>
-    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="2:2" ht="12">
       <c r="B967" s="6"/>
     </row>
-    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="2:2" ht="12">
       <c r="B968" s="6"/>
     </row>
-    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="2:2" ht="12">
       <c r="B969" s="6"/>
     </row>
-    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="2:2" ht="12">
       <c r="B970" s="6"/>
     </row>
-    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="2:2" ht="12">
       <c r="B971" s="6"/>
     </row>
-    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="2:2" ht="12">
       <c r="B972" s="6"/>
     </row>
-    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="2:2" ht="12">
       <c r="B973" s="6"/>
     </row>
-    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="2:2" ht="12">
       <c r="B974" s="6"/>
     </row>
-    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="2:2" ht="12">
       <c r="B975" s="6"/>
     </row>
-    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="2:2" ht="12">
       <c r="B976" s="6"/>
     </row>
-    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="2:2" ht="12">
       <c r="B977" s="6"/>
     </row>
-    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="2:2" ht="12">
       <c r="B978" s="6"/>
     </row>
-    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="2:2" ht="12">
       <c r="B979" s="6"/>
     </row>
-    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="2:2" ht="12">
       <c r="B980" s="6"/>
     </row>
-    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="2:2" ht="12">
       <c r="B981" s="6"/>
     </row>
-    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="2:2" ht="12">
       <c r="B982" s="6"/>
     </row>
-    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="2:2" ht="12">
       <c r="B983" s="6"/>
     </row>
-    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="2:2" ht="12">
       <c r="B984" s="6"/>
     </row>
-    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="2:2" ht="12">
       <c r="B985" s="6"/>
     </row>
-    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="2:2" ht="12">
       <c r="B986" s="6"/>
     </row>
-    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="2:2" ht="12">
       <c r="B987" s="6"/>
     </row>
-    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="2:2" ht="12">
       <c r="B988" s="6"/>
     </row>
-    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="2:2" ht="12">
       <c r="B989" s="6"/>
     </row>
   </sheetData>
@@ -4644,17 +4733,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -4662,10 +4751,10 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -4684,13 +4773,13 @@
       <c r="Y1" s="11"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -4716,13 +4805,13 @@
       <c r="Y2" s="11"/>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4748,15 +4837,15 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -4782,15 +4871,15 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -4816,15 +4905,15 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -4850,36 +4939,36 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="I7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16">
@@ -4888,10 +4977,10 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38260" yWindow="80" windowWidth="28160" windowHeight="16300"/>
+    <workbookView xWindow="-29820" yWindow="4560" windowWidth="28160" windowHeight="16300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>Project</t>
   </si>
@@ -82,9 +82,6 @@
     <t>PI4VVR059</t>
   </si>
   <si>
-    <t>slides by 10/15</t>
-  </si>
-  <si>
     <t>Ben</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>Grace</t>
   </si>
   <si>
-    <t>ACD and slides with web</t>
-  </si>
-  <si>
     <t>CML Rounds eblast</t>
   </si>
   <si>
@@ -259,12 +253,6 @@
     <t>slides</t>
   </si>
   <si>
-    <t>timings and ACD received</t>
-  </si>
-  <si>
-    <t>awaiting final approval 10/28 and itunes podcast refresh</t>
-  </si>
-  <si>
     <t>Routed 10/29</t>
   </si>
   <si>
@@ -338,6 +326,12 @@
   </si>
   <si>
     <t>Tim and Ben</t>
+  </si>
+  <si>
+    <t>live on site. Eblast in production</t>
+  </si>
+  <si>
+    <t>routed 10/30</t>
   </si>
 </sst>
 </file>
@@ -844,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -910,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>12</v>
@@ -921,7 +915,7 @@
     </row>
     <row r="3" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>13</v>
@@ -933,7 +927,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>16</v>
@@ -941,7 +935,7 @@
     </row>
     <row r="4" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="17" t="s">
@@ -951,10 +945,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
@@ -966,13 +960,13 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>21</v>
       </c>
       <c r="G5" s="27">
         <v>41929</v>
@@ -997,20 +991,20 @@
     </row>
     <row r="6" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="G6" s="28">
         <v>41932</v>
@@ -1035,20 +1029,20 @@
     </row>
     <row r="7" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -1071,14 +1065,14 @@
     </row>
     <row r="8" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="18"/>
       <c r="D8" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>87</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>16</v>
@@ -1086,48 +1080,48 @@
     </row>
     <row r="9" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" s="23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>16</v>
@@ -1153,20 +1147,20 @@
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1189,35 +1183,35 @@
     </row>
     <row r="13" spans="1:24" s="33" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>65</v>
-      </c>
       <c r="D13" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1240,13 +1234,13 @@
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>16</v>
@@ -1274,17 +1268,17 @@
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
@@ -1312,20 +1306,20 @@
     </row>
     <row r="17" spans="1:24" s="39" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="38" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>71</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
@@ -1348,17 +1342,17 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1382,20 +1376,20 @@
     </row>
     <row r="19" spans="1:24" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="40" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="41" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G19" s="42">
         <v>41948</v>
@@ -1420,14 +1414,14 @@
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1452,14 +1446,14 @@
     </row>
     <row r="21" spans="1:24" ht="13">
       <c r="A21" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1484,14 +1478,14 @@
     </row>
     <row r="22" spans="1:24" s="36" customFormat="1" ht="12">
       <c r="A22" s="35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
@@ -1514,14 +1508,14 @@
     </row>
     <row r="23" spans="1:24" s="36" customFormat="1" ht="12">
       <c r="A23" s="35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
@@ -4737,13 +4731,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -4751,10 +4745,10 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -4775,11 +4769,11 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -4807,11 +4801,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4839,13 +4833,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -4873,13 +4867,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -4907,13 +4901,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -4941,34 +4935,34 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16">
@@ -4977,10 +4971,10 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-29820" yWindow="4560" windowWidth="28160" windowHeight="16300"/>
+    <workbookView xWindow="2280" yWindow="5120" windowWidth="28160" windowHeight="16300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>Project</t>
   </si>
@@ -58,9 +58,6 @@
     <t>ACD</t>
   </si>
   <si>
-    <t>Steven</t>
-  </si>
-  <si>
     <t>PI4LGR034</t>
   </si>
   <si>
@@ -253,18 +250,12 @@
     <t>slides</t>
   </si>
   <si>
-    <t>Routed 10/29</t>
-  </si>
-  <si>
     <t>cme links</t>
   </si>
   <si>
     <t>edits</t>
   </si>
   <si>
-    <t>launched/ eblast being created</t>
-  </si>
-  <si>
     <t>Approved with release date change. Eblast requested. Waiting for further instruction on eblast.</t>
   </si>
   <si>
@@ -274,9 +265,6 @@
     <t>Routed 10/30</t>
   </si>
   <si>
-    <t>ACD received 10/24 setting up videos for what we have.</t>
-  </si>
-  <si>
     <t>routed on 10/28</t>
   </si>
   <si>
@@ -295,9 +283,6 @@
     <t>everything with Web</t>
   </si>
   <si>
-    <t>one support edit 10/30, awaiting Christine's approval</t>
-  </si>
-  <si>
     <t>ESMO VJC NSCLC</t>
   </si>
   <si>
@@ -332,13 +317,31 @@
   </si>
   <si>
     <t>routed 10/30</t>
+  </si>
+  <si>
+    <t>ACD received 10/24 setting up videos for what we have. Slides, timings received 10/31</t>
+  </si>
+  <si>
+    <t>routed 10/31</t>
+  </si>
+  <si>
+    <t>launched. Eblast edits with web 10/31</t>
+  </si>
+  <si>
+    <t>Steven/Paul</t>
+  </si>
+  <si>
+    <t>live on site. Eblast routed 10/31</t>
+  </si>
+  <si>
+    <t>Awaiting final approval 10/31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -402,18 +405,8 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,12 +417,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -470,7 +457,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -504,19 +491,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -839,7 +818,7 @@
   <dimension ref="A1:X989"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -904,10 +883,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>12</v>
+        <v>101</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="G2" s="24">
         <v>41936</v>
@@ -915,58 +894,58 @@
     </row>
     <row r="3" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="27">
         <v>41929</v>
@@ -991,20 +970,20 @@
     </row>
     <row r="6" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="G6" s="28">
         <v>41932</v>
@@ -1029,20 +1008,20 @@
     </row>
     <row r="7" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -1065,66 +1044,66 @@
     </row>
     <row r="8" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="18"/>
       <c r="D8" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -1147,20 +1126,20 @@
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1181,37 +1160,37 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" s="33" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="32"/>
+      <c r="D13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1234,16 +1213,16 @@
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="30">
         <v>41943</v>
@@ -1268,20 +1247,20 @@
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="30">
         <v>41943</v>
@@ -1304,55 +1283,55 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38" t="s">
+    <row r="17" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1374,54 +1353,54 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="42">
+    <row r="19" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="35">
         <v>41948</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1446,14 +1425,14 @@
     </row>
     <row r="21" spans="1:24" ht="13">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1476,65 +1455,69 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="36" customFormat="1" ht="12">
-      <c r="A22" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-    </row>
-    <row r="23" spans="1:24" s="36" customFormat="1" ht="12">
-      <c r="A23" s="35" t="s">
+    <row r="22" spans="1:24" s="32" customFormat="1" ht="12">
+      <c r="A22" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
+      <c r="F22" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+    </row>
+    <row r="23" spans="1:24" s="32" customFormat="1" ht="12">
+      <c r="A23" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
     </row>
     <row r="24" spans="1:24" ht="12">
       <c r="A24" s="7"/>
@@ -4731,13 +4714,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -4745,10 +4728,10 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -4769,11 +4752,11 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -4801,11 +4784,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4833,13 +4816,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -4867,13 +4850,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -4901,13 +4884,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -4935,34 +4918,34 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16">
@@ -4971,10 +4954,10 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="5120" windowWidth="28160" windowHeight="16300"/>
+    <workbookView xWindow="3580" yWindow="60" windowWidth="34620" windowHeight="21440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
   <si>
     <t>Project</t>
   </si>
@@ -235,9 +235,6 @@
     <t>CML Rounds eblast</t>
   </si>
   <si>
-    <t>ACD with web</t>
-  </si>
-  <si>
     <t>ESMO VPS - Ramalingam</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>slides</t>
   </si>
   <si>
-    <t>cme links</t>
-  </si>
-  <si>
     <t>edits</t>
   </si>
   <si>
@@ -262,12 +256,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Routed 10/30</t>
-  </si>
-  <si>
-    <t>routed on 10/28</t>
-  </si>
-  <si>
     <t>routed 10/29</t>
   </si>
   <si>
@@ -280,9 +268,6 @@
     <t>Jae</t>
   </si>
   <si>
-    <t>everything with Web</t>
-  </si>
-  <si>
     <t>ESMO VJC NSCLC</t>
   </si>
   <si>
@@ -292,9 +277,6 @@
     <t>National Grand Rounds - Tulane - New Orleans</t>
   </si>
   <si>
-    <t>Live on site 10/23.Awaiting final approval for eblast 10/28.</t>
-  </si>
-  <si>
     <t>ER ALL</t>
   </si>
   <si>
@@ -319,9 +301,6 @@
     <t>routed 10/30</t>
   </si>
   <si>
-    <t>ACD received 10/24 setting up videos for what we have. Slides, timings received 10/31</t>
-  </si>
-  <si>
     <t>routed 10/31</t>
   </si>
   <si>
@@ -335,6 +314,39 @@
   </si>
   <si>
     <t>Awaiting final approval 10/31</t>
+  </si>
+  <si>
+    <t>reference link</t>
+  </si>
+  <si>
+    <t>client edits to come in Wed</t>
+  </si>
+  <si>
+    <t>awaiting final approval 11/03</t>
+  </si>
+  <si>
+    <t>Live on site 10/23.Awaiting final approval for eblast 11/03.</t>
+  </si>
+  <si>
+    <t>CME links</t>
+  </si>
+  <si>
+    <t>Edits made. Will be routed today</t>
+  </si>
+  <si>
+    <t>edits with web 11/03. awaiting cme. Will route 11/03</t>
+  </si>
+  <si>
+    <t>approved 11/03. eblast in production</t>
+  </si>
+  <si>
+    <t>live. Email routed 11/03</t>
+  </si>
+  <si>
+    <t>routed 11/03</t>
+  </si>
+  <si>
+    <t>in production 11/04</t>
   </si>
 </sst>
 </file>
@@ -406,7 +418,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +429,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -436,7 +454,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -456,8 +474,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -496,8 +516,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -507,6 +534,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -516,6 +544,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -817,14 +846,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="52.1640625" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
   </cols>
@@ -883,10 +912,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G2" s="24">
         <v>41936</v>
@@ -894,7 +923,7 @@
     </row>
     <row r="3" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>12</v>
@@ -906,7 +935,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>15</v>
@@ -914,7 +943,7 @@
     </row>
     <row r="4" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="17" t="s">
@@ -927,7 +956,7 @@
         <v>60</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
@@ -942,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>19</v>
@@ -980,7 +1009,7 @@
         <v>65</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>22</v>
@@ -1018,7 +1047,7 @@
         <v>65</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>25</v>
@@ -1042,18 +1071,18 @@
       <c r="W7" s="19"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="D8" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="B8" s="37"/>
+      <c r="D8" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1062,10 +1091,10 @@
         <v>27</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>19</v>
@@ -1079,64 +1108,64 @@
         <v>29</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="25" t="s">
+      <c r="D11" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>54</v>
@@ -1160,20 +1189,22 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="25"/>
+      <c r="E13" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
@@ -1187,7 +1218,7 @@
         <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
@@ -1219,7 +1250,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>15</v>
@@ -1247,17 +1278,17 @@
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
@@ -1285,7 +1316,7 @@
     </row>
     <row r="17" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="29" t="s">
@@ -1295,7 +1326,7 @@
         <v>66</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>69</v>
@@ -1321,7 +1352,7 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
@@ -1331,7 +1362,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1355,20 +1386,20 @@
     </row>
     <row r="19" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G19" s="35">
         <v>41948</v>
@@ -1393,18 +1424,20 @@
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="30">
+        <v>41963</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1425,14 +1458,14 @@
     </row>
     <row r="21" spans="1:24" ht="13">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1457,13 +1490,13 @@
     </row>
     <row r="22" spans="1:24" s="32" customFormat="1" ht="12">
       <c r="A22" s="31" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>54</v>
@@ -1489,13 +1522,13 @@
     </row>
     <row r="23" spans="1:24" s="32" customFormat="1" ht="12">
       <c r="A23" s="31" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F23" s="31" t="s">
         <v>54</v>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="60" windowWidth="34620" windowHeight="21440"/>
+    <workbookView xWindow="-36740" yWindow="80" windowWidth="34620" windowHeight="21440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
   <si>
     <t>Project</t>
   </si>
@@ -265,9 +265,6 @@
     <t>CTOS PDS</t>
   </si>
   <si>
-    <t>Jae</t>
-  </si>
-  <si>
     <t>ESMO VJC NSCLC</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>routed 10/30</t>
   </si>
   <si>
-    <t>routed 10/31</t>
-  </si>
-  <si>
     <t>launched. Eblast edits with web 10/31</t>
   </si>
   <si>
@@ -328,25 +322,28 @@
     <t>Live on site 10/23.Awaiting final approval for eblast 11/03.</t>
   </si>
   <si>
-    <t>CME links</t>
-  </si>
-  <si>
-    <t>Edits made. Will be routed today</t>
-  </si>
-  <si>
-    <t>edits with web 11/03. awaiting cme. Will route 11/03</t>
-  </si>
-  <si>
     <t>approved 11/03. eblast in production</t>
   </si>
   <si>
-    <t>live. Email routed 11/03</t>
-  </si>
-  <si>
-    <t>routed 11/03</t>
-  </si>
-  <si>
     <t>in production 11/04</t>
+  </si>
+  <si>
+    <t>awaiting approval 11/04</t>
+  </si>
+  <si>
+    <t>rush U eblast</t>
+  </si>
+  <si>
+    <t>ER DTC eblast</t>
+  </si>
+  <si>
+    <t>Jae/Rinath</t>
+  </si>
+  <si>
+    <t>live. Awaiting email approval 11/04</t>
+  </si>
+  <si>
+    <t>routed 11/04</t>
   </si>
 </sst>
 </file>
@@ -454,8 +451,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -524,7 +525,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -535,6 +536,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -545,6 +548,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -847,7 +852,7 @@
   <dimension ref="A1:X989"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -912,10 +917,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="24">
         <v>41936</v>
@@ -923,7 +928,7 @@
     </row>
     <row r="3" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>12</v>
@@ -943,7 +948,7 @@
     </row>
     <row r="4" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="17" t="s">
@@ -971,7 +976,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>19</v>
@@ -1009,7 +1014,7 @@
         <v>65</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>22</v>
@@ -1080,7 +1085,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>15</v>
@@ -1091,10 +1096,10 @@
         <v>27</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>19</v>
@@ -1111,7 +1116,7 @@
         <v>66</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>69</v>
@@ -1126,10 +1131,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>102</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>104</v>
       </c>
       <c r="F11" s="41" t="s">
         <v>15</v>
@@ -1155,17 +1160,17 @@
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>54</v>
@@ -1200,7 +1205,7 @@
         <v>61</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F13" s="41" t="s">
         <v>15</v>
@@ -1218,7 +1223,7 @@
         <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
@@ -1326,7 +1331,7 @@
         <v>66</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>69</v>
@@ -1390,16 +1395,16 @@
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="29" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="35">
         <v>41948</v>
@@ -1424,14 +1429,14 @@
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1458,14 +1463,14 @@
     </row>
     <row r="21" spans="1:24" ht="13">
       <c r="A21" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1490,13 +1495,13 @@
     </row>
     <row r="22" spans="1:24" s="32" customFormat="1" ht="12">
       <c r="A22" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>54</v>
@@ -1522,13 +1527,13 @@
     </row>
     <row r="23" spans="1:24" s="32" customFormat="1" ht="12">
       <c r="A23" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F23" s="31" t="s">
         <v>54</v>
@@ -1553,12 +1558,18 @@
       <c r="X23" s="31"/>
     </row>
     <row r="24" spans="1:24" ht="12">
-      <c r="A24" s="7"/>
+      <c r="A24" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1579,12 +1590,18 @@
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" ht="12">
-      <c r="A25" s="7"/>
+      <c r="A25" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-36740" yWindow="80" windowWidth="34620" windowHeight="21440"/>
+    <workbookView xWindow="-36735" yWindow="75" windowWidth="34620" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <t>routed 10/29</t>
   </si>
   <si>
-    <t>awaiting slides</t>
-  </si>
-  <si>
     <t>CTOS PDS</t>
   </si>
   <si>
@@ -344,13 +341,16 @@
   </si>
   <si>
     <t>routed 11/04</t>
+  </si>
+  <si>
+    <t>Benji</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -414,8 +414,15 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +439,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -451,7 +463,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -477,8 +489,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -524,8 +537,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="25" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="25" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -538,6 +553,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="25" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -852,18 +868,18 @@
   <dimension ref="A1:X989"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="52.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,8 +919,8 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -917,18 +933,18 @@
         <v>11</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>93</v>
       </c>
       <c r="G2" s="24">
         <v>41936</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>12</v>
@@ -946,9 +962,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="17" t="s">
@@ -964,7 +980,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>17</v>
       </c>
@@ -976,7 +992,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>19</v>
@@ -1002,7 +1018,7 @@
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
     </row>
-    <row r="6" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
@@ -1014,7 +1030,7 @@
         <v>65</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>22</v>
@@ -1040,7 +1056,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>23</v>
       </c>
@@ -1052,7 +1068,7 @@
         <v>65</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>25</v>
@@ -1076,7 +1092,7 @@
       <c r="W7" s="19"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>26</v>
       </c>
@@ -1085,27 +1101,27 @@
         <v>75</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>28</v>
       </c>
@@ -1116,13 +1132,13 @@
         <v>66</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1150,7 @@
         <v>66</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="41" t="s">
         <v>15</v>
@@ -1158,19 +1174,19 @@
       <c r="W11" s="41"/>
       <c r="X11" s="41"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>54</v>
@@ -1194,7 +1210,7 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>62</v>
       </c>
@@ -1205,13 +1221,13 @@
         <v>61</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
@@ -1223,7 +1239,7 @@
         <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
@@ -1247,7 +1263,7 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1281,7 +1297,7 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1292,9 +1308,7 @@
       <c r="D16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>79</v>
-      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1319,7 +1333,7 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1">
+    <row r="17" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>72</v>
       </c>
@@ -1331,7 +1345,7 @@
         <v>66</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>69</v>
@@ -1355,7 +1369,7 @@
       <c r="W17" s="29"/>
       <c r="X17" s="29"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>73</v>
       </c>
@@ -1369,7 +1383,9 @@
       <c r="E18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1389,22 +1405,22 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="35">
         <v>41948</v>
@@ -1427,16 +1443,16 @@
       <c r="W19" s="29"/>
       <c r="X19" s="29"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1461,16 +1477,16 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" ht="13">
+    <row r="21" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1493,15 +1509,15 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="32" customFormat="1" ht="12">
+    <row r="22" spans="1:24" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>54</v>
@@ -1525,15 +1541,15 @@
       <c r="W22" s="31"/>
       <c r="X22" s="31"/>
     </row>
-    <row r="23" spans="1:24" s="32" customFormat="1" ht="12">
-      <c r="A23" s="31" t="s">
-        <v>88</v>
+    <row r="23" spans="1:24" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>87</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="31" t="s">
         <v>54</v>
@@ -1557,15 +1573,15 @@
       <c r="W23" s="31"/>
       <c r="X23" s="31"/>
     </row>
-    <row r="24" spans="1:24" ht="12">
+    <row r="24" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>54</v>
@@ -1589,15 +1605,15 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" ht="12">
+    <row r="25" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>54</v>
@@ -1621,7 +1637,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" ht="12">
+    <row r="26" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1647,7 +1663,7 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
     </row>
-    <row r="27" spans="1:24" ht="12">
+    <row r="27" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1673,7 +1689,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
     </row>
-    <row r="28" spans="1:24" ht="12">
+    <row r="28" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1699,7 +1715,7 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
     </row>
-    <row r="29" spans="1:24" ht="12">
+    <row r="29" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1725,7 +1741,7 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
     </row>
-    <row r="30" spans="1:24" ht="12">
+    <row r="30" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1751,7 +1767,7 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
     </row>
-    <row r="31" spans="1:24" ht="12">
+    <row r="31" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1777,7 +1793,7 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
     </row>
-    <row r="32" spans="1:24" ht="12">
+    <row r="32" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1803,7 +1819,7 @@
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
     </row>
-    <row r="33" spans="1:24" ht="12">
+    <row r="33" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1829,7 +1845,7 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" ht="12">
+    <row r="34" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1855,7 +1871,7 @@
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
     </row>
-    <row r="35" spans="1:24" ht="12">
+    <row r="35" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1881,2866 +1897,2866 @@
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
     </row>
-    <row r="36" spans="1:24" ht="12">
+    <row r="36" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:24" ht="12">
+    <row r="37" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="1:24" ht="12">
+    <row r="38" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="1:24" ht="12">
+    <row r="39" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:24" ht="12">
+    <row r="40" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="1:24" ht="12">
+    <row r="41" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="1:24" ht="12">
+    <row r="42" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="1:24" ht="12">
+    <row r="43" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="1:24" ht="12">
+    <row r="44" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:24" ht="12">
+    <row r="45" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:24" ht="12">
+    <row r="46" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:24" ht="12">
+    <row r="47" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:24" ht="12">
+    <row r="48" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="2:2" ht="12">
+    <row r="49" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="2:2" ht="12">
+    <row r="50" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="2:2" ht="12">
+    <row r="51" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="2:2" ht="12">
+    <row r="52" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:2" ht="12">
+    <row r="53" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:2" ht="12">
+    <row r="54" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:2" ht="12">
+    <row r="55" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:2" ht="12">
+    <row r="56" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" spans="2:2" ht="12">
+    <row r="57" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="2:2" ht="12">
+    <row r="58" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" spans="2:2" ht="12">
+    <row r="59" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" spans="2:2" ht="12">
+    <row r="60" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="2:2" ht="12">
+    <row r="61" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
     </row>
-    <row r="62" spans="2:2" ht="12">
+    <row r="62" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" spans="2:2" ht="12">
+    <row r="63" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" spans="2:2" ht="12">
+    <row r="64" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="2:2" ht="12">
+    <row r="65" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="2:2" ht="12">
+    <row r="66" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" spans="2:2" ht="12">
+    <row r="67" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="2:2" ht="12">
+    <row r="68" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:2" ht="12">
+    <row r="69" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:2" ht="12">
+    <row r="70" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:2" ht="12">
+    <row r="71" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:2" ht="12">
+    <row r="72" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:2" ht="12">
+    <row r="73" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:2" ht="12">
+    <row r="74" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" spans="2:2" ht="12">
+    <row r="75" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="2:2" ht="12">
+    <row r="76" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="2:2" ht="12">
+    <row r="77" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" spans="2:2" ht="12">
+    <row r="78" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:2" ht="12">
+    <row r="79" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:2" ht="12">
+    <row r="80" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:2" ht="12">
+    <row r="81" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" ht="12">
+    <row r="82" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" ht="12">
+    <row r="83" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" ht="12">
+    <row r="84" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" ht="12">
+    <row r="85" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" ht="12">
+    <row r="86" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" ht="12">
+    <row r="87" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" ht="12">
+    <row r="88" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" ht="12">
+    <row r="89" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" spans="2:2" ht="12">
+    <row r="90" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" spans="2:2" ht="12">
+    <row r="91" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" spans="2:2" ht="12">
+    <row r="92" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="2:2" ht="12">
+    <row r="93" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" spans="2:2" ht="12">
+    <row r="94" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" spans="2:2" ht="12">
+    <row r="95" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" spans="2:2" ht="12">
+    <row r="96" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" spans="2:2" ht="12">
+    <row r="97" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="2:2" ht="12">
+    <row r="98" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" spans="2:2" ht="12">
+    <row r="99" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="2:2" ht="12">
+    <row r="100" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="2:2" ht="12">
+    <row r="101" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="2:2" ht="12">
+    <row r="102" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="2:2" ht="12">
+    <row r="103" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" spans="2:2" ht="12">
+    <row r="104" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" spans="2:2" ht="12">
+    <row r="105" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" spans="2:2" ht="12">
+    <row r="106" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="6"/>
     </row>
-    <row r="107" spans="2:2" ht="12">
+    <row r="107" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
     </row>
-    <row r="108" spans="2:2" ht="12">
+    <row r="108" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="6"/>
     </row>
-    <row r="109" spans="2:2" ht="12">
+    <row r="109" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
     </row>
-    <row r="110" spans="2:2" ht="12">
+    <row r="110" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="6"/>
     </row>
-    <row r="111" spans="2:2" ht="12">
+    <row r="111" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="6"/>
     </row>
-    <row r="112" spans="2:2" ht="12">
+    <row r="112" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="6"/>
     </row>
-    <row r="113" spans="2:2" ht="12">
+    <row r="113" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="6"/>
     </row>
-    <row r="114" spans="2:2" ht="12">
+    <row r="114" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" spans="2:2" ht="12">
+    <row r="115" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="6"/>
     </row>
-    <row r="116" spans="2:2" ht="12">
+    <row r="116" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="6"/>
     </row>
-    <row r="117" spans="2:2" ht="12">
+    <row r="117" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="6"/>
     </row>
-    <row r="118" spans="2:2" ht="12">
+    <row r="118" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="6"/>
     </row>
-    <row r="119" spans="2:2" ht="12">
+    <row r="119" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" spans="2:2" ht="12">
+    <row r="120" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="6"/>
     </row>
-    <row r="121" spans="2:2" ht="12">
+    <row r="121" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="6"/>
     </row>
-    <row r="122" spans="2:2" ht="12">
+    <row r="122" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="6"/>
     </row>
-    <row r="123" spans="2:2" ht="12">
+    <row r="123" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="6"/>
     </row>
-    <row r="124" spans="2:2" ht="12">
+    <row r="124" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="6"/>
     </row>
-    <row r="125" spans="2:2" ht="12">
+    <row r="125" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="6"/>
     </row>
-    <row r="126" spans="2:2" ht="12">
+    <row r="126" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="6"/>
     </row>
-    <row r="127" spans="2:2" ht="12">
+    <row r="127" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="6"/>
     </row>
-    <row r="128" spans="2:2" ht="12">
+    <row r="128" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" spans="2:2" ht="12">
+    <row r="129" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="6"/>
     </row>
-    <row r="130" spans="2:2" ht="12">
+    <row r="130" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="6"/>
     </row>
-    <row r="131" spans="2:2" ht="12">
+    <row r="131" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="6"/>
     </row>
-    <row r="132" spans="2:2" ht="12">
+    <row r="132" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="6"/>
     </row>
-    <row r="133" spans="2:2" ht="12">
+    <row r="133" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="6"/>
     </row>
-    <row r="134" spans="2:2" ht="12">
+    <row r="134" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B134" s="6"/>
     </row>
-    <row r="135" spans="2:2" ht="12">
+    <row r="135" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B135" s="6"/>
     </row>
-    <row r="136" spans="2:2" ht="12">
+    <row r="136" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="6"/>
     </row>
-    <row r="137" spans="2:2" ht="12">
+    <row r="137" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="6"/>
     </row>
-    <row r="138" spans="2:2" ht="12">
+    <row r="138" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="2:2" ht="12">
+    <row r="139" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="6"/>
     </row>
-    <row r="140" spans="2:2" ht="12">
+    <row r="140" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="6"/>
     </row>
-    <row r="141" spans="2:2" ht="12">
+    <row r="141" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="6"/>
     </row>
-    <row r="142" spans="2:2" ht="12">
+    <row r="142" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="6"/>
     </row>
-    <row r="143" spans="2:2" ht="12">
+    <row r="143" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="6"/>
     </row>
-    <row r="144" spans="2:2" ht="12">
+    <row r="144" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="6"/>
     </row>
-    <row r="145" spans="2:2" ht="12">
+    <row r="145" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="2:2" ht="12">
+    <row r="146" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="2:2" ht="12">
+    <row r="147" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="2:2" ht="12">
+    <row r="148" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="2:2" ht="12">
+    <row r="149" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="2:2" ht="12">
+    <row r="150" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="2:2" ht="12">
+    <row r="151" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="2:2" ht="12">
+    <row r="152" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="2:2" ht="12">
+    <row r="153" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="2:2" ht="12">
+    <row r="154" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="2:2" ht="12">
+    <row r="155" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="2:2" ht="12">
+    <row r="156" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" spans="2:2" ht="12">
+    <row r="157" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" spans="2:2" ht="12">
+    <row r="158" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" spans="2:2" ht="12">
+    <row r="159" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" spans="2:2" ht="12">
+    <row r="160" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="6"/>
     </row>
-    <row r="161" spans="2:2" ht="12">
+    <row r="161" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="6"/>
     </row>
-    <row r="162" spans="2:2" ht="12">
+    <row r="162" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="6"/>
     </row>
-    <row r="163" spans="2:2" ht="12">
+    <row r="163" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="6"/>
     </row>
-    <row r="164" spans="2:2" ht="12">
+    <row r="164" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="6"/>
     </row>
-    <row r="165" spans="2:2" ht="12">
+    <row r="165" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="6"/>
     </row>
-    <row r="166" spans="2:2" ht="12">
+    <row r="166" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="6"/>
     </row>
-    <row r="167" spans="2:2" ht="12">
+    <row r="167" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="6"/>
     </row>
-    <row r="168" spans="2:2" ht="12">
+    <row r="168" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" spans="2:2" ht="12">
+    <row r="169" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="6"/>
     </row>
-    <row r="170" spans="2:2" ht="12">
+    <row r="170" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="6"/>
     </row>
-    <row r="171" spans="2:2" ht="12">
+    <row r="171" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" spans="2:2" ht="12">
+    <row r="172" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="6"/>
     </row>
-    <row r="173" spans="2:2" ht="12">
+    <row r="173" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="6"/>
     </row>
-    <row r="174" spans="2:2" ht="12">
+    <row r="174" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="6"/>
     </row>
-    <row r="175" spans="2:2" ht="12">
+    <row r="175" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" spans="2:2" ht="12">
+    <row r="176" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" spans="2:2" ht="12">
+    <row r="177" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="6"/>
     </row>
-    <row r="178" spans="2:2" ht="12">
+    <row r="178" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="6"/>
     </row>
-    <row r="179" spans="2:2" ht="12">
+    <row r="179" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="6"/>
     </row>
-    <row r="180" spans="2:2" ht="12">
+    <row r="180" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="6"/>
     </row>
-    <row r="181" spans="2:2" ht="12">
+    <row r="181" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="6"/>
     </row>
-    <row r="182" spans="2:2" ht="12">
+    <row r="182" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="6"/>
     </row>
-    <row r="183" spans="2:2" ht="12">
+    <row r="183" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="6"/>
     </row>
-    <row r="184" spans="2:2" ht="12">
+    <row r="184" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="6"/>
     </row>
-    <row r="185" spans="2:2" ht="12">
+    <row r="185" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="6"/>
     </row>
-    <row r="186" spans="2:2" ht="12">
+    <row r="186" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="6"/>
     </row>
-    <row r="187" spans="2:2" ht="12">
+    <row r="187" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="6"/>
     </row>
-    <row r="188" spans="2:2" ht="12">
+    <row r="188" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" spans="2:2" ht="12">
+    <row r="189" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="6"/>
     </row>
-    <row r="190" spans="2:2" ht="12">
+    <row r="190" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="6"/>
     </row>
-    <row r="191" spans="2:2" ht="12">
+    <row r="191" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="6"/>
     </row>
-    <row r="192" spans="2:2" ht="12">
+    <row r="192" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="6"/>
     </row>
-    <row r="193" spans="2:2" ht="12">
+    <row r="193" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="6"/>
     </row>
-    <row r="194" spans="2:2" ht="12">
+    <row r="194" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="6"/>
     </row>
-    <row r="195" spans="2:2" ht="12">
+    <row r="195" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="6"/>
     </row>
-    <row r="196" spans="2:2" ht="12">
+    <row r="196" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="6"/>
     </row>
-    <row r="197" spans="2:2" ht="12">
+    <row r="197" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="6"/>
     </row>
-    <row r="198" spans="2:2" ht="12">
+    <row r="198" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="6"/>
     </row>
-    <row r="199" spans="2:2" ht="12">
+    <row r="199" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="6"/>
     </row>
-    <row r="200" spans="2:2" ht="12">
+    <row r="200" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="6"/>
     </row>
-    <row r="201" spans="2:2" ht="12">
+    <row r="201" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="6"/>
     </row>
-    <row r="202" spans="2:2" ht="12">
+    <row r="202" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="6"/>
     </row>
-    <row r="203" spans="2:2" ht="12">
+    <row r="203" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="6"/>
     </row>
-    <row r="204" spans="2:2" ht="12">
+    <row r="204" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" spans="2:2" ht="12">
+    <row r="205" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="6"/>
     </row>
-    <row r="206" spans="2:2" ht="12">
+    <row r="206" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="6"/>
     </row>
-    <row r="207" spans="2:2" ht="12">
+    <row r="207" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="6"/>
     </row>
-    <row r="208" spans="2:2" ht="12">
+    <row r="208" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="6"/>
     </row>
-    <row r="209" spans="2:2" ht="12">
+    <row r="209" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="6"/>
     </row>
-    <row r="210" spans="2:2" ht="12">
+    <row r="210" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="6"/>
     </row>
-    <row r="211" spans="2:2" ht="12">
+    <row r="211" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="6"/>
     </row>
-    <row r="212" spans="2:2" ht="12">
+    <row r="212" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="6"/>
     </row>
-    <row r="213" spans="2:2" ht="12">
+    <row r="213" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="6"/>
     </row>
-    <row r="214" spans="2:2" ht="12">
+    <row r="214" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="6"/>
     </row>
-    <row r="215" spans="2:2" ht="12">
+    <row r="215" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="6"/>
     </row>
-    <row r="216" spans="2:2" ht="12">
+    <row r="216" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="6"/>
     </row>
-    <row r="217" spans="2:2" ht="12">
+    <row r="217" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="6"/>
     </row>
-    <row r="218" spans="2:2" ht="12">
+    <row r="218" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="6"/>
     </row>
-    <row r="219" spans="2:2" ht="12">
+    <row r="219" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="6"/>
     </row>
-    <row r="220" spans="2:2" ht="12">
+    <row r="220" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="6"/>
     </row>
-    <row r="221" spans="2:2" ht="12">
+    <row r="221" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="6"/>
     </row>
-    <row r="222" spans="2:2" ht="12">
+    <row r="222" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="6"/>
     </row>
-    <row r="223" spans="2:2" ht="12">
+    <row r="223" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="6"/>
     </row>
-    <row r="224" spans="2:2" ht="12">
+    <row r="224" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="6"/>
     </row>
-    <row r="225" spans="2:2" ht="12">
+    <row r="225" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="6"/>
     </row>
-    <row r="226" spans="2:2" ht="12">
+    <row r="226" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="6"/>
     </row>
-    <row r="227" spans="2:2" ht="12">
+    <row r="227" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="6"/>
     </row>
-    <row r="228" spans="2:2" ht="12">
+    <row r="228" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="6"/>
     </row>
-    <row r="229" spans="2:2" ht="12">
+    <row r="229" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="6"/>
     </row>
-    <row r="230" spans="2:2" ht="12">
+    <row r="230" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="6"/>
     </row>
-    <row r="231" spans="2:2" ht="12">
+    <row r="231" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="6"/>
     </row>
-    <row r="232" spans="2:2" ht="12">
+    <row r="232" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="6"/>
     </row>
-    <row r="233" spans="2:2" ht="12">
+    <row r="233" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="6"/>
     </row>
-    <row r="234" spans="2:2" ht="12">
+    <row r="234" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="6"/>
     </row>
-    <row r="235" spans="2:2" ht="12">
+    <row r="235" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="6"/>
     </row>
-    <row r="236" spans="2:2" ht="12">
+    <row r="236" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="6"/>
     </row>
-    <row r="237" spans="2:2" ht="12">
+    <row r="237" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="6"/>
     </row>
-    <row r="238" spans="2:2" ht="12">
+    <row r="238" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="6"/>
     </row>
-    <row r="239" spans="2:2" ht="12">
+    <row r="239" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="6"/>
     </row>
-    <row r="240" spans="2:2" ht="12">
+    <row r="240" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="6"/>
     </row>
-    <row r="241" spans="2:2" ht="12">
+    <row r="241" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="6"/>
     </row>
-    <row r="242" spans="2:2" ht="12">
+    <row r="242" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="6"/>
     </row>
-    <row r="243" spans="2:2" ht="12">
+    <row r="243" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="6"/>
     </row>
-    <row r="244" spans="2:2" ht="12">
+    <row r="244" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="6"/>
     </row>
-    <row r="245" spans="2:2" ht="12">
+    <row r="245" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="6"/>
     </row>
-    <row r="246" spans="2:2" ht="12">
+    <row r="246" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="6"/>
     </row>
-    <row r="247" spans="2:2" ht="12">
+    <row r="247" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="6"/>
     </row>
-    <row r="248" spans="2:2" ht="12">
+    <row r="248" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="6"/>
     </row>
-    <row r="249" spans="2:2" ht="12">
+    <row r="249" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="6"/>
     </row>
-    <row r="250" spans="2:2" ht="12">
+    <row r="250" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="6"/>
     </row>
-    <row r="251" spans="2:2" ht="12">
+    <row r="251" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="6"/>
     </row>
-    <row r="252" spans="2:2" ht="12">
+    <row r="252" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="6"/>
     </row>
-    <row r="253" spans="2:2" ht="12">
+    <row r="253" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="6"/>
     </row>
-    <row r="254" spans="2:2" ht="12">
+    <row r="254" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="6"/>
     </row>
-    <row r="255" spans="2:2" ht="12">
+    <row r="255" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="6"/>
     </row>
-    <row r="256" spans="2:2" ht="12">
+    <row r="256" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="6"/>
     </row>
-    <row r="257" spans="2:2" ht="12">
+    <row r="257" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="6"/>
     </row>
-    <row r="258" spans="2:2" ht="12">
+    <row r="258" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="6"/>
     </row>
-    <row r="259" spans="2:2" ht="12">
+    <row r="259" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="6"/>
     </row>
-    <row r="260" spans="2:2" ht="12">
+    <row r="260" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="6"/>
     </row>
-    <row r="261" spans="2:2" ht="12">
+    <row r="261" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="6"/>
     </row>
-    <row r="262" spans="2:2" ht="12">
+    <row r="262" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="6"/>
     </row>
-    <row r="263" spans="2:2" ht="12">
+    <row r="263" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="6"/>
     </row>
-    <row r="264" spans="2:2" ht="12">
+    <row r="264" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="6"/>
     </row>
-    <row r="265" spans="2:2" ht="12">
+    <row r="265" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="6"/>
     </row>
-    <row r="266" spans="2:2" ht="12">
+    <row r="266" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="6"/>
     </row>
-    <row r="267" spans="2:2" ht="12">
+    <row r="267" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="6"/>
     </row>
-    <row r="268" spans="2:2" ht="12">
+    <row r="268" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="6"/>
     </row>
-    <row r="269" spans="2:2" ht="12">
+    <row r="269" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="6"/>
     </row>
-    <row r="270" spans="2:2" ht="12">
+    <row r="270" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="6"/>
     </row>
-    <row r="271" spans="2:2" ht="12">
+    <row r="271" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="6"/>
     </row>
-    <row r="272" spans="2:2" ht="12">
+    <row r="272" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="6"/>
     </row>
-    <row r="273" spans="2:2" ht="12">
+    <row r="273" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="6"/>
     </row>
-    <row r="274" spans="2:2" ht="12">
+    <row r="274" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="6"/>
     </row>
-    <row r="275" spans="2:2" ht="12">
+    <row r="275" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="6"/>
     </row>
-    <row r="276" spans="2:2" ht="12">
+    <row r="276" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="6"/>
     </row>
-    <row r="277" spans="2:2" ht="12">
+    <row r="277" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="6"/>
     </row>
-    <row r="278" spans="2:2" ht="12">
+    <row r="278" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="6"/>
     </row>
-    <row r="279" spans="2:2" ht="12">
+    <row r="279" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="6"/>
     </row>
-    <row r="280" spans="2:2" ht="12">
+    <row r="280" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="6"/>
     </row>
-    <row r="281" spans="2:2" ht="12">
+    <row r="281" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="6"/>
     </row>
-    <row r="282" spans="2:2" ht="12">
+    <row r="282" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="6"/>
     </row>
-    <row r="283" spans="2:2" ht="12">
+    <row r="283" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="6"/>
     </row>
-    <row r="284" spans="2:2" ht="12">
+    <row r="284" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="6"/>
     </row>
-    <row r="285" spans="2:2" ht="12">
+    <row r="285" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="6"/>
     </row>
-    <row r="286" spans="2:2" ht="12">
+    <row r="286" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="6"/>
     </row>
-    <row r="287" spans="2:2" ht="12">
+    <row r="287" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="6"/>
     </row>
-    <row r="288" spans="2:2" ht="12">
+    <row r="288" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="6"/>
     </row>
-    <row r="289" spans="2:2" ht="12">
+    <row r="289" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="6"/>
     </row>
-    <row r="290" spans="2:2" ht="12">
+    <row r="290" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="6"/>
     </row>
-    <row r="291" spans="2:2" ht="12">
+    <row r="291" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="6"/>
     </row>
-    <row r="292" spans="2:2" ht="12">
+    <row r="292" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="6"/>
     </row>
-    <row r="293" spans="2:2" ht="12">
+    <row r="293" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="6"/>
     </row>
-    <row r="294" spans="2:2" ht="12">
+    <row r="294" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="6"/>
     </row>
-    <row r="295" spans="2:2" ht="12">
+    <row r="295" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="6"/>
     </row>
-    <row r="296" spans="2:2" ht="12">
+    <row r="296" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="6"/>
     </row>
-    <row r="297" spans="2:2" ht="12">
+    <row r="297" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="6"/>
     </row>
-    <row r="298" spans="2:2" ht="12">
+    <row r="298" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="6"/>
     </row>
-    <row r="299" spans="2:2" ht="12">
+    <row r="299" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="6"/>
     </row>
-    <row r="300" spans="2:2" ht="12">
+    <row r="300" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="6"/>
     </row>
-    <row r="301" spans="2:2" ht="12">
+    <row r="301" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="6"/>
     </row>
-    <row r="302" spans="2:2" ht="12">
+    <row r="302" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="6"/>
     </row>
-    <row r="303" spans="2:2" ht="12">
+    <row r="303" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="6"/>
     </row>
-    <row r="304" spans="2:2" ht="12">
+    <row r="304" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="6"/>
     </row>
-    <row r="305" spans="2:2" ht="12">
+    <row r="305" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="6"/>
     </row>
-    <row r="306" spans="2:2" ht="12">
+    <row r="306" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="6"/>
     </row>
-    <row r="307" spans="2:2" ht="12">
+    <row r="307" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="6"/>
     </row>
-    <row r="308" spans="2:2" ht="12">
+    <row r="308" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="6"/>
     </row>
-    <row r="309" spans="2:2" ht="12">
+    <row r="309" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="6"/>
     </row>
-    <row r="310" spans="2:2" ht="12">
+    <row r="310" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="6"/>
     </row>
-    <row r="311" spans="2:2" ht="12">
+    <row r="311" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="6"/>
     </row>
-    <row r="312" spans="2:2" ht="12">
+    <row r="312" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="6"/>
     </row>
-    <row r="313" spans="2:2" ht="12">
+    <row r="313" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="6"/>
     </row>
-    <row r="314" spans="2:2" ht="12">
+    <row r="314" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="6"/>
     </row>
-    <row r="315" spans="2:2" ht="12">
+    <row r="315" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="6"/>
     </row>
-    <row r="316" spans="2:2" ht="12">
+    <row r="316" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="6"/>
     </row>
-    <row r="317" spans="2:2" ht="12">
+    <row r="317" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="6"/>
     </row>
-    <row r="318" spans="2:2" ht="12">
+    <row r="318" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="6"/>
     </row>
-    <row r="319" spans="2:2" ht="12">
+    <row r="319" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="6"/>
     </row>
-    <row r="320" spans="2:2" ht="12">
+    <row r="320" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="6"/>
     </row>
-    <row r="321" spans="2:2" ht="12">
+    <row r="321" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="6"/>
     </row>
-    <row r="322" spans="2:2" ht="12">
+    <row r="322" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="6"/>
     </row>
-    <row r="323" spans="2:2" ht="12">
+    <row r="323" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="6"/>
     </row>
-    <row r="324" spans="2:2" ht="12">
+    <row r="324" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="6"/>
     </row>
-    <row r="325" spans="2:2" ht="12">
+    <row r="325" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="6"/>
     </row>
-    <row r="326" spans="2:2" ht="12">
+    <row r="326" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="6"/>
     </row>
-    <row r="327" spans="2:2" ht="12">
+    <row r="327" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="6"/>
     </row>
-    <row r="328" spans="2:2" ht="12">
+    <row r="328" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="6"/>
     </row>
-    <row r="329" spans="2:2" ht="12">
+    <row r="329" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="6"/>
     </row>
-    <row r="330" spans="2:2" ht="12">
+    <row r="330" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="6"/>
     </row>
-    <row r="331" spans="2:2" ht="12">
+    <row r="331" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="6"/>
     </row>
-    <row r="332" spans="2:2" ht="12">
+    <row r="332" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="6"/>
     </row>
-    <row r="333" spans="2:2" ht="12">
+    <row r="333" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="6"/>
     </row>
-    <row r="334" spans="2:2" ht="12">
+    <row r="334" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="6"/>
     </row>
-    <row r="335" spans="2:2" ht="12">
+    <row r="335" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="6"/>
     </row>
-    <row r="336" spans="2:2" ht="12">
+    <row r="336" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="6"/>
     </row>
-    <row r="337" spans="2:2" ht="12">
+    <row r="337" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="6"/>
     </row>
-    <row r="338" spans="2:2" ht="12">
+    <row r="338" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="6"/>
     </row>
-    <row r="339" spans="2:2" ht="12">
+    <row r="339" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="6"/>
     </row>
-    <row r="340" spans="2:2" ht="12">
+    <row r="340" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="6"/>
     </row>
-    <row r="341" spans="2:2" ht="12">
+    <row r="341" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="6"/>
     </row>
-    <row r="342" spans="2:2" ht="12">
+    <row r="342" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="6"/>
     </row>
-    <row r="343" spans="2:2" ht="12">
+    <row r="343" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="6"/>
     </row>
-    <row r="344" spans="2:2" ht="12">
+    <row r="344" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="6"/>
     </row>
-    <row r="345" spans="2:2" ht="12">
+    <row r="345" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="6"/>
     </row>
-    <row r="346" spans="2:2" ht="12">
+    <row r="346" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="6"/>
     </row>
-    <row r="347" spans="2:2" ht="12">
+    <row r="347" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="6"/>
     </row>
-    <row r="348" spans="2:2" ht="12">
+    <row r="348" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="6"/>
     </row>
-    <row r="349" spans="2:2" ht="12">
+    <row r="349" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="6"/>
     </row>
-    <row r="350" spans="2:2" ht="12">
+    <row r="350" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="6"/>
     </row>
-    <row r="351" spans="2:2" ht="12">
+    <row r="351" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="6"/>
     </row>
-    <row r="352" spans="2:2" ht="12">
+    <row r="352" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="6"/>
     </row>
-    <row r="353" spans="2:2" ht="12">
+    <row r="353" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="6"/>
     </row>
-    <row r="354" spans="2:2" ht="12">
+    <row r="354" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="6"/>
     </row>
-    <row r="355" spans="2:2" ht="12">
+    <row r="355" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="6"/>
     </row>
-    <row r="356" spans="2:2" ht="12">
+    <row r="356" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="6"/>
     </row>
-    <row r="357" spans="2:2" ht="12">
+    <row r="357" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="6"/>
     </row>
-    <row r="358" spans="2:2" ht="12">
+    <row r="358" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="6"/>
     </row>
-    <row r="359" spans="2:2" ht="12">
+    <row r="359" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="6"/>
     </row>
-    <row r="360" spans="2:2" ht="12">
+    <row r="360" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="6"/>
     </row>
-    <row r="361" spans="2:2" ht="12">
+    <row r="361" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="6"/>
     </row>
-    <row r="362" spans="2:2" ht="12">
+    <row r="362" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="6"/>
     </row>
-    <row r="363" spans="2:2" ht="12">
+    <row r="363" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="6"/>
     </row>
-    <row r="364" spans="2:2" ht="12">
+    <row r="364" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="6"/>
     </row>
-    <row r="365" spans="2:2" ht="12">
+    <row r="365" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="6"/>
     </row>
-    <row r="366" spans="2:2" ht="12">
+    <row r="366" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="6"/>
     </row>
-    <row r="367" spans="2:2" ht="12">
+    <row r="367" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="6"/>
     </row>
-    <row r="368" spans="2:2" ht="12">
+    <row r="368" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="6"/>
     </row>
-    <row r="369" spans="2:2" ht="12">
+    <row r="369" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="6"/>
     </row>
-    <row r="370" spans="2:2" ht="12">
+    <row r="370" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="6"/>
     </row>
-    <row r="371" spans="2:2" ht="12">
+    <row r="371" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="6"/>
     </row>
-    <row r="372" spans="2:2" ht="12">
+    <row r="372" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="6"/>
     </row>
-    <row r="373" spans="2:2" ht="12">
+    <row r="373" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="6"/>
     </row>
-    <row r="374" spans="2:2" ht="12">
+    <row r="374" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="6"/>
     </row>
-    <row r="375" spans="2:2" ht="12">
+    <row r="375" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="6"/>
     </row>
-    <row r="376" spans="2:2" ht="12">
+    <row r="376" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="6"/>
     </row>
-    <row r="377" spans="2:2" ht="12">
+    <row r="377" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="6"/>
     </row>
-    <row r="378" spans="2:2" ht="12">
+    <row r="378" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="6"/>
     </row>
-    <row r="379" spans="2:2" ht="12">
+    <row r="379" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="6"/>
     </row>
-    <row r="380" spans="2:2" ht="12">
+    <row r="380" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="6"/>
     </row>
-    <row r="381" spans="2:2" ht="12">
+    <row r="381" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="6"/>
     </row>
-    <row r="382" spans="2:2" ht="12">
+    <row r="382" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="6"/>
     </row>
-    <row r="383" spans="2:2" ht="12">
+    <row r="383" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="6"/>
     </row>
-    <row r="384" spans="2:2" ht="12">
+    <row r="384" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="6"/>
     </row>
-    <row r="385" spans="2:2" ht="12">
+    <row r="385" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="6"/>
     </row>
-    <row r="386" spans="2:2" ht="12">
+    <row r="386" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="6"/>
     </row>
-    <row r="387" spans="2:2" ht="12">
+    <row r="387" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="6"/>
     </row>
-    <row r="388" spans="2:2" ht="12">
+    <row r="388" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="6"/>
     </row>
-    <row r="389" spans="2:2" ht="12">
+    <row r="389" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="6"/>
     </row>
-    <row r="390" spans="2:2" ht="12">
+    <row r="390" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="6"/>
     </row>
-    <row r="391" spans="2:2" ht="12">
+    <row r="391" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="6"/>
     </row>
-    <row r="392" spans="2:2" ht="12">
+    <row r="392" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="6"/>
     </row>
-    <row r="393" spans="2:2" ht="12">
+    <row r="393" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="6"/>
     </row>
-    <row r="394" spans="2:2" ht="12">
+    <row r="394" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="6"/>
     </row>
-    <row r="395" spans="2:2" ht="12">
+    <row r="395" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="6"/>
     </row>
-    <row r="396" spans="2:2" ht="12">
+    <row r="396" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="6"/>
     </row>
-    <row r="397" spans="2:2" ht="12">
+    <row r="397" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="6"/>
     </row>
-    <row r="398" spans="2:2" ht="12">
+    <row r="398" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="6"/>
     </row>
-    <row r="399" spans="2:2" ht="12">
+    <row r="399" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="6"/>
     </row>
-    <row r="400" spans="2:2" ht="12">
+    <row r="400" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="6"/>
     </row>
-    <row r="401" spans="2:2" ht="12">
+    <row r="401" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="6"/>
     </row>
-    <row r="402" spans="2:2" ht="12">
+    <row r="402" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="6"/>
     </row>
-    <row r="403" spans="2:2" ht="12">
+    <row r="403" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="6"/>
     </row>
-    <row r="404" spans="2:2" ht="12">
+    <row r="404" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="6"/>
     </row>
-    <row r="405" spans="2:2" ht="12">
+    <row r="405" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="6"/>
     </row>
-    <row r="406" spans="2:2" ht="12">
+    <row r="406" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="6"/>
     </row>
-    <row r="407" spans="2:2" ht="12">
+    <row r="407" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="6"/>
     </row>
-    <row r="408" spans="2:2" ht="12">
+    <row r="408" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="6"/>
     </row>
-    <row r="409" spans="2:2" ht="12">
+    <row r="409" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="6"/>
     </row>
-    <row r="410" spans="2:2" ht="12">
+    <row r="410" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="6"/>
     </row>
-    <row r="411" spans="2:2" ht="12">
+    <row r="411" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="6"/>
     </row>
-    <row r="412" spans="2:2" ht="12">
+    <row r="412" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="6"/>
     </row>
-    <row r="413" spans="2:2" ht="12">
+    <row r="413" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="6"/>
     </row>
-    <row r="414" spans="2:2" ht="12">
+    <row r="414" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="6"/>
     </row>
-    <row r="415" spans="2:2" ht="12">
+    <row r="415" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="6"/>
     </row>
-    <row r="416" spans="2:2" ht="12">
+    <row r="416" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="6"/>
     </row>
-    <row r="417" spans="2:2" ht="12">
+    <row r="417" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="6"/>
     </row>
-    <row r="418" spans="2:2" ht="12">
+    <row r="418" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="6"/>
     </row>
-    <row r="419" spans="2:2" ht="12">
+    <row r="419" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="6"/>
     </row>
-    <row r="420" spans="2:2" ht="12">
+    <row r="420" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="6"/>
     </row>
-    <row r="421" spans="2:2" ht="12">
+    <row r="421" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="6"/>
     </row>
-    <row r="422" spans="2:2" ht="12">
+    <row r="422" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="6"/>
     </row>
-    <row r="423" spans="2:2" ht="12">
+    <row r="423" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="6"/>
     </row>
-    <row r="424" spans="2:2" ht="12">
+    <row r="424" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="6"/>
     </row>
-    <row r="425" spans="2:2" ht="12">
+    <row r="425" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="6"/>
     </row>
-    <row r="426" spans="2:2" ht="12">
+    <row r="426" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="6"/>
     </row>
-    <row r="427" spans="2:2" ht="12">
+    <row r="427" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="6"/>
     </row>
-    <row r="428" spans="2:2" ht="12">
+    <row r="428" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="6"/>
     </row>
-    <row r="429" spans="2:2" ht="12">
+    <row r="429" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="6"/>
     </row>
-    <row r="430" spans="2:2" ht="12">
+    <row r="430" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="6"/>
     </row>
-    <row r="431" spans="2:2" ht="12">
+    <row r="431" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="6"/>
     </row>
-    <row r="432" spans="2:2" ht="12">
+    <row r="432" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="6"/>
     </row>
-    <row r="433" spans="2:2" ht="12">
+    <row r="433" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="6"/>
     </row>
-    <row r="434" spans="2:2" ht="12">
+    <row r="434" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="6"/>
     </row>
-    <row r="435" spans="2:2" ht="12">
+    <row r="435" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="6"/>
     </row>
-    <row r="436" spans="2:2" ht="12">
+    <row r="436" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="6"/>
     </row>
-    <row r="437" spans="2:2" ht="12">
+    <row r="437" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="6"/>
     </row>
-    <row r="438" spans="2:2" ht="12">
+    <row r="438" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="6"/>
     </row>
-    <row r="439" spans="2:2" ht="12">
+    <row r="439" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="6"/>
     </row>
-    <row r="440" spans="2:2" ht="12">
+    <row r="440" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="6"/>
     </row>
-    <row r="441" spans="2:2" ht="12">
+    <row r="441" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="6"/>
     </row>
-    <row r="442" spans="2:2" ht="12">
+    <row r="442" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="6"/>
     </row>
-    <row r="443" spans="2:2" ht="12">
+    <row r="443" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="6"/>
     </row>
-    <row r="444" spans="2:2" ht="12">
+    <row r="444" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="6"/>
     </row>
-    <row r="445" spans="2:2" ht="12">
+    <row r="445" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="6"/>
     </row>
-    <row r="446" spans="2:2" ht="12">
+    <row r="446" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="6"/>
     </row>
-    <row r="447" spans="2:2" ht="12">
+    <row r="447" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="6"/>
     </row>
-    <row r="448" spans="2:2" ht="12">
+    <row r="448" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="6"/>
     </row>
-    <row r="449" spans="2:2" ht="12">
+    <row r="449" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="6"/>
     </row>
-    <row r="450" spans="2:2" ht="12">
+    <row r="450" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="6"/>
     </row>
-    <row r="451" spans="2:2" ht="12">
+    <row r="451" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="6"/>
     </row>
-    <row r="452" spans="2:2" ht="12">
+    <row r="452" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="6"/>
     </row>
-    <row r="453" spans="2:2" ht="12">
+    <row r="453" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="6"/>
     </row>
-    <row r="454" spans="2:2" ht="12">
+    <row r="454" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="6"/>
     </row>
-    <row r="455" spans="2:2" ht="12">
+    <row r="455" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="6"/>
     </row>
-    <row r="456" spans="2:2" ht="12">
+    <row r="456" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="6"/>
     </row>
-    <row r="457" spans="2:2" ht="12">
+    <row r="457" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="6"/>
     </row>
-    <row r="458" spans="2:2" ht="12">
+    <row r="458" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="6"/>
     </row>
-    <row r="459" spans="2:2" ht="12">
+    <row r="459" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="6"/>
     </row>
-    <row r="460" spans="2:2" ht="12">
+    <row r="460" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="6"/>
     </row>
-    <row r="461" spans="2:2" ht="12">
+    <row r="461" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="6"/>
     </row>
-    <row r="462" spans="2:2" ht="12">
+    <row r="462" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="6"/>
     </row>
-    <row r="463" spans="2:2" ht="12">
+    <row r="463" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="6"/>
     </row>
-    <row r="464" spans="2:2" ht="12">
+    <row r="464" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="6"/>
     </row>
-    <row r="465" spans="2:2" ht="12">
+    <row r="465" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="6"/>
     </row>
-    <row r="466" spans="2:2" ht="12">
+    <row r="466" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="6"/>
     </row>
-    <row r="467" spans="2:2" ht="12">
+    <row r="467" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="6"/>
     </row>
-    <row r="468" spans="2:2" ht="12">
+    <row r="468" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="6"/>
     </row>
-    <row r="469" spans="2:2" ht="12">
+    <row r="469" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="6"/>
     </row>
-    <row r="470" spans="2:2" ht="12">
+    <row r="470" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="6"/>
     </row>
-    <row r="471" spans="2:2" ht="12">
+    <row r="471" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="6"/>
     </row>
-    <row r="472" spans="2:2" ht="12">
+    <row r="472" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="6"/>
     </row>
-    <row r="473" spans="2:2" ht="12">
+    <row r="473" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="6"/>
     </row>
-    <row r="474" spans="2:2" ht="12">
+    <row r="474" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="6"/>
     </row>
-    <row r="475" spans="2:2" ht="12">
+    <row r="475" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="6"/>
     </row>
-    <row r="476" spans="2:2" ht="12">
+    <row r="476" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="6"/>
     </row>
-    <row r="477" spans="2:2" ht="12">
+    <row r="477" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="6"/>
     </row>
-    <row r="478" spans="2:2" ht="12">
+    <row r="478" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="6"/>
     </row>
-    <row r="479" spans="2:2" ht="12">
+    <row r="479" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="6"/>
     </row>
-    <row r="480" spans="2:2" ht="12">
+    <row r="480" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="6"/>
     </row>
-    <row r="481" spans="2:2" ht="12">
+    <row r="481" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="6"/>
     </row>
-    <row r="482" spans="2:2" ht="12">
+    <row r="482" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="6"/>
     </row>
-    <row r="483" spans="2:2" ht="12">
+    <row r="483" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="6"/>
     </row>
-    <row r="484" spans="2:2" ht="12">
+    <row r="484" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="6"/>
     </row>
-    <row r="485" spans="2:2" ht="12">
+    <row r="485" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="6"/>
     </row>
-    <row r="486" spans="2:2" ht="12">
+    <row r="486" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="6"/>
     </row>
-    <row r="487" spans="2:2" ht="12">
+    <row r="487" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="6"/>
     </row>
-    <row r="488" spans="2:2" ht="12">
+    <row r="488" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="6"/>
     </row>
-    <row r="489" spans="2:2" ht="12">
+    <row r="489" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="6"/>
     </row>
-    <row r="490" spans="2:2" ht="12">
+    <row r="490" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="6"/>
     </row>
-    <row r="491" spans="2:2" ht="12">
+    <row r="491" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="6"/>
     </row>
-    <row r="492" spans="2:2" ht="12">
+    <row r="492" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="6"/>
     </row>
-    <row r="493" spans="2:2" ht="12">
+    <row r="493" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="6"/>
     </row>
-    <row r="494" spans="2:2" ht="12">
+    <row r="494" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="6"/>
     </row>
-    <row r="495" spans="2:2" ht="12">
+    <row r="495" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="6"/>
     </row>
-    <row r="496" spans="2:2" ht="12">
+    <row r="496" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="6"/>
     </row>
-    <row r="497" spans="2:2" ht="12">
+    <row r="497" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="6"/>
     </row>
-    <row r="498" spans="2:2" ht="12">
+    <row r="498" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="6"/>
     </row>
-    <row r="499" spans="2:2" ht="12">
+    <row r="499" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="6"/>
     </row>
-    <row r="500" spans="2:2" ht="12">
+    <row r="500" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="6"/>
     </row>
-    <row r="501" spans="2:2" ht="12">
+    <row r="501" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="6"/>
     </row>
-    <row r="502" spans="2:2" ht="12">
+    <row r="502" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="6"/>
     </row>
-    <row r="503" spans="2:2" ht="12">
+    <row r="503" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="6"/>
     </row>
-    <row r="504" spans="2:2" ht="12">
+    <row r="504" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="6"/>
     </row>
-    <row r="505" spans="2:2" ht="12">
+    <row r="505" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="6"/>
     </row>
-    <row r="506" spans="2:2" ht="12">
+    <row r="506" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="6"/>
     </row>
-    <row r="507" spans="2:2" ht="12">
+    <row r="507" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="6"/>
     </row>
-    <row r="508" spans="2:2" ht="12">
+    <row r="508" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="6"/>
     </row>
-    <row r="509" spans="2:2" ht="12">
+    <row r="509" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="6"/>
     </row>
-    <row r="510" spans="2:2" ht="12">
+    <row r="510" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="6"/>
     </row>
-    <row r="511" spans="2:2" ht="12">
+    <row r="511" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="6"/>
     </row>
-    <row r="512" spans="2:2" ht="12">
+    <row r="512" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="6"/>
     </row>
-    <row r="513" spans="2:2" ht="12">
+    <row r="513" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="6"/>
     </row>
-    <row r="514" spans="2:2" ht="12">
+    <row r="514" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="6"/>
     </row>
-    <row r="515" spans="2:2" ht="12">
+    <row r="515" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="6"/>
     </row>
-    <row r="516" spans="2:2" ht="12">
+    <row r="516" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="6"/>
     </row>
-    <row r="517" spans="2:2" ht="12">
+    <row r="517" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="6"/>
     </row>
-    <row r="518" spans="2:2" ht="12">
+    <row r="518" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="6"/>
     </row>
-    <row r="519" spans="2:2" ht="12">
+    <row r="519" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="6"/>
     </row>
-    <row r="520" spans="2:2" ht="12">
+    <row r="520" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="6"/>
     </row>
-    <row r="521" spans="2:2" ht="12">
+    <row r="521" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="6"/>
     </row>
-    <row r="522" spans="2:2" ht="12">
+    <row r="522" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="6"/>
     </row>
-    <row r="523" spans="2:2" ht="12">
+    <row r="523" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="6"/>
     </row>
-    <row r="524" spans="2:2" ht="12">
+    <row r="524" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="6"/>
     </row>
-    <row r="525" spans="2:2" ht="12">
+    <row r="525" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="6"/>
     </row>
-    <row r="526" spans="2:2" ht="12">
+    <row r="526" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="6"/>
     </row>
-    <row r="527" spans="2:2" ht="12">
+    <row r="527" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="6"/>
     </row>
-    <row r="528" spans="2:2" ht="12">
+    <row r="528" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="6"/>
     </row>
-    <row r="529" spans="2:2" ht="12">
+    <row r="529" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="6"/>
     </row>
-    <row r="530" spans="2:2" ht="12">
+    <row r="530" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="6"/>
     </row>
-    <row r="531" spans="2:2" ht="12">
+    <row r="531" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="6"/>
     </row>
-    <row r="532" spans="2:2" ht="12">
+    <row r="532" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="6"/>
     </row>
-    <row r="533" spans="2:2" ht="12">
+    <row r="533" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="6"/>
     </row>
-    <row r="534" spans="2:2" ht="12">
+    <row r="534" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="6"/>
     </row>
-    <row r="535" spans="2:2" ht="12">
+    <row r="535" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="6"/>
     </row>
-    <row r="536" spans="2:2" ht="12">
+    <row r="536" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="6"/>
     </row>
-    <row r="537" spans="2:2" ht="12">
+    <row r="537" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="6"/>
     </row>
-    <row r="538" spans="2:2" ht="12">
+    <row r="538" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="6"/>
     </row>
-    <row r="539" spans="2:2" ht="12">
+    <row r="539" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="6"/>
     </row>
-    <row r="540" spans="2:2" ht="12">
+    <row r="540" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="6"/>
     </row>
-    <row r="541" spans="2:2" ht="12">
+    <row r="541" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="6"/>
     </row>
-    <row r="542" spans="2:2" ht="12">
+    <row r="542" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="6"/>
     </row>
-    <row r="543" spans="2:2" ht="12">
+    <row r="543" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="6"/>
     </row>
-    <row r="544" spans="2:2" ht="12">
+    <row r="544" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="6"/>
     </row>
-    <row r="545" spans="2:2" ht="12">
+    <row r="545" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="6"/>
     </row>
-    <row r="546" spans="2:2" ht="12">
+    <row r="546" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="6"/>
     </row>
-    <row r="547" spans="2:2" ht="12">
+    <row r="547" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="6"/>
     </row>
-    <row r="548" spans="2:2" ht="12">
+    <row r="548" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="6"/>
     </row>
-    <row r="549" spans="2:2" ht="12">
+    <row r="549" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="6"/>
     </row>
-    <row r="550" spans="2:2" ht="12">
+    <row r="550" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="6"/>
     </row>
-    <row r="551" spans="2:2" ht="12">
+    <row r="551" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="6"/>
     </row>
-    <row r="552" spans="2:2" ht="12">
+    <row r="552" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="6"/>
     </row>
-    <row r="553" spans="2:2" ht="12">
+    <row r="553" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="6"/>
     </row>
-    <row r="554" spans="2:2" ht="12">
+    <row r="554" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="6"/>
     </row>
-    <row r="555" spans="2:2" ht="12">
+    <row r="555" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="6"/>
     </row>
-    <row r="556" spans="2:2" ht="12">
+    <row r="556" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="6"/>
     </row>
-    <row r="557" spans="2:2" ht="12">
+    <row r="557" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="6"/>
     </row>
-    <row r="558" spans="2:2" ht="12">
+    <row r="558" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="6"/>
     </row>
-    <row r="559" spans="2:2" ht="12">
+    <row r="559" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="6"/>
     </row>
-    <row r="560" spans="2:2" ht="12">
+    <row r="560" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="6"/>
     </row>
-    <row r="561" spans="2:2" ht="12">
+    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="6"/>
     </row>
-    <row r="562" spans="2:2" ht="12">
+    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="6"/>
     </row>
-    <row r="563" spans="2:2" ht="12">
+    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="6"/>
     </row>
-    <row r="564" spans="2:2" ht="12">
+    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="6"/>
     </row>
-    <row r="565" spans="2:2" ht="12">
+    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="6"/>
     </row>
-    <row r="566" spans="2:2" ht="12">
+    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="6"/>
     </row>
-    <row r="567" spans="2:2" ht="12">
+    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="6"/>
     </row>
-    <row r="568" spans="2:2" ht="12">
+    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="6"/>
     </row>
-    <row r="569" spans="2:2" ht="12">
+    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="6"/>
     </row>
-    <row r="570" spans="2:2" ht="12">
+    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="6"/>
     </row>
-    <row r="571" spans="2:2" ht="12">
+    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="6"/>
     </row>
-    <row r="572" spans="2:2" ht="12">
+    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="6"/>
     </row>
-    <row r="573" spans="2:2" ht="12">
+    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="6"/>
     </row>
-    <row r="574" spans="2:2" ht="12">
+    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="6"/>
     </row>
-    <row r="575" spans="2:2" ht="12">
+    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="6"/>
     </row>
-    <row r="576" spans="2:2" ht="12">
+    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="6"/>
     </row>
-    <row r="577" spans="2:2" ht="12">
+    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="6"/>
     </row>
-    <row r="578" spans="2:2" ht="12">
+    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="6"/>
     </row>
-    <row r="579" spans="2:2" ht="12">
+    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="6"/>
     </row>
-    <row r="580" spans="2:2" ht="12">
+    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="6"/>
     </row>
-    <row r="581" spans="2:2" ht="12">
+    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="6"/>
     </row>
-    <row r="582" spans="2:2" ht="12">
+    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="6"/>
     </row>
-    <row r="583" spans="2:2" ht="12">
+    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="6"/>
     </row>
-    <row r="584" spans="2:2" ht="12">
+    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="6"/>
     </row>
-    <row r="585" spans="2:2" ht="12">
+    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="6"/>
     </row>
-    <row r="586" spans="2:2" ht="12">
+    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="6"/>
     </row>
-    <row r="587" spans="2:2" ht="12">
+    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="6"/>
     </row>
-    <row r="588" spans="2:2" ht="12">
+    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="6"/>
     </row>
-    <row r="589" spans="2:2" ht="12">
+    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="6"/>
     </row>
-    <row r="590" spans="2:2" ht="12">
+    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="6"/>
     </row>
-    <row r="591" spans="2:2" ht="12">
+    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="6"/>
     </row>
-    <row r="592" spans="2:2" ht="12">
+    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="6"/>
     </row>
-    <row r="593" spans="2:2" ht="12">
+    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="6"/>
     </row>
-    <row r="594" spans="2:2" ht="12">
+    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="6"/>
     </row>
-    <row r="595" spans="2:2" ht="12">
+    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="6"/>
     </row>
-    <row r="596" spans="2:2" ht="12">
+    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="6"/>
     </row>
-    <row r="597" spans="2:2" ht="12">
+    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="6"/>
     </row>
-    <row r="598" spans="2:2" ht="12">
+    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="6"/>
     </row>
-    <row r="599" spans="2:2" ht="12">
+    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="6"/>
     </row>
-    <row r="600" spans="2:2" ht="12">
+    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="6"/>
     </row>
-    <row r="601" spans="2:2" ht="12">
+    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="6"/>
     </row>
-    <row r="602" spans="2:2" ht="12">
+    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="6"/>
     </row>
-    <row r="603" spans="2:2" ht="12">
+    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="6"/>
     </row>
-    <row r="604" spans="2:2" ht="12">
+    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="6"/>
     </row>
-    <row r="605" spans="2:2" ht="12">
+    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="6"/>
     </row>
-    <row r="606" spans="2:2" ht="12">
+    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="6"/>
     </row>
-    <row r="607" spans="2:2" ht="12">
+    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="6"/>
     </row>
-    <row r="608" spans="2:2" ht="12">
+    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="6"/>
     </row>
-    <row r="609" spans="2:2" ht="12">
+    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="6"/>
     </row>
-    <row r="610" spans="2:2" ht="12">
+    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="6"/>
     </row>
-    <row r="611" spans="2:2" ht="12">
+    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="6"/>
     </row>
-    <row r="612" spans="2:2" ht="12">
+    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="6"/>
     </row>
-    <row r="613" spans="2:2" ht="12">
+    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="6"/>
     </row>
-    <row r="614" spans="2:2" ht="12">
+    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="6"/>
     </row>
-    <row r="615" spans="2:2" ht="12">
+    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="6"/>
     </row>
-    <row r="616" spans="2:2" ht="12">
+    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="6"/>
     </row>
-    <row r="617" spans="2:2" ht="12">
+    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="6"/>
     </row>
-    <row r="618" spans="2:2" ht="12">
+    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="6"/>
     </row>
-    <row r="619" spans="2:2" ht="12">
+    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="6"/>
     </row>
-    <row r="620" spans="2:2" ht="12">
+    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="6"/>
     </row>
-    <row r="621" spans="2:2" ht="12">
+    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="6"/>
     </row>
-    <row r="622" spans="2:2" ht="12">
+    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="6"/>
     </row>
-    <row r="623" spans="2:2" ht="12">
+    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="6"/>
     </row>
-    <row r="624" spans="2:2" ht="12">
+    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="6"/>
     </row>
-    <row r="625" spans="2:2" ht="12">
+    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="6"/>
     </row>
-    <row r="626" spans="2:2" ht="12">
+    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="6"/>
     </row>
-    <row r="627" spans="2:2" ht="12">
+    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="6"/>
     </row>
-    <row r="628" spans="2:2" ht="12">
+    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="6"/>
     </row>
-    <row r="629" spans="2:2" ht="12">
+    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="6"/>
     </row>
-    <row r="630" spans="2:2" ht="12">
+    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="6"/>
     </row>
-    <row r="631" spans="2:2" ht="12">
+    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="6"/>
     </row>
-    <row r="632" spans="2:2" ht="12">
+    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="6"/>
     </row>
-    <row r="633" spans="2:2" ht="12">
+    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="6"/>
     </row>
-    <row r="634" spans="2:2" ht="12">
+    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="6"/>
     </row>
-    <row r="635" spans="2:2" ht="12">
+    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="6"/>
     </row>
-    <row r="636" spans="2:2" ht="12">
+    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="6"/>
     </row>
-    <row r="637" spans="2:2" ht="12">
+    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="6"/>
     </row>
-    <row r="638" spans="2:2" ht="12">
+    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="6"/>
     </row>
-    <row r="639" spans="2:2" ht="12">
+    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="6"/>
     </row>
-    <row r="640" spans="2:2" ht="12">
+    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="6"/>
     </row>
-    <row r="641" spans="2:2" ht="12">
+    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="6"/>
     </row>
-    <row r="642" spans="2:2" ht="12">
+    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="6"/>
     </row>
-    <row r="643" spans="2:2" ht="12">
+    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="6"/>
     </row>
-    <row r="644" spans="2:2" ht="12">
+    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="6"/>
     </row>
-    <row r="645" spans="2:2" ht="12">
+    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="6"/>
     </row>
-    <row r="646" spans="2:2" ht="12">
+    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="6"/>
     </row>
-    <row r="647" spans="2:2" ht="12">
+    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="6"/>
     </row>
-    <row r="648" spans="2:2" ht="12">
+    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="6"/>
     </row>
-    <row r="649" spans="2:2" ht="12">
+    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="6"/>
     </row>
-    <row r="650" spans="2:2" ht="12">
+    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="6"/>
     </row>
-    <row r="651" spans="2:2" ht="12">
+    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="6"/>
     </row>
-    <row r="652" spans="2:2" ht="12">
+    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="6"/>
     </row>
-    <row r="653" spans="2:2" ht="12">
+    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="6"/>
     </row>
-    <row r="654" spans="2:2" ht="12">
+    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="6"/>
     </row>
-    <row r="655" spans="2:2" ht="12">
+    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="6"/>
     </row>
-    <row r="656" spans="2:2" ht="12">
+    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="6"/>
     </row>
-    <row r="657" spans="2:2" ht="12">
+    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="6"/>
     </row>
-    <row r="658" spans="2:2" ht="12">
+    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="6"/>
     </row>
-    <row r="659" spans="2:2" ht="12">
+    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="6"/>
     </row>
-    <row r="660" spans="2:2" ht="12">
+    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="6"/>
     </row>
-    <row r="661" spans="2:2" ht="12">
+    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="6"/>
     </row>
-    <row r="662" spans="2:2" ht="12">
+    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="6"/>
     </row>
-    <row r="663" spans="2:2" ht="12">
+    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="6"/>
     </row>
-    <row r="664" spans="2:2" ht="12">
+    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="6"/>
     </row>
-    <row r="665" spans="2:2" ht="12">
+    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="6"/>
     </row>
-    <row r="666" spans="2:2" ht="12">
+    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="6"/>
     </row>
-    <row r="667" spans="2:2" ht="12">
+    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="6"/>
     </row>
-    <row r="668" spans="2:2" ht="12">
+    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="6"/>
     </row>
-    <row r="669" spans="2:2" ht="12">
+    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="6"/>
     </row>
-    <row r="670" spans="2:2" ht="12">
+    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="6"/>
     </row>
-    <row r="671" spans="2:2" ht="12">
+    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="6"/>
     </row>
-    <row r="672" spans="2:2" ht="12">
+    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="6"/>
     </row>
-    <row r="673" spans="2:2" ht="12">
+    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="6"/>
     </row>
-    <row r="674" spans="2:2" ht="12">
+    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="6"/>
     </row>
-    <row r="675" spans="2:2" ht="12">
+    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="6"/>
     </row>
-    <row r="676" spans="2:2" ht="12">
+    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="6"/>
     </row>
-    <row r="677" spans="2:2" ht="12">
+    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="6"/>
     </row>
-    <row r="678" spans="2:2" ht="12">
+    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="6"/>
     </row>
-    <row r="679" spans="2:2" ht="12">
+    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="6"/>
     </row>
-    <row r="680" spans="2:2" ht="12">
+    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="6"/>
     </row>
-    <row r="681" spans="2:2" ht="12">
+    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="6"/>
     </row>
-    <row r="682" spans="2:2" ht="12">
+    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="6"/>
     </row>
-    <row r="683" spans="2:2" ht="12">
+    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="6"/>
     </row>
-    <row r="684" spans="2:2" ht="12">
+    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="6"/>
     </row>
-    <row r="685" spans="2:2" ht="12">
+    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="6"/>
     </row>
-    <row r="686" spans="2:2" ht="12">
+    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="6"/>
     </row>
-    <row r="687" spans="2:2" ht="12">
+    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="6"/>
     </row>
-    <row r="688" spans="2:2" ht="12">
+    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="6"/>
     </row>
-    <row r="689" spans="2:2" ht="12">
+    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="6"/>
     </row>
-    <row r="690" spans="2:2" ht="12">
+    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="6"/>
     </row>
-    <row r="691" spans="2:2" ht="12">
+    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="6"/>
     </row>
-    <row r="692" spans="2:2" ht="12">
+    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="6"/>
     </row>
-    <row r="693" spans="2:2" ht="12">
+    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="6"/>
     </row>
-    <row r="694" spans="2:2" ht="12">
+    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="6"/>
     </row>
-    <row r="695" spans="2:2" ht="12">
+    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="6"/>
     </row>
-    <row r="696" spans="2:2" ht="12">
+    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="6"/>
     </row>
-    <row r="697" spans="2:2" ht="12">
+    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="6"/>
     </row>
-    <row r="698" spans="2:2" ht="12">
+    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="6"/>
     </row>
-    <row r="699" spans="2:2" ht="12">
+    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="6"/>
     </row>
-    <row r="700" spans="2:2" ht="12">
+    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="6"/>
     </row>
-    <row r="701" spans="2:2" ht="12">
+    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="6"/>
     </row>
-    <row r="702" spans="2:2" ht="12">
+    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="6"/>
     </row>
-    <row r="703" spans="2:2" ht="12">
+    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="6"/>
     </row>
-    <row r="704" spans="2:2" ht="12">
+    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="6"/>
     </row>
-    <row r="705" spans="2:2" ht="12">
+    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="6"/>
     </row>
-    <row r="706" spans="2:2" ht="12">
+    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="6"/>
     </row>
-    <row r="707" spans="2:2" ht="12">
+    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="6"/>
     </row>
-    <row r="708" spans="2:2" ht="12">
+    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="6"/>
     </row>
-    <row r="709" spans="2:2" ht="12">
+    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="6"/>
     </row>
-    <row r="710" spans="2:2" ht="12">
+    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="6"/>
     </row>
-    <row r="711" spans="2:2" ht="12">
+    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="6"/>
     </row>
-    <row r="712" spans="2:2" ht="12">
+    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="6"/>
     </row>
-    <row r="713" spans="2:2" ht="12">
+    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="6"/>
     </row>
-    <row r="714" spans="2:2" ht="12">
+    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="6"/>
     </row>
-    <row r="715" spans="2:2" ht="12">
+    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="6"/>
     </row>
-    <row r="716" spans="2:2" ht="12">
+    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="6"/>
     </row>
-    <row r="717" spans="2:2" ht="12">
+    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="6"/>
     </row>
-    <row r="718" spans="2:2" ht="12">
+    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="6"/>
     </row>
-    <row r="719" spans="2:2" ht="12">
+    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="6"/>
     </row>
-    <row r="720" spans="2:2" ht="12">
+    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="6"/>
     </row>
-    <row r="721" spans="2:2" ht="12">
+    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="6"/>
     </row>
-    <row r="722" spans="2:2" ht="12">
+    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="6"/>
     </row>
-    <row r="723" spans="2:2" ht="12">
+    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="6"/>
     </row>
-    <row r="724" spans="2:2" ht="12">
+    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="6"/>
     </row>
-    <row r="725" spans="2:2" ht="12">
+    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="6"/>
     </row>
-    <row r="726" spans="2:2" ht="12">
+    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="6"/>
     </row>
-    <row r="727" spans="2:2" ht="12">
+    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="6"/>
     </row>
-    <row r="728" spans="2:2" ht="12">
+    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="6"/>
     </row>
-    <row r="729" spans="2:2" ht="12">
+    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="6"/>
     </row>
-    <row r="730" spans="2:2" ht="12">
+    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="6"/>
     </row>
-    <row r="731" spans="2:2" ht="12">
+    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="6"/>
     </row>
-    <row r="732" spans="2:2" ht="12">
+    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="6"/>
     </row>
-    <row r="733" spans="2:2" ht="12">
+    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="6"/>
     </row>
-    <row r="734" spans="2:2" ht="12">
+    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="6"/>
     </row>
-    <row r="735" spans="2:2" ht="12">
+    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="6"/>
     </row>
-    <row r="736" spans="2:2" ht="12">
+    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="6"/>
     </row>
-    <row r="737" spans="2:2" ht="12">
+    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="6"/>
     </row>
-    <row r="738" spans="2:2" ht="12">
+    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="6"/>
     </row>
-    <row r="739" spans="2:2" ht="12">
+    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="6"/>
     </row>
-    <row r="740" spans="2:2" ht="12">
+    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="6"/>
     </row>
-    <row r="741" spans="2:2" ht="12">
+    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="6"/>
     </row>
-    <row r="742" spans="2:2" ht="12">
+    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="6"/>
     </row>
-    <row r="743" spans="2:2" ht="12">
+    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="6"/>
     </row>
-    <row r="744" spans="2:2" ht="12">
+    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="6"/>
     </row>
-    <row r="745" spans="2:2" ht="12">
+    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="6"/>
     </row>
-    <row r="746" spans="2:2" ht="12">
+    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="6"/>
     </row>
-    <row r="747" spans="2:2" ht="12">
+    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="6"/>
     </row>
-    <row r="748" spans="2:2" ht="12">
+    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="6"/>
     </row>
-    <row r="749" spans="2:2" ht="12">
+    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="6"/>
     </row>
-    <row r="750" spans="2:2" ht="12">
+    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="6"/>
     </row>
-    <row r="751" spans="2:2" ht="12">
+    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="6"/>
     </row>
-    <row r="752" spans="2:2" ht="12">
+    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="6"/>
     </row>
-    <row r="753" spans="2:2" ht="12">
+    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="6"/>
     </row>
-    <row r="754" spans="2:2" ht="12">
+    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="6"/>
     </row>
-    <row r="755" spans="2:2" ht="12">
+    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="6"/>
     </row>
-    <row r="756" spans="2:2" ht="12">
+    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="6"/>
     </row>
-    <row r="757" spans="2:2" ht="12">
+    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="6"/>
     </row>
-    <row r="758" spans="2:2" ht="12">
+    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="6"/>
     </row>
-    <row r="759" spans="2:2" ht="12">
+    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="6"/>
     </row>
-    <row r="760" spans="2:2" ht="12">
+    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="6"/>
     </row>
-    <row r="761" spans="2:2" ht="12">
+    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="6"/>
     </row>
-    <row r="762" spans="2:2" ht="12">
+    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="6"/>
     </row>
-    <row r="763" spans="2:2" ht="12">
+    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="6"/>
     </row>
-    <row r="764" spans="2:2" ht="12">
+    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="6"/>
     </row>
-    <row r="765" spans="2:2" ht="12">
+    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="6"/>
     </row>
-    <row r="766" spans="2:2" ht="12">
+    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="6"/>
     </row>
-    <row r="767" spans="2:2" ht="12">
+    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="6"/>
     </row>
-    <row r="768" spans="2:2" ht="12">
+    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="6"/>
     </row>
-    <row r="769" spans="2:2" ht="12">
+    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="6"/>
     </row>
-    <row r="770" spans="2:2" ht="12">
+    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="6"/>
     </row>
-    <row r="771" spans="2:2" ht="12">
+    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="6"/>
     </row>
-    <row r="772" spans="2:2" ht="12">
+    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="6"/>
     </row>
-    <row r="773" spans="2:2" ht="12">
+    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="6"/>
     </row>
-    <row r="774" spans="2:2" ht="12">
+    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="6"/>
     </row>
-    <row r="775" spans="2:2" ht="12">
+    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="6"/>
     </row>
-    <row r="776" spans="2:2" ht="12">
+    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="6"/>
     </row>
-    <row r="777" spans="2:2" ht="12">
+    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="6"/>
     </row>
-    <row r="778" spans="2:2" ht="12">
+    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="6"/>
     </row>
-    <row r="779" spans="2:2" ht="12">
+    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="6"/>
     </row>
-    <row r="780" spans="2:2" ht="12">
+    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="6"/>
     </row>
-    <row r="781" spans="2:2" ht="12">
+    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="6"/>
     </row>
-    <row r="782" spans="2:2" ht="12">
+    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="6"/>
     </row>
-    <row r="783" spans="2:2" ht="12">
+    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="6"/>
     </row>
-    <row r="784" spans="2:2" ht="12">
+    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="6"/>
     </row>
-    <row r="785" spans="2:2" ht="12">
+    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="6"/>
     </row>
-    <row r="786" spans="2:2" ht="12">
+    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="6"/>
     </row>
-    <row r="787" spans="2:2" ht="12">
+    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="6"/>
     </row>
-    <row r="788" spans="2:2" ht="12">
+    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="6"/>
     </row>
-    <row r="789" spans="2:2" ht="12">
+    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="6"/>
     </row>
-    <row r="790" spans="2:2" ht="12">
+    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="6"/>
     </row>
-    <row r="791" spans="2:2" ht="12">
+    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="6"/>
     </row>
-    <row r="792" spans="2:2" ht="12">
+    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="6"/>
     </row>
-    <row r="793" spans="2:2" ht="12">
+    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="6"/>
     </row>
-    <row r="794" spans="2:2" ht="12">
+    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="6"/>
     </row>
-    <row r="795" spans="2:2" ht="12">
+    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="6"/>
     </row>
-    <row r="796" spans="2:2" ht="12">
+    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="6"/>
     </row>
-    <row r="797" spans="2:2" ht="12">
+    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="6"/>
     </row>
-    <row r="798" spans="2:2" ht="12">
+    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="6"/>
     </row>
-    <row r="799" spans="2:2" ht="12">
+    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="6"/>
     </row>
-    <row r="800" spans="2:2" ht="12">
+    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="6"/>
     </row>
-    <row r="801" spans="2:2" ht="12">
+    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="6"/>
     </row>
-    <row r="802" spans="2:2" ht="12">
+    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="6"/>
     </row>
-    <row r="803" spans="2:2" ht="12">
+    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="6"/>
     </row>
-    <row r="804" spans="2:2" ht="12">
+    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="6"/>
     </row>
-    <row r="805" spans="2:2" ht="12">
+    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="6"/>
     </row>
-    <row r="806" spans="2:2" ht="12">
+    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="6"/>
     </row>
-    <row r="807" spans="2:2" ht="12">
+    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="6"/>
     </row>
-    <row r="808" spans="2:2" ht="12">
+    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="6"/>
     </row>
-    <row r="809" spans="2:2" ht="12">
+    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="6"/>
     </row>
-    <row r="810" spans="2:2" ht="12">
+    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="6"/>
     </row>
-    <row r="811" spans="2:2" ht="12">
+    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="6"/>
     </row>
-    <row r="812" spans="2:2" ht="12">
+    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="6"/>
     </row>
-    <row r="813" spans="2:2" ht="12">
+    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="6"/>
     </row>
-    <row r="814" spans="2:2" ht="12">
+    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="6"/>
     </row>
-    <row r="815" spans="2:2" ht="12">
+    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="6"/>
     </row>
-    <row r="816" spans="2:2" ht="12">
+    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="6"/>
     </row>
-    <row r="817" spans="2:2" ht="12">
+    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="6"/>
     </row>
-    <row r="818" spans="2:2" ht="12">
+    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="6"/>
     </row>
-    <row r="819" spans="2:2" ht="12">
+    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="6"/>
     </row>
-    <row r="820" spans="2:2" ht="12">
+    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="6"/>
     </row>
-    <row r="821" spans="2:2" ht="12">
+    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="6"/>
     </row>
-    <row r="822" spans="2:2" ht="12">
+    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="6"/>
     </row>
-    <row r="823" spans="2:2" ht="12">
+    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="6"/>
     </row>
-    <row r="824" spans="2:2" ht="12">
+    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="6"/>
     </row>
-    <row r="825" spans="2:2" ht="12">
+    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="6"/>
     </row>
-    <row r="826" spans="2:2" ht="12">
+    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="6"/>
     </row>
-    <row r="827" spans="2:2" ht="12">
+    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="6"/>
     </row>
-    <row r="828" spans="2:2" ht="12">
+    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="6"/>
     </row>
-    <row r="829" spans="2:2" ht="12">
+    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="6"/>
     </row>
-    <row r="830" spans="2:2" ht="12">
+    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="6"/>
     </row>
-    <row r="831" spans="2:2" ht="12">
+    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="6"/>
     </row>
-    <row r="832" spans="2:2" ht="12">
+    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="6"/>
     </row>
-    <row r="833" spans="2:2" ht="12">
+    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="6"/>
     </row>
-    <row r="834" spans="2:2" ht="12">
+    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="6"/>
     </row>
-    <row r="835" spans="2:2" ht="12">
+    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="6"/>
     </row>
-    <row r="836" spans="2:2" ht="12">
+    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="6"/>
     </row>
-    <row r="837" spans="2:2" ht="12">
+    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="6"/>
     </row>
-    <row r="838" spans="2:2" ht="12">
+    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="6"/>
     </row>
-    <row r="839" spans="2:2" ht="12">
+    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="6"/>
     </row>
-    <row r="840" spans="2:2" ht="12">
+    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="6"/>
     </row>
-    <row r="841" spans="2:2" ht="12">
+    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="6"/>
     </row>
-    <row r="842" spans="2:2" ht="12">
+    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="6"/>
     </row>
-    <row r="843" spans="2:2" ht="12">
+    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="6"/>
     </row>
-    <row r="844" spans="2:2" ht="12">
+    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="6"/>
     </row>
-    <row r="845" spans="2:2" ht="12">
+    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="6"/>
     </row>
-    <row r="846" spans="2:2" ht="12">
+    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="6"/>
     </row>
-    <row r="847" spans="2:2" ht="12">
+    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="6"/>
     </row>
-    <row r="848" spans="2:2" ht="12">
+    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="6"/>
     </row>
-    <row r="849" spans="2:2" ht="12">
+    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="6"/>
     </row>
-    <row r="850" spans="2:2" ht="12">
+    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="6"/>
     </row>
-    <row r="851" spans="2:2" ht="12">
+    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="6"/>
     </row>
-    <row r="852" spans="2:2" ht="12">
+    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="6"/>
     </row>
-    <row r="853" spans="2:2" ht="12">
+    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="6"/>
     </row>
-    <row r="854" spans="2:2" ht="12">
+    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="6"/>
     </row>
-    <row r="855" spans="2:2" ht="12">
+    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="6"/>
     </row>
-    <row r="856" spans="2:2" ht="12">
+    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="6"/>
     </row>
-    <row r="857" spans="2:2" ht="12">
+    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="6"/>
     </row>
-    <row r="858" spans="2:2" ht="12">
+    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="6"/>
     </row>
-    <row r="859" spans="2:2" ht="12">
+    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="6"/>
     </row>
-    <row r="860" spans="2:2" ht="12">
+    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="6"/>
     </row>
-    <row r="861" spans="2:2" ht="12">
+    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="6"/>
     </row>
-    <row r="862" spans="2:2" ht="12">
+    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="6"/>
     </row>
-    <row r="863" spans="2:2" ht="12">
+    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="6"/>
     </row>
-    <row r="864" spans="2:2" ht="12">
+    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="6"/>
     </row>
-    <row r="865" spans="2:2" ht="12">
+    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="6"/>
     </row>
-    <row r="866" spans="2:2" ht="12">
+    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="6"/>
     </row>
-    <row r="867" spans="2:2" ht="12">
+    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="6"/>
     </row>
-    <row r="868" spans="2:2" ht="12">
+    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="6"/>
     </row>
-    <row r="869" spans="2:2" ht="12">
+    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="6"/>
     </row>
-    <row r="870" spans="2:2" ht="12">
+    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="6"/>
     </row>
-    <row r="871" spans="2:2" ht="12">
+    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="6"/>
     </row>
-    <row r="872" spans="2:2" ht="12">
+    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="6"/>
     </row>
-    <row r="873" spans="2:2" ht="12">
+    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="6"/>
     </row>
-    <row r="874" spans="2:2" ht="12">
+    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="6"/>
     </row>
-    <row r="875" spans="2:2" ht="12">
+    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="6"/>
     </row>
-    <row r="876" spans="2:2" ht="12">
+    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="6"/>
     </row>
-    <row r="877" spans="2:2" ht="12">
+    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="6"/>
     </row>
-    <row r="878" spans="2:2" ht="12">
+    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="6"/>
     </row>
-    <row r="879" spans="2:2" ht="12">
+    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="6"/>
     </row>
-    <row r="880" spans="2:2" ht="12">
+    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="6"/>
     </row>
-    <row r="881" spans="2:2" ht="12">
+    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="6"/>
     </row>
-    <row r="882" spans="2:2" ht="12">
+    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="6"/>
     </row>
-    <row r="883" spans="2:2" ht="12">
+    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="6"/>
     </row>
-    <row r="884" spans="2:2" ht="12">
+    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="6"/>
     </row>
-    <row r="885" spans="2:2" ht="12">
+    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="6"/>
     </row>
-    <row r="886" spans="2:2" ht="12">
+    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="6"/>
     </row>
-    <row r="887" spans="2:2" ht="12">
+    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="6"/>
     </row>
-    <row r="888" spans="2:2" ht="12">
+    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="6"/>
     </row>
-    <row r="889" spans="2:2" ht="12">
+    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="6"/>
     </row>
-    <row r="890" spans="2:2" ht="12">
+    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="6"/>
     </row>
-    <row r="891" spans="2:2" ht="12">
+    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="6"/>
     </row>
-    <row r="892" spans="2:2" ht="12">
+    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="6"/>
     </row>
-    <row r="893" spans="2:2" ht="12">
+    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="6"/>
     </row>
-    <row r="894" spans="2:2" ht="12">
+    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="6"/>
     </row>
-    <row r="895" spans="2:2" ht="12">
+    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="6"/>
     </row>
-    <row r="896" spans="2:2" ht="12">
+    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="6"/>
     </row>
-    <row r="897" spans="2:2" ht="12">
+    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="6"/>
     </row>
-    <row r="898" spans="2:2" ht="12">
+    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="6"/>
     </row>
-    <row r="899" spans="2:2" ht="12">
+    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="6"/>
     </row>
-    <row r="900" spans="2:2" ht="12">
+    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="6"/>
     </row>
-    <row r="901" spans="2:2" ht="12">
+    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="6"/>
     </row>
-    <row r="902" spans="2:2" ht="12">
+    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="6"/>
     </row>
-    <row r="903" spans="2:2" ht="12">
+    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="6"/>
     </row>
-    <row r="904" spans="2:2" ht="12">
+    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="6"/>
     </row>
-    <row r="905" spans="2:2" ht="12">
+    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="6"/>
     </row>
-    <row r="906" spans="2:2" ht="12">
+    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="6"/>
     </row>
-    <row r="907" spans="2:2" ht="12">
+    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="6"/>
     </row>
-    <row r="908" spans="2:2" ht="12">
+    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="6"/>
     </row>
-    <row r="909" spans="2:2" ht="12">
+    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="6"/>
     </row>
-    <row r="910" spans="2:2" ht="12">
+    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="6"/>
     </row>
-    <row r="911" spans="2:2" ht="12">
+    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="6"/>
     </row>
-    <row r="912" spans="2:2" ht="12">
+    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="6"/>
     </row>
-    <row r="913" spans="2:2" ht="12">
+    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="6"/>
     </row>
-    <row r="914" spans="2:2" ht="12">
+    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="6"/>
     </row>
-    <row r="915" spans="2:2" ht="12">
+    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="6"/>
     </row>
-    <row r="916" spans="2:2" ht="12">
+    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="6"/>
     </row>
-    <row r="917" spans="2:2" ht="12">
+    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="6"/>
     </row>
-    <row r="918" spans="2:2" ht="12">
+    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="6"/>
     </row>
-    <row r="919" spans="2:2" ht="12">
+    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="6"/>
     </row>
-    <row r="920" spans="2:2" ht="12">
+    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="6"/>
     </row>
-    <row r="921" spans="2:2" ht="12">
+    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="6"/>
     </row>
-    <row r="922" spans="2:2" ht="12">
+    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="6"/>
     </row>
-    <row r="923" spans="2:2" ht="12">
+    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="6"/>
     </row>
-    <row r="924" spans="2:2" ht="12">
+    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="6"/>
     </row>
-    <row r="925" spans="2:2" ht="12">
+    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="6"/>
     </row>
-    <row r="926" spans="2:2" ht="12">
+    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="6"/>
     </row>
-    <row r="927" spans="2:2" ht="12">
+    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="6"/>
     </row>
-    <row r="928" spans="2:2" ht="12">
+    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="6"/>
     </row>
-    <row r="929" spans="2:2" ht="12">
+    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="6"/>
     </row>
-    <row r="930" spans="2:2" ht="12">
+    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="6"/>
     </row>
-    <row r="931" spans="2:2" ht="12">
+    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="6"/>
     </row>
-    <row r="932" spans="2:2" ht="12">
+    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="6"/>
     </row>
-    <row r="933" spans="2:2" ht="12">
+    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="6"/>
     </row>
-    <row r="934" spans="2:2" ht="12">
+    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="6"/>
     </row>
-    <row r="935" spans="2:2" ht="12">
+    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="6"/>
     </row>
-    <row r="936" spans="2:2" ht="12">
+    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="6"/>
     </row>
-    <row r="937" spans="2:2" ht="12">
+    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="6"/>
     </row>
-    <row r="938" spans="2:2" ht="12">
+    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="6"/>
     </row>
-    <row r="939" spans="2:2" ht="12">
+    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="6"/>
     </row>
-    <row r="940" spans="2:2" ht="12">
+    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="6"/>
     </row>
-    <row r="941" spans="2:2" ht="12">
+    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="6"/>
     </row>
-    <row r="942" spans="2:2" ht="12">
+    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="6"/>
     </row>
-    <row r="943" spans="2:2" ht="12">
+    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="6"/>
     </row>
-    <row r="944" spans="2:2" ht="12">
+    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="6"/>
     </row>
-    <row r="945" spans="2:2" ht="12">
+    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="6"/>
     </row>
-    <row r="946" spans="2:2" ht="12">
+    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="6"/>
     </row>
-    <row r="947" spans="2:2" ht="12">
+    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="6"/>
     </row>
-    <row r="948" spans="2:2" ht="12">
+    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="6"/>
     </row>
-    <row r="949" spans="2:2" ht="12">
+    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="6"/>
     </row>
-    <row r="950" spans="2:2" ht="12">
+    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="6"/>
     </row>
-    <row r="951" spans="2:2" ht="12">
+    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="6"/>
     </row>
-    <row r="952" spans="2:2" ht="12">
+    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="6"/>
     </row>
-    <row r="953" spans="2:2" ht="12">
+    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="6"/>
     </row>
-    <row r="954" spans="2:2" ht="12">
+    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="6"/>
     </row>
-    <row r="955" spans="2:2" ht="12">
+    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="6"/>
     </row>
-    <row r="956" spans="2:2" ht="12">
+    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="6"/>
     </row>
-    <row r="957" spans="2:2" ht="12">
+    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="6"/>
     </row>
-    <row r="958" spans="2:2" ht="12">
+    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="6"/>
     </row>
-    <row r="959" spans="2:2" ht="12">
+    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="6"/>
     </row>
-    <row r="960" spans="2:2" ht="12">
+    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="6"/>
     </row>
-    <row r="961" spans="2:2" ht="12">
+    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="6"/>
     </row>
-    <row r="962" spans="2:2" ht="12">
+    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="6"/>
     </row>
-    <row r="963" spans="2:2" ht="12">
+    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="6"/>
     </row>
-    <row r="964" spans="2:2" ht="12">
+    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="6"/>
     </row>
-    <row r="965" spans="2:2" ht="12">
+    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="6"/>
     </row>
-    <row r="966" spans="2:2" ht="12">
+    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="6"/>
     </row>
-    <row r="967" spans="2:2" ht="12">
+    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="6"/>
     </row>
-    <row r="968" spans="2:2" ht="12">
+    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="6"/>
     </row>
-    <row r="969" spans="2:2" ht="12">
+    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="6"/>
     </row>
-    <row r="970" spans="2:2" ht="12">
+    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="6"/>
     </row>
-    <row r="971" spans="2:2" ht="12">
+    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="6"/>
     </row>
-    <row r="972" spans="2:2" ht="12">
+    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="6"/>
     </row>
-    <row r="973" spans="2:2" ht="12">
+    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="6"/>
     </row>
-    <row r="974" spans="2:2" ht="12">
+    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="6"/>
     </row>
-    <row r="975" spans="2:2" ht="12">
+    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="6"/>
     </row>
-    <row r="976" spans="2:2" ht="12">
+    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="6"/>
     </row>
-    <row r="977" spans="2:2" ht="12">
+    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="6"/>
     </row>
-    <row r="978" spans="2:2" ht="12">
+    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="6"/>
     </row>
-    <row r="979" spans="2:2" ht="12">
+    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="6"/>
     </row>
-    <row r="980" spans="2:2" ht="12">
+    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="6"/>
     </row>
-    <row r="981" spans="2:2" ht="12">
+    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="6"/>
     </row>
-    <row r="982" spans="2:2" ht="12">
+    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="6"/>
     </row>
-    <row r="983" spans="2:2" ht="12">
+    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="6"/>
     </row>
-    <row r="984" spans="2:2" ht="12">
+    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="6"/>
     </row>
-    <row r="985" spans="2:2" ht="12">
+    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="6"/>
     </row>
-    <row r="986" spans="2:2" ht="12">
+    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="6"/>
     </row>
-    <row r="987" spans="2:2" ht="12">
+    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="6"/>
     </row>
-    <row r="988" spans="2:2" ht="12">
+    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="6"/>
     </row>
-    <row r="989" spans="2:2" ht="12">
+    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="6"/>
     </row>
   </sheetData>
@@ -4760,9 +4776,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -4800,7 +4816,7 @@
       <c r="Y1" s="11"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -4832,7 +4848,7 @@
       <c r="Y2" s="11"/>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -4864,7 +4880,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
@@ -4898,7 +4914,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>43</v>
       </c>
@@ -4932,7 +4948,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>46</v>
       </c>
@@ -4966,7 +4982,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -4986,7 +5002,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>55</v>
       </c>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36740" yWindow="80" windowWidth="34620" windowHeight="21440"/>
+    <workbookView xWindow="-36720" yWindow="100" windowWidth="34620" windowHeight="21440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>Project</t>
   </si>
@@ -61,12 +61,6 @@
     <t>PI4LGR034</t>
   </si>
   <si>
-    <t>Meg</t>
-  </si>
-  <si>
-    <t>ACD</t>
-  </si>
-  <si>
     <t>Tim</t>
   </si>
   <si>
@@ -232,9 +226,6 @@
     <t>Grace</t>
   </si>
   <si>
-    <t>CML Rounds eblast</t>
-  </si>
-  <si>
     <t>ESMO VPS - Ramalingam</t>
   </si>
   <si>
@@ -244,9 +235,6 @@
     <t>ESH PV PDS</t>
   </si>
   <si>
-    <t>slides</t>
-  </si>
-  <si>
     <t>edits</t>
   </si>
   <si>
@@ -256,12 +244,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>routed 10/29</t>
-  </si>
-  <si>
-    <t>awaiting slides</t>
-  </si>
-  <si>
     <t>CTOS PDS</t>
   </si>
   <si>
@@ -286,9 +268,6 @@
     <t>ESMO VPS eblast</t>
   </si>
   <si>
-    <t>O'Brien CML Case eblast</t>
-  </si>
-  <si>
     <t>Tim and Ben</t>
   </si>
   <si>
@@ -307,27 +286,15 @@
     <t>live on site. Eblast routed 10/31</t>
   </si>
   <si>
-    <t>Awaiting final approval 10/31</t>
-  </si>
-  <si>
     <t>reference link</t>
   </si>
   <si>
     <t>client edits to come in Wed</t>
   </si>
   <si>
-    <t>awaiting final approval 11/03</t>
-  </si>
-  <si>
-    <t>Live on site 10/23.Awaiting final approval for eblast 11/03.</t>
-  </si>
-  <si>
     <t>approved 11/03. eblast in production</t>
   </si>
   <si>
-    <t>in production 11/04</t>
-  </si>
-  <si>
     <t>awaiting approval 11/04</t>
   </si>
   <si>
@@ -340,17 +307,50 @@
     <t>Jae/Rinath</t>
   </si>
   <si>
-    <t>live. Awaiting email approval 11/04</t>
-  </si>
-  <si>
     <t>routed 11/04</t>
+  </si>
+  <si>
+    <t>routed 11/06</t>
+  </si>
+  <si>
+    <t>in production 11/06</t>
+  </si>
+  <si>
+    <t>routed 11/05</t>
+  </si>
+  <si>
+    <t>live. Awaiting email approval 11/05</t>
+  </si>
+  <si>
+    <t>in production 11/07</t>
+  </si>
+  <si>
+    <t>Live on site 11/07. eblast in production</t>
+  </si>
+  <si>
+    <t>ESMO Ovarian eblast</t>
+  </si>
+  <si>
+    <t>live. Email edits with web 11/07</t>
+  </si>
+  <si>
+    <t>awaiting edits 11/04</t>
+  </si>
+  <si>
+    <t>awaiting final approval 11/07. Eblast in production</t>
+  </si>
+  <si>
+    <t>Asked for update 11/07</t>
+  </si>
+  <si>
+    <t>Live on site 10/23. Eblast scheduled for 11/11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -414,8 +414,18 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,12 +436,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -451,7 +455,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -477,8 +481,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -508,24 +530,17 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -538,6 +553,15 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -550,6 +574,15 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -849,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X989"/>
+  <dimension ref="A1:X983"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -903,279 +936,291 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18"/>
       <c r="C2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="24">
-        <v>41936</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>82</v>
+      <c r="F3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+    </row>
+    <row r="4" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>77</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="27">
+        <v>41932</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
     </row>
     <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="27">
-        <v>41929</v>
-      </c>
-      <c r="H5" s="25"/>
+      <c r="A5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
     </row>
     <row r="6" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" s="18"/>
-      <c r="C6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>65</v>
+      <c r="D6" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="28">
-        <v>41932</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
+        <v>105</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-    </row>
-    <row r="8" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
+      <c r="F11" s="25" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="G12" s="29">
+        <v>41943</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1194,74 +1239,95 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+    </row>
+    <row r="14" spans="1:24" s="31" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="32">
+        <v>41948</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="30">
-        <v>41943</v>
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="29">
+        <v>41963</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1281,26 +1347,20 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="13">
       <c r="A16" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="30">
-        <v>41943</v>
-      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1319,257 +1379,227 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-    </row>
-    <row r="19" spans="1:24" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="29" t="s">
+    <row r="17" spans="1:24" s="35" customFormat="1" ht="12">
+      <c r="A17" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+    </row>
+    <row r="18" spans="1:24" s="35" customFormat="1" ht="12">
+      <c r="A18" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+    </row>
+    <row r="19" spans="1:24" s="35" customFormat="1" ht="12">
+      <c r="A19" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+    </row>
+    <row r="20" spans="1:24" s="35" customFormat="1" ht="12">
+      <c r="A20" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="35">
-        <v>41948</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-    </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="30">
-        <v>41963</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-    </row>
-    <row r="21" spans="1:24" ht="13">
-      <c r="A21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-    </row>
-    <row r="22" spans="1:24" s="32" customFormat="1" ht="12">
-      <c r="A22" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-    </row>
-    <row r="23" spans="1:24" s="32" customFormat="1" ht="12">
-      <c r="A23" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+    </row>
+    <row r="21" spans="1:24" s="35" customFormat="1" ht="12">
+      <c r="A21" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+    </row>
+    <row r="22" spans="1:24" ht="12">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="1:24" ht="12">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" ht="12">
-      <c r="A24" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1590,18 +1620,12 @@
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" ht="12">
-      <c r="A25" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -1726,198 +1750,60 @@
       <c r="X29" s="7"/>
     </row>
     <row r="30" spans="1:24" ht="12">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:24" ht="12">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:24" ht="12">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-    </row>
-    <row r="33" spans="1:24" ht="12">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-    </row>
-    <row r="34" spans="1:24" ht="12">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-    </row>
-    <row r="35" spans="1:24" ht="12">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-    </row>
-    <row r="36" spans="1:24" ht="12">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" ht="12">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="2:2" ht="12">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="2:2" ht="12">
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="2:2" ht="12">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:24" ht="12">
+    <row r="37" spans="2:2" ht="12">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="1:24" ht="12">
+    <row r="38" spans="2:2" ht="12">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="1:24" ht="12">
+    <row r="39" spans="2:2" ht="12">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:24" ht="12">
+    <row r="40" spans="2:2" ht="12">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="1:24" ht="12">
+    <row r="41" spans="2:2" ht="12">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="1:24" ht="12">
+    <row r="42" spans="2:2" ht="12">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="1:24" ht="12">
+    <row r="43" spans="2:2" ht="12">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="1:24" ht="12">
+    <row r="44" spans="2:2" ht="12">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:24" ht="12">
+    <row r="45" spans="2:2" ht="12">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:24" ht="12">
+    <row r="46" spans="2:2" ht="12">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:24" ht="12">
+    <row r="47" spans="2:2" ht="12">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:24" ht="12">
+    <row r="48" spans="2:2" ht="12">
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:2" ht="12">
@@ -4724,24 +4610,6 @@
     </row>
     <row r="983" spans="2:2" ht="12">
       <c r="B983" s="6"/>
-    </row>
-    <row r="984" spans="2:2" ht="12">
-      <c r="B984" s="6"/>
-    </row>
-    <row r="985" spans="2:2" ht="12">
-      <c r="B985" s="6"/>
-    </row>
-    <row r="986" spans="2:2" ht="12">
-      <c r="B986" s="6"/>
-    </row>
-    <row r="987" spans="2:2" ht="12">
-      <c r="B987" s="6"/>
-    </row>
-    <row r="988" spans="2:2" ht="12">
-      <c r="B988" s="6"/>
-    </row>
-    <row r="989" spans="2:2" ht="12">
-      <c r="B989" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4756,21 +4624,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -4778,10 +4648,10 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -4802,11 +4672,11 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -4834,11 +4704,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4866,13 +4736,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -4900,13 +4770,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -4934,13 +4804,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -4968,34 +4838,34 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="D7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16">
@@ -5004,10 +4874,10 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -5026,6 +4896,121 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
+    <row r="9" spans="1:26" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="24">
+        <v>41936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="31" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+    </row>
+    <row r="11" spans="1:26" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36720" yWindow="100" windowWidth="34620" windowHeight="21440"/>
+    <workbookView xWindow="380" yWindow="800" windowWidth="36720" windowHeight="21440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
   <si>
     <t>Project</t>
   </si>
@@ -82,18 +82,12 @@
     <t>Elisa</t>
   </si>
   <si>
-    <t>Tim</t>
-  </si>
-  <si>
     <t>ESMO GEP NETS Webcast</t>
   </si>
   <si>
     <t>Saskia</t>
   </si>
   <si>
-    <t>Tim</t>
-  </si>
-  <si>
     <t>ESMO Biosimilars Webcast</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>Lisa</t>
   </si>
   <si>
-    <t>Video edits provided by Tim 10/03. Slides, Timings, CME links, segmentation received 10/27.</t>
-  </si>
-  <si>
     <t>slides, timings</t>
   </si>
   <si>
@@ -241,9 +232,6 @@
     <t>Approved with release date change. Eblast requested. Waiting for further instruction on eblast.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>CTOS PDS</t>
   </si>
   <si>
@@ -271,12 +259,6 @@
     <t>Tim and Ben</t>
   </si>
   <si>
-    <t>live on site. Eblast in production</t>
-  </si>
-  <si>
-    <t>routed 10/30</t>
-  </si>
-  <si>
     <t>launched. Eblast edits with web 10/31</t>
   </si>
   <si>
@@ -313,44 +295,65 @@
     <t>routed 11/06</t>
   </si>
   <si>
-    <t>in production 11/06</t>
-  </si>
-  <si>
-    <t>routed 11/05</t>
-  </si>
-  <si>
     <t>live. Awaiting email approval 11/05</t>
   </si>
   <si>
     <t>in production 11/07</t>
   </si>
   <si>
-    <t>Live on site 11/07. eblast in production</t>
-  </si>
-  <si>
     <t>ESMO Ovarian eblast</t>
   </si>
   <si>
-    <t>live. Email edits with web 11/07</t>
-  </si>
-  <si>
-    <t>awaiting edits 11/04</t>
-  </si>
-  <si>
-    <t>awaiting final approval 11/07. Eblast in production</t>
-  </si>
-  <si>
     <t>Asked for update 11/07</t>
   </si>
   <si>
     <t>Live on site 10/23. Eblast scheduled for 11/11</t>
+  </si>
+  <si>
+    <t>in production 11/10 est review 11/11</t>
+  </si>
+  <si>
+    <t>live on site. Eblast approved.</t>
+  </si>
+  <si>
+    <t>Eblast on hold</t>
+  </si>
+  <si>
+    <t>live. Awaiting eblast approval 11/07</t>
+  </si>
+  <si>
+    <t>awaiting final approval 11/07. Awaiting eblast approval</t>
+  </si>
+  <si>
+    <t>Edits with web 11/10</t>
+  </si>
+  <si>
+    <t>Live on site 11/07. Awaiting eblast approval 11/07</t>
+  </si>
+  <si>
+    <t>routed 10/30. video edit and segmentation edits 11/10</t>
+  </si>
+  <si>
+    <t>awaiting approval 11/10</t>
+  </si>
+  <si>
+    <t>edits with web 11/07</t>
+  </si>
+  <si>
+    <t>GBM PDS</t>
+  </si>
+  <si>
+    <t>Slides with web 11/10</t>
+  </si>
+  <si>
+    <t>Chemo found PDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -416,16 +419,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +434,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,7 +504,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -509,7 +513,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -522,7 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -530,15 +532,24 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -885,7 +896,7 @@
   <dimension ref="A1:X983"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection sqref="A1:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -936,47 +947,47 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="20" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="D2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="25"/>
-      <c r="D3" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="D3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>106</v>
+      <c r="G3" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="H3" s="25"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -992,341 +1003,341 @@
       <c r="W3" s="25"/>
       <c r="X3" s="25"/>
     </row>
-    <row r="4" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+    </row>
+    <row r="5" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+    </row>
+    <row r="6" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="D6" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+    </row>
+    <row r="10" spans="1:24" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="27">
-        <v>41932</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-    </row>
-    <row r="5" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="D10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+    </row>
+    <row r="11" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-    </row>
-    <row r="6" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="D6" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="D12" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F12" s="39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="G12" s="41">
+        <v>41943</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+    </row>
+    <row r="13" spans="1:24" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D13" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+    </row>
+    <row r="14" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-    </row>
-    <row r="11" spans="1:24" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="D14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="29">
-        <v>41943</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-    </row>
-    <row r="14" spans="1:24" s="31" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="32">
+      <c r="E14" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="29">
         <v>41948</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="29">
+      <c r="G15" s="26">
         <v>41963</v>
       </c>
       <c r="H15" s="7"/>
@@ -1349,14 +1360,14 @@
     </row>
     <row r="16" spans="1:24" ht="13">
       <c r="A16" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1379,245 +1390,198 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="35" customFormat="1" ht="12">
-      <c r="A17" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-    </row>
-    <row r="18" spans="1:24" s="35" customFormat="1" ht="12">
-      <c r="A18" s="34" t="s">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A17" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A18" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="42">
+        <v>41961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="31" customFormat="1" ht="12">
+      <c r="A20" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+    </row>
+    <row r="21" spans="1:24" s="31" customFormat="1" ht="12">
+      <c r="A21" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+    </row>
+    <row r="22" spans="1:24" s="31" customFormat="1" ht="12">
+      <c r="A22" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+    </row>
+    <row r="23" spans="1:24" s="31" customFormat="1" ht="12">
+      <c r="A23" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-    </row>
-    <row r="19" spans="1:24" s="35" customFormat="1" ht="12">
-      <c r="A19" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-    </row>
-    <row r="20" spans="1:24" s="35" customFormat="1" ht="12">
-      <c r="A20" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-    </row>
-    <row r="21" spans="1:24" s="35" customFormat="1" ht="12">
-      <c r="A21" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-    </row>
-    <row r="22" spans="1:24" ht="12">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-    </row>
-    <row r="23" spans="1:24" ht="12">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-    </row>
-    <row r="24" spans="1:24" ht="12">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
+      <c r="F23" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+    </row>
+    <row r="24" spans="1:24" s="31" customFormat="1" ht="12">
+      <c r="A24" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
     </row>
     <row r="25" spans="1:24" ht="12">
       <c r="A25" s="7"/>
@@ -4633,361 +4597,361 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="10" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="15">
+        <v>41897</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16">
-        <v>41897</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-    </row>
-    <row r="9" spans="1:26" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+    </row>
+    <row r="9" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="24">
+      <c r="E9" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="22">
         <v>41936</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="31" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+    </row>
+    <row r="11" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-    </row>
-    <row r="11" spans="1:26" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>17</v>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="800" windowWidth="36720" windowHeight="21440"/>
+    <workbookView xWindow="860" yWindow="820" windowWidth="36720" windowHeight="21440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
   <si>
     <t>Project</t>
   </si>
@@ -292,12 +292,6 @@
     <t>routed 11/04</t>
   </si>
   <si>
-    <t>routed 11/06</t>
-  </si>
-  <si>
-    <t>live. Awaiting email approval 11/05</t>
-  </si>
-  <si>
     <t>in production 11/07</t>
   </si>
   <si>
@@ -307,9 +301,6 @@
     <t>Asked for update 11/07</t>
   </si>
   <si>
-    <t>Live on site 10/23. Eblast scheduled for 11/11</t>
-  </si>
-  <si>
     <t>in production 11/10 est review 11/11</t>
   </si>
   <si>
@@ -319,27 +310,12 @@
     <t>Eblast on hold</t>
   </si>
   <si>
-    <t>live. Awaiting eblast approval 11/07</t>
-  </si>
-  <si>
-    <t>awaiting final approval 11/07. Awaiting eblast approval</t>
-  </si>
-  <si>
-    <t>Edits with web 11/10</t>
-  </si>
-  <si>
-    <t>Live on site 11/07. Awaiting eblast approval 11/07</t>
-  </si>
-  <si>
     <t>routed 10/30. video edit and segmentation edits 11/10</t>
   </si>
   <si>
     <t>awaiting approval 11/10</t>
   </si>
   <si>
-    <t>edits with web 11/07</t>
-  </si>
-  <si>
     <t>GBM PDS</t>
   </si>
   <si>
@@ -347,6 +323,63 @@
   </si>
   <si>
     <t>Chemo found PDS</t>
+  </si>
+  <si>
+    <t>slides, CME</t>
+  </si>
+  <si>
+    <t>ACD with Web</t>
+  </si>
+  <si>
+    <t>route 11/11</t>
+  </si>
+  <si>
+    <t>live pending Sugar. Awaiting eblast approval 11/11</t>
+  </si>
+  <si>
+    <t>eblast approved 11/11</t>
+  </si>
+  <si>
+    <t>awaiting approval 11/11</t>
+  </si>
+  <si>
+    <t>1 eblast change needed</t>
+  </si>
+  <si>
+    <t>small changes in production</t>
+  </si>
+  <si>
+    <t>awaiting cme and add't edits 11/12</t>
+  </si>
+  <si>
+    <t>Slides on S3</t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>SABCS Live</t>
+  </si>
+  <si>
+    <t>Routed 11/11</t>
+  </si>
+  <si>
+    <t>IGCS PDS</t>
+  </si>
+  <si>
+    <t>ACD with web 11/12</t>
+  </si>
+  <si>
+    <t>slides</t>
+  </si>
+  <si>
+    <t>Eblast sent</t>
+  </si>
+  <si>
+    <t>awaiting final approval 11/12</t>
+  </si>
+  <si>
+    <t>awaiting feedback 11/12</t>
   </si>
 </sst>
 </file>
@@ -423,7 +456,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,12 +467,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -459,7 +486,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -503,8 +530,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -540,18 +575,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -573,6 +600,10 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -594,6 +625,10 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -893,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X983"/>
+  <dimension ref="A1:X981"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:XFD25"/>
+      <selection activeCell="A12" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -959,10 +994,13 @@
         <v>61</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>13</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
@@ -977,13 +1015,13 @@
         <v>61</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -1005,24 +1043,22 @@
     </row>
     <row r="4" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
@@ -1043,102 +1079,102 @@
     </row>
     <row r="5" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="C5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>60</v>
+      <c r="D5" s="28" t="s">
+        <v>68</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-    </row>
-    <row r="6" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="D6" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="35" t="s">
+    </row>
+    <row r="6" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
     </row>
     <row r="9" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="23" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -1159,187 +1195,185 @@
       <c r="W9" s="23"/>
       <c r="X9" s="23"/>
     </row>
-    <row r="10" spans="1:24" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
+    <row r="10" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>104</v>
+        <v>65</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39" t="s">
+      <c r="G11" s="34">
+        <v>41943</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+    </row>
+    <row r="12" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+    </row>
+    <row r="13" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="29">
+        <v>41948</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="41">
-        <v>41943</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-    </row>
-    <row r="13" spans="1:24" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-    </row>
-    <row r="14" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="29">
-        <v>41948</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+      <c r="D14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="26">
+        <v>41963</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" ht="13">
       <c r="A15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="26">
-        <v>41963</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1358,41 +1392,23 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" ht="13">
-      <c r="A16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -1401,23 +1417,31 @@
         <v>11</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="G17" s="33">
+        <v>41961</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="42">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="33">
         <v>41961</v>
       </c>
     </row>
@@ -1455,18 +1479,20 @@
     </row>
     <row r="21" spans="1:24" s="31" customFormat="1" ht="12">
       <c r="A21" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="30" t="s">
+        <v>92</v>
+      </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
@@ -1487,20 +1513,18 @@
     </row>
     <row r="22" spans="1:24" s="31" customFormat="1" ht="12">
       <c r="A22" s="30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>94</v>
-      </c>
+      <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
@@ -1521,13 +1545,13 @@
     </row>
     <row r="23" spans="1:24" s="31" customFormat="1" ht="12">
       <c r="A23" s="30" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>50</v>
@@ -1551,37 +1575,31 @@
       <c r="W23" s="30"/>
       <c r="X23" s="30"/>
     </row>
-    <row r="24" spans="1:24" s="31" customFormat="1" ht="12">
-      <c r="A24" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
+    <row r="24" spans="1:24" ht="12">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" ht="12">
       <c r="A25" s="7"/>
@@ -1662,56 +1680,10 @@
       <c r="X27" s="7"/>
     </row>
     <row r="28" spans="1:24" ht="12">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:24" ht="12">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:24" ht="12">
       <c r="B30" s="6"/>
@@ -4568,12 +4540,6 @@
     </row>
     <row r="981" spans="2:2" ht="12">
       <c r="B981" s="6"/>
-    </row>
-    <row r="982" spans="2:2" ht="12">
-      <c r="B982" s="6"/>
-    </row>
-    <row r="983" spans="2:2" ht="12">
-      <c r="B983" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4588,10 +4554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -4975,6 +4941,76 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
+    <row r="13" spans="1:26" s="31" customFormat="1" ht="12">
+      <c r="A13" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+    </row>
+    <row r="14" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="820" windowWidth="36720" windowHeight="21440"/>
+    <workbookView xWindow="1960" yWindow="580" windowWidth="36720" windowHeight="21440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="115">
   <si>
     <t>Project</t>
   </si>
@@ -271,9 +271,6 @@
     <t>reference link</t>
   </si>
   <si>
-    <t>client edits to come in Wed</t>
-  </si>
-  <si>
     <t>approved 11/03. eblast in production</t>
   </si>
   <si>
@@ -292,12 +289,6 @@
     <t>routed 11/04</t>
   </si>
   <si>
-    <t>in production 11/07</t>
-  </si>
-  <si>
-    <t>ESMO Ovarian eblast</t>
-  </si>
-  <si>
     <t>Asked for update 11/07</t>
   </si>
   <si>
@@ -310,9 +301,6 @@
     <t>Eblast on hold</t>
   </si>
   <si>
-    <t>routed 10/30. video edit and segmentation edits 11/10</t>
-  </si>
-  <si>
     <t>awaiting approval 11/10</t>
   </si>
   <si>
@@ -334,24 +322,9 @@
     <t>route 11/11</t>
   </si>
   <si>
-    <t>live pending Sugar. Awaiting eblast approval 11/11</t>
-  </si>
-  <si>
-    <t>eblast approved 11/11</t>
-  </si>
-  <si>
-    <t>awaiting approval 11/11</t>
-  </si>
-  <si>
-    <t>1 eblast change needed</t>
-  </si>
-  <si>
     <t>small changes in production</t>
   </si>
   <si>
-    <t>awaiting cme and add't edits 11/12</t>
-  </si>
-  <si>
     <t>Slides on S3</t>
   </si>
   <si>
@@ -361,32 +334,44 @@
     <t>SABCS Live</t>
   </si>
   <si>
-    <t>Routed 11/11</t>
-  </si>
-  <si>
     <t>IGCS PDS</t>
   </si>
   <si>
-    <t>ACD with web 11/12</t>
-  </si>
-  <si>
     <t>slides</t>
   </si>
   <si>
     <t>Eblast sent</t>
   </si>
   <si>
-    <t>awaiting final approval 11/12</t>
-  </si>
-  <si>
     <t>awaiting feedback 11/12</t>
+  </si>
+  <si>
+    <t>live on site. Eblast in production</t>
+  </si>
+  <si>
+    <t>live on site. eblast in review 11/13</t>
+  </si>
+  <si>
+    <t>awaiting approval 11/13</t>
+  </si>
+  <si>
+    <t>Awaiting slides</t>
+  </si>
+  <si>
+    <t>live on site.</t>
+  </si>
+  <si>
+    <t>Briana edits</t>
+  </si>
+  <si>
+    <t>awaiting approval 11/14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -452,6 +437,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
     </font>
@@ -539,7 +529,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -577,6 +567,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -928,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X981"/>
+  <dimension ref="A1:X978"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A11:XFD12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -994,13 +987,13 @@
         <v>61</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
@@ -1015,13 +1008,13 @@
         <v>61</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -1043,102 +1036,102 @@
     </row>
     <row r="4" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>60</v>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-    </row>
-    <row r="5" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="D5" s="28" t="s">
-        <v>68</v>
+    </row>
+    <row r="5" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>13</v>
+        <v>112</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="A7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="E7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
     </row>
     <row r="8" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="23" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
@@ -1161,77 +1154,77 @@
     </row>
     <row r="9" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>109</v>
+        <v>65</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>13</v>
       </c>
+      <c r="G10" s="34">
+        <v>41943</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
     </row>
     <row r="11" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="23" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="34">
-        <v>41943</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
@@ -1250,96 +1243,94 @@
       <c r="W11" s="23"/>
       <c r="X11" s="23"/>
     </row>
-    <row r="12" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-    </row>
-    <row r="13" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="27" t="s">
+    <row r="12" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="25" t="s">
+      <c r="E12" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G12" s="29">
         <v>41948</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="26">
+        <v>41963</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+    </row>
+    <row r="14" spans="1:24" ht="13">
       <c r="A14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="26">
-        <v>41963</v>
-      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1358,43 +1349,23 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" ht="13">
-      <c r="A15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1403,62 +1374,108 @@
         <v>11</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="G16" s="33">
+        <v>41961</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G17" s="33">
         <v>41961</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="33">
-        <v>41961</v>
-      </c>
+    <row r="18" spans="1:24" s="31" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+    </row>
+    <row r="19" spans="1:24" s="31" customFormat="1" ht="12">
+      <c r="A19" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
     </row>
     <row r="20" spans="1:24" s="31" customFormat="1" ht="12">
       <c r="A20" s="30" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="30" t="s">
+        <v>89</v>
+      </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
@@ -1477,103 +1494,65 @@
       <c r="W20" s="30"/>
       <c r="X20" s="30"/>
     </row>
-    <row r="21" spans="1:24" s="31" customFormat="1" ht="12">
-      <c r="A21" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+    <row r="21" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="35" t="s">
+        <v>103</v>
+      </c>
       <c r="E21" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-    </row>
-    <row r="22" spans="1:24" s="31" customFormat="1" ht="12">
-      <c r="A22" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-    </row>
-    <row r="23" spans="1:24" s="31" customFormat="1" ht="12">
-      <c r="A23" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="12">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="1:24" ht="12">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" ht="12">
       <c r="A24" s="7"/>
@@ -1602,82 +1581,13 @@
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" ht="12">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:24" ht="12">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:24" ht="12">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:24" ht="12">
       <c r="B28" s="6"/>
@@ -4531,15 +4441,6 @@
     </row>
     <row r="978" spans="2:2" ht="12">
       <c r="B978" s="6"/>
-    </row>
-    <row r="979" spans="2:2" ht="12">
-      <c r="B979" s="6"/>
-    </row>
-    <row r="980" spans="2:2" ht="12">
-      <c r="B980" s="6"/>
-    </row>
-    <row r="981" spans="2:2" ht="12">
-      <c r="B981" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4917,7 +4818,7 @@
         <v>61</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>17</v>
@@ -4943,13 +4844,13 @@
     </row>
     <row r="13" spans="1:26" s="31" customFormat="1" ht="12">
       <c r="A13" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>50</v>
@@ -4985,13 +4886,13 @@
         <v>60</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="580" windowWidth="36720" windowHeight="21440"/>
+    <workbookView xWindow="1965" yWindow="585" windowWidth="36720" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
   <si>
     <t>Project</t>
   </si>
@@ -301,15 +301,9 @@
     <t>Eblast on hold</t>
   </si>
   <si>
-    <t>awaiting approval 11/10</t>
-  </si>
-  <si>
     <t>GBM PDS</t>
   </si>
   <si>
-    <t>Slides with web 11/10</t>
-  </si>
-  <si>
     <t>Chemo found PDS</t>
   </si>
   <si>
@@ -364,7 +358,16 @@
     <t>Briana edits</t>
   </si>
   <si>
-    <t>awaiting approval 11/14</t>
+    <t>In review 11/14</t>
+  </si>
+  <si>
+    <t>Timing segmentation edits 11/17</t>
+  </si>
+  <si>
+    <t>Paul, Ben</t>
+  </si>
+  <si>
+    <t>In review 11/17</t>
   </si>
 </sst>
 </file>
@@ -924,18 +927,18 @@
   <dimension ref="A1:X978"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="52.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +978,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>72</v>
       </c>
@@ -993,10 +996,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +1037,7 @@
       <c r="W3" s="25"/>
       <c r="X3" s="25"/>
     </row>
-    <row r="4" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>22</v>
       </c>
@@ -1043,13 +1046,13 @@
         <v>68</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
@@ -1074,13 +1077,13 @@
         <v>61</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>61</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>13</v>
@@ -1116,7 +1119,7 @@
       <c r="W7" s="23"/>
       <c r="X7" s="23"/>
     </row>
-    <row r="8" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>71</v>
       </c>
@@ -1125,13 +1128,13 @@
         <v>63</v>
       </c>
       <c r="D8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
@@ -1152,7 +1155,7 @@
       <c r="W8" s="23"/>
       <c r="X8" s="23"/>
     </row>
-    <row r="9" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>57</v>
       </c>
@@ -1163,13 +1166,13 @@
         <v>56</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>65</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>61</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>13</v>
@@ -1207,7 +1210,7 @@
       <c r="W10" s="23"/>
       <c r="X10" s="23"/>
     </row>
-    <row r="11" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>67</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>61</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>17</v>
@@ -1243,7 +1246,7 @@
       <c r="W11" s="23"/>
       <c r="X11" s="23"/>
     </row>
-    <row r="12" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>70</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>68</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>78</v>
@@ -1281,7 +1284,7 @@
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>74</v>
       </c>
@@ -1315,7 +1318,7 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" ht="13">
+    <row r="14" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>76</v>
       </c>
@@ -1324,10 +1327,10 @@
         <v>63</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1349,9 +1352,9 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -1360,12 +1363,12 @@
         <v>11</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1374,27 +1377,27 @@
         <v>11</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G16" s="33">
         <v>41961</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G17" s="33">
         <v>41961</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:24" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +1407,7 @@
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F18" s="37" t="s">
         <v>13</v>
@@ -1428,7 +1431,7 @@
       <c r="W18" s="30"/>
       <c r="X18" s="30"/>
     </row>
-    <row r="19" spans="1:24" s="31" customFormat="1" ht="12">
+    <row r="19" spans="1:24" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
         <v>77</v>
       </c>
@@ -1460,7 +1463,7 @@
       <c r="W19" s="30"/>
       <c r="X19" s="30"/>
     </row>
-    <row r="20" spans="1:24" s="31" customFormat="1" ht="12">
+    <row r="20" spans="1:24" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>86</v>
       </c>
@@ -1494,15 +1497,15 @@
       <c r="W20" s="30"/>
       <c r="X20" s="30"/>
     </row>
-    <row r="21" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="21" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1528,7 +1531,7 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" ht="12">
+    <row r="23" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1554,7 +1557,7 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" ht="12">
+    <row r="24" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1580,2866 +1583,2866 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" ht="12">
+    <row r="25" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:24" ht="12">
+    <row r="26" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:24" ht="12">
+    <row r="27" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:24" ht="12">
+    <row r="28" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:24" ht="12">
+    <row r="29" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:24" ht="12">
+    <row r="30" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:24" ht="12">
+    <row r="31" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:24" ht="12">
+    <row r="32" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="2:2" ht="12">
+    <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="2:2" ht="12">
+    <row r="34" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="2:2" ht="12">
+    <row r="35" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="2:2" ht="12">
+    <row r="36" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:2" ht="12">
+    <row r="37" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:2" ht="12">
+    <row r="38" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="2:2" ht="12">
+    <row r="39" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="2:2" ht="12">
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:2" ht="12">
+    <row r="41" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="2:2" ht="12">
+    <row r="42" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="2:2" ht="12">
+    <row r="43" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="2:2" ht="12">
+    <row r="44" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="2:2" ht="12">
+    <row r="45" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="2:2" ht="12">
+    <row r="46" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="2:2" ht="12">
+    <row r="47" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="2:2" ht="12">
+    <row r="48" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="2:2" ht="12">
+    <row r="49" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="2:2" ht="12">
+    <row r="50" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="2:2" ht="12">
+    <row r="51" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="2:2" ht="12">
+    <row r="52" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:2" ht="12">
+    <row r="53" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:2" ht="12">
+    <row r="54" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:2" ht="12">
+    <row r="55" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:2" ht="12">
+    <row r="56" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" spans="2:2" ht="12">
+    <row r="57" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="2:2" ht="12">
+    <row r="58" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" spans="2:2" ht="12">
+    <row r="59" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" spans="2:2" ht="12">
+    <row r="60" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="2:2" ht="12">
+    <row r="61" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
     </row>
-    <row r="62" spans="2:2" ht="12">
+    <row r="62" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" spans="2:2" ht="12">
+    <row r="63" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" spans="2:2" ht="12">
+    <row r="64" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="2:2" ht="12">
+    <row r="65" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="2:2" ht="12">
+    <row r="66" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" spans="2:2" ht="12">
+    <row r="67" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="2:2" ht="12">
+    <row r="68" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:2" ht="12">
+    <row r="69" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:2" ht="12">
+    <row r="70" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:2" ht="12">
+    <row r="71" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:2" ht="12">
+    <row r="72" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:2" ht="12">
+    <row r="73" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:2" ht="12">
+    <row r="74" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" spans="2:2" ht="12">
+    <row r="75" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="2:2" ht="12">
+    <row r="76" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="2:2" ht="12">
+    <row r="77" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" spans="2:2" ht="12">
+    <row r="78" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:2" ht="12">
+    <row r="79" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:2" ht="12">
+    <row r="80" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:2" ht="12">
+    <row r="81" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" ht="12">
+    <row r="82" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" ht="12">
+    <row r="83" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" ht="12">
+    <row r="84" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" ht="12">
+    <row r="85" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" ht="12">
+    <row r="86" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" ht="12">
+    <row r="87" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" ht="12">
+    <row r="88" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" ht="12">
+    <row r="89" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" spans="2:2" ht="12">
+    <row r="90" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" spans="2:2" ht="12">
+    <row r="91" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" spans="2:2" ht="12">
+    <row r="92" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="2:2" ht="12">
+    <row r="93" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" spans="2:2" ht="12">
+    <row r="94" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" spans="2:2" ht="12">
+    <row r="95" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" spans="2:2" ht="12">
+    <row r="96" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" spans="2:2" ht="12">
+    <row r="97" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="2:2" ht="12">
+    <row r="98" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" spans="2:2" ht="12">
+    <row r="99" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="2:2" ht="12">
+    <row r="100" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="2:2" ht="12">
+    <row r="101" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="2:2" ht="12">
+    <row r="102" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="2:2" ht="12">
+    <row r="103" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" spans="2:2" ht="12">
+    <row r="104" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" spans="2:2" ht="12">
+    <row r="105" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" spans="2:2" ht="12">
+    <row r="106" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="6"/>
     </row>
-    <row r="107" spans="2:2" ht="12">
+    <row r="107" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
     </row>
-    <row r="108" spans="2:2" ht="12">
+    <row r="108" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="6"/>
     </row>
-    <row r="109" spans="2:2" ht="12">
+    <row r="109" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
     </row>
-    <row r="110" spans="2:2" ht="12">
+    <row r="110" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="6"/>
     </row>
-    <row r="111" spans="2:2" ht="12">
+    <row r="111" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="6"/>
     </row>
-    <row r="112" spans="2:2" ht="12">
+    <row r="112" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="6"/>
     </row>
-    <row r="113" spans="2:2" ht="12">
+    <row r="113" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="6"/>
     </row>
-    <row r="114" spans="2:2" ht="12">
+    <row r="114" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" spans="2:2" ht="12">
+    <row r="115" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="6"/>
     </row>
-    <row r="116" spans="2:2" ht="12">
+    <row r="116" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="6"/>
     </row>
-    <row r="117" spans="2:2" ht="12">
+    <row r="117" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="6"/>
     </row>
-    <row r="118" spans="2:2" ht="12">
+    <row r="118" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="6"/>
     </row>
-    <row r="119" spans="2:2" ht="12">
+    <row r="119" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" spans="2:2" ht="12">
+    <row r="120" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="6"/>
     </row>
-    <row r="121" spans="2:2" ht="12">
+    <row r="121" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="6"/>
     </row>
-    <row r="122" spans="2:2" ht="12">
+    <row r="122" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="6"/>
     </row>
-    <row r="123" spans="2:2" ht="12">
+    <row r="123" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="6"/>
     </row>
-    <row r="124" spans="2:2" ht="12">
+    <row r="124" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="6"/>
     </row>
-    <row r="125" spans="2:2" ht="12">
+    <row r="125" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="6"/>
     </row>
-    <row r="126" spans="2:2" ht="12">
+    <row r="126" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="6"/>
     </row>
-    <row r="127" spans="2:2" ht="12">
+    <row r="127" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="6"/>
     </row>
-    <row r="128" spans="2:2" ht="12">
+    <row r="128" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" spans="2:2" ht="12">
+    <row r="129" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="6"/>
     </row>
-    <row r="130" spans="2:2" ht="12">
+    <row r="130" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="6"/>
     </row>
-    <row r="131" spans="2:2" ht="12">
+    <row r="131" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="6"/>
     </row>
-    <row r="132" spans="2:2" ht="12">
+    <row r="132" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="6"/>
     </row>
-    <row r="133" spans="2:2" ht="12">
+    <row r="133" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="6"/>
     </row>
-    <row r="134" spans="2:2" ht="12">
+    <row r="134" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B134" s="6"/>
     </row>
-    <row r="135" spans="2:2" ht="12">
+    <row r="135" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B135" s="6"/>
     </row>
-    <row r="136" spans="2:2" ht="12">
+    <row r="136" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="6"/>
     </row>
-    <row r="137" spans="2:2" ht="12">
+    <row r="137" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="6"/>
     </row>
-    <row r="138" spans="2:2" ht="12">
+    <row r="138" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="2:2" ht="12">
+    <row r="139" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="6"/>
     </row>
-    <row r="140" spans="2:2" ht="12">
+    <row r="140" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="6"/>
     </row>
-    <row r="141" spans="2:2" ht="12">
+    <row r="141" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="6"/>
     </row>
-    <row r="142" spans="2:2" ht="12">
+    <row r="142" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="6"/>
     </row>
-    <row r="143" spans="2:2" ht="12">
+    <row r="143" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="6"/>
     </row>
-    <row r="144" spans="2:2" ht="12">
+    <row r="144" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="6"/>
     </row>
-    <row r="145" spans="2:2" ht="12">
+    <row r="145" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="2:2" ht="12">
+    <row r="146" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="2:2" ht="12">
+    <row r="147" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="2:2" ht="12">
+    <row r="148" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="2:2" ht="12">
+    <row r="149" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="2:2" ht="12">
+    <row r="150" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="2:2" ht="12">
+    <row r="151" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="2:2" ht="12">
+    <row r="152" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="2:2" ht="12">
+    <row r="153" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="2:2" ht="12">
+    <row r="154" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="2:2" ht="12">
+    <row r="155" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="2:2" ht="12">
+    <row r="156" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" spans="2:2" ht="12">
+    <row r="157" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" spans="2:2" ht="12">
+    <row r="158" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" spans="2:2" ht="12">
+    <row r="159" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" spans="2:2" ht="12">
+    <row r="160" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="6"/>
     </row>
-    <row r="161" spans="2:2" ht="12">
+    <row r="161" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="6"/>
     </row>
-    <row r="162" spans="2:2" ht="12">
+    <row r="162" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="6"/>
     </row>
-    <row r="163" spans="2:2" ht="12">
+    <row r="163" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="6"/>
     </row>
-    <row r="164" spans="2:2" ht="12">
+    <row r="164" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="6"/>
     </row>
-    <row r="165" spans="2:2" ht="12">
+    <row r="165" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="6"/>
     </row>
-    <row r="166" spans="2:2" ht="12">
+    <row r="166" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="6"/>
     </row>
-    <row r="167" spans="2:2" ht="12">
+    <row r="167" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="6"/>
     </row>
-    <row r="168" spans="2:2" ht="12">
+    <row r="168" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" spans="2:2" ht="12">
+    <row r="169" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="6"/>
     </row>
-    <row r="170" spans="2:2" ht="12">
+    <row r="170" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="6"/>
     </row>
-    <row r="171" spans="2:2" ht="12">
+    <row r="171" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" spans="2:2" ht="12">
+    <row r="172" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="6"/>
     </row>
-    <row r="173" spans="2:2" ht="12">
+    <row r="173" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="6"/>
     </row>
-    <row r="174" spans="2:2" ht="12">
+    <row r="174" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="6"/>
     </row>
-    <row r="175" spans="2:2" ht="12">
+    <row r="175" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" spans="2:2" ht="12">
+    <row r="176" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" spans="2:2" ht="12">
+    <row r="177" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="6"/>
     </row>
-    <row r="178" spans="2:2" ht="12">
+    <row r="178" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="6"/>
     </row>
-    <row r="179" spans="2:2" ht="12">
+    <row r="179" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="6"/>
     </row>
-    <row r="180" spans="2:2" ht="12">
+    <row r="180" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="6"/>
     </row>
-    <row r="181" spans="2:2" ht="12">
+    <row r="181" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="6"/>
     </row>
-    <row r="182" spans="2:2" ht="12">
+    <row r="182" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="6"/>
     </row>
-    <row r="183" spans="2:2" ht="12">
+    <row r="183" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="6"/>
     </row>
-    <row r="184" spans="2:2" ht="12">
+    <row r="184" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="6"/>
     </row>
-    <row r="185" spans="2:2" ht="12">
+    <row r="185" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="6"/>
     </row>
-    <row r="186" spans="2:2" ht="12">
+    <row r="186" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="6"/>
     </row>
-    <row r="187" spans="2:2" ht="12">
+    <row r="187" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="6"/>
     </row>
-    <row r="188" spans="2:2" ht="12">
+    <row r="188" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" spans="2:2" ht="12">
+    <row r="189" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="6"/>
     </row>
-    <row r="190" spans="2:2" ht="12">
+    <row r="190" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="6"/>
     </row>
-    <row r="191" spans="2:2" ht="12">
+    <row r="191" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="6"/>
     </row>
-    <row r="192" spans="2:2" ht="12">
+    <row r="192" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="6"/>
     </row>
-    <row r="193" spans="2:2" ht="12">
+    <row r="193" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="6"/>
     </row>
-    <row r="194" spans="2:2" ht="12">
+    <row r="194" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="6"/>
     </row>
-    <row r="195" spans="2:2" ht="12">
+    <row r="195" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="6"/>
     </row>
-    <row r="196" spans="2:2" ht="12">
+    <row r="196" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="6"/>
     </row>
-    <row r="197" spans="2:2" ht="12">
+    <row r="197" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="6"/>
     </row>
-    <row r="198" spans="2:2" ht="12">
+    <row r="198" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="6"/>
     </row>
-    <row r="199" spans="2:2" ht="12">
+    <row r="199" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="6"/>
     </row>
-    <row r="200" spans="2:2" ht="12">
+    <row r="200" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="6"/>
     </row>
-    <row r="201" spans="2:2" ht="12">
+    <row r="201" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="6"/>
     </row>
-    <row r="202" spans="2:2" ht="12">
+    <row r="202" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="6"/>
     </row>
-    <row r="203" spans="2:2" ht="12">
+    <row r="203" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="6"/>
     </row>
-    <row r="204" spans="2:2" ht="12">
+    <row r="204" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" spans="2:2" ht="12">
+    <row r="205" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="6"/>
     </row>
-    <row r="206" spans="2:2" ht="12">
+    <row r="206" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="6"/>
     </row>
-    <row r="207" spans="2:2" ht="12">
+    <row r="207" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="6"/>
     </row>
-    <row r="208" spans="2:2" ht="12">
+    <row r="208" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="6"/>
     </row>
-    <row r="209" spans="2:2" ht="12">
+    <row r="209" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="6"/>
     </row>
-    <row r="210" spans="2:2" ht="12">
+    <row r="210" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="6"/>
     </row>
-    <row r="211" spans="2:2" ht="12">
+    <row r="211" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="6"/>
     </row>
-    <row r="212" spans="2:2" ht="12">
+    <row r="212" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="6"/>
     </row>
-    <row r="213" spans="2:2" ht="12">
+    <row r="213" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="6"/>
     </row>
-    <row r="214" spans="2:2" ht="12">
+    <row r="214" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="6"/>
     </row>
-    <row r="215" spans="2:2" ht="12">
+    <row r="215" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="6"/>
     </row>
-    <row r="216" spans="2:2" ht="12">
+    <row r="216" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="6"/>
     </row>
-    <row r="217" spans="2:2" ht="12">
+    <row r="217" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="6"/>
     </row>
-    <row r="218" spans="2:2" ht="12">
+    <row r="218" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="6"/>
     </row>
-    <row r="219" spans="2:2" ht="12">
+    <row r="219" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="6"/>
     </row>
-    <row r="220" spans="2:2" ht="12">
+    <row r="220" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="6"/>
     </row>
-    <row r="221" spans="2:2" ht="12">
+    <row r="221" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="6"/>
     </row>
-    <row r="222" spans="2:2" ht="12">
+    <row r="222" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="6"/>
     </row>
-    <row r="223" spans="2:2" ht="12">
+    <row r="223" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="6"/>
     </row>
-    <row r="224" spans="2:2" ht="12">
+    <row r="224" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="6"/>
     </row>
-    <row r="225" spans="2:2" ht="12">
+    <row r="225" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="6"/>
     </row>
-    <row r="226" spans="2:2" ht="12">
+    <row r="226" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="6"/>
     </row>
-    <row r="227" spans="2:2" ht="12">
+    <row r="227" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="6"/>
     </row>
-    <row r="228" spans="2:2" ht="12">
+    <row r="228" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="6"/>
     </row>
-    <row r="229" spans="2:2" ht="12">
+    <row r="229" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="6"/>
     </row>
-    <row r="230" spans="2:2" ht="12">
+    <row r="230" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="6"/>
     </row>
-    <row r="231" spans="2:2" ht="12">
+    <row r="231" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="6"/>
     </row>
-    <row r="232" spans="2:2" ht="12">
+    <row r="232" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="6"/>
     </row>
-    <row r="233" spans="2:2" ht="12">
+    <row r="233" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="6"/>
     </row>
-    <row r="234" spans="2:2" ht="12">
+    <row r="234" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="6"/>
     </row>
-    <row r="235" spans="2:2" ht="12">
+    <row r="235" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="6"/>
     </row>
-    <row r="236" spans="2:2" ht="12">
+    <row r="236" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="6"/>
     </row>
-    <row r="237" spans="2:2" ht="12">
+    <row r="237" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="6"/>
     </row>
-    <row r="238" spans="2:2" ht="12">
+    <row r="238" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="6"/>
     </row>
-    <row r="239" spans="2:2" ht="12">
+    <row r="239" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="6"/>
     </row>
-    <row r="240" spans="2:2" ht="12">
+    <row r="240" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="6"/>
     </row>
-    <row r="241" spans="2:2" ht="12">
+    <row r="241" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="6"/>
     </row>
-    <row r="242" spans="2:2" ht="12">
+    <row r="242" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="6"/>
     </row>
-    <row r="243" spans="2:2" ht="12">
+    <row r="243" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="6"/>
     </row>
-    <row r="244" spans="2:2" ht="12">
+    <row r="244" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="6"/>
     </row>
-    <row r="245" spans="2:2" ht="12">
+    <row r="245" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="6"/>
     </row>
-    <row r="246" spans="2:2" ht="12">
+    <row r="246" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="6"/>
     </row>
-    <row r="247" spans="2:2" ht="12">
+    <row r="247" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="6"/>
     </row>
-    <row r="248" spans="2:2" ht="12">
+    <row r="248" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="6"/>
     </row>
-    <row r="249" spans="2:2" ht="12">
+    <row r="249" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="6"/>
     </row>
-    <row r="250" spans="2:2" ht="12">
+    <row r="250" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="6"/>
     </row>
-    <row r="251" spans="2:2" ht="12">
+    <row r="251" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="6"/>
     </row>
-    <row r="252" spans="2:2" ht="12">
+    <row r="252" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="6"/>
     </row>
-    <row r="253" spans="2:2" ht="12">
+    <row r="253" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="6"/>
     </row>
-    <row r="254" spans="2:2" ht="12">
+    <row r="254" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="6"/>
     </row>
-    <row r="255" spans="2:2" ht="12">
+    <row r="255" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="6"/>
     </row>
-    <row r="256" spans="2:2" ht="12">
+    <row r="256" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="6"/>
     </row>
-    <row r="257" spans="2:2" ht="12">
+    <row r="257" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="6"/>
     </row>
-    <row r="258" spans="2:2" ht="12">
+    <row r="258" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="6"/>
     </row>
-    <row r="259" spans="2:2" ht="12">
+    <row r="259" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="6"/>
     </row>
-    <row r="260" spans="2:2" ht="12">
+    <row r="260" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="6"/>
     </row>
-    <row r="261" spans="2:2" ht="12">
+    <row r="261" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="6"/>
     </row>
-    <row r="262" spans="2:2" ht="12">
+    <row r="262" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="6"/>
     </row>
-    <row r="263" spans="2:2" ht="12">
+    <row r="263" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="6"/>
     </row>
-    <row r="264" spans="2:2" ht="12">
+    <row r="264" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="6"/>
     </row>
-    <row r="265" spans="2:2" ht="12">
+    <row r="265" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="6"/>
     </row>
-    <row r="266" spans="2:2" ht="12">
+    <row r="266" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="6"/>
     </row>
-    <row r="267" spans="2:2" ht="12">
+    <row r="267" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="6"/>
     </row>
-    <row r="268" spans="2:2" ht="12">
+    <row r="268" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="6"/>
     </row>
-    <row r="269" spans="2:2" ht="12">
+    <row r="269" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="6"/>
     </row>
-    <row r="270" spans="2:2" ht="12">
+    <row r="270" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="6"/>
     </row>
-    <row r="271" spans="2:2" ht="12">
+    <row r="271" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="6"/>
     </row>
-    <row r="272" spans="2:2" ht="12">
+    <row r="272" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="6"/>
     </row>
-    <row r="273" spans="2:2" ht="12">
+    <row r="273" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="6"/>
     </row>
-    <row r="274" spans="2:2" ht="12">
+    <row r="274" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="6"/>
     </row>
-    <row r="275" spans="2:2" ht="12">
+    <row r="275" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="6"/>
     </row>
-    <row r="276" spans="2:2" ht="12">
+    <row r="276" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="6"/>
     </row>
-    <row r="277" spans="2:2" ht="12">
+    <row r="277" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="6"/>
     </row>
-    <row r="278" spans="2:2" ht="12">
+    <row r="278" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="6"/>
     </row>
-    <row r="279" spans="2:2" ht="12">
+    <row r="279" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="6"/>
     </row>
-    <row r="280" spans="2:2" ht="12">
+    <row r="280" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="6"/>
     </row>
-    <row r="281" spans="2:2" ht="12">
+    <row r="281" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="6"/>
     </row>
-    <row r="282" spans="2:2" ht="12">
+    <row r="282" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="6"/>
     </row>
-    <row r="283" spans="2:2" ht="12">
+    <row r="283" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="6"/>
     </row>
-    <row r="284" spans="2:2" ht="12">
+    <row r="284" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="6"/>
     </row>
-    <row r="285" spans="2:2" ht="12">
+    <row r="285" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="6"/>
     </row>
-    <row r="286" spans="2:2" ht="12">
+    <row r="286" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="6"/>
     </row>
-    <row r="287" spans="2:2" ht="12">
+    <row r="287" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="6"/>
     </row>
-    <row r="288" spans="2:2" ht="12">
+    <row r="288" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="6"/>
     </row>
-    <row r="289" spans="2:2" ht="12">
+    <row r="289" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="6"/>
     </row>
-    <row r="290" spans="2:2" ht="12">
+    <row r="290" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="6"/>
     </row>
-    <row r="291" spans="2:2" ht="12">
+    <row r="291" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="6"/>
     </row>
-    <row r="292" spans="2:2" ht="12">
+    <row r="292" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="6"/>
     </row>
-    <row r="293" spans="2:2" ht="12">
+    <row r="293" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="6"/>
     </row>
-    <row r="294" spans="2:2" ht="12">
+    <row r="294" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="6"/>
     </row>
-    <row r="295" spans="2:2" ht="12">
+    <row r="295" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="6"/>
     </row>
-    <row r="296" spans="2:2" ht="12">
+    <row r="296" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="6"/>
     </row>
-    <row r="297" spans="2:2" ht="12">
+    <row r="297" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="6"/>
     </row>
-    <row r="298" spans="2:2" ht="12">
+    <row r="298" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="6"/>
     </row>
-    <row r="299" spans="2:2" ht="12">
+    <row r="299" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="6"/>
     </row>
-    <row r="300" spans="2:2" ht="12">
+    <row r="300" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="6"/>
     </row>
-    <row r="301" spans="2:2" ht="12">
+    <row r="301" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="6"/>
     </row>
-    <row r="302" spans="2:2" ht="12">
+    <row r="302" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="6"/>
     </row>
-    <row r="303" spans="2:2" ht="12">
+    <row r="303" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="6"/>
     </row>
-    <row r="304" spans="2:2" ht="12">
+    <row r="304" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="6"/>
     </row>
-    <row r="305" spans="2:2" ht="12">
+    <row r="305" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="6"/>
     </row>
-    <row r="306" spans="2:2" ht="12">
+    <row r="306" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="6"/>
     </row>
-    <row r="307" spans="2:2" ht="12">
+    <row r="307" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="6"/>
     </row>
-    <row r="308" spans="2:2" ht="12">
+    <row r="308" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="6"/>
     </row>
-    <row r="309" spans="2:2" ht="12">
+    <row r="309" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="6"/>
     </row>
-    <row r="310" spans="2:2" ht="12">
+    <row r="310" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="6"/>
     </row>
-    <row r="311" spans="2:2" ht="12">
+    <row r="311" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="6"/>
     </row>
-    <row r="312" spans="2:2" ht="12">
+    <row r="312" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="6"/>
     </row>
-    <row r="313" spans="2:2" ht="12">
+    <row r="313" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="6"/>
     </row>
-    <row r="314" spans="2:2" ht="12">
+    <row r="314" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="6"/>
     </row>
-    <row r="315" spans="2:2" ht="12">
+    <row r="315" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="6"/>
     </row>
-    <row r="316" spans="2:2" ht="12">
+    <row r="316" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="6"/>
     </row>
-    <row r="317" spans="2:2" ht="12">
+    <row r="317" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="6"/>
     </row>
-    <row r="318" spans="2:2" ht="12">
+    <row r="318" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="6"/>
     </row>
-    <row r="319" spans="2:2" ht="12">
+    <row r="319" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="6"/>
     </row>
-    <row r="320" spans="2:2" ht="12">
+    <row r="320" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="6"/>
     </row>
-    <row r="321" spans="2:2" ht="12">
+    <row r="321" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="6"/>
     </row>
-    <row r="322" spans="2:2" ht="12">
+    <row r="322" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="6"/>
     </row>
-    <row r="323" spans="2:2" ht="12">
+    <row r="323" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="6"/>
     </row>
-    <row r="324" spans="2:2" ht="12">
+    <row r="324" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="6"/>
     </row>
-    <row r="325" spans="2:2" ht="12">
+    <row r="325" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="6"/>
     </row>
-    <row r="326" spans="2:2" ht="12">
+    <row r="326" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="6"/>
     </row>
-    <row r="327" spans="2:2" ht="12">
+    <row r="327" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="6"/>
     </row>
-    <row r="328" spans="2:2" ht="12">
+    <row r="328" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="6"/>
     </row>
-    <row r="329" spans="2:2" ht="12">
+    <row r="329" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="6"/>
     </row>
-    <row r="330" spans="2:2" ht="12">
+    <row r="330" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="6"/>
     </row>
-    <row r="331" spans="2:2" ht="12">
+    <row r="331" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="6"/>
     </row>
-    <row r="332" spans="2:2" ht="12">
+    <row r="332" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="6"/>
     </row>
-    <row r="333" spans="2:2" ht="12">
+    <row r="333" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="6"/>
     </row>
-    <row r="334" spans="2:2" ht="12">
+    <row r="334" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="6"/>
     </row>
-    <row r="335" spans="2:2" ht="12">
+    <row r="335" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="6"/>
     </row>
-    <row r="336" spans="2:2" ht="12">
+    <row r="336" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="6"/>
     </row>
-    <row r="337" spans="2:2" ht="12">
+    <row r="337" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="6"/>
     </row>
-    <row r="338" spans="2:2" ht="12">
+    <row r="338" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="6"/>
     </row>
-    <row r="339" spans="2:2" ht="12">
+    <row r="339" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="6"/>
     </row>
-    <row r="340" spans="2:2" ht="12">
+    <row r="340" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="6"/>
     </row>
-    <row r="341" spans="2:2" ht="12">
+    <row r="341" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="6"/>
     </row>
-    <row r="342" spans="2:2" ht="12">
+    <row r="342" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="6"/>
     </row>
-    <row r="343" spans="2:2" ht="12">
+    <row r="343" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="6"/>
     </row>
-    <row r="344" spans="2:2" ht="12">
+    <row r="344" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="6"/>
     </row>
-    <row r="345" spans="2:2" ht="12">
+    <row r="345" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="6"/>
     </row>
-    <row r="346" spans="2:2" ht="12">
+    <row r="346" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="6"/>
     </row>
-    <row r="347" spans="2:2" ht="12">
+    <row r="347" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="6"/>
     </row>
-    <row r="348" spans="2:2" ht="12">
+    <row r="348" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="6"/>
     </row>
-    <row r="349" spans="2:2" ht="12">
+    <row r="349" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="6"/>
     </row>
-    <row r="350" spans="2:2" ht="12">
+    <row r="350" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="6"/>
     </row>
-    <row r="351" spans="2:2" ht="12">
+    <row r="351" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="6"/>
     </row>
-    <row r="352" spans="2:2" ht="12">
+    <row r="352" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="6"/>
     </row>
-    <row r="353" spans="2:2" ht="12">
+    <row r="353" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="6"/>
     </row>
-    <row r="354" spans="2:2" ht="12">
+    <row r="354" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="6"/>
     </row>
-    <row r="355" spans="2:2" ht="12">
+    <row r="355" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="6"/>
     </row>
-    <row r="356" spans="2:2" ht="12">
+    <row r="356" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="6"/>
     </row>
-    <row r="357" spans="2:2" ht="12">
+    <row r="357" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="6"/>
     </row>
-    <row r="358" spans="2:2" ht="12">
+    <row r="358" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="6"/>
     </row>
-    <row r="359" spans="2:2" ht="12">
+    <row r="359" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="6"/>
     </row>
-    <row r="360" spans="2:2" ht="12">
+    <row r="360" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="6"/>
     </row>
-    <row r="361" spans="2:2" ht="12">
+    <row r="361" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="6"/>
     </row>
-    <row r="362" spans="2:2" ht="12">
+    <row r="362" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="6"/>
     </row>
-    <row r="363" spans="2:2" ht="12">
+    <row r="363" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="6"/>
     </row>
-    <row r="364" spans="2:2" ht="12">
+    <row r="364" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="6"/>
     </row>
-    <row r="365" spans="2:2" ht="12">
+    <row r="365" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="6"/>
     </row>
-    <row r="366" spans="2:2" ht="12">
+    <row r="366" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="6"/>
     </row>
-    <row r="367" spans="2:2" ht="12">
+    <row r="367" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="6"/>
     </row>
-    <row r="368" spans="2:2" ht="12">
+    <row r="368" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="6"/>
     </row>
-    <row r="369" spans="2:2" ht="12">
+    <row r="369" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="6"/>
     </row>
-    <row r="370" spans="2:2" ht="12">
+    <row r="370" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="6"/>
     </row>
-    <row r="371" spans="2:2" ht="12">
+    <row r="371" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="6"/>
     </row>
-    <row r="372" spans="2:2" ht="12">
+    <row r="372" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="6"/>
     </row>
-    <row r="373" spans="2:2" ht="12">
+    <row r="373" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="6"/>
     </row>
-    <row r="374" spans="2:2" ht="12">
+    <row r="374" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="6"/>
     </row>
-    <row r="375" spans="2:2" ht="12">
+    <row r="375" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="6"/>
     </row>
-    <row r="376" spans="2:2" ht="12">
+    <row r="376" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="6"/>
     </row>
-    <row r="377" spans="2:2" ht="12">
+    <row r="377" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="6"/>
     </row>
-    <row r="378" spans="2:2" ht="12">
+    <row r="378" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="6"/>
     </row>
-    <row r="379" spans="2:2" ht="12">
+    <row r="379" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="6"/>
     </row>
-    <row r="380" spans="2:2" ht="12">
+    <row r="380" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="6"/>
     </row>
-    <row r="381" spans="2:2" ht="12">
+    <row r="381" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="6"/>
     </row>
-    <row r="382" spans="2:2" ht="12">
+    <row r="382" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="6"/>
     </row>
-    <row r="383" spans="2:2" ht="12">
+    <row r="383" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="6"/>
     </row>
-    <row r="384" spans="2:2" ht="12">
+    <row r="384" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="6"/>
     </row>
-    <row r="385" spans="2:2" ht="12">
+    <row r="385" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="6"/>
     </row>
-    <row r="386" spans="2:2" ht="12">
+    <row r="386" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="6"/>
     </row>
-    <row r="387" spans="2:2" ht="12">
+    <row r="387" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="6"/>
     </row>
-    <row r="388" spans="2:2" ht="12">
+    <row r="388" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="6"/>
     </row>
-    <row r="389" spans="2:2" ht="12">
+    <row r="389" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="6"/>
     </row>
-    <row r="390" spans="2:2" ht="12">
+    <row r="390" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="6"/>
     </row>
-    <row r="391" spans="2:2" ht="12">
+    <row r="391" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="6"/>
     </row>
-    <row r="392" spans="2:2" ht="12">
+    <row r="392" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="6"/>
     </row>
-    <row r="393" spans="2:2" ht="12">
+    <row r="393" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="6"/>
     </row>
-    <row r="394" spans="2:2" ht="12">
+    <row r="394" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="6"/>
     </row>
-    <row r="395" spans="2:2" ht="12">
+    <row r="395" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="6"/>
     </row>
-    <row r="396" spans="2:2" ht="12">
+    <row r="396" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="6"/>
     </row>
-    <row r="397" spans="2:2" ht="12">
+    <row r="397" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="6"/>
     </row>
-    <row r="398" spans="2:2" ht="12">
+    <row r="398" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="6"/>
     </row>
-    <row r="399" spans="2:2" ht="12">
+    <row r="399" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="6"/>
     </row>
-    <row r="400" spans="2:2" ht="12">
+    <row r="400" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="6"/>
     </row>
-    <row r="401" spans="2:2" ht="12">
+    <row r="401" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="6"/>
     </row>
-    <row r="402" spans="2:2" ht="12">
+    <row r="402" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="6"/>
     </row>
-    <row r="403" spans="2:2" ht="12">
+    <row r="403" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="6"/>
     </row>
-    <row r="404" spans="2:2" ht="12">
+    <row r="404" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="6"/>
     </row>
-    <row r="405" spans="2:2" ht="12">
+    <row r="405" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="6"/>
     </row>
-    <row r="406" spans="2:2" ht="12">
+    <row r="406" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="6"/>
     </row>
-    <row r="407" spans="2:2" ht="12">
+    <row r="407" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="6"/>
     </row>
-    <row r="408" spans="2:2" ht="12">
+    <row r="408" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="6"/>
     </row>
-    <row r="409" spans="2:2" ht="12">
+    <row r="409" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="6"/>
     </row>
-    <row r="410" spans="2:2" ht="12">
+    <row r="410" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="6"/>
     </row>
-    <row r="411" spans="2:2" ht="12">
+    <row r="411" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="6"/>
     </row>
-    <row r="412" spans="2:2" ht="12">
+    <row r="412" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="6"/>
     </row>
-    <row r="413" spans="2:2" ht="12">
+    <row r="413" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="6"/>
     </row>
-    <row r="414" spans="2:2" ht="12">
+    <row r="414" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="6"/>
     </row>
-    <row r="415" spans="2:2" ht="12">
+    <row r="415" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="6"/>
     </row>
-    <row r="416" spans="2:2" ht="12">
+    <row r="416" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="6"/>
     </row>
-    <row r="417" spans="2:2" ht="12">
+    <row r="417" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="6"/>
     </row>
-    <row r="418" spans="2:2" ht="12">
+    <row r="418" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="6"/>
     </row>
-    <row r="419" spans="2:2" ht="12">
+    <row r="419" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="6"/>
     </row>
-    <row r="420" spans="2:2" ht="12">
+    <row r="420" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="6"/>
     </row>
-    <row r="421" spans="2:2" ht="12">
+    <row r="421" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="6"/>
     </row>
-    <row r="422" spans="2:2" ht="12">
+    <row r="422" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="6"/>
     </row>
-    <row r="423" spans="2:2" ht="12">
+    <row r="423" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="6"/>
     </row>
-    <row r="424" spans="2:2" ht="12">
+    <row r="424" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="6"/>
     </row>
-    <row r="425" spans="2:2" ht="12">
+    <row r="425" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="6"/>
     </row>
-    <row r="426" spans="2:2" ht="12">
+    <row r="426" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="6"/>
     </row>
-    <row r="427" spans="2:2" ht="12">
+    <row r="427" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="6"/>
     </row>
-    <row r="428" spans="2:2" ht="12">
+    <row r="428" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="6"/>
     </row>
-    <row r="429" spans="2:2" ht="12">
+    <row r="429" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="6"/>
     </row>
-    <row r="430" spans="2:2" ht="12">
+    <row r="430" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="6"/>
     </row>
-    <row r="431" spans="2:2" ht="12">
+    <row r="431" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="6"/>
     </row>
-    <row r="432" spans="2:2" ht="12">
+    <row r="432" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="6"/>
     </row>
-    <row r="433" spans="2:2" ht="12">
+    <row r="433" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="6"/>
     </row>
-    <row r="434" spans="2:2" ht="12">
+    <row r="434" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="6"/>
     </row>
-    <row r="435" spans="2:2" ht="12">
+    <row r="435" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="6"/>
     </row>
-    <row r="436" spans="2:2" ht="12">
+    <row r="436" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="6"/>
     </row>
-    <row r="437" spans="2:2" ht="12">
+    <row r="437" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="6"/>
     </row>
-    <row r="438" spans="2:2" ht="12">
+    <row r="438" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="6"/>
     </row>
-    <row r="439" spans="2:2" ht="12">
+    <row r="439" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="6"/>
     </row>
-    <row r="440" spans="2:2" ht="12">
+    <row r="440" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="6"/>
     </row>
-    <row r="441" spans="2:2" ht="12">
+    <row r="441" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="6"/>
     </row>
-    <row r="442" spans="2:2" ht="12">
+    <row r="442" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="6"/>
     </row>
-    <row r="443" spans="2:2" ht="12">
+    <row r="443" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="6"/>
     </row>
-    <row r="444" spans="2:2" ht="12">
+    <row r="444" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="6"/>
     </row>
-    <row r="445" spans="2:2" ht="12">
+    <row r="445" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="6"/>
     </row>
-    <row r="446" spans="2:2" ht="12">
+    <row r="446" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="6"/>
     </row>
-    <row r="447" spans="2:2" ht="12">
+    <row r="447" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="6"/>
     </row>
-    <row r="448" spans="2:2" ht="12">
+    <row r="448" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="6"/>
     </row>
-    <row r="449" spans="2:2" ht="12">
+    <row r="449" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="6"/>
     </row>
-    <row r="450" spans="2:2" ht="12">
+    <row r="450" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="6"/>
     </row>
-    <row r="451" spans="2:2" ht="12">
+    <row r="451" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="6"/>
     </row>
-    <row r="452" spans="2:2" ht="12">
+    <row r="452" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="6"/>
     </row>
-    <row r="453" spans="2:2" ht="12">
+    <row r="453" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="6"/>
     </row>
-    <row r="454" spans="2:2" ht="12">
+    <row r="454" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="6"/>
     </row>
-    <row r="455" spans="2:2" ht="12">
+    <row r="455" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="6"/>
     </row>
-    <row r="456" spans="2:2" ht="12">
+    <row r="456" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="6"/>
     </row>
-    <row r="457" spans="2:2" ht="12">
+    <row r="457" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="6"/>
     </row>
-    <row r="458" spans="2:2" ht="12">
+    <row r="458" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="6"/>
     </row>
-    <row r="459" spans="2:2" ht="12">
+    <row r="459" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="6"/>
     </row>
-    <row r="460" spans="2:2" ht="12">
+    <row r="460" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="6"/>
     </row>
-    <row r="461" spans="2:2" ht="12">
+    <row r="461" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="6"/>
     </row>
-    <row r="462" spans="2:2" ht="12">
+    <row r="462" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="6"/>
     </row>
-    <row r="463" spans="2:2" ht="12">
+    <row r="463" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="6"/>
     </row>
-    <row r="464" spans="2:2" ht="12">
+    <row r="464" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="6"/>
     </row>
-    <row r="465" spans="2:2" ht="12">
+    <row r="465" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="6"/>
     </row>
-    <row r="466" spans="2:2" ht="12">
+    <row r="466" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="6"/>
     </row>
-    <row r="467" spans="2:2" ht="12">
+    <row r="467" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="6"/>
     </row>
-    <row r="468" spans="2:2" ht="12">
+    <row r="468" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="6"/>
     </row>
-    <row r="469" spans="2:2" ht="12">
+    <row r="469" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="6"/>
     </row>
-    <row r="470" spans="2:2" ht="12">
+    <row r="470" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="6"/>
     </row>
-    <row r="471" spans="2:2" ht="12">
+    <row r="471" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="6"/>
     </row>
-    <row r="472" spans="2:2" ht="12">
+    <row r="472" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="6"/>
     </row>
-    <row r="473" spans="2:2" ht="12">
+    <row r="473" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="6"/>
     </row>
-    <row r="474" spans="2:2" ht="12">
+    <row r="474" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="6"/>
     </row>
-    <row r="475" spans="2:2" ht="12">
+    <row r="475" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="6"/>
     </row>
-    <row r="476" spans="2:2" ht="12">
+    <row r="476" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="6"/>
     </row>
-    <row r="477" spans="2:2" ht="12">
+    <row r="477" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="6"/>
     </row>
-    <row r="478" spans="2:2" ht="12">
+    <row r="478" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="6"/>
     </row>
-    <row r="479" spans="2:2" ht="12">
+    <row r="479" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="6"/>
     </row>
-    <row r="480" spans="2:2" ht="12">
+    <row r="480" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="6"/>
     </row>
-    <row r="481" spans="2:2" ht="12">
+    <row r="481" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="6"/>
     </row>
-    <row r="482" spans="2:2" ht="12">
+    <row r="482" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="6"/>
     </row>
-    <row r="483" spans="2:2" ht="12">
+    <row r="483" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="6"/>
     </row>
-    <row r="484" spans="2:2" ht="12">
+    <row r="484" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="6"/>
     </row>
-    <row r="485" spans="2:2" ht="12">
+    <row r="485" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="6"/>
     </row>
-    <row r="486" spans="2:2" ht="12">
+    <row r="486" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="6"/>
     </row>
-    <row r="487" spans="2:2" ht="12">
+    <row r="487" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="6"/>
     </row>
-    <row r="488" spans="2:2" ht="12">
+    <row r="488" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="6"/>
     </row>
-    <row r="489" spans="2:2" ht="12">
+    <row r="489" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="6"/>
     </row>
-    <row r="490" spans="2:2" ht="12">
+    <row r="490" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="6"/>
     </row>
-    <row r="491" spans="2:2" ht="12">
+    <row r="491" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="6"/>
     </row>
-    <row r="492" spans="2:2" ht="12">
+    <row r="492" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="6"/>
     </row>
-    <row r="493" spans="2:2" ht="12">
+    <row r="493" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="6"/>
     </row>
-    <row r="494" spans="2:2" ht="12">
+    <row r="494" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="6"/>
     </row>
-    <row r="495" spans="2:2" ht="12">
+    <row r="495" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="6"/>
     </row>
-    <row r="496" spans="2:2" ht="12">
+    <row r="496" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="6"/>
     </row>
-    <row r="497" spans="2:2" ht="12">
+    <row r="497" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="6"/>
     </row>
-    <row r="498" spans="2:2" ht="12">
+    <row r="498" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="6"/>
     </row>
-    <row r="499" spans="2:2" ht="12">
+    <row r="499" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="6"/>
     </row>
-    <row r="500" spans="2:2" ht="12">
+    <row r="500" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="6"/>
     </row>
-    <row r="501" spans="2:2" ht="12">
+    <row r="501" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="6"/>
     </row>
-    <row r="502" spans="2:2" ht="12">
+    <row r="502" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="6"/>
     </row>
-    <row r="503" spans="2:2" ht="12">
+    <row r="503" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="6"/>
     </row>
-    <row r="504" spans="2:2" ht="12">
+    <row r="504" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="6"/>
     </row>
-    <row r="505" spans="2:2" ht="12">
+    <row r="505" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="6"/>
     </row>
-    <row r="506" spans="2:2" ht="12">
+    <row r="506" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="6"/>
     </row>
-    <row r="507" spans="2:2" ht="12">
+    <row r="507" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="6"/>
     </row>
-    <row r="508" spans="2:2" ht="12">
+    <row r="508" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="6"/>
     </row>
-    <row r="509" spans="2:2" ht="12">
+    <row r="509" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="6"/>
     </row>
-    <row r="510" spans="2:2" ht="12">
+    <row r="510" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="6"/>
     </row>
-    <row r="511" spans="2:2" ht="12">
+    <row r="511" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="6"/>
     </row>
-    <row r="512" spans="2:2" ht="12">
+    <row r="512" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="6"/>
     </row>
-    <row r="513" spans="2:2" ht="12">
+    <row r="513" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="6"/>
     </row>
-    <row r="514" spans="2:2" ht="12">
+    <row r="514" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="6"/>
     </row>
-    <row r="515" spans="2:2" ht="12">
+    <row r="515" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="6"/>
     </row>
-    <row r="516" spans="2:2" ht="12">
+    <row r="516" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="6"/>
     </row>
-    <row r="517" spans="2:2" ht="12">
+    <row r="517" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="6"/>
     </row>
-    <row r="518" spans="2:2" ht="12">
+    <row r="518" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="6"/>
     </row>
-    <row r="519" spans="2:2" ht="12">
+    <row r="519" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="6"/>
     </row>
-    <row r="520" spans="2:2" ht="12">
+    <row r="520" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="6"/>
     </row>
-    <row r="521" spans="2:2" ht="12">
+    <row r="521" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="6"/>
     </row>
-    <row r="522" spans="2:2" ht="12">
+    <row r="522" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="6"/>
     </row>
-    <row r="523" spans="2:2" ht="12">
+    <row r="523" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="6"/>
     </row>
-    <row r="524" spans="2:2" ht="12">
+    <row r="524" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="6"/>
     </row>
-    <row r="525" spans="2:2" ht="12">
+    <row r="525" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="6"/>
     </row>
-    <row r="526" spans="2:2" ht="12">
+    <row r="526" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="6"/>
     </row>
-    <row r="527" spans="2:2" ht="12">
+    <row r="527" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="6"/>
     </row>
-    <row r="528" spans="2:2" ht="12">
+    <row r="528" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="6"/>
     </row>
-    <row r="529" spans="2:2" ht="12">
+    <row r="529" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="6"/>
     </row>
-    <row r="530" spans="2:2" ht="12">
+    <row r="530" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="6"/>
     </row>
-    <row r="531" spans="2:2" ht="12">
+    <row r="531" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="6"/>
     </row>
-    <row r="532" spans="2:2" ht="12">
+    <row r="532" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="6"/>
     </row>
-    <row r="533" spans="2:2" ht="12">
+    <row r="533" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="6"/>
     </row>
-    <row r="534" spans="2:2" ht="12">
+    <row r="534" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="6"/>
     </row>
-    <row r="535" spans="2:2" ht="12">
+    <row r="535" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="6"/>
     </row>
-    <row r="536" spans="2:2" ht="12">
+    <row r="536" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="6"/>
     </row>
-    <row r="537" spans="2:2" ht="12">
+    <row r="537" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="6"/>
     </row>
-    <row r="538" spans="2:2" ht="12">
+    <row r="538" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="6"/>
     </row>
-    <row r="539" spans="2:2" ht="12">
+    <row r="539" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="6"/>
     </row>
-    <row r="540" spans="2:2" ht="12">
+    <row r="540" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="6"/>
     </row>
-    <row r="541" spans="2:2" ht="12">
+    <row r="541" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="6"/>
     </row>
-    <row r="542" spans="2:2" ht="12">
+    <row r="542" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="6"/>
     </row>
-    <row r="543" spans="2:2" ht="12">
+    <row r="543" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="6"/>
     </row>
-    <row r="544" spans="2:2" ht="12">
+    <row r="544" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="6"/>
     </row>
-    <row r="545" spans="2:2" ht="12">
+    <row r="545" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="6"/>
     </row>
-    <row r="546" spans="2:2" ht="12">
+    <row r="546" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="6"/>
     </row>
-    <row r="547" spans="2:2" ht="12">
+    <row r="547" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="6"/>
     </row>
-    <row r="548" spans="2:2" ht="12">
+    <row r="548" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="6"/>
     </row>
-    <row r="549" spans="2:2" ht="12">
+    <row r="549" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="6"/>
     </row>
-    <row r="550" spans="2:2" ht="12">
+    <row r="550" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="6"/>
     </row>
-    <row r="551" spans="2:2" ht="12">
+    <row r="551" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="6"/>
     </row>
-    <row r="552" spans="2:2" ht="12">
+    <row r="552" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="6"/>
     </row>
-    <row r="553" spans="2:2" ht="12">
+    <row r="553" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="6"/>
     </row>
-    <row r="554" spans="2:2" ht="12">
+    <row r="554" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="6"/>
     </row>
-    <row r="555" spans="2:2" ht="12">
+    <row r="555" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="6"/>
     </row>
-    <row r="556" spans="2:2" ht="12">
+    <row r="556" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="6"/>
     </row>
-    <row r="557" spans="2:2" ht="12">
+    <row r="557" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="6"/>
     </row>
-    <row r="558" spans="2:2" ht="12">
+    <row r="558" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="6"/>
     </row>
-    <row r="559" spans="2:2" ht="12">
+    <row r="559" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="6"/>
     </row>
-    <row r="560" spans="2:2" ht="12">
+    <row r="560" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="6"/>
     </row>
-    <row r="561" spans="2:2" ht="12">
+    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="6"/>
     </row>
-    <row r="562" spans="2:2" ht="12">
+    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="6"/>
     </row>
-    <row r="563" spans="2:2" ht="12">
+    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="6"/>
     </row>
-    <row r="564" spans="2:2" ht="12">
+    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="6"/>
     </row>
-    <row r="565" spans="2:2" ht="12">
+    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="6"/>
     </row>
-    <row r="566" spans="2:2" ht="12">
+    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="6"/>
     </row>
-    <row r="567" spans="2:2" ht="12">
+    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="6"/>
     </row>
-    <row r="568" spans="2:2" ht="12">
+    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="6"/>
     </row>
-    <row r="569" spans="2:2" ht="12">
+    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="6"/>
     </row>
-    <row r="570" spans="2:2" ht="12">
+    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="6"/>
     </row>
-    <row r="571" spans="2:2" ht="12">
+    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="6"/>
     </row>
-    <row r="572" spans="2:2" ht="12">
+    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="6"/>
     </row>
-    <row r="573" spans="2:2" ht="12">
+    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="6"/>
     </row>
-    <row r="574" spans="2:2" ht="12">
+    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="6"/>
     </row>
-    <row r="575" spans="2:2" ht="12">
+    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="6"/>
     </row>
-    <row r="576" spans="2:2" ht="12">
+    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="6"/>
     </row>
-    <row r="577" spans="2:2" ht="12">
+    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="6"/>
     </row>
-    <row r="578" spans="2:2" ht="12">
+    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="6"/>
     </row>
-    <row r="579" spans="2:2" ht="12">
+    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="6"/>
     </row>
-    <row r="580" spans="2:2" ht="12">
+    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="6"/>
     </row>
-    <row r="581" spans="2:2" ht="12">
+    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="6"/>
     </row>
-    <row r="582" spans="2:2" ht="12">
+    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="6"/>
     </row>
-    <row r="583" spans="2:2" ht="12">
+    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="6"/>
     </row>
-    <row r="584" spans="2:2" ht="12">
+    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="6"/>
     </row>
-    <row r="585" spans="2:2" ht="12">
+    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="6"/>
     </row>
-    <row r="586" spans="2:2" ht="12">
+    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="6"/>
     </row>
-    <row r="587" spans="2:2" ht="12">
+    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="6"/>
     </row>
-    <row r="588" spans="2:2" ht="12">
+    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="6"/>
     </row>
-    <row r="589" spans="2:2" ht="12">
+    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="6"/>
     </row>
-    <row r="590" spans="2:2" ht="12">
+    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="6"/>
     </row>
-    <row r="591" spans="2:2" ht="12">
+    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="6"/>
     </row>
-    <row r="592" spans="2:2" ht="12">
+    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="6"/>
     </row>
-    <row r="593" spans="2:2" ht="12">
+    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="6"/>
     </row>
-    <row r="594" spans="2:2" ht="12">
+    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="6"/>
     </row>
-    <row r="595" spans="2:2" ht="12">
+    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="6"/>
     </row>
-    <row r="596" spans="2:2" ht="12">
+    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="6"/>
     </row>
-    <row r="597" spans="2:2" ht="12">
+    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="6"/>
     </row>
-    <row r="598" spans="2:2" ht="12">
+    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="6"/>
     </row>
-    <row r="599" spans="2:2" ht="12">
+    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="6"/>
     </row>
-    <row r="600" spans="2:2" ht="12">
+    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="6"/>
     </row>
-    <row r="601" spans="2:2" ht="12">
+    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="6"/>
     </row>
-    <row r="602" spans="2:2" ht="12">
+    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="6"/>
     </row>
-    <row r="603" spans="2:2" ht="12">
+    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="6"/>
     </row>
-    <row r="604" spans="2:2" ht="12">
+    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="6"/>
     </row>
-    <row r="605" spans="2:2" ht="12">
+    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="6"/>
     </row>
-    <row r="606" spans="2:2" ht="12">
+    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="6"/>
     </row>
-    <row r="607" spans="2:2" ht="12">
+    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="6"/>
     </row>
-    <row r="608" spans="2:2" ht="12">
+    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="6"/>
     </row>
-    <row r="609" spans="2:2" ht="12">
+    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="6"/>
     </row>
-    <row r="610" spans="2:2" ht="12">
+    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="6"/>
     </row>
-    <row r="611" spans="2:2" ht="12">
+    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="6"/>
     </row>
-    <row r="612" spans="2:2" ht="12">
+    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="6"/>
     </row>
-    <row r="613" spans="2:2" ht="12">
+    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="6"/>
     </row>
-    <row r="614" spans="2:2" ht="12">
+    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="6"/>
     </row>
-    <row r="615" spans="2:2" ht="12">
+    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="6"/>
     </row>
-    <row r="616" spans="2:2" ht="12">
+    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="6"/>
     </row>
-    <row r="617" spans="2:2" ht="12">
+    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="6"/>
     </row>
-    <row r="618" spans="2:2" ht="12">
+    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="6"/>
     </row>
-    <row r="619" spans="2:2" ht="12">
+    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="6"/>
     </row>
-    <row r="620" spans="2:2" ht="12">
+    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="6"/>
     </row>
-    <row r="621" spans="2:2" ht="12">
+    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="6"/>
     </row>
-    <row r="622" spans="2:2" ht="12">
+    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="6"/>
     </row>
-    <row r="623" spans="2:2" ht="12">
+    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="6"/>
     </row>
-    <row r="624" spans="2:2" ht="12">
+    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="6"/>
     </row>
-    <row r="625" spans="2:2" ht="12">
+    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="6"/>
     </row>
-    <row r="626" spans="2:2" ht="12">
+    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="6"/>
     </row>
-    <row r="627" spans="2:2" ht="12">
+    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="6"/>
     </row>
-    <row r="628" spans="2:2" ht="12">
+    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="6"/>
     </row>
-    <row r="629" spans="2:2" ht="12">
+    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="6"/>
     </row>
-    <row r="630" spans="2:2" ht="12">
+    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="6"/>
     </row>
-    <row r="631" spans="2:2" ht="12">
+    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="6"/>
     </row>
-    <row r="632" spans="2:2" ht="12">
+    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="6"/>
     </row>
-    <row r="633" spans="2:2" ht="12">
+    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="6"/>
     </row>
-    <row r="634" spans="2:2" ht="12">
+    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="6"/>
     </row>
-    <row r="635" spans="2:2" ht="12">
+    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="6"/>
     </row>
-    <row r="636" spans="2:2" ht="12">
+    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="6"/>
     </row>
-    <row r="637" spans="2:2" ht="12">
+    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="6"/>
     </row>
-    <row r="638" spans="2:2" ht="12">
+    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="6"/>
     </row>
-    <row r="639" spans="2:2" ht="12">
+    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="6"/>
     </row>
-    <row r="640" spans="2:2" ht="12">
+    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="6"/>
     </row>
-    <row r="641" spans="2:2" ht="12">
+    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="6"/>
     </row>
-    <row r="642" spans="2:2" ht="12">
+    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="6"/>
     </row>
-    <row r="643" spans="2:2" ht="12">
+    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="6"/>
     </row>
-    <row r="644" spans="2:2" ht="12">
+    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="6"/>
     </row>
-    <row r="645" spans="2:2" ht="12">
+    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="6"/>
     </row>
-    <row r="646" spans="2:2" ht="12">
+    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="6"/>
     </row>
-    <row r="647" spans="2:2" ht="12">
+    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="6"/>
     </row>
-    <row r="648" spans="2:2" ht="12">
+    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="6"/>
     </row>
-    <row r="649" spans="2:2" ht="12">
+    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="6"/>
     </row>
-    <row r="650" spans="2:2" ht="12">
+    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="6"/>
     </row>
-    <row r="651" spans="2:2" ht="12">
+    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="6"/>
     </row>
-    <row r="652" spans="2:2" ht="12">
+    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="6"/>
     </row>
-    <row r="653" spans="2:2" ht="12">
+    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="6"/>
     </row>
-    <row r="654" spans="2:2" ht="12">
+    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="6"/>
     </row>
-    <row r="655" spans="2:2" ht="12">
+    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="6"/>
     </row>
-    <row r="656" spans="2:2" ht="12">
+    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="6"/>
     </row>
-    <row r="657" spans="2:2" ht="12">
+    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="6"/>
     </row>
-    <row r="658" spans="2:2" ht="12">
+    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="6"/>
     </row>
-    <row r="659" spans="2:2" ht="12">
+    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="6"/>
     </row>
-    <row r="660" spans="2:2" ht="12">
+    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="6"/>
     </row>
-    <row r="661" spans="2:2" ht="12">
+    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="6"/>
     </row>
-    <row r="662" spans="2:2" ht="12">
+    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="6"/>
     </row>
-    <row r="663" spans="2:2" ht="12">
+    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="6"/>
     </row>
-    <row r="664" spans="2:2" ht="12">
+    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="6"/>
     </row>
-    <row r="665" spans="2:2" ht="12">
+    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="6"/>
     </row>
-    <row r="666" spans="2:2" ht="12">
+    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="6"/>
     </row>
-    <row r="667" spans="2:2" ht="12">
+    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="6"/>
     </row>
-    <row r="668" spans="2:2" ht="12">
+    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="6"/>
     </row>
-    <row r="669" spans="2:2" ht="12">
+    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="6"/>
     </row>
-    <row r="670" spans="2:2" ht="12">
+    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="6"/>
     </row>
-    <row r="671" spans="2:2" ht="12">
+    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="6"/>
     </row>
-    <row r="672" spans="2:2" ht="12">
+    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="6"/>
     </row>
-    <row r="673" spans="2:2" ht="12">
+    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="6"/>
     </row>
-    <row r="674" spans="2:2" ht="12">
+    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="6"/>
     </row>
-    <row r="675" spans="2:2" ht="12">
+    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="6"/>
     </row>
-    <row r="676" spans="2:2" ht="12">
+    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="6"/>
     </row>
-    <row r="677" spans="2:2" ht="12">
+    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="6"/>
     </row>
-    <row r="678" spans="2:2" ht="12">
+    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="6"/>
     </row>
-    <row r="679" spans="2:2" ht="12">
+    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="6"/>
     </row>
-    <row r="680" spans="2:2" ht="12">
+    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="6"/>
     </row>
-    <row r="681" spans="2:2" ht="12">
+    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="6"/>
     </row>
-    <row r="682" spans="2:2" ht="12">
+    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="6"/>
     </row>
-    <row r="683" spans="2:2" ht="12">
+    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="6"/>
     </row>
-    <row r="684" spans="2:2" ht="12">
+    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="6"/>
     </row>
-    <row r="685" spans="2:2" ht="12">
+    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="6"/>
     </row>
-    <row r="686" spans="2:2" ht="12">
+    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="6"/>
     </row>
-    <row r="687" spans="2:2" ht="12">
+    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="6"/>
     </row>
-    <row r="688" spans="2:2" ht="12">
+    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="6"/>
     </row>
-    <row r="689" spans="2:2" ht="12">
+    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="6"/>
     </row>
-    <row r="690" spans="2:2" ht="12">
+    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="6"/>
     </row>
-    <row r="691" spans="2:2" ht="12">
+    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="6"/>
     </row>
-    <row r="692" spans="2:2" ht="12">
+    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="6"/>
     </row>
-    <row r="693" spans="2:2" ht="12">
+    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="6"/>
     </row>
-    <row r="694" spans="2:2" ht="12">
+    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="6"/>
     </row>
-    <row r="695" spans="2:2" ht="12">
+    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="6"/>
     </row>
-    <row r="696" spans="2:2" ht="12">
+    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="6"/>
     </row>
-    <row r="697" spans="2:2" ht="12">
+    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="6"/>
     </row>
-    <row r="698" spans="2:2" ht="12">
+    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="6"/>
     </row>
-    <row r="699" spans="2:2" ht="12">
+    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="6"/>
     </row>
-    <row r="700" spans="2:2" ht="12">
+    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="6"/>
     </row>
-    <row r="701" spans="2:2" ht="12">
+    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="6"/>
     </row>
-    <row r="702" spans="2:2" ht="12">
+    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="6"/>
     </row>
-    <row r="703" spans="2:2" ht="12">
+    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="6"/>
     </row>
-    <row r="704" spans="2:2" ht="12">
+    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="6"/>
     </row>
-    <row r="705" spans="2:2" ht="12">
+    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="6"/>
     </row>
-    <row r="706" spans="2:2" ht="12">
+    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="6"/>
     </row>
-    <row r="707" spans="2:2" ht="12">
+    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="6"/>
     </row>
-    <row r="708" spans="2:2" ht="12">
+    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="6"/>
     </row>
-    <row r="709" spans="2:2" ht="12">
+    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="6"/>
     </row>
-    <row r="710" spans="2:2" ht="12">
+    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="6"/>
     </row>
-    <row r="711" spans="2:2" ht="12">
+    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="6"/>
     </row>
-    <row r="712" spans="2:2" ht="12">
+    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="6"/>
     </row>
-    <row r="713" spans="2:2" ht="12">
+    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="6"/>
     </row>
-    <row r="714" spans="2:2" ht="12">
+    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="6"/>
     </row>
-    <row r="715" spans="2:2" ht="12">
+    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="6"/>
     </row>
-    <row r="716" spans="2:2" ht="12">
+    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="6"/>
     </row>
-    <row r="717" spans="2:2" ht="12">
+    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="6"/>
     </row>
-    <row r="718" spans="2:2" ht="12">
+    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="6"/>
     </row>
-    <row r="719" spans="2:2" ht="12">
+    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="6"/>
     </row>
-    <row r="720" spans="2:2" ht="12">
+    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="6"/>
     </row>
-    <row r="721" spans="2:2" ht="12">
+    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="6"/>
     </row>
-    <row r="722" spans="2:2" ht="12">
+    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="6"/>
     </row>
-    <row r="723" spans="2:2" ht="12">
+    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="6"/>
     </row>
-    <row r="724" spans="2:2" ht="12">
+    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="6"/>
     </row>
-    <row r="725" spans="2:2" ht="12">
+    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="6"/>
     </row>
-    <row r="726" spans="2:2" ht="12">
+    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="6"/>
     </row>
-    <row r="727" spans="2:2" ht="12">
+    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="6"/>
     </row>
-    <row r="728" spans="2:2" ht="12">
+    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="6"/>
     </row>
-    <row r="729" spans="2:2" ht="12">
+    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="6"/>
     </row>
-    <row r="730" spans="2:2" ht="12">
+    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="6"/>
     </row>
-    <row r="731" spans="2:2" ht="12">
+    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="6"/>
     </row>
-    <row r="732" spans="2:2" ht="12">
+    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="6"/>
     </row>
-    <row r="733" spans="2:2" ht="12">
+    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="6"/>
     </row>
-    <row r="734" spans="2:2" ht="12">
+    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="6"/>
     </row>
-    <row r="735" spans="2:2" ht="12">
+    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="6"/>
     </row>
-    <row r="736" spans="2:2" ht="12">
+    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="6"/>
     </row>
-    <row r="737" spans="2:2" ht="12">
+    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="6"/>
     </row>
-    <row r="738" spans="2:2" ht="12">
+    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="6"/>
     </row>
-    <row r="739" spans="2:2" ht="12">
+    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="6"/>
     </row>
-    <row r="740" spans="2:2" ht="12">
+    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="6"/>
     </row>
-    <row r="741" spans="2:2" ht="12">
+    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="6"/>
     </row>
-    <row r="742" spans="2:2" ht="12">
+    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="6"/>
     </row>
-    <row r="743" spans="2:2" ht="12">
+    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="6"/>
     </row>
-    <row r="744" spans="2:2" ht="12">
+    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="6"/>
     </row>
-    <row r="745" spans="2:2" ht="12">
+    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="6"/>
     </row>
-    <row r="746" spans="2:2" ht="12">
+    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="6"/>
     </row>
-    <row r="747" spans="2:2" ht="12">
+    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="6"/>
     </row>
-    <row r="748" spans="2:2" ht="12">
+    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="6"/>
     </row>
-    <row r="749" spans="2:2" ht="12">
+    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="6"/>
     </row>
-    <row r="750" spans="2:2" ht="12">
+    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="6"/>
     </row>
-    <row r="751" spans="2:2" ht="12">
+    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="6"/>
     </row>
-    <row r="752" spans="2:2" ht="12">
+    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="6"/>
     </row>
-    <row r="753" spans="2:2" ht="12">
+    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="6"/>
     </row>
-    <row r="754" spans="2:2" ht="12">
+    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="6"/>
     </row>
-    <row r="755" spans="2:2" ht="12">
+    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="6"/>
     </row>
-    <row r="756" spans="2:2" ht="12">
+    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="6"/>
     </row>
-    <row r="757" spans="2:2" ht="12">
+    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="6"/>
     </row>
-    <row r="758" spans="2:2" ht="12">
+    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="6"/>
     </row>
-    <row r="759" spans="2:2" ht="12">
+    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="6"/>
     </row>
-    <row r="760" spans="2:2" ht="12">
+    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="6"/>
     </row>
-    <row r="761" spans="2:2" ht="12">
+    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="6"/>
     </row>
-    <row r="762" spans="2:2" ht="12">
+    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="6"/>
     </row>
-    <row r="763" spans="2:2" ht="12">
+    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="6"/>
     </row>
-    <row r="764" spans="2:2" ht="12">
+    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="6"/>
     </row>
-    <row r="765" spans="2:2" ht="12">
+    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="6"/>
     </row>
-    <row r="766" spans="2:2" ht="12">
+    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="6"/>
     </row>
-    <row r="767" spans="2:2" ht="12">
+    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="6"/>
     </row>
-    <row r="768" spans="2:2" ht="12">
+    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="6"/>
     </row>
-    <row r="769" spans="2:2" ht="12">
+    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="6"/>
     </row>
-    <row r="770" spans="2:2" ht="12">
+    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="6"/>
     </row>
-    <row r="771" spans="2:2" ht="12">
+    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="6"/>
     </row>
-    <row r="772" spans="2:2" ht="12">
+    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="6"/>
     </row>
-    <row r="773" spans="2:2" ht="12">
+    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="6"/>
     </row>
-    <row r="774" spans="2:2" ht="12">
+    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="6"/>
     </row>
-    <row r="775" spans="2:2" ht="12">
+    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="6"/>
     </row>
-    <row r="776" spans="2:2" ht="12">
+    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="6"/>
     </row>
-    <row r="777" spans="2:2" ht="12">
+    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="6"/>
     </row>
-    <row r="778" spans="2:2" ht="12">
+    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="6"/>
     </row>
-    <row r="779" spans="2:2" ht="12">
+    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="6"/>
     </row>
-    <row r="780" spans="2:2" ht="12">
+    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="6"/>
     </row>
-    <row r="781" spans="2:2" ht="12">
+    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="6"/>
     </row>
-    <row r="782" spans="2:2" ht="12">
+    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="6"/>
     </row>
-    <row r="783" spans="2:2" ht="12">
+    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="6"/>
     </row>
-    <row r="784" spans="2:2" ht="12">
+    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="6"/>
     </row>
-    <row r="785" spans="2:2" ht="12">
+    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="6"/>
     </row>
-    <row r="786" spans="2:2" ht="12">
+    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="6"/>
     </row>
-    <row r="787" spans="2:2" ht="12">
+    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="6"/>
     </row>
-    <row r="788" spans="2:2" ht="12">
+    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="6"/>
     </row>
-    <row r="789" spans="2:2" ht="12">
+    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="6"/>
     </row>
-    <row r="790" spans="2:2" ht="12">
+    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="6"/>
     </row>
-    <row r="791" spans="2:2" ht="12">
+    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="6"/>
     </row>
-    <row r="792" spans="2:2" ht="12">
+    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="6"/>
     </row>
-    <row r="793" spans="2:2" ht="12">
+    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="6"/>
     </row>
-    <row r="794" spans="2:2" ht="12">
+    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="6"/>
     </row>
-    <row r="795" spans="2:2" ht="12">
+    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="6"/>
     </row>
-    <row r="796" spans="2:2" ht="12">
+    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="6"/>
     </row>
-    <row r="797" spans="2:2" ht="12">
+    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="6"/>
     </row>
-    <row r="798" spans="2:2" ht="12">
+    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="6"/>
     </row>
-    <row r="799" spans="2:2" ht="12">
+    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="6"/>
     </row>
-    <row r="800" spans="2:2" ht="12">
+    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="6"/>
     </row>
-    <row r="801" spans="2:2" ht="12">
+    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="6"/>
     </row>
-    <row r="802" spans="2:2" ht="12">
+    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="6"/>
     </row>
-    <row r="803" spans="2:2" ht="12">
+    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="6"/>
     </row>
-    <row r="804" spans="2:2" ht="12">
+    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="6"/>
     </row>
-    <row r="805" spans="2:2" ht="12">
+    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="6"/>
     </row>
-    <row r="806" spans="2:2" ht="12">
+    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="6"/>
     </row>
-    <row r="807" spans="2:2" ht="12">
+    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="6"/>
     </row>
-    <row r="808" spans="2:2" ht="12">
+    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="6"/>
     </row>
-    <row r="809" spans="2:2" ht="12">
+    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="6"/>
     </row>
-    <row r="810" spans="2:2" ht="12">
+    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="6"/>
     </row>
-    <row r="811" spans="2:2" ht="12">
+    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="6"/>
     </row>
-    <row r="812" spans="2:2" ht="12">
+    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="6"/>
     </row>
-    <row r="813" spans="2:2" ht="12">
+    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="6"/>
     </row>
-    <row r="814" spans="2:2" ht="12">
+    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="6"/>
     </row>
-    <row r="815" spans="2:2" ht="12">
+    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="6"/>
     </row>
-    <row r="816" spans="2:2" ht="12">
+    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="6"/>
     </row>
-    <row r="817" spans="2:2" ht="12">
+    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="6"/>
     </row>
-    <row r="818" spans="2:2" ht="12">
+    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="6"/>
     </row>
-    <row r="819" spans="2:2" ht="12">
+    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="6"/>
     </row>
-    <row r="820" spans="2:2" ht="12">
+    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="6"/>
     </row>
-    <row r="821" spans="2:2" ht="12">
+    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="6"/>
     </row>
-    <row r="822" spans="2:2" ht="12">
+    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="6"/>
     </row>
-    <row r="823" spans="2:2" ht="12">
+    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="6"/>
     </row>
-    <row r="824" spans="2:2" ht="12">
+    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="6"/>
     </row>
-    <row r="825" spans="2:2" ht="12">
+    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="6"/>
     </row>
-    <row r="826" spans="2:2" ht="12">
+    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="6"/>
     </row>
-    <row r="827" spans="2:2" ht="12">
+    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="6"/>
     </row>
-    <row r="828" spans="2:2" ht="12">
+    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="6"/>
     </row>
-    <row r="829" spans="2:2" ht="12">
+    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="6"/>
     </row>
-    <row r="830" spans="2:2" ht="12">
+    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="6"/>
     </row>
-    <row r="831" spans="2:2" ht="12">
+    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="6"/>
     </row>
-    <row r="832" spans="2:2" ht="12">
+    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="6"/>
     </row>
-    <row r="833" spans="2:2" ht="12">
+    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="6"/>
     </row>
-    <row r="834" spans="2:2" ht="12">
+    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="6"/>
     </row>
-    <row r="835" spans="2:2" ht="12">
+    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="6"/>
     </row>
-    <row r="836" spans="2:2" ht="12">
+    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="6"/>
     </row>
-    <row r="837" spans="2:2" ht="12">
+    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="6"/>
     </row>
-    <row r="838" spans="2:2" ht="12">
+    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="6"/>
     </row>
-    <row r="839" spans="2:2" ht="12">
+    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="6"/>
     </row>
-    <row r="840" spans="2:2" ht="12">
+    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="6"/>
     </row>
-    <row r="841" spans="2:2" ht="12">
+    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="6"/>
     </row>
-    <row r="842" spans="2:2" ht="12">
+    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="6"/>
     </row>
-    <row r="843" spans="2:2" ht="12">
+    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="6"/>
     </row>
-    <row r="844" spans="2:2" ht="12">
+    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="6"/>
     </row>
-    <row r="845" spans="2:2" ht="12">
+    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="6"/>
     </row>
-    <row r="846" spans="2:2" ht="12">
+    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="6"/>
     </row>
-    <row r="847" spans="2:2" ht="12">
+    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="6"/>
     </row>
-    <row r="848" spans="2:2" ht="12">
+    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="6"/>
     </row>
-    <row r="849" spans="2:2" ht="12">
+    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="6"/>
     </row>
-    <row r="850" spans="2:2" ht="12">
+    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="6"/>
     </row>
-    <row r="851" spans="2:2" ht="12">
+    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="6"/>
     </row>
-    <row r="852" spans="2:2" ht="12">
+    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="6"/>
     </row>
-    <row r="853" spans="2:2" ht="12">
+    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="6"/>
     </row>
-    <row r="854" spans="2:2" ht="12">
+    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="6"/>
     </row>
-    <row r="855" spans="2:2" ht="12">
+    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="6"/>
     </row>
-    <row r="856" spans="2:2" ht="12">
+    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="6"/>
     </row>
-    <row r="857" spans="2:2" ht="12">
+    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="6"/>
     </row>
-    <row r="858" spans="2:2" ht="12">
+    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="6"/>
     </row>
-    <row r="859" spans="2:2" ht="12">
+    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="6"/>
     </row>
-    <row r="860" spans="2:2" ht="12">
+    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="6"/>
     </row>
-    <row r="861" spans="2:2" ht="12">
+    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="6"/>
     </row>
-    <row r="862" spans="2:2" ht="12">
+    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="6"/>
     </row>
-    <row r="863" spans="2:2" ht="12">
+    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="6"/>
     </row>
-    <row r="864" spans="2:2" ht="12">
+    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="6"/>
     </row>
-    <row r="865" spans="2:2" ht="12">
+    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="6"/>
     </row>
-    <row r="866" spans="2:2" ht="12">
+    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="6"/>
     </row>
-    <row r="867" spans="2:2" ht="12">
+    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="6"/>
     </row>
-    <row r="868" spans="2:2" ht="12">
+    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="6"/>
     </row>
-    <row r="869" spans="2:2" ht="12">
+    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="6"/>
     </row>
-    <row r="870" spans="2:2" ht="12">
+    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="6"/>
     </row>
-    <row r="871" spans="2:2" ht="12">
+    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="6"/>
     </row>
-    <row r="872" spans="2:2" ht="12">
+    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="6"/>
     </row>
-    <row r="873" spans="2:2" ht="12">
+    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="6"/>
     </row>
-    <row r="874" spans="2:2" ht="12">
+    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="6"/>
     </row>
-    <row r="875" spans="2:2" ht="12">
+    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="6"/>
     </row>
-    <row r="876" spans="2:2" ht="12">
+    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="6"/>
     </row>
-    <row r="877" spans="2:2" ht="12">
+    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="6"/>
     </row>
-    <row r="878" spans="2:2" ht="12">
+    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="6"/>
     </row>
-    <row r="879" spans="2:2" ht="12">
+    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="6"/>
     </row>
-    <row r="880" spans="2:2" ht="12">
+    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="6"/>
     </row>
-    <row r="881" spans="2:2" ht="12">
+    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="6"/>
     </row>
-    <row r="882" spans="2:2" ht="12">
+    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="6"/>
     </row>
-    <row r="883" spans="2:2" ht="12">
+    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="6"/>
     </row>
-    <row r="884" spans="2:2" ht="12">
+    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="6"/>
     </row>
-    <row r="885" spans="2:2" ht="12">
+    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="6"/>
     </row>
-    <row r="886" spans="2:2" ht="12">
+    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="6"/>
     </row>
-    <row r="887" spans="2:2" ht="12">
+    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="6"/>
     </row>
-    <row r="888" spans="2:2" ht="12">
+    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="6"/>
     </row>
-    <row r="889" spans="2:2" ht="12">
+    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="6"/>
     </row>
-    <row r="890" spans="2:2" ht="12">
+    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="6"/>
     </row>
-    <row r="891" spans="2:2" ht="12">
+    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="6"/>
     </row>
-    <row r="892" spans="2:2" ht="12">
+    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="6"/>
     </row>
-    <row r="893" spans="2:2" ht="12">
+    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="6"/>
     </row>
-    <row r="894" spans="2:2" ht="12">
+    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="6"/>
     </row>
-    <row r="895" spans="2:2" ht="12">
+    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="6"/>
     </row>
-    <row r="896" spans="2:2" ht="12">
+    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="6"/>
     </row>
-    <row r="897" spans="2:2" ht="12">
+    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="6"/>
     </row>
-    <row r="898" spans="2:2" ht="12">
+    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="6"/>
     </row>
-    <row r="899" spans="2:2" ht="12">
+    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="6"/>
     </row>
-    <row r="900" spans="2:2" ht="12">
+    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="6"/>
     </row>
-    <row r="901" spans="2:2" ht="12">
+    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="6"/>
     </row>
-    <row r="902" spans="2:2" ht="12">
+    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="6"/>
     </row>
-    <row r="903" spans="2:2" ht="12">
+    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="6"/>
     </row>
-    <row r="904" spans="2:2" ht="12">
+    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="6"/>
     </row>
-    <row r="905" spans="2:2" ht="12">
+    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="6"/>
     </row>
-    <row r="906" spans="2:2" ht="12">
+    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="6"/>
     </row>
-    <row r="907" spans="2:2" ht="12">
+    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="6"/>
     </row>
-    <row r="908" spans="2:2" ht="12">
+    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="6"/>
     </row>
-    <row r="909" spans="2:2" ht="12">
+    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="6"/>
     </row>
-    <row r="910" spans="2:2" ht="12">
+    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="6"/>
     </row>
-    <row r="911" spans="2:2" ht="12">
+    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="6"/>
     </row>
-    <row r="912" spans="2:2" ht="12">
+    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="6"/>
     </row>
-    <row r="913" spans="2:2" ht="12">
+    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="6"/>
     </row>
-    <row r="914" spans="2:2" ht="12">
+    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="6"/>
     </row>
-    <row r="915" spans="2:2" ht="12">
+    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="6"/>
     </row>
-    <row r="916" spans="2:2" ht="12">
+    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="6"/>
     </row>
-    <row r="917" spans="2:2" ht="12">
+    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="6"/>
     </row>
-    <row r="918" spans="2:2" ht="12">
+    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="6"/>
     </row>
-    <row r="919" spans="2:2" ht="12">
+    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="6"/>
     </row>
-    <row r="920" spans="2:2" ht="12">
+    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="6"/>
     </row>
-    <row r="921" spans="2:2" ht="12">
+    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="6"/>
     </row>
-    <row r="922" spans="2:2" ht="12">
+    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="6"/>
     </row>
-    <row r="923" spans="2:2" ht="12">
+    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="6"/>
     </row>
-    <row r="924" spans="2:2" ht="12">
+    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="6"/>
     </row>
-    <row r="925" spans="2:2" ht="12">
+    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="6"/>
     </row>
-    <row r="926" spans="2:2" ht="12">
+    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="6"/>
     </row>
-    <row r="927" spans="2:2" ht="12">
+    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="6"/>
     </row>
-    <row r="928" spans="2:2" ht="12">
+    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="6"/>
     </row>
-    <row r="929" spans="2:2" ht="12">
+    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="6"/>
     </row>
-    <row r="930" spans="2:2" ht="12">
+    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="6"/>
     </row>
-    <row r="931" spans="2:2" ht="12">
+    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="6"/>
     </row>
-    <row r="932" spans="2:2" ht="12">
+    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="6"/>
     </row>
-    <row r="933" spans="2:2" ht="12">
+    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="6"/>
     </row>
-    <row r="934" spans="2:2" ht="12">
+    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="6"/>
     </row>
-    <row r="935" spans="2:2" ht="12">
+    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="6"/>
     </row>
-    <row r="936" spans="2:2" ht="12">
+    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="6"/>
     </row>
-    <row r="937" spans="2:2" ht="12">
+    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="6"/>
     </row>
-    <row r="938" spans="2:2" ht="12">
+    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="6"/>
     </row>
-    <row r="939" spans="2:2" ht="12">
+    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="6"/>
     </row>
-    <row r="940" spans="2:2" ht="12">
+    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="6"/>
     </row>
-    <row r="941" spans="2:2" ht="12">
+    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="6"/>
     </row>
-    <row r="942" spans="2:2" ht="12">
+    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="6"/>
     </row>
-    <row r="943" spans="2:2" ht="12">
+    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="6"/>
     </row>
-    <row r="944" spans="2:2" ht="12">
+    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="6"/>
     </row>
-    <row r="945" spans="2:2" ht="12">
+    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="6"/>
     </row>
-    <row r="946" spans="2:2" ht="12">
+    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="6"/>
     </row>
-    <row r="947" spans="2:2" ht="12">
+    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="6"/>
     </row>
-    <row r="948" spans="2:2" ht="12">
+    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="6"/>
     </row>
-    <row r="949" spans="2:2" ht="12">
+    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="6"/>
     </row>
-    <row r="950" spans="2:2" ht="12">
+    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="6"/>
     </row>
-    <row r="951" spans="2:2" ht="12">
+    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="6"/>
     </row>
-    <row r="952" spans="2:2" ht="12">
+    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="6"/>
     </row>
-    <row r="953" spans="2:2" ht="12">
+    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="6"/>
     </row>
-    <row r="954" spans="2:2" ht="12">
+    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="6"/>
     </row>
-    <row r="955" spans="2:2" ht="12">
+    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="6"/>
     </row>
-    <row r="956" spans="2:2" ht="12">
+    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="6"/>
     </row>
-    <row r="957" spans="2:2" ht="12">
+    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="6"/>
     </row>
-    <row r="958" spans="2:2" ht="12">
+    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="6"/>
     </row>
-    <row r="959" spans="2:2" ht="12">
+    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="6"/>
     </row>
-    <row r="960" spans="2:2" ht="12">
+    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="6"/>
     </row>
-    <row r="961" spans="2:2" ht="12">
+    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="6"/>
     </row>
-    <row r="962" spans="2:2" ht="12">
+    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="6"/>
     </row>
-    <row r="963" spans="2:2" ht="12">
+    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="6"/>
     </row>
-    <row r="964" spans="2:2" ht="12">
+    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="6"/>
     </row>
-    <row r="965" spans="2:2" ht="12">
+    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="6"/>
     </row>
-    <row r="966" spans="2:2" ht="12">
+    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="6"/>
     </row>
-    <row r="967" spans="2:2" ht="12">
+    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="6"/>
     </row>
-    <row r="968" spans="2:2" ht="12">
+    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="6"/>
     </row>
-    <row r="969" spans="2:2" ht="12">
+    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="6"/>
     </row>
-    <row r="970" spans="2:2" ht="12">
+    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="6"/>
     </row>
-    <row r="971" spans="2:2" ht="12">
+    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="6"/>
     </row>
-    <row r="972" spans="2:2" ht="12">
+    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="6"/>
     </row>
-    <row r="973" spans="2:2" ht="12">
+    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="6"/>
     </row>
-    <row r="974" spans="2:2" ht="12">
+    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="6"/>
     </row>
-    <row r="975" spans="2:2" ht="12">
+    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="6"/>
     </row>
-    <row r="976" spans="2:2" ht="12">
+    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="6"/>
     </row>
-    <row r="977" spans="2:2" ht="12">
+    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="6"/>
     </row>
-    <row r="978" spans="2:2" ht="12">
+    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="6"/>
     </row>
   </sheetData>
@@ -4461,9 +4464,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -4501,7 +4504,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
@@ -4533,7 +4536,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -4565,7 +4568,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -4599,7 +4602,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
@@ -4633,7 +4636,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -4667,7 +4670,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
@@ -4687,7 +4690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -4727,7 +4730,7 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
     </row>
-    <row r="9" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>66</v>
       </c>
@@ -4786,7 +4789,7 @@
       <c r="W10" s="25"/>
       <c r="X10" s="25"/>
     </row>
-    <row r="11" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>73</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -4842,7 +4845,7 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:26" s="31" customFormat="1" ht="12">
+    <row r="13" spans="1:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
         <v>85</v>
       </c>
@@ -4850,7 +4853,7 @@
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>50</v>
@@ -4874,7 +4877,7 @@
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>18</v>
       </c>
@@ -4886,7 +4889,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>13</v>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="585" windowWidth="36720" windowHeight="16440"/>
+    <workbookView xWindow="2140" yWindow="2600" windowWidth="36120" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
   <si>
     <t>Project</t>
   </si>
@@ -247,18 +247,12 @@
     <t>ER ALL</t>
   </si>
   <si>
-    <t>everything</t>
-  </si>
-  <si>
     <t>ESMO VJC EBC</t>
   </si>
   <si>
     <t>ESMO VPS eblast</t>
   </si>
   <si>
-    <t>Tim and Ben</t>
-  </si>
-  <si>
     <t>launched. Eblast edits with web 10/31</t>
   </si>
   <si>
@@ -292,9 +286,6 @@
     <t>Asked for update 11/07</t>
   </si>
   <si>
-    <t>in production 11/10 est review 11/11</t>
-  </si>
-  <si>
     <t>live on site. Eblast approved.</t>
   </si>
   <si>
@@ -310,18 +301,9 @@
     <t>slides, CME</t>
   </si>
   <si>
-    <t>ACD with Web</t>
-  </si>
-  <si>
     <t>route 11/11</t>
   </si>
   <si>
-    <t>small changes in production</t>
-  </si>
-  <si>
-    <t>Slides on S3</t>
-  </si>
-  <si>
     <t>approved</t>
   </si>
   <si>
@@ -337,18 +319,12 @@
     <t>Eblast sent</t>
   </si>
   <si>
-    <t>awaiting feedback 11/12</t>
-  </si>
-  <si>
     <t>live on site. Eblast in production</t>
   </si>
   <si>
     <t>live on site. eblast in review 11/13</t>
   </si>
   <si>
-    <t>awaiting approval 11/13</t>
-  </si>
-  <si>
     <t>Awaiting slides</t>
   </si>
   <si>
@@ -358,16 +334,49 @@
     <t>Briana edits</t>
   </si>
   <si>
-    <t>In review 11/14</t>
-  </si>
-  <si>
-    <t>Timing segmentation edits 11/17</t>
-  </si>
-  <si>
-    <t>Paul, Ben</t>
-  </si>
-  <si>
-    <t>In review 11/17</t>
+    <t>live</t>
+  </si>
+  <si>
+    <t>live 11/18. eblast in production</t>
+  </si>
+  <si>
+    <t>awaiting approval 11/19</t>
+  </si>
+  <si>
+    <t>Eblast sent 11/17</t>
+  </si>
+  <si>
+    <t>ACD and videos with web 11/18. Expected to route 11/20, pending slides</t>
+  </si>
+  <si>
+    <t>ACD with Web. Expected to route 11/25, pending slides</t>
+  </si>
+  <si>
+    <t>GBM Newsletter</t>
+  </si>
+  <si>
+    <t>In production 11/20</t>
+  </si>
+  <si>
+    <t>in production, will route 11/21</t>
+  </si>
+  <si>
+    <t>Tim to route 11/19. segmentation provided to web?</t>
+  </si>
+  <si>
+    <t>ESMO combined eblast</t>
+  </si>
+  <si>
+    <t>awaiting approval11/18</t>
+  </si>
+  <si>
+    <t>live 11/18. eblast in review 11/19</t>
+  </si>
+  <si>
+    <t>Emory GI PDS</t>
+  </si>
+  <si>
+    <t>In review 11/19</t>
   </si>
 </sst>
 </file>
@@ -479,7 +488,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -531,8 +540,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -573,8 +592,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -600,6 +622,11 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -625,6 +652,11 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -924,21 +956,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X978"/>
+  <dimension ref="A1:X972"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="52.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +1010,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>72</v>
       </c>
@@ -990,3460 +1022,3266 @@
         <v>61</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+    </row>
+    <row r="4" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+    </row>
+    <row r="6" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="29">
+        <v>41948</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="21" t="s">
+      <c r="E7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="26">
+        <v>41963</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" ht="13">
+      <c r="A8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E9" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-    </row>
-    <row r="4" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-    </row>
-    <row r="8" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-    </row>
-    <row r="9" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="23" t="s">
-        <v>63</v>
+      <c r="C10" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="33">
+        <v>41961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="33">
+        <v>41961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A12" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F13" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A14" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="31" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="34">
-        <v>41943</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-    </row>
-    <row r="11" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-    </row>
-    <row r="12" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="25" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+    </row>
+    <row r="16" spans="1:24" s="31" customFormat="1" ht="12">
+      <c r="A16" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+    </row>
+    <row r="17" spans="1:24" s="31" customFormat="1" ht="12">
+      <c r="A17" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="29">
-        <v>41948</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="26">
-        <v>41963</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-    </row>
-    <row r="14" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+    </row>
+    <row r="18" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="23" t="s">
+      <c r="E18" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="33">
-        <v>41961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="33">
-        <v>41961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-    </row>
-    <row r="19" spans="1:24" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-    </row>
-    <row r="20" spans="1:24" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-    </row>
-    <row r="21" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-    </row>
-    <row r="23" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-    </row>
-    <row r="24" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-    </row>
-    <row r="25" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:24" ht="12">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:24" ht="12">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:24" ht="12">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:24" ht="12">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:24" ht="12">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:24" ht="12">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:24" ht="12">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="12">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="12">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="12">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="12">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="12">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="12">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="12">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="12">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="12">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="12">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="12">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="12">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="12">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="12">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="12">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="12">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" ht="12">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" ht="12">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" ht="12">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" ht="12">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" ht="12">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" ht="12">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" ht="12">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="12">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="12">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="12">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="12">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="12">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="12">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="12">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="12">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="12">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="12">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="12">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="12">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="12">
       <c r="B61" s="6"/>
     </row>
-    <row r="62" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="12">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="12">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="12">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="12">
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="12">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="12">
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="12">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="12">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="12">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="12">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="12">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="12">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="12">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="12">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" ht="12">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="12">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="12">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="12">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" ht="12">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" ht="12">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" ht="12">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" ht="12">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" ht="12">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" ht="12">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" ht="12">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" ht="12">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" ht="12">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" ht="12">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" ht="12">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" ht="12">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" ht="12">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" ht="12">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2" ht="12">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" ht="12">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" ht="12">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" ht="12">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" ht="12">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" ht="12">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" ht="12">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" ht="12">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" ht="12">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" ht="12">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" ht="12">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2" ht="12">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" ht="12">
       <c r="B106" s="6"/>
     </row>
-    <row r="107" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" ht="12">
       <c r="B107" s="6"/>
     </row>
-    <row r="108" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2" ht="12">
       <c r="B108" s="6"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" ht="12">
       <c r="B109" s="6"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" ht="12">
       <c r="B110" s="6"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2" ht="12">
       <c r="B111" s="6"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" ht="12">
       <c r="B112" s="6"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" ht="12">
       <c r="B113" s="6"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" ht="12">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" ht="12">
       <c r="B115" s="6"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" ht="12">
       <c r="B116" s="6"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" ht="12">
       <c r="B117" s="6"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2" ht="12">
       <c r="B118" s="6"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" ht="12">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2" ht="12">
       <c r="B120" s="6"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" ht="12">
       <c r="B121" s="6"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" ht="12">
       <c r="B122" s="6"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" ht="12">
       <c r="B123" s="6"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" ht="12">
       <c r="B124" s="6"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" ht="12">
       <c r="B125" s="6"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2" ht="12">
       <c r="B126" s="6"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" ht="12">
       <c r="B127" s="6"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2" ht="12">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" ht="12">
       <c r="B129" s="6"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" ht="12">
       <c r="B130" s="6"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" ht="12">
       <c r="B131" s="6"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" ht="12">
       <c r="B132" s="6"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" ht="12">
       <c r="B133" s="6"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" ht="12">
       <c r="B134" s="6"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" ht="12">
       <c r="B135" s="6"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" ht="12">
       <c r="B136" s="6"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" ht="12">
       <c r="B137" s="6"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" ht="12">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" ht="12">
       <c r="B139" s="6"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" ht="12">
       <c r="B140" s="6"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" ht="12">
       <c r="B141" s="6"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2" ht="12">
       <c r="B142" s="6"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2" ht="12">
       <c r="B143" s="6"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" ht="12">
       <c r="B144" s="6"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" ht="12">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" ht="12">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" ht="12">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" ht="12">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" ht="12">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" ht="12">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" ht="12">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" ht="12">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" ht="12">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" ht="12">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" ht="12">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" ht="12">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" ht="12">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" ht="12">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" ht="12">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" ht="12">
       <c r="B160" s="6"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" ht="12">
       <c r="B161" s="6"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" ht="12">
       <c r="B162" s="6"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" ht="12">
       <c r="B163" s="6"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" ht="12">
       <c r="B164" s="6"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" ht="12">
       <c r="B165" s="6"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" ht="12">
       <c r="B166" s="6"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" ht="12">
       <c r="B167" s="6"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" ht="12">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2" ht="12">
       <c r="B169" s="6"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2" ht="12">
       <c r="B170" s="6"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2" ht="12">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2" ht="12">
       <c r="B172" s="6"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2" ht="12">
       <c r="B173" s="6"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2" ht="12">
       <c r="B174" s="6"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2" ht="12">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2" ht="12">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" ht="12">
       <c r="B177" s="6"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2" ht="12">
       <c r="B178" s="6"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2" ht="12">
       <c r="B179" s="6"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2" ht="12">
       <c r="B180" s="6"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2" ht="12">
       <c r="B181" s="6"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2" ht="12">
       <c r="B182" s="6"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2" ht="12">
       <c r="B183" s="6"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2" ht="12">
       <c r="B184" s="6"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2" ht="12">
       <c r="B185" s="6"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2" ht="12">
       <c r="B186" s="6"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2" ht="12">
       <c r="B187" s="6"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2" ht="12">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2" ht="12">
       <c r="B189" s="6"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2" ht="12">
       <c r="B190" s="6"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2" ht="12">
       <c r="B191" s="6"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2" ht="12">
       <c r="B192" s="6"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2" ht="12">
       <c r="B193" s="6"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2" ht="12">
       <c r="B194" s="6"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2" ht="12">
       <c r="B195" s="6"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2" ht="12">
       <c r="B196" s="6"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2" ht="12">
       <c r="B197" s="6"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2" ht="12">
       <c r="B198" s="6"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2" ht="12">
       <c r="B199" s="6"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2" ht="12">
       <c r="B200" s="6"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2" ht="12">
       <c r="B201" s="6"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2" ht="12">
       <c r="B202" s="6"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2" ht="12">
       <c r="B203" s="6"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2" ht="12">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2" ht="12">
       <c r="B205" s="6"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2" ht="12">
       <c r="B206" s="6"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2" ht="12">
       <c r="B207" s="6"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2" ht="12">
       <c r="B208" s="6"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" ht="12">
       <c r="B209" s="6"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2" ht="12">
       <c r="B210" s="6"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2" ht="12">
       <c r="B211" s="6"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2" ht="12">
       <c r="B212" s="6"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2" ht="12">
       <c r="B213" s="6"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2" ht="12">
       <c r="B214" s="6"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2" ht="12">
       <c r="B215" s="6"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2" ht="12">
       <c r="B216" s="6"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2" ht="12">
       <c r="B217" s="6"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2" ht="12">
       <c r="B218" s="6"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2" ht="12">
       <c r="B219" s="6"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2" ht="12">
       <c r="B220" s="6"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2" ht="12">
       <c r="B221" s="6"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2" ht="12">
       <c r="B222" s="6"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2" ht="12">
       <c r="B223" s="6"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2" ht="12">
       <c r="B224" s="6"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2" ht="12">
       <c r="B225" s="6"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2" ht="12">
       <c r="B226" s="6"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2" ht="12">
       <c r="B227" s="6"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2" ht="12">
       <c r="B228" s="6"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2" ht="12">
       <c r="B229" s="6"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2" ht="12">
       <c r="B230" s="6"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2" ht="12">
       <c r="B231" s="6"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2" ht="12">
       <c r="B232" s="6"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2" ht="12">
       <c r="B233" s="6"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2" ht="12">
       <c r="B234" s="6"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2" ht="12">
       <c r="B235" s="6"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2" ht="12">
       <c r="B236" s="6"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2" ht="12">
       <c r="B237" s="6"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2" ht="12">
       <c r="B238" s="6"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2" ht="12">
       <c r="B239" s="6"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2" ht="12">
       <c r="B240" s="6"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2" ht="12">
       <c r="B241" s="6"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2" ht="12">
       <c r="B242" s="6"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2" ht="12">
       <c r="B243" s="6"/>
     </row>
-    <row r="244" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2" ht="12">
       <c r="B244" s="6"/>
     </row>
-    <row r="245" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2" ht="12">
       <c r="B245" s="6"/>
     </row>
-    <row r="246" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2" ht="12">
       <c r="B246" s="6"/>
     </row>
-    <row r="247" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2" ht="12">
       <c r="B247" s="6"/>
     </row>
-    <row r="248" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2" ht="12">
       <c r="B248" s="6"/>
     </row>
-    <row r="249" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2" ht="12">
       <c r="B249" s="6"/>
     </row>
-    <row r="250" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2" ht="12">
       <c r="B250" s="6"/>
     </row>
-    <row r="251" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2" ht="12">
       <c r="B251" s="6"/>
     </row>
-    <row r="252" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2" ht="12">
       <c r="B252" s="6"/>
     </row>
-    <row r="253" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2" ht="12">
       <c r="B253" s="6"/>
     </row>
-    <row r="254" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2" ht="12">
       <c r="B254" s="6"/>
     </row>
-    <row r="255" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2" ht="12">
       <c r="B255" s="6"/>
     </row>
-    <row r="256" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2" ht="12">
       <c r="B256" s="6"/>
     </row>
-    <row r="257" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2" ht="12">
       <c r="B257" s="6"/>
     </row>
-    <row r="258" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2" ht="12">
       <c r="B258" s="6"/>
     </row>
-    <row r="259" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2" ht="12">
       <c r="B259" s="6"/>
     </row>
-    <row r="260" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2" ht="12">
       <c r="B260" s="6"/>
     </row>
-    <row r="261" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2" ht="12">
       <c r="B261" s="6"/>
     </row>
-    <row r="262" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2" ht="12">
       <c r="B262" s="6"/>
     </row>
-    <row r="263" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2" ht="12">
       <c r="B263" s="6"/>
     </row>
-    <row r="264" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2" ht="12">
       <c r="B264" s="6"/>
     </row>
-    <row r="265" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2" ht="12">
       <c r="B265" s="6"/>
     </row>
-    <row r="266" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2" ht="12">
       <c r="B266" s="6"/>
     </row>
-    <row r="267" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2" ht="12">
       <c r="B267" s="6"/>
     </row>
-    <row r="268" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:2" ht="12">
       <c r="B268" s="6"/>
     </row>
-    <row r="269" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:2" ht="12">
       <c r="B269" s="6"/>
     </row>
-    <row r="270" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:2" ht="12">
       <c r="B270" s="6"/>
     </row>
-    <row r="271" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:2" ht="12">
       <c r="B271" s="6"/>
     </row>
-    <row r="272" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:2" ht="12">
       <c r="B272" s="6"/>
     </row>
-    <row r="273" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:2" ht="12">
       <c r="B273" s="6"/>
     </row>
-    <row r="274" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2" ht="12">
       <c r="B274" s="6"/>
     </row>
-    <row r="275" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2" ht="12">
       <c r="B275" s="6"/>
     </row>
-    <row r="276" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2" ht="12">
       <c r="B276" s="6"/>
     </row>
-    <row r="277" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:2" ht="12">
       <c r="B277" s="6"/>
     </row>
-    <row r="278" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:2" ht="12">
       <c r="B278" s="6"/>
     </row>
-    <row r="279" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:2" ht="12">
       <c r="B279" s="6"/>
     </row>
-    <row r="280" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:2" ht="12">
       <c r="B280" s="6"/>
     </row>
-    <row r="281" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:2" ht="12">
       <c r="B281" s="6"/>
     </row>
-    <row r="282" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:2" ht="12">
       <c r="B282" s="6"/>
     </row>
-    <row r="283" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:2" ht="12">
       <c r="B283" s="6"/>
     </row>
-    <row r="284" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:2" ht="12">
       <c r="B284" s="6"/>
     </row>
-    <row r="285" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:2" ht="12">
       <c r="B285" s="6"/>
     </row>
-    <row r="286" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:2" ht="12">
       <c r="B286" s="6"/>
     </row>
-    <row r="287" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:2" ht="12">
       <c r="B287" s="6"/>
     </row>
-    <row r="288" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:2" ht="12">
       <c r="B288" s="6"/>
     </row>
-    <row r="289" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:2" ht="12">
       <c r="B289" s="6"/>
     </row>
-    <row r="290" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:2" ht="12">
       <c r="B290" s="6"/>
     </row>
-    <row r="291" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:2" ht="12">
       <c r="B291" s="6"/>
     </row>
-    <row r="292" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:2" ht="12">
       <c r="B292" s="6"/>
     </row>
-    <row r="293" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:2" ht="12">
       <c r="B293" s="6"/>
     </row>
-    <row r="294" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:2" ht="12">
       <c r="B294" s="6"/>
     </row>
-    <row r="295" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:2" ht="12">
       <c r="B295" s="6"/>
     </row>
-    <row r="296" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:2" ht="12">
       <c r="B296" s="6"/>
     </row>
-    <row r="297" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:2" ht="12">
       <c r="B297" s="6"/>
     </row>
-    <row r="298" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:2" ht="12">
       <c r="B298" s="6"/>
     </row>
-    <row r="299" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:2" ht="12">
       <c r="B299" s="6"/>
     </row>
-    <row r="300" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:2" ht="12">
       <c r="B300" s="6"/>
     </row>
-    <row r="301" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:2" ht="12">
       <c r="B301" s="6"/>
     </row>
-    <row r="302" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:2" ht="12">
       <c r="B302" s="6"/>
     </row>
-    <row r="303" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:2" ht="12">
       <c r="B303" s="6"/>
     </row>
-    <row r="304" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:2" ht="12">
       <c r="B304" s="6"/>
     </row>
-    <row r="305" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:2" ht="12">
       <c r="B305" s="6"/>
     </row>
-    <row r="306" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:2" ht="12">
       <c r="B306" s="6"/>
     </row>
-    <row r="307" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:2" ht="12">
       <c r="B307" s="6"/>
     </row>
-    <row r="308" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:2" ht="12">
       <c r="B308" s="6"/>
     </row>
-    <row r="309" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:2" ht="12">
       <c r="B309" s="6"/>
     </row>
-    <row r="310" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:2" ht="12">
       <c r="B310" s="6"/>
     </row>
-    <row r="311" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:2" ht="12">
       <c r="B311" s="6"/>
     </row>
-    <row r="312" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:2" ht="12">
       <c r="B312" s="6"/>
     </row>
-    <row r="313" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:2" ht="12">
       <c r="B313" s="6"/>
     </row>
-    <row r="314" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:2" ht="12">
       <c r="B314" s="6"/>
     </row>
-    <row r="315" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:2" ht="12">
       <c r="B315" s="6"/>
     </row>
-    <row r="316" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:2" ht="12">
       <c r="B316" s="6"/>
     </row>
-    <row r="317" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:2" ht="12">
       <c r="B317" s="6"/>
     </row>
-    <row r="318" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:2" ht="12">
       <c r="B318" s="6"/>
     </row>
-    <row r="319" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:2" ht="12">
       <c r="B319" s="6"/>
     </row>
-    <row r="320" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:2" ht="12">
       <c r="B320" s="6"/>
     </row>
-    <row r="321" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:2" ht="12">
       <c r="B321" s="6"/>
     </row>
-    <row r="322" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:2" ht="12">
       <c r="B322" s="6"/>
     </row>
-    <row r="323" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:2" ht="12">
       <c r="B323" s="6"/>
     </row>
-    <row r="324" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:2" ht="12">
       <c r="B324" s="6"/>
     </row>
-    <row r="325" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:2" ht="12">
       <c r="B325" s="6"/>
     </row>
-    <row r="326" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:2" ht="12">
       <c r="B326" s="6"/>
     </row>
-    <row r="327" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:2" ht="12">
       <c r="B327" s="6"/>
     </row>
-    <row r="328" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:2" ht="12">
       <c r="B328" s="6"/>
     </row>
-    <row r="329" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:2" ht="12">
       <c r="B329" s="6"/>
     </row>
-    <row r="330" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:2" ht="12">
       <c r="B330" s="6"/>
     </row>
-    <row r="331" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:2" ht="12">
       <c r="B331" s="6"/>
     </row>
-    <row r="332" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:2" ht="12">
       <c r="B332" s="6"/>
     </row>
-    <row r="333" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:2" ht="12">
       <c r="B333" s="6"/>
     </row>
-    <row r="334" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:2" ht="12">
       <c r="B334" s="6"/>
     </row>
-    <row r="335" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:2" ht="12">
       <c r="B335" s="6"/>
     </row>
-    <row r="336" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:2" ht="12">
       <c r="B336" s="6"/>
     </row>
-    <row r="337" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:2" ht="12">
       <c r="B337" s="6"/>
     </row>
-    <row r="338" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:2" ht="12">
       <c r="B338" s="6"/>
     </row>
-    <row r="339" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:2" ht="12">
       <c r="B339" s="6"/>
     </row>
-    <row r="340" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:2" ht="12">
       <c r="B340" s="6"/>
     </row>
-    <row r="341" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:2" ht="12">
       <c r="B341" s="6"/>
     </row>
-    <row r="342" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:2" ht="12">
       <c r="B342" s="6"/>
     </row>
-    <row r="343" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:2" ht="12">
       <c r="B343" s="6"/>
     </row>
-    <row r="344" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:2" ht="12">
       <c r="B344" s="6"/>
     </row>
-    <row r="345" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:2" ht="12">
       <c r="B345" s="6"/>
     </row>
-    <row r="346" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:2" ht="12">
       <c r="B346" s="6"/>
     </row>
-    <row r="347" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:2" ht="12">
       <c r="B347" s="6"/>
     </row>
-    <row r="348" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:2" ht="12">
       <c r="B348" s="6"/>
     </row>
-    <row r="349" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:2" ht="12">
       <c r="B349" s="6"/>
     </row>
-    <row r="350" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:2" ht="12">
       <c r="B350" s="6"/>
     </row>
-    <row r="351" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:2" ht="12">
       <c r="B351" s="6"/>
     </row>
-    <row r="352" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:2" ht="12">
       <c r="B352" s="6"/>
     </row>
-    <row r="353" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:2" ht="12">
       <c r="B353" s="6"/>
     </row>
-    <row r="354" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:2" ht="12">
       <c r="B354" s="6"/>
     </row>
-    <row r="355" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:2" ht="12">
       <c r="B355" s="6"/>
     </row>
-    <row r="356" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:2" ht="12">
       <c r="B356" s="6"/>
     </row>
-    <row r="357" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:2" ht="12">
       <c r="B357" s="6"/>
     </row>
-    <row r="358" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:2" ht="12">
       <c r="B358" s="6"/>
     </row>
-    <row r="359" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:2" ht="12">
       <c r="B359" s="6"/>
     </row>
-    <row r="360" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:2" ht="12">
       <c r="B360" s="6"/>
     </row>
-    <row r="361" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:2" ht="12">
       <c r="B361" s="6"/>
     </row>
-    <row r="362" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:2" ht="12">
       <c r="B362" s="6"/>
     </row>
-    <row r="363" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:2" ht="12">
       <c r="B363" s="6"/>
     </row>
-    <row r="364" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:2" ht="12">
       <c r="B364" s="6"/>
     </row>
-    <row r="365" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:2" ht="12">
       <c r="B365" s="6"/>
     </row>
-    <row r="366" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:2" ht="12">
       <c r="B366" s="6"/>
     </row>
-    <row r="367" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:2" ht="12">
       <c r="B367" s="6"/>
     </row>
-    <row r="368" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:2" ht="12">
       <c r="B368" s="6"/>
     </row>
-    <row r="369" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:2" ht="12">
       <c r="B369" s="6"/>
     </row>
-    <row r="370" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:2" ht="12">
       <c r="B370" s="6"/>
     </row>
-    <row r="371" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:2" ht="12">
       <c r="B371" s="6"/>
     </row>
-    <row r="372" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:2" ht="12">
       <c r="B372" s="6"/>
     </row>
-    <row r="373" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:2" ht="12">
       <c r="B373" s="6"/>
     </row>
-    <row r="374" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:2" ht="12">
       <c r="B374" s="6"/>
     </row>
-    <row r="375" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:2" ht="12">
       <c r="B375" s="6"/>
     </row>
-    <row r="376" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:2" ht="12">
       <c r="B376" s="6"/>
     </row>
-    <row r="377" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:2" ht="12">
       <c r="B377" s="6"/>
     </row>
-    <row r="378" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:2" ht="12">
       <c r="B378" s="6"/>
     </row>
-    <row r="379" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:2" ht="12">
       <c r="B379" s="6"/>
     </row>
-    <row r="380" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:2" ht="12">
       <c r="B380" s="6"/>
     </row>
-    <row r="381" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:2" ht="12">
       <c r="B381" s="6"/>
     </row>
-    <row r="382" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:2" ht="12">
       <c r="B382" s="6"/>
     </row>
-    <row r="383" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:2" ht="12">
       <c r="B383" s="6"/>
     </row>
-    <row r="384" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:2" ht="12">
       <c r="B384" s="6"/>
     </row>
-    <row r="385" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:2" ht="12">
       <c r="B385" s="6"/>
     </row>
-    <row r="386" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:2" ht="12">
       <c r="B386" s="6"/>
     </row>
-    <row r="387" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:2" ht="12">
       <c r="B387" s="6"/>
     </row>
-    <row r="388" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:2" ht="12">
       <c r="B388" s="6"/>
     </row>
-    <row r="389" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:2" ht="12">
       <c r="B389" s="6"/>
     </row>
-    <row r="390" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:2" ht="12">
       <c r="B390" s="6"/>
     </row>
-    <row r="391" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:2" ht="12">
       <c r="B391" s="6"/>
     </row>
-    <row r="392" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:2" ht="12">
       <c r="B392" s="6"/>
     </row>
-    <row r="393" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:2" ht="12">
       <c r="B393" s="6"/>
     </row>
-    <row r="394" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:2" ht="12">
       <c r="B394" s="6"/>
     </row>
-    <row r="395" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:2" ht="12">
       <c r="B395" s="6"/>
     </row>
-    <row r="396" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:2" ht="12">
       <c r="B396" s="6"/>
     </row>
-    <row r="397" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:2" ht="12">
       <c r="B397" s="6"/>
     </row>
-    <row r="398" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:2" ht="12">
       <c r="B398" s="6"/>
     </row>
-    <row r="399" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:2" ht="12">
       <c r="B399" s="6"/>
     </row>
-    <row r="400" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:2" ht="12">
       <c r="B400" s="6"/>
     </row>
-    <row r="401" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:2" ht="12">
       <c r="B401" s="6"/>
     </row>
-    <row r="402" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:2" ht="12">
       <c r="B402" s="6"/>
     </row>
-    <row r="403" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:2" ht="12">
       <c r="B403" s="6"/>
     </row>
-    <row r="404" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:2" ht="12">
       <c r="B404" s="6"/>
     </row>
-    <row r="405" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:2" ht="12">
       <c r="B405" s="6"/>
     </row>
-    <row r="406" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:2" ht="12">
       <c r="B406" s="6"/>
     </row>
-    <row r="407" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:2" ht="12">
       <c r="B407" s="6"/>
     </row>
-    <row r="408" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:2" ht="12">
       <c r="B408" s="6"/>
     </row>
-    <row r="409" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:2" ht="12">
       <c r="B409" s="6"/>
     </row>
-    <row r="410" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:2" ht="12">
       <c r="B410" s="6"/>
     </row>
-    <row r="411" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:2" ht="12">
       <c r="B411" s="6"/>
     </row>
-    <row r="412" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:2" ht="12">
       <c r="B412" s="6"/>
     </row>
-    <row r="413" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:2" ht="12">
       <c r="B413" s="6"/>
     </row>
-    <row r="414" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:2" ht="12">
       <c r="B414" s="6"/>
     </row>
-    <row r="415" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:2" ht="12">
       <c r="B415" s="6"/>
     </row>
-    <row r="416" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:2" ht="12">
       <c r="B416" s="6"/>
     </row>
-    <row r="417" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:2" ht="12">
       <c r="B417" s="6"/>
     </row>
-    <row r="418" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:2" ht="12">
       <c r="B418" s="6"/>
     </row>
-    <row r="419" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:2" ht="12">
       <c r="B419" s="6"/>
     </row>
-    <row r="420" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:2" ht="12">
       <c r="B420" s="6"/>
     </row>
-    <row r="421" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:2" ht="12">
       <c r="B421" s="6"/>
     </row>
-    <row r="422" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:2" ht="12">
       <c r="B422" s="6"/>
     </row>
-    <row r="423" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:2" ht="12">
       <c r="B423" s="6"/>
     </row>
-    <row r="424" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:2" ht="12">
       <c r="B424" s="6"/>
     </row>
-    <row r="425" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:2" ht="12">
       <c r="B425" s="6"/>
     </row>
-    <row r="426" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:2" ht="12">
       <c r="B426" s="6"/>
     </row>
-    <row r="427" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:2" ht="12">
       <c r="B427" s="6"/>
     </row>
-    <row r="428" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:2" ht="12">
       <c r="B428" s="6"/>
     </row>
-    <row r="429" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:2" ht="12">
       <c r="B429" s="6"/>
     </row>
-    <row r="430" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:2" ht="12">
       <c r="B430" s="6"/>
     </row>
-    <row r="431" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:2" ht="12">
       <c r="B431" s="6"/>
     </row>
-    <row r="432" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:2" ht="12">
       <c r="B432" s="6"/>
     </row>
-    <row r="433" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:2" ht="12">
       <c r="B433" s="6"/>
     </row>
-    <row r="434" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:2" ht="12">
       <c r="B434" s="6"/>
     </row>
-    <row r="435" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:2" ht="12">
       <c r="B435" s="6"/>
     </row>
-    <row r="436" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:2" ht="12">
       <c r="B436" s="6"/>
     </row>
-    <row r="437" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:2" ht="12">
       <c r="B437" s="6"/>
     </row>
-    <row r="438" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:2" ht="12">
       <c r="B438" s="6"/>
     </row>
-    <row r="439" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:2" ht="12">
       <c r="B439" s="6"/>
     </row>
-    <row r="440" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:2" ht="12">
       <c r="B440" s="6"/>
     </row>
-    <row r="441" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:2" ht="12">
       <c r="B441" s="6"/>
     </row>
-    <row r="442" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:2" ht="12">
       <c r="B442" s="6"/>
     </row>
-    <row r="443" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:2" ht="12">
       <c r="B443" s="6"/>
     </row>
-    <row r="444" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:2" ht="12">
       <c r="B444" s="6"/>
     </row>
-    <row r="445" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:2" ht="12">
       <c r="B445" s="6"/>
     </row>
-    <row r="446" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:2" ht="12">
       <c r="B446" s="6"/>
     </row>
-    <row r="447" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:2" ht="12">
       <c r="B447" s="6"/>
     </row>
-    <row r="448" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:2" ht="12">
       <c r="B448" s="6"/>
     </row>
-    <row r="449" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:2" ht="12">
       <c r="B449" s="6"/>
     </row>
-    <row r="450" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:2" ht="12">
       <c r="B450" s="6"/>
     </row>
-    <row r="451" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:2" ht="12">
       <c r="B451" s="6"/>
     </row>
-    <row r="452" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:2" ht="12">
       <c r="B452" s="6"/>
     </row>
-    <row r="453" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:2" ht="12">
       <c r="B453" s="6"/>
     </row>
-    <row r="454" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:2" ht="12">
       <c r="B454" s="6"/>
     </row>
-    <row r="455" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:2" ht="12">
       <c r="B455" s="6"/>
     </row>
-    <row r="456" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:2" ht="12">
       <c r="B456" s="6"/>
     </row>
-    <row r="457" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:2" ht="12">
       <c r="B457" s="6"/>
     </row>
-    <row r="458" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:2" ht="12">
       <c r="B458" s="6"/>
     </row>
-    <row r="459" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:2" ht="12">
       <c r="B459" s="6"/>
     </row>
-    <row r="460" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:2" ht="12">
       <c r="B460" s="6"/>
     </row>
-    <row r="461" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:2" ht="12">
       <c r="B461" s="6"/>
     </row>
-    <row r="462" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:2" ht="12">
       <c r="B462" s="6"/>
     </row>
-    <row r="463" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:2" ht="12">
       <c r="B463" s="6"/>
     </row>
-    <row r="464" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:2" ht="12">
       <c r="B464" s="6"/>
     </row>
-    <row r="465" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:2" ht="12">
       <c r="B465" s="6"/>
     </row>
-    <row r="466" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:2" ht="12">
       <c r="B466" s="6"/>
     </row>
-    <row r="467" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:2" ht="12">
       <c r="B467" s="6"/>
     </row>
-    <row r="468" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:2" ht="12">
       <c r="B468" s="6"/>
     </row>
-    <row r="469" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:2" ht="12">
       <c r="B469" s="6"/>
     </row>
-    <row r="470" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:2" ht="12">
       <c r="B470" s="6"/>
     </row>
-    <row r="471" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:2" ht="12">
       <c r="B471" s="6"/>
     </row>
-    <row r="472" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:2" ht="12">
       <c r="B472" s="6"/>
     </row>
-    <row r="473" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:2" ht="12">
       <c r="B473" s="6"/>
     </row>
-    <row r="474" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:2" ht="12">
       <c r="B474" s="6"/>
     </row>
-    <row r="475" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:2" ht="12">
       <c r="B475" s="6"/>
     </row>
-    <row r="476" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:2" ht="12">
       <c r="B476" s="6"/>
     </row>
-    <row r="477" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:2" ht="12">
       <c r="B477" s="6"/>
     </row>
-    <row r="478" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:2" ht="12">
       <c r="B478" s="6"/>
     </row>
-    <row r="479" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:2" ht="12">
       <c r="B479" s="6"/>
     </row>
-    <row r="480" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:2" ht="12">
       <c r="B480" s="6"/>
     </row>
-    <row r="481" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:2" ht="12">
       <c r="B481" s="6"/>
     </row>
-    <row r="482" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:2" ht="12">
       <c r="B482" s="6"/>
     </row>
-    <row r="483" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:2" ht="12">
       <c r="B483" s="6"/>
     </row>
-    <row r="484" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:2" ht="12">
       <c r="B484" s="6"/>
     </row>
-    <row r="485" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:2" ht="12">
       <c r="B485" s="6"/>
     </row>
-    <row r="486" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:2" ht="12">
       <c r="B486" s="6"/>
     </row>
-    <row r="487" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:2" ht="12">
       <c r="B487" s="6"/>
     </row>
-    <row r="488" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:2" ht="12">
       <c r="B488" s="6"/>
     </row>
-    <row r="489" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:2" ht="12">
       <c r="B489" s="6"/>
     </row>
-    <row r="490" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:2" ht="12">
       <c r="B490" s="6"/>
     </row>
-    <row r="491" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:2" ht="12">
       <c r="B491" s="6"/>
     </row>
-    <row r="492" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:2" ht="12">
       <c r="B492" s="6"/>
     </row>
-    <row r="493" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:2" ht="12">
       <c r="B493" s="6"/>
     </row>
-    <row r="494" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:2" ht="12">
       <c r="B494" s="6"/>
     </row>
-    <row r="495" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:2" ht="12">
       <c r="B495" s="6"/>
     </row>
-    <row r="496" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:2" ht="12">
       <c r="B496" s="6"/>
     </row>
-    <row r="497" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:2" ht="12">
       <c r="B497" s="6"/>
     </row>
-    <row r="498" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:2" ht="12">
       <c r="B498" s="6"/>
     </row>
-    <row r="499" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:2" ht="12">
       <c r="B499" s="6"/>
     </row>
-    <row r="500" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:2" ht="12">
       <c r="B500" s="6"/>
     </row>
-    <row r="501" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:2" ht="12">
       <c r="B501" s="6"/>
     </row>
-    <row r="502" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:2" ht="12">
       <c r="B502" s="6"/>
     </row>
-    <row r="503" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:2" ht="12">
       <c r="B503" s="6"/>
     </row>
-    <row r="504" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:2" ht="12">
       <c r="B504" s="6"/>
     </row>
-    <row r="505" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:2" ht="12">
       <c r="B505" s="6"/>
     </row>
-    <row r="506" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:2" ht="12">
       <c r="B506" s="6"/>
     </row>
-    <row r="507" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:2" ht="12">
       <c r="B507" s="6"/>
     </row>
-    <row r="508" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:2" ht="12">
       <c r="B508" s="6"/>
     </row>
-    <row r="509" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:2" ht="12">
       <c r="B509" s="6"/>
     </row>
-    <row r="510" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:2" ht="12">
       <c r="B510" s="6"/>
     </row>
-    <row r="511" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:2" ht="12">
       <c r="B511" s="6"/>
     </row>
-    <row r="512" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:2" ht="12">
       <c r="B512" s="6"/>
     </row>
-    <row r="513" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:2" ht="12">
       <c r="B513" s="6"/>
     </row>
-    <row r="514" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:2" ht="12">
       <c r="B514" s="6"/>
     </row>
-    <row r="515" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:2" ht="12">
       <c r="B515" s="6"/>
     </row>
-    <row r="516" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:2" ht="12">
       <c r="B516" s="6"/>
     </row>
-    <row r="517" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:2" ht="12">
       <c r="B517" s="6"/>
     </row>
-    <row r="518" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:2" ht="12">
       <c r="B518" s="6"/>
     </row>
-    <row r="519" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:2" ht="12">
       <c r="B519" s="6"/>
     </row>
-    <row r="520" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:2" ht="12">
       <c r="B520" s="6"/>
     </row>
-    <row r="521" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:2" ht="12">
       <c r="B521" s="6"/>
     </row>
-    <row r="522" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:2" ht="12">
       <c r="B522" s="6"/>
     </row>
-    <row r="523" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:2" ht="12">
       <c r="B523" s="6"/>
     </row>
-    <row r="524" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:2" ht="12">
       <c r="B524" s="6"/>
     </row>
-    <row r="525" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:2" ht="12">
       <c r="B525" s="6"/>
     </row>
-    <row r="526" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:2" ht="12">
       <c r="B526" s="6"/>
     </row>
-    <row r="527" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:2" ht="12">
       <c r="B527" s="6"/>
     </row>
-    <row r="528" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:2" ht="12">
       <c r="B528" s="6"/>
     </row>
-    <row r="529" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:2" ht="12">
       <c r="B529" s="6"/>
     </row>
-    <row r="530" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:2" ht="12">
       <c r="B530" s="6"/>
     </row>
-    <row r="531" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:2" ht="12">
       <c r="B531" s="6"/>
     </row>
-    <row r="532" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:2" ht="12">
       <c r="B532" s="6"/>
     </row>
-    <row r="533" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:2" ht="12">
       <c r="B533" s="6"/>
     </row>
-    <row r="534" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:2" ht="12">
       <c r="B534" s="6"/>
     </row>
-    <row r="535" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:2" ht="12">
       <c r="B535" s="6"/>
     </row>
-    <row r="536" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:2" ht="12">
       <c r="B536" s="6"/>
     </row>
-    <row r="537" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:2" ht="12">
       <c r="B537" s="6"/>
     </row>
-    <row r="538" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:2" ht="12">
       <c r="B538" s="6"/>
     </row>
-    <row r="539" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:2" ht="12">
       <c r="B539" s="6"/>
     </row>
-    <row r="540" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:2" ht="12">
       <c r="B540" s="6"/>
     </row>
-    <row r="541" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:2" ht="12">
       <c r="B541" s="6"/>
     </row>
-    <row r="542" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:2" ht="12">
       <c r="B542" s="6"/>
     </row>
-    <row r="543" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:2" ht="12">
       <c r="B543" s="6"/>
     </row>
-    <row r="544" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:2" ht="12">
       <c r="B544" s="6"/>
     </row>
-    <row r="545" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:2" ht="12">
       <c r="B545" s="6"/>
     </row>
-    <row r="546" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:2" ht="12">
       <c r="B546" s="6"/>
     </row>
-    <row r="547" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:2" ht="12">
       <c r="B547" s="6"/>
     </row>
-    <row r="548" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:2" ht="12">
       <c r="B548" s="6"/>
     </row>
-    <row r="549" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:2" ht="12">
       <c r="B549" s="6"/>
     </row>
-    <row r="550" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:2" ht="12">
       <c r="B550" s="6"/>
     </row>
-    <row r="551" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:2" ht="12">
       <c r="B551" s="6"/>
     </row>
-    <row r="552" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:2" ht="12">
       <c r="B552" s="6"/>
     </row>
-    <row r="553" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:2" ht="12">
       <c r="B553" s="6"/>
     </row>
-    <row r="554" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:2" ht="12">
       <c r="B554" s="6"/>
     </row>
-    <row r="555" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:2" ht="12">
       <c r="B555" s="6"/>
     </row>
-    <row r="556" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:2" ht="12">
       <c r="B556" s="6"/>
     </row>
-    <row r="557" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:2" ht="12">
       <c r="B557" s="6"/>
     </row>
-    <row r="558" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:2" ht="12">
       <c r="B558" s="6"/>
     </row>
-    <row r="559" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:2" ht="12">
       <c r="B559" s="6"/>
     </row>
-    <row r="560" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:2" ht="12">
       <c r="B560" s="6"/>
     </row>
-    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:2" ht="12">
       <c r="B561" s="6"/>
     </row>
-    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:2" ht="12">
       <c r="B562" s="6"/>
     </row>
-    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:2" ht="12">
       <c r="B563" s="6"/>
     </row>
-    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:2" ht="12">
       <c r="B564" s="6"/>
     </row>
-    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:2" ht="12">
       <c r="B565" s="6"/>
     </row>
-    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:2" ht="12">
       <c r="B566" s="6"/>
     </row>
-    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:2" ht="12">
       <c r="B567" s="6"/>
     </row>
-    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:2" ht="12">
       <c r="B568" s="6"/>
     </row>
-    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:2" ht="12">
       <c r="B569" s="6"/>
     </row>
-    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:2" ht="12">
       <c r="B570" s="6"/>
     </row>
-    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:2" ht="12">
       <c r="B571" s="6"/>
     </row>
-    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:2" ht="12">
       <c r="B572" s="6"/>
     </row>
-    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:2" ht="12">
       <c r="B573" s="6"/>
     </row>
-    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:2" ht="12">
       <c r="B574" s="6"/>
     </row>
-    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:2" ht="12">
       <c r="B575" s="6"/>
     </row>
-    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:2" ht="12">
       <c r="B576" s="6"/>
     </row>
-    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:2" ht="12">
       <c r="B577" s="6"/>
     </row>
-    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:2" ht="12">
       <c r="B578" s="6"/>
     </row>
-    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:2" ht="12">
       <c r="B579" s="6"/>
     </row>
-    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:2" ht="12">
       <c r="B580" s="6"/>
     </row>
-    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:2" ht="12">
       <c r="B581" s="6"/>
     </row>
-    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:2" ht="12">
       <c r="B582" s="6"/>
     </row>
-    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:2" ht="12">
       <c r="B583" s="6"/>
     </row>
-    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:2" ht="12">
       <c r="B584" s="6"/>
     </row>
-    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:2" ht="12">
       <c r="B585" s="6"/>
     </row>
-    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:2" ht="12">
       <c r="B586" s="6"/>
     </row>
-    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:2" ht="12">
       <c r="B587" s="6"/>
     </row>
-    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:2" ht="12">
       <c r="B588" s="6"/>
     </row>
-    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:2" ht="12">
       <c r="B589" s="6"/>
     </row>
-    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:2" ht="12">
       <c r="B590" s="6"/>
     </row>
-    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:2" ht="12">
       <c r="B591" s="6"/>
     </row>
-    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:2" ht="12">
       <c r="B592" s="6"/>
     </row>
-    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:2" ht="12">
       <c r="B593" s="6"/>
     </row>
-    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:2" ht="12">
       <c r="B594" s="6"/>
     </row>
-    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:2" ht="12">
       <c r="B595" s="6"/>
     </row>
-    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:2" ht="12">
       <c r="B596" s="6"/>
     </row>
-    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:2" ht="12">
       <c r="B597" s="6"/>
     </row>
-    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:2" ht="12">
       <c r="B598" s="6"/>
     </row>
-    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:2" ht="12">
       <c r="B599" s="6"/>
     </row>
-    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:2" ht="12">
       <c r="B600" s="6"/>
     </row>
-    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:2" ht="12">
       <c r="B601" s="6"/>
     </row>
-    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:2" ht="12">
       <c r="B602" s="6"/>
     </row>
-    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:2" ht="12">
       <c r="B603" s="6"/>
     </row>
-    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:2" ht="12">
       <c r="B604" s="6"/>
     </row>
-    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:2" ht="12">
       <c r="B605" s="6"/>
     </row>
-    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:2" ht="12">
       <c r="B606" s="6"/>
     </row>
-    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:2" ht="12">
       <c r="B607" s="6"/>
     </row>
-    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:2" ht="12">
       <c r="B608" s="6"/>
     </row>
-    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:2" ht="12">
       <c r="B609" s="6"/>
     </row>
-    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:2" ht="12">
       <c r="B610" s="6"/>
     </row>
-    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:2" ht="12">
       <c r="B611" s="6"/>
     </row>
-    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:2" ht="12">
       <c r="B612" s="6"/>
     </row>
-    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:2" ht="12">
       <c r="B613" s="6"/>
     </row>
-    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:2" ht="12">
       <c r="B614" s="6"/>
     </row>
-    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:2" ht="12">
       <c r="B615" s="6"/>
     </row>
-    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:2" ht="12">
       <c r="B616" s="6"/>
     </row>
-    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:2" ht="12">
       <c r="B617" s="6"/>
     </row>
-    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:2" ht="12">
       <c r="B618" s="6"/>
     </row>
-    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:2" ht="12">
       <c r="B619" s="6"/>
     </row>
-    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:2" ht="12">
       <c r="B620" s="6"/>
     </row>
-    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:2" ht="12">
       <c r="B621" s="6"/>
     </row>
-    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:2" ht="12">
       <c r="B622" s="6"/>
     </row>
-    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:2" ht="12">
       <c r="B623" s="6"/>
     </row>
-    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:2" ht="12">
       <c r="B624" s="6"/>
     </row>
-    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:2" ht="12">
       <c r="B625" s="6"/>
     </row>
-    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:2" ht="12">
       <c r="B626" s="6"/>
     </row>
-    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:2" ht="12">
       <c r="B627" s="6"/>
     </row>
-    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:2" ht="12">
       <c r="B628" s="6"/>
     </row>
-    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:2" ht="12">
       <c r="B629" s="6"/>
     </row>
-    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:2" ht="12">
       <c r="B630" s="6"/>
     </row>
-    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:2" ht="12">
       <c r="B631" s="6"/>
     </row>
-    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:2" ht="12">
       <c r="B632" s="6"/>
     </row>
-    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:2" ht="12">
       <c r="B633" s="6"/>
     </row>
-    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:2" ht="12">
       <c r="B634" s="6"/>
     </row>
-    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:2" ht="12">
       <c r="B635" s="6"/>
     </row>
-    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:2" ht="12">
       <c r="B636" s="6"/>
     </row>
-    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:2" ht="12">
       <c r="B637" s="6"/>
     </row>
-    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:2" ht="12">
       <c r="B638" s="6"/>
     </row>
-    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:2" ht="12">
       <c r="B639" s="6"/>
     </row>
-    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:2" ht="12">
       <c r="B640" s="6"/>
     </row>
-    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:2" ht="12">
       <c r="B641" s="6"/>
     </row>
-    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:2" ht="12">
       <c r="B642" s="6"/>
     </row>
-    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:2" ht="12">
       <c r="B643" s="6"/>
     </row>
-    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:2" ht="12">
       <c r="B644" s="6"/>
     </row>
-    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:2" ht="12">
       <c r="B645" s="6"/>
     </row>
-    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:2" ht="12">
       <c r="B646" s="6"/>
     </row>
-    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:2" ht="12">
       <c r="B647" s="6"/>
     </row>
-    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:2" ht="12">
       <c r="B648" s="6"/>
     </row>
-    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:2" ht="12">
       <c r="B649" s="6"/>
     </row>
-    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:2" ht="12">
       <c r="B650" s="6"/>
     </row>
-    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:2" ht="12">
       <c r="B651" s="6"/>
     </row>
-    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:2" ht="12">
       <c r="B652" s="6"/>
     </row>
-    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:2" ht="12">
       <c r="B653" s="6"/>
     </row>
-    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:2" ht="12">
       <c r="B654" s="6"/>
     </row>
-    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:2" ht="12">
       <c r="B655" s="6"/>
     </row>
-    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:2" ht="12">
       <c r="B656" s="6"/>
     </row>
-    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:2" ht="12">
       <c r="B657" s="6"/>
     </row>
-    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:2" ht="12">
       <c r="B658" s="6"/>
     </row>
-    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:2" ht="12">
       <c r="B659" s="6"/>
     </row>
-    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:2" ht="12">
       <c r="B660" s="6"/>
     </row>
-    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:2" ht="12">
       <c r="B661" s="6"/>
     </row>
-    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:2" ht="12">
       <c r="B662" s="6"/>
     </row>
-    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:2" ht="12">
       <c r="B663" s="6"/>
     </row>
-    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:2" ht="12">
       <c r="B664" s="6"/>
     </row>
-    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:2" ht="12">
       <c r="B665" s="6"/>
     </row>
-    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:2" ht="12">
       <c r="B666" s="6"/>
     </row>
-    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:2" ht="12">
       <c r="B667" s="6"/>
     </row>
-    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:2" ht="12">
       <c r="B668" s="6"/>
     </row>
-    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:2" ht="12">
       <c r="B669" s="6"/>
     </row>
-    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:2" ht="12">
       <c r="B670" s="6"/>
     </row>
-    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:2" ht="12">
       <c r="B671" s="6"/>
     </row>
-    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:2" ht="12">
       <c r="B672" s="6"/>
     </row>
-    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:2" ht="12">
       <c r="B673" s="6"/>
     </row>
-    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:2" ht="12">
       <c r="B674" s="6"/>
     </row>
-    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:2" ht="12">
       <c r="B675" s="6"/>
     </row>
-    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:2" ht="12">
       <c r="B676" s="6"/>
     </row>
-    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:2" ht="12">
       <c r="B677" s="6"/>
     </row>
-    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:2" ht="12">
       <c r="B678" s="6"/>
     </row>
-    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:2" ht="12">
       <c r="B679" s="6"/>
     </row>
-    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:2" ht="12">
       <c r="B680" s="6"/>
     </row>
-    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:2" ht="12">
       <c r="B681" s="6"/>
     </row>
-    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:2" ht="12">
       <c r="B682" s="6"/>
     </row>
-    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:2" ht="12">
       <c r="B683" s="6"/>
     </row>
-    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:2" ht="12">
       <c r="B684" s="6"/>
     </row>
-    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:2" ht="12">
       <c r="B685" s="6"/>
     </row>
-    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:2" ht="12">
       <c r="B686" s="6"/>
     </row>
-    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:2" ht="12">
       <c r="B687" s="6"/>
     </row>
-    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:2" ht="12">
       <c r="B688" s="6"/>
     </row>
-    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:2" ht="12">
       <c r="B689" s="6"/>
     </row>
-    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:2" ht="12">
       <c r="B690" s="6"/>
     </row>
-    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:2" ht="12">
       <c r="B691" s="6"/>
     </row>
-    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:2" ht="12">
       <c r="B692" s="6"/>
     </row>
-    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:2" ht="12">
       <c r="B693" s="6"/>
     </row>
-    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:2" ht="12">
       <c r="B694" s="6"/>
     </row>
-    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:2" ht="12">
       <c r="B695" s="6"/>
     </row>
-    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:2" ht="12">
       <c r="B696" s="6"/>
     </row>
-    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:2" ht="12">
       <c r="B697" s="6"/>
     </row>
-    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:2" ht="12">
       <c r="B698" s="6"/>
     </row>
-    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:2" ht="12">
       <c r="B699" s="6"/>
     </row>
-    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:2" ht="12">
       <c r="B700" s="6"/>
     </row>
-    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:2" ht="12">
       <c r="B701" s="6"/>
     </row>
-    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:2" ht="12">
       <c r="B702" s="6"/>
     </row>
-    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:2" ht="12">
       <c r="B703" s="6"/>
     </row>
-    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:2" ht="12">
       <c r="B704" s="6"/>
     </row>
-    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:2" ht="12">
       <c r="B705" s="6"/>
     </row>
-    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:2" ht="12">
       <c r="B706" s="6"/>
     </row>
-    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:2" ht="12">
       <c r="B707" s="6"/>
     </row>
-    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:2" ht="12">
       <c r="B708" s="6"/>
     </row>
-    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:2" ht="12">
       <c r="B709" s="6"/>
     </row>
-    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:2" ht="12">
       <c r="B710" s="6"/>
     </row>
-    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:2" ht="12">
       <c r="B711" s="6"/>
     </row>
-    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:2" ht="12">
       <c r="B712" s="6"/>
     </row>
-    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:2" ht="12">
       <c r="B713" s="6"/>
     </row>
-    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:2" ht="12">
       <c r="B714" s="6"/>
     </row>
-    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:2" ht="12">
       <c r="B715" s="6"/>
     </row>
-    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:2" ht="12">
       <c r="B716" s="6"/>
     </row>
-    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:2" ht="12">
       <c r="B717" s="6"/>
     </row>
-    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:2" ht="12">
       <c r="B718" s="6"/>
     </row>
-    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:2" ht="12">
       <c r="B719" s="6"/>
     </row>
-    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:2" ht="12">
       <c r="B720" s="6"/>
     </row>
-    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:2" ht="12">
       <c r="B721" s="6"/>
     </row>
-    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:2" ht="12">
       <c r="B722" s="6"/>
     </row>
-    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:2" ht="12">
       <c r="B723" s="6"/>
     </row>
-    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:2" ht="12">
       <c r="B724" s="6"/>
     </row>
-    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:2" ht="12">
       <c r="B725" s="6"/>
     </row>
-    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:2" ht="12">
       <c r="B726" s="6"/>
     </row>
-    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:2" ht="12">
       <c r="B727" s="6"/>
     </row>
-    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:2" ht="12">
       <c r="B728" s="6"/>
     </row>
-    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:2" ht="12">
       <c r="B729" s="6"/>
     </row>
-    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:2" ht="12">
       <c r="B730" s="6"/>
     </row>
-    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:2" ht="12">
       <c r="B731" s="6"/>
     </row>
-    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:2" ht="12">
       <c r="B732" s="6"/>
     </row>
-    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:2" ht="12">
       <c r="B733" s="6"/>
     </row>
-    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:2" ht="12">
       <c r="B734" s="6"/>
     </row>
-    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:2" ht="12">
       <c r="B735" s="6"/>
     </row>
-    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:2" ht="12">
       <c r="B736" s="6"/>
     </row>
-    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:2" ht="12">
       <c r="B737" s="6"/>
     </row>
-    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:2" ht="12">
       <c r="B738" s="6"/>
     </row>
-    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:2" ht="12">
       <c r="B739" s="6"/>
     </row>
-    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:2" ht="12">
       <c r="B740" s="6"/>
     </row>
-    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:2" ht="12">
       <c r="B741" s="6"/>
     </row>
-    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:2" ht="12">
       <c r="B742" s="6"/>
     </row>
-    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:2" ht="12">
       <c r="B743" s="6"/>
     </row>
-    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:2" ht="12">
       <c r="B744" s="6"/>
     </row>
-    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:2" ht="12">
       <c r="B745" s="6"/>
     </row>
-    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:2" ht="12">
       <c r="B746" s="6"/>
     </row>
-    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:2" ht="12">
       <c r="B747" s="6"/>
     </row>
-    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:2" ht="12">
       <c r="B748" s="6"/>
     </row>
-    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:2" ht="12">
       <c r="B749" s="6"/>
     </row>
-    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:2" ht="12">
       <c r="B750" s="6"/>
     </row>
-    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:2" ht="12">
       <c r="B751" s="6"/>
     </row>
-    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:2" ht="12">
       <c r="B752" s="6"/>
     </row>
-    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:2" ht="12">
       <c r="B753" s="6"/>
     </row>
-    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:2" ht="12">
       <c r="B754" s="6"/>
     </row>
-    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:2" ht="12">
       <c r="B755" s="6"/>
     </row>
-    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:2" ht="12">
       <c r="B756" s="6"/>
     </row>
-    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:2" ht="12">
       <c r="B757" s="6"/>
     </row>
-    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:2" ht="12">
       <c r="B758" s="6"/>
     </row>
-    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:2" ht="12">
       <c r="B759" s="6"/>
     </row>
-    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:2" ht="12">
       <c r="B760" s="6"/>
     </row>
-    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:2" ht="12">
       <c r="B761" s="6"/>
     </row>
-    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:2" ht="12">
       <c r="B762" s="6"/>
     </row>
-    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:2" ht="12">
       <c r="B763" s="6"/>
     </row>
-    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:2" ht="12">
       <c r="B764" s="6"/>
     </row>
-    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:2" ht="12">
       <c r="B765" s="6"/>
     </row>
-    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:2" ht="12">
       <c r="B766" s="6"/>
     </row>
-    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:2" ht="12">
       <c r="B767" s="6"/>
     </row>
-    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:2" ht="12">
       <c r="B768" s="6"/>
     </row>
-    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:2" ht="12">
       <c r="B769" s="6"/>
     </row>
-    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:2" ht="12">
       <c r="B770" s="6"/>
     </row>
-    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:2" ht="12">
       <c r="B771" s="6"/>
     </row>
-    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:2" ht="12">
       <c r="B772" s="6"/>
     </row>
-    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:2" ht="12">
       <c r="B773" s="6"/>
     </row>
-    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:2" ht="12">
       <c r="B774" s="6"/>
     </row>
-    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:2" ht="12">
       <c r="B775" s="6"/>
     </row>
-    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:2" ht="12">
       <c r="B776" s="6"/>
     </row>
-    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:2" ht="12">
       <c r="B777" s="6"/>
     </row>
-    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:2" ht="12">
       <c r="B778" s="6"/>
     </row>
-    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:2" ht="12">
       <c r="B779" s="6"/>
     </row>
-    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:2" ht="12">
       <c r="B780" s="6"/>
     </row>
-    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:2" ht="12">
       <c r="B781" s="6"/>
     </row>
-    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:2" ht="12">
       <c r="B782" s="6"/>
     </row>
-    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:2" ht="12">
       <c r="B783" s="6"/>
     </row>
-    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:2" ht="12">
       <c r="B784" s="6"/>
     </row>
-    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:2" ht="12">
       <c r="B785" s="6"/>
     </row>
-    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:2" ht="12">
       <c r="B786" s="6"/>
     </row>
-    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:2" ht="12">
       <c r="B787" s="6"/>
     </row>
-    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:2" ht="12">
       <c r="B788" s="6"/>
     </row>
-    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:2" ht="12">
       <c r="B789" s="6"/>
     </row>
-    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:2" ht="12">
       <c r="B790" s="6"/>
     </row>
-    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:2" ht="12">
       <c r="B791" s="6"/>
     </row>
-    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:2" ht="12">
       <c r="B792" s="6"/>
     </row>
-    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:2" ht="12">
       <c r="B793" s="6"/>
     </row>
-    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:2" ht="12">
       <c r="B794" s="6"/>
     </row>
-    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:2" ht="12">
       <c r="B795" s="6"/>
     </row>
-    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:2" ht="12">
       <c r="B796" s="6"/>
     </row>
-    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:2" ht="12">
       <c r="B797" s="6"/>
     </row>
-    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:2" ht="12">
       <c r="B798" s="6"/>
     </row>
-    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:2" ht="12">
       <c r="B799" s="6"/>
     </row>
-    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:2" ht="12">
       <c r="B800" s="6"/>
     </row>
-    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:2" ht="12">
       <c r="B801" s="6"/>
     </row>
-    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:2" ht="12">
       <c r="B802" s="6"/>
     </row>
-    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:2" ht="12">
       <c r="B803" s="6"/>
     </row>
-    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:2" ht="12">
       <c r="B804" s="6"/>
     </row>
-    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:2" ht="12">
       <c r="B805" s="6"/>
     </row>
-    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:2" ht="12">
       <c r="B806" s="6"/>
     </row>
-    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:2" ht="12">
       <c r="B807" s="6"/>
     </row>
-    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:2" ht="12">
       <c r="B808" s="6"/>
     </row>
-    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:2" ht="12">
       <c r="B809" s="6"/>
     </row>
-    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:2" ht="12">
       <c r="B810" s="6"/>
     </row>
-    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:2" ht="12">
       <c r="B811" s="6"/>
     </row>
-    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:2" ht="12">
       <c r="B812" s="6"/>
     </row>
-    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:2" ht="12">
       <c r="B813" s="6"/>
     </row>
-    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:2" ht="12">
       <c r="B814" s="6"/>
     </row>
-    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:2" ht="12">
       <c r="B815" s="6"/>
     </row>
-    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:2" ht="12">
       <c r="B816" s="6"/>
     </row>
-    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:2" ht="12">
       <c r="B817" s="6"/>
     </row>
-    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:2" ht="12">
       <c r="B818" s="6"/>
     </row>
-    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:2" ht="12">
       <c r="B819" s="6"/>
     </row>
-    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:2" ht="12">
       <c r="B820" s="6"/>
     </row>
-    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:2" ht="12">
       <c r="B821" s="6"/>
     </row>
-    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:2" ht="12">
       <c r="B822" s="6"/>
     </row>
-    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:2" ht="12">
       <c r="B823" s="6"/>
     </row>
-    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:2" ht="12">
       <c r="B824" s="6"/>
     </row>
-    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:2" ht="12">
       <c r="B825" s="6"/>
     </row>
-    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:2" ht="12">
       <c r="B826" s="6"/>
     </row>
-    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:2" ht="12">
       <c r="B827" s="6"/>
     </row>
-    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:2" ht="12">
       <c r="B828" s="6"/>
     </row>
-    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:2" ht="12">
       <c r="B829" s="6"/>
     </row>
-    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:2" ht="12">
       <c r="B830" s="6"/>
     </row>
-    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:2" ht="12">
       <c r="B831" s="6"/>
     </row>
-    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:2" ht="12">
       <c r="B832" s="6"/>
     </row>
-    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:2" ht="12">
       <c r="B833" s="6"/>
     </row>
-    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:2" ht="12">
       <c r="B834" s="6"/>
     </row>
-    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:2" ht="12">
       <c r="B835" s="6"/>
     </row>
-    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:2" ht="12">
       <c r="B836" s="6"/>
     </row>
-    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:2" ht="12">
       <c r="B837" s="6"/>
     </row>
-    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:2" ht="12">
       <c r="B838" s="6"/>
     </row>
-    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:2" ht="12">
       <c r="B839" s="6"/>
     </row>
-    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:2" ht="12">
       <c r="B840" s="6"/>
     </row>
-    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:2" ht="12">
       <c r="B841" s="6"/>
     </row>
-    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:2" ht="12">
       <c r="B842" s="6"/>
     </row>
-    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:2" ht="12">
       <c r="B843" s="6"/>
     </row>
-    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:2" ht="12">
       <c r="B844" s="6"/>
     </row>
-    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:2" ht="12">
       <c r="B845" s="6"/>
     </row>
-    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:2" ht="12">
       <c r="B846" s="6"/>
     </row>
-    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:2" ht="12">
       <c r="B847" s="6"/>
     </row>
-    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:2" ht="12">
       <c r="B848" s="6"/>
     </row>
-    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:2" ht="12">
       <c r="B849" s="6"/>
     </row>
-    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:2" ht="12">
       <c r="B850" s="6"/>
     </row>
-    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:2" ht="12">
       <c r="B851" s="6"/>
     </row>
-    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:2" ht="12">
       <c r="B852" s="6"/>
     </row>
-    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:2" ht="12">
       <c r="B853" s="6"/>
     </row>
-    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:2" ht="12">
       <c r="B854" s="6"/>
     </row>
-    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:2" ht="12">
       <c r="B855" s="6"/>
     </row>
-    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:2" ht="12">
       <c r="B856" s="6"/>
     </row>
-    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:2" ht="12">
       <c r="B857" s="6"/>
     </row>
-    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:2" ht="12">
       <c r="B858" s="6"/>
     </row>
-    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:2" ht="12">
       <c r="B859" s="6"/>
     </row>
-    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:2" ht="12">
       <c r="B860" s="6"/>
     </row>
-    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:2" ht="12">
       <c r="B861" s="6"/>
     </row>
-    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:2" ht="12">
       <c r="B862" s="6"/>
     </row>
-    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:2" ht="12">
       <c r="B863" s="6"/>
     </row>
-    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:2" ht="12">
       <c r="B864" s="6"/>
     </row>
-    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:2" ht="12">
       <c r="B865" s="6"/>
     </row>
-    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:2" ht="12">
       <c r="B866" s="6"/>
     </row>
-    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:2" ht="12">
       <c r="B867" s="6"/>
     </row>
-    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:2" ht="12">
       <c r="B868" s="6"/>
     </row>
-    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:2" ht="12">
       <c r="B869" s="6"/>
     </row>
-    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:2" ht="12">
       <c r="B870" s="6"/>
     </row>
-    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:2" ht="12">
       <c r="B871" s="6"/>
     </row>
-    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:2" ht="12">
       <c r="B872" s="6"/>
     </row>
-    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:2" ht="12">
       <c r="B873" s="6"/>
     </row>
-    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:2" ht="12">
       <c r="B874" s="6"/>
     </row>
-    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:2" ht="12">
       <c r="B875" s="6"/>
     </row>
-    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:2" ht="12">
       <c r="B876" s="6"/>
     </row>
-    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:2" ht="12">
       <c r="B877" s="6"/>
     </row>
-    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:2" ht="12">
       <c r="B878" s="6"/>
     </row>
-    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:2" ht="12">
       <c r="B879" s="6"/>
     </row>
-    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:2" ht="12">
       <c r="B880" s="6"/>
     </row>
-    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:2" ht="12">
       <c r="B881" s="6"/>
     </row>
-    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:2" ht="12">
       <c r="B882" s="6"/>
     </row>
-    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:2" ht="12">
       <c r="B883" s="6"/>
     </row>
-    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:2" ht="12">
       <c r="B884" s="6"/>
     </row>
-    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:2" ht="12">
       <c r="B885" s="6"/>
     </row>
-    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:2" ht="12">
       <c r="B886" s="6"/>
     </row>
-    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:2" ht="12">
       <c r="B887" s="6"/>
     </row>
-    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:2" ht="12">
       <c r="B888" s="6"/>
     </row>
-    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:2" ht="12">
       <c r="B889" s="6"/>
     </row>
-    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:2" ht="12">
       <c r="B890" s="6"/>
     </row>
-    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:2" ht="12">
       <c r="B891" s="6"/>
     </row>
-    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:2" ht="12">
       <c r="B892" s="6"/>
     </row>
-    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:2" ht="12">
       <c r="B893" s="6"/>
     </row>
-    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:2" ht="12">
       <c r="B894" s="6"/>
     </row>
-    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:2" ht="12">
       <c r="B895" s="6"/>
     </row>
-    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:2" ht="12">
       <c r="B896" s="6"/>
     </row>
-    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:2" ht="12">
       <c r="B897" s="6"/>
     </row>
-    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:2" ht="12">
       <c r="B898" s="6"/>
     </row>
-    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:2" ht="12">
       <c r="B899" s="6"/>
     </row>
-    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:2" ht="12">
       <c r="B900" s="6"/>
     </row>
-    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:2" ht="12">
       <c r="B901" s="6"/>
     </row>
-    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:2" ht="12">
       <c r="B902" s="6"/>
     </row>
-    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:2" ht="12">
       <c r="B903" s="6"/>
     </row>
-    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:2" ht="12">
       <c r="B904" s="6"/>
     </row>
-    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:2" ht="12">
       <c r="B905" s="6"/>
     </row>
-    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:2" ht="12">
       <c r="B906" s="6"/>
     </row>
-    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:2" ht="12">
       <c r="B907" s="6"/>
     </row>
-    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:2" ht="12">
       <c r="B908" s="6"/>
     </row>
-    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:2" ht="12">
       <c r="B909" s="6"/>
     </row>
-    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:2" ht="12">
       <c r="B910" s="6"/>
     </row>
-    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:2" ht="12">
       <c r="B911" s="6"/>
     </row>
-    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:2" ht="12">
       <c r="B912" s="6"/>
     </row>
-    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:2" ht="12">
       <c r="B913" s="6"/>
     </row>
-    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:2" ht="12">
       <c r="B914" s="6"/>
     </row>
-    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:2" ht="12">
       <c r="B915" s="6"/>
     </row>
-    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:2" ht="12">
       <c r="B916" s="6"/>
     </row>
-    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:2" ht="12">
       <c r="B917" s="6"/>
     </row>
-    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:2" ht="12">
       <c r="B918" s="6"/>
     </row>
-    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:2" ht="12">
       <c r="B919" s="6"/>
     </row>
-    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:2" ht="12">
       <c r="B920" s="6"/>
     </row>
-    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:2" ht="12">
       <c r="B921" s="6"/>
     </row>
-    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:2" ht="12">
       <c r="B922" s="6"/>
     </row>
-    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:2" ht="12">
       <c r="B923" s="6"/>
     </row>
-    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:2" ht="12">
       <c r="B924" s="6"/>
     </row>
-    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:2" ht="12">
       <c r="B925" s="6"/>
     </row>
-    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:2" ht="12">
       <c r="B926" s="6"/>
     </row>
-    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:2" ht="12">
       <c r="B927" s="6"/>
     </row>
-    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:2" ht="12">
       <c r="B928" s="6"/>
     </row>
-    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:2" ht="12">
       <c r="B929" s="6"/>
     </row>
-    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:2" ht="12">
       <c r="B930" s="6"/>
     </row>
-    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:2" ht="12">
       <c r="B931" s="6"/>
     </row>
-    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:2" ht="12">
       <c r="B932" s="6"/>
     </row>
-    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:2" ht="12">
       <c r="B933" s="6"/>
     </row>
-    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:2" ht="12">
       <c r="B934" s="6"/>
     </row>
-    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:2" ht="12">
       <c r="B935" s="6"/>
     </row>
-    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:2" ht="12">
       <c r="B936" s="6"/>
     </row>
-    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="2:2" ht="12">
       <c r="B937" s="6"/>
     </row>
-    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:2" ht="12">
       <c r="B938" s="6"/>
     </row>
-    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="2:2" ht="12">
       <c r="B939" s="6"/>
     </row>
-    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="2:2" ht="12">
       <c r="B940" s="6"/>
     </row>
-    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="2:2" ht="12">
       <c r="B941" s="6"/>
     </row>
-    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="2:2" ht="12">
       <c r="B942" s="6"/>
     </row>
-    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="2:2" ht="12">
       <c r="B943" s="6"/>
     </row>
-    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="2:2" ht="12">
       <c r="B944" s="6"/>
     </row>
-    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="2:2" ht="12">
       <c r="B945" s="6"/>
     </row>
-    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="2:2" ht="12">
       <c r="B946" s="6"/>
     </row>
-    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="2:2" ht="12">
       <c r="B947" s="6"/>
     </row>
-    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="2:2" ht="12">
       <c r="B948" s="6"/>
     </row>
-    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="2:2" ht="12">
       <c r="B949" s="6"/>
     </row>
-    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="2:2" ht="12">
       <c r="B950" s="6"/>
     </row>
-    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="2:2" ht="12">
       <c r="B951" s="6"/>
     </row>
-    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="2:2" ht="12">
       <c r="B952" s="6"/>
     </row>
-    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="2:2" ht="12">
       <c r="B953" s="6"/>
     </row>
-    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="2:2" ht="12">
       <c r="B954" s="6"/>
     </row>
-    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="2:2" ht="12">
       <c r="B955" s="6"/>
     </row>
-    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="2:2" ht="12">
       <c r="B956" s="6"/>
     </row>
-    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="2:2" ht="12">
       <c r="B957" s="6"/>
     </row>
-    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="2:2" ht="12">
       <c r="B958" s="6"/>
     </row>
-    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="2:2" ht="12">
       <c r="B959" s="6"/>
     </row>
-    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="2:2" ht="12">
       <c r="B960" s="6"/>
     </row>
-    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="2:2" ht="12">
       <c r="B961" s="6"/>
     </row>
-    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="2:2" ht="12">
       <c r="B962" s="6"/>
     </row>
-    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="2:2" ht="12">
       <c r="B963" s="6"/>
     </row>
-    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="2:2" ht="12">
       <c r="B964" s="6"/>
     </row>
-    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="2:2" ht="12">
       <c r="B965" s="6"/>
     </row>
-    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="2:2" ht="12">
       <c r="B966" s="6"/>
     </row>
-    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="2:2" ht="12">
       <c r="B967" s="6"/>
     </row>
-    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="2:2" ht="12">
       <c r="B968" s="6"/>
     </row>
-    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="2:2" ht="12">
       <c r="B969" s="6"/>
     </row>
-    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="2:2" ht="12">
       <c r="B970" s="6"/>
     </row>
-    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="2:2" ht="12">
       <c r="B971" s="6"/>
     </row>
-    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="2:2" ht="12">
       <c r="B972" s="6"/>
-    </row>
-    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B973" s="6"/>
-    </row>
-    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B974" s="6"/>
-    </row>
-    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B975" s="6"/>
-    </row>
-    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B976" s="6"/>
-    </row>
-    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B977" s="6"/>
-    </row>
-    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B978" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4458,15 +4296,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -4504,7 +4342,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
@@ -4536,7 +4374,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -4568,7 +4406,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -4602,7 +4440,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
@@ -4636,7 +4474,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -4670,7 +4508,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
@@ -4690,7 +4528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -4730,7 +4568,7 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
     </row>
-    <row r="9" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
@@ -4744,16 +4582,16 @@
         <v>11</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" s="22">
         <v>41936</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="27" t="s">
         <v>66</v>
       </c>
@@ -4765,7 +4603,7 @@
         <v>61</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>64</v>
@@ -4789,7 +4627,7 @@
       <c r="W10" s="25"/>
       <c r="X10" s="25"/>
     </row>
-    <row r="11" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>73</v>
       </c>
@@ -4809,7 +4647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -4821,7 +4659,7 @@
         <v>61</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>17</v>
@@ -4845,15 +4683,15 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" s="31" customFormat="1" ht="12">
       <c r="A13" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>50</v>
@@ -4877,7 +4715,7 @@
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>18</v>
       </c>
@@ -4889,13 +4727,13 @@
         <v>60</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -4915,6 +4753,164 @@
       <c r="W14" s="25"/>
       <c r="X14" s="25"/>
     </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+    </row>
+    <row r="16" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="D16" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+    </row>
+    <row r="20" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="34">
+        <v>41943</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="2600" windowWidth="36120" windowHeight="16060"/>
+    <workbookView xWindow="600" yWindow="700" windowWidth="36120" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="127">
   <si>
     <t>Project</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Elisa</t>
   </si>
   <si>
-    <t>ESMO GEP NETS Webcast</t>
-  </si>
-  <si>
     <t>Saskia</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>ESMO VJC EBC</t>
   </si>
   <si>
-    <t>ESMO VPS eblast</t>
-  </si>
-  <si>
     <t>launched. Eblast edits with web 10/31</t>
   </si>
   <si>
@@ -268,24 +262,12 @@
     <t>approved 11/03. eblast in production</t>
   </si>
   <si>
-    <t>awaiting approval 11/04</t>
-  </si>
-  <si>
     <t>rush U eblast</t>
   </si>
   <si>
-    <t>ER DTC eblast</t>
-  </si>
-  <si>
     <t>Jae/Rinath</t>
   </si>
   <si>
-    <t>routed 11/04</t>
-  </si>
-  <si>
-    <t>Asked for update 11/07</t>
-  </si>
-  <si>
     <t>live on site. Eblast approved.</t>
   </si>
   <si>
@@ -298,18 +280,12 @@
     <t>Chemo found PDS</t>
   </si>
   <si>
-    <t>slides, CME</t>
-  </si>
-  <si>
     <t>route 11/11</t>
   </si>
   <si>
     <t>approved</t>
   </si>
   <si>
-    <t>SABCS Live</t>
-  </si>
-  <si>
     <t>IGCS PDS</t>
   </si>
   <si>
@@ -319,15 +295,6 @@
     <t>Eblast sent</t>
   </si>
   <si>
-    <t>live on site. Eblast in production</t>
-  </si>
-  <si>
-    <t>live on site. eblast in review 11/13</t>
-  </si>
-  <si>
-    <t>Awaiting slides</t>
-  </si>
-  <si>
     <t>live on site.</t>
   </si>
   <si>
@@ -340,50 +307,107 @@
     <t>live 11/18. eblast in production</t>
   </si>
   <si>
-    <t>awaiting approval 11/19</t>
-  </si>
-  <si>
     <t>Eblast sent 11/17</t>
   </si>
   <si>
-    <t>ACD and videos with web 11/18. Expected to route 11/20, pending slides</t>
-  </si>
-  <si>
-    <t>ACD with Web. Expected to route 11/25, pending slides</t>
-  </si>
-  <si>
     <t>GBM Newsletter</t>
   </si>
   <si>
-    <t>In production 11/20</t>
-  </si>
-  <si>
-    <t>in production, will route 11/21</t>
-  </si>
-  <si>
-    <t>Tim to route 11/19. segmentation provided to web?</t>
-  </si>
-  <si>
     <t>ESMO combined eblast</t>
   </si>
   <si>
     <t>awaiting approval11/18</t>
   </si>
   <si>
-    <t>live 11/18. eblast in review 11/19</t>
-  </si>
-  <si>
     <t>Emory GI PDS</t>
   </si>
   <si>
-    <t>In review 11/19</t>
+    <t>slides, video with BD</t>
+  </si>
+  <si>
+    <t>live.</t>
+  </si>
+  <si>
+    <t>ESMO Breast Eblast</t>
+  </si>
+  <si>
+    <t>ESMO Ovarian eblast</t>
+  </si>
+  <si>
+    <t>ESMO CINV eblast</t>
+  </si>
+  <si>
+    <t>ESMO GEP NETS eblast</t>
+  </si>
+  <si>
+    <t>completed.</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Routed 11/20. awaiting slides</t>
+  </si>
+  <si>
+    <t>Jefferson Grand Rounds Live</t>
+  </si>
+  <si>
+    <t>to be routed 11/24-25</t>
+  </si>
+  <si>
+    <t>ESH MM PDS</t>
+  </si>
+  <si>
+    <t>live 11/21</t>
+  </si>
+  <si>
+    <t>Chemo Foundation PDS Eblast</t>
+  </si>
+  <si>
+    <t>in review 11/21</t>
+  </si>
+  <si>
+    <t>CTOS Eblast</t>
+  </si>
+  <si>
+    <t>live 11/18. launch 11/24</t>
+  </si>
+  <si>
+    <t>Pages routed 11/20. Awaiting slides. Tim editing video</t>
+  </si>
+  <si>
+    <t>live 11/21. eblast in review</t>
+  </si>
+  <si>
+    <t>Edits with web 11/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in review </t>
+  </si>
+  <si>
+    <t>in review 11/17</t>
+  </si>
+  <si>
+    <t>in review 11/20</t>
+  </si>
+  <si>
+    <t>Tim to route 11/26</t>
+  </si>
+  <si>
+    <t>Tim to route 11/24</t>
+  </si>
+  <si>
+    <t>Ben to route 11/26</t>
+  </si>
+  <si>
+    <t>edit with web 11/21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -452,11 +476,6 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -488,7 +507,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -550,8 +569,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -589,14 +626,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -627,6 +661,15 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -657,6 +700,15 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -956,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X972"/>
+  <dimension ref="A1:X962"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1012,455 +1064,309 @@
     </row>
     <row r="2" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-    </row>
-    <row r="4" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="G3" s="26">
+        <v>41963</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="1:24" ht="13">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="33">
+        <v>41961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-    </row>
-    <row r="6" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="29">
-        <v>41948</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="7" t="s">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A8" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="26">
-        <v>41963</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-    </row>
-    <row r="8" spans="1:24" ht="13">
-      <c r="A8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E9" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="18" customFormat="1" ht="13">
+      <c r="A10" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>61</v>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="13">
+      <c r="A11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="33">
-        <v>41961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="33">
-        <v>41961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:24" ht="13">
       <c r="A12" s="19" t="s">
-        <v>110</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="E12" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="13">
+      <c r="A13" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="E13" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="31" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-    </row>
-    <row r="16" spans="1:24" s="31" customFormat="1" ht="12">
-      <c r="A16" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-    </row>
-    <row r="17" spans="1:24" s="31" customFormat="1" ht="12">
-      <c r="A17" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-    </row>
-    <row r="18" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="12">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+    </row>
+    <row r="15" spans="1:24" ht="13">
+      <c r="A15" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="E15" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="12">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:24" ht="12">
+    <row r="20" spans="2:2" ht="12">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:24" ht="12">
+    <row r="21" spans="2:2" ht="12">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:24" ht="12">
+    <row r="22" spans="2:2" ht="12">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:24" ht="12">
+    <row r="23" spans="2:2" ht="12">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:24" ht="12">
+    <row r="24" spans="2:2" ht="12">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:24" ht="12">
+    <row r="25" spans="2:2" ht="12">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:24" ht="12">
+    <row r="26" spans="2:2" ht="12">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:24" ht="12">
+    <row r="27" spans="2:2" ht="12">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:24" ht="12">
+    <row r="28" spans="2:2" ht="12">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:24" ht="12">
+    <row r="29" spans="2:2" ht="12">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:24" ht="12">
+    <row r="30" spans="2:2" ht="12">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:24" ht="12">
+    <row r="31" spans="2:2" ht="12">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:24" ht="12">
+    <row r="32" spans="2:2" ht="12">
       <c r="B32" s="6"/>
     </row>
     <row r="33" spans="2:2" ht="12">
@@ -4252,36 +4158,6 @@
     </row>
     <row r="962" spans="2:2" ht="12">
       <c r="B962" s="6"/>
-    </row>
-    <row r="963" spans="2:2" ht="12">
-      <c r="B963" s="6"/>
-    </row>
-    <row r="964" spans="2:2" ht="12">
-      <c r="B964" s="6"/>
-    </row>
-    <row r="965" spans="2:2" ht="12">
-      <c r="B965" s="6"/>
-    </row>
-    <row r="966" spans="2:2" ht="12">
-      <c r="B966" s="6"/>
-    </row>
-    <row r="967" spans="2:2" ht="12">
-      <c r="B967" s="6"/>
-    </row>
-    <row r="968" spans="2:2" ht="12">
-      <c r="B968" s="6"/>
-    </row>
-    <row r="969" spans="2:2" ht="12">
-      <c r="B969" s="6"/>
-    </row>
-    <row r="970" spans="2:2" ht="12">
-      <c r="B970" s="6"/>
-    </row>
-    <row r="971" spans="2:2" ht="12">
-      <c r="B971" s="6"/>
-    </row>
-    <row r="972" spans="2:2" ht="12">
-      <c r="B972" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4296,23 +4172,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -4320,10 +4199,10 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
@@ -4344,11 +4223,11 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -4376,11 +4255,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -4408,13 +4287,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -4442,13 +4321,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -4476,13 +4355,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -4510,34 +4389,34 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="15">
@@ -4546,10 +4425,10 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -4582,10 +4461,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G9" s="22">
         <v>41936</v>
@@ -4593,20 +4472,20 @@
     </row>
     <row r="10" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -4629,7 +4508,7 @@
     </row>
     <row r="11" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>12</v>
@@ -4641,7 +4520,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>13</v>
@@ -4649,17 +4528,17 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>17</v>
@@ -4685,16 +4564,16 @@
     </row>
     <row r="13" spans="1:26" s="31" customFormat="1" ht="12">
       <c r="A13" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
@@ -4724,16 +4603,16 @@
         <v>19</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -4754,53 +4633,53 @@
       <c r="X14" s="25"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="38" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
+      <c r="G15" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
     </row>
     <row r="16" spans="1:26" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="25"/>
       <c r="D16" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>13</v>
@@ -4808,13 +4687,13 @@
     </row>
     <row r="17" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>17</v>
@@ -4822,34 +4701,34 @@
     </row>
     <row r="18" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>25</v>
-      </c>
       <c r="D18" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>13</v>
@@ -4875,17 +4754,17 @@
     </row>
     <row r="20" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>13</v>
@@ -4911,6 +4790,171 @@
       <c r="W20" s="23"/>
       <c r="X20" s="23"/>
     </row>
+    <row r="21" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A22" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="33">
+        <v>41961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="29">
+        <v>41948</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+    </row>
+    <row r="24" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+    </row>
+    <row r="25" spans="1:24" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+    </row>
+    <row r="26" spans="1:24" ht="13">
+      <c r="A26" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="E26" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="13">
+      <c r="A27" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="E27" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Web Project Status.xlsx
+++ b/Web Project Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="700" windowWidth="36120" windowHeight="16060"/>
+    <workbookView xWindow="-37120" yWindow="240" windowWidth="36120" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
   <si>
     <t>Project</t>
   </si>
@@ -352,9 +352,6 @@
     <t>Jefferson Grand Rounds Live</t>
   </si>
   <si>
-    <t>to be routed 11/24-25</t>
-  </si>
-  <si>
     <t>ESH MM PDS</t>
   </si>
   <si>
@@ -379,9 +376,6 @@
     <t>live 11/21. eblast in review</t>
   </si>
   <si>
-    <t>Edits with web 11/19</t>
-  </si>
-  <si>
     <t xml:space="preserve">in review </t>
   </si>
   <si>
@@ -401,6 +395,9 @@
   </si>
   <si>
     <t>edit with web 11/21</t>
+  </si>
+  <si>
+    <t>awaiting approval 11/21</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1008,7 @@
   <dimension ref="A1:X962"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1074,7 +1071,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>13</v>
@@ -1133,7 +1130,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>17</v>
@@ -1168,7 +1165,7 @@
         <v>60</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>49</v>
@@ -1182,7 +1179,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G6" s="33">
         <v>41961</v>
@@ -1196,7 +1193,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>13</v>
@@ -1224,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>107</v>
@@ -1232,7 +1229,7 @@
     </row>
     <row r="10" spans="1:24" s="18" customFormat="1" ht="13">
       <c r="A10" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="18" t="s">
@@ -1242,7 +1239,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="13">
@@ -1254,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1262,11 +1259,11 @@
     </row>
     <row r="12" spans="1:24" ht="13">
       <c r="A12" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="6"/>
       <c r="E12" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1274,11 +1271,11 @@
     </row>
     <row r="13" spans="1:24" ht="13">
       <c r="A13" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="6"/>
       <c r="E13" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1294,7 +1291,7 @@
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>13</v>
@@ -1324,7 +1321,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="E15" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="12">
@@ -4818,7 +4815,7 @@
         <v>60</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>17</v>
@@ -4877,7 +4874,7 @@
         <v>92</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>17</v>
@@ -4913,7 +4910,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>17</v>
